--- a/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
+++ b/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
@@ -1213,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>31.3793627477846</v>
+        <v>31.3793739976324</v>
       </c>
     </row>
     <row r="3">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>30.6590707134378</v>
+        <v>30.6590622491174</v>
       </c>
     </row>
     <row r="4">
@@ -1247,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>23.9804356814054</v>
+        <v>23.9804244273641</v>
       </c>
     </row>
     <row r="5">
@@ -1264,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>30.192356892624</v>
+        <v>30.1923512198067</v>
       </c>
     </row>
     <row r="6">
@@ -1281,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>34.4038315196257</v>
+        <v>34.4038103559782</v>
       </c>
     </row>
     <row r="7">
@@ -1298,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>25.6766506852885</v>
+        <v>25.6766436266407</v>
       </c>
     </row>
     <row r="8">
@@ -1315,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>30.6050486235066</v>
+        <v>30.6050357477832</v>
       </c>
     </row>
     <row r="9">
@@ -1332,7 +1332,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>24.4208046501618</v>
+        <v>24.4208104625321</v>
       </c>
     </row>
     <row r="10">
@@ -1349,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>31.9417455004602</v>
+        <v>31.9417476356537</v>
       </c>
     </row>
     <row r="11">
@@ -1366,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>33.533799992907</v>
+        <v>33.5337891400656</v>
       </c>
     </row>
     <row r="12">
@@ -1383,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>41.2109368633193</v>
+        <v>41.2109440039309</v>
       </c>
     </row>
     <row r="13">
@@ -1400,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>32.5624747706856</v>
+        <v>32.5624679923956</v>
       </c>
     </row>
     <row r="14">
@@ -1417,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>44.519643800193</v>
+        <v>44.519631518778</v>
       </c>
     </row>
     <row r="15">
@@ -1434,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>45.5117099904605</v>
+        <v>45.5117260752882</v>
       </c>
     </row>
     <row r="16">
@@ -1451,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>48.2795128703706</v>
+        <v>48.2794797261962</v>
       </c>
     </row>
     <row r="17">
@@ -1468,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>50.3713889918453</v>
+        <v>50.3714076414175</v>
       </c>
     </row>
     <row r="18">
@@ -1485,7 +1485,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>48.377255243371</v>
+        <v>48.3772610676706</v>
       </c>
     </row>
     <row r="19">
@@ -1502,7 +1502,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>42.4345709572808</v>
+        <v>42.4345620959145</v>
       </c>
     </row>
     <row r="20">
@@ -1519,7 +1519,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>51.5810611849339</v>
+        <v>51.5810705199496</v>
       </c>
     </row>
     <row r="21">
@@ -1536,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>35.9697808180874</v>
+        <v>35.9697909860943</v>
       </c>
     </row>
     <row r="22">
@@ -1553,7 +1553,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>39.9175829756117</v>
+        <v>39.9175918285481</v>
       </c>
     </row>
     <row r="23">
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>34.3390201523398</v>
+        <v>34.3390286907074</v>
       </c>
     </row>
     <row r="24">
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>46.860826295443</v>
+        <v>46.8608603578369</v>
       </c>
     </row>
     <row r="25">
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>47.8416822689531</v>
+        <v>47.8416745743146</v>
       </c>
     </row>
     <row r="26">
@@ -1621,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>24.4402826824454</v>
+        <v>24.4402701396343</v>
       </c>
     </row>
     <row r="27">
@@ -1638,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>17.3448175847685</v>
+        <v>17.3447955729498</v>
       </c>
     </row>
     <row r="28">
@@ -1655,7 +1655,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>25.4096582730266</v>
+        <v>25.4096811744798</v>
       </c>
     </row>
     <row r="29">
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>25.9044463162243</v>
+        <v>25.9044447720919</v>
       </c>
     </row>
     <row r="30">
@@ -1689,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>44.8973389547433</v>
+        <v>44.8973450585342</v>
       </c>
     </row>
     <row r="31">
@@ -1706,7 +1706,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>47.1163986679156</v>
+        <v>47.1164007374228</v>
       </c>
     </row>
     <row r="32">
@@ -1723,7 +1723,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>42.7537351223057</v>
+        <v>42.7537390254132</v>
       </c>
     </row>
     <row r="33">
@@ -1740,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>48.4363486934086</v>
+        <v>48.4363515742528</v>
       </c>
     </row>
     <row r="34">
@@ -1757,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>50.765001952497</v>
+        <v>50.7649958406698</v>
       </c>
     </row>
     <row r="35">
@@ -1774,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>35.7575324354135</v>
+        <v>35.7575277792393</v>
       </c>
     </row>
     <row r="36">
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>39.1922780950351</v>
+        <v>39.1922607964956</v>
       </c>
     </row>
     <row r="37">
@@ -1808,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>41.7200899692159</v>
+        <v>41.7200894217999</v>
       </c>
     </row>
     <row r="38">
@@ -1825,7 +1825,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>40.5092963832395</v>
+        <v>40.5092768401444</v>
       </c>
     </row>
     <row r="39">
@@ -1842,7 +1842,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>44.2885009852547</v>
+        <v>44.2885143979449</v>
       </c>
     </row>
     <row r="40">
@@ -1859,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>36.8781834565591</v>
+        <v>36.8781798178048</v>
       </c>
     </row>
     <row r="41">
@@ -1876,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>34.8419600936983</v>
+        <v>34.8419608036374</v>
       </c>
     </row>
     <row r="42">
@@ -1893,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>39.3607153616861</v>
+        <v>39.3550561337518</v>
       </c>
     </row>
     <row r="43">
@@ -1910,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>40.7987301550893</v>
+        <v>40.7926387108949</v>
       </c>
     </row>
     <row r="44">
@@ -1927,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>49.6427223977025</v>
+        <v>49.6427205759137</v>
       </c>
     </row>
     <row r="45">
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>54.3768729765153</v>
+        <v>54.3768719282408</v>
       </c>
     </row>
     <row r="46">
@@ -1961,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>44.5848960878857</v>
+        <v>44.5848963083756</v>
       </c>
     </row>
     <row r="47">
@@ -1978,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>54.5120060120931</v>
+        <v>54.5120076366559</v>
       </c>
     </row>
     <row r="48">
@@ -1995,7 +1995,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>57.0825957605319</v>
+        <v>57.082585056921</v>
       </c>
     </row>
     <row r="49">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>37.2349024045591</v>
+        <v>37.2349162277474</v>
       </c>
     </row>
     <row r="50">
@@ -2029,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>51.5475443276322</v>
+        <v>51.5475350497105</v>
       </c>
     </row>
     <row r="51">
@@ -2046,7 +2046,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>49.0037515827541</v>
+        <v>49.0037471877987</v>
       </c>
     </row>
     <row r="52">
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>54.3278399485579</v>
+        <v>54.3278399918758</v>
       </c>
     </row>
     <row r="53">
@@ -2080,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>56.6990111110953</v>
+        <v>56.698998343725</v>
       </c>
     </row>
     <row r="54">
@@ -2097,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>40.3266907470191</v>
+        <v>40.3266938584083</v>
       </c>
     </row>
     <row r="55">
@@ -2114,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>46.4034456210255</v>
+        <v>46.4034198923169</v>
       </c>
     </row>
     <row r="56">
@@ -2131,7 +2131,7 @@
         <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>41.3511336087088</v>
+        <v>41.3511394738798</v>
       </c>
     </row>
     <row r="57">
@@ -2148,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>51.4711010155533</v>
+        <v>51.471104969453</v>
       </c>
     </row>
     <row r="58">
@@ -2165,7 +2165,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>50.6642899912851</v>
+        <v>50.6642862644124</v>
       </c>
     </row>
     <row r="59">
@@ -2182,7 +2182,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>47.5290139132305</v>
+        <v>47.5290053139789</v>
       </c>
     </row>
     <row r="60">
@@ -2199,7 +2199,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>47.5121551673355</v>
+        <v>47.512164815567</v>
       </c>
     </row>
     <row r="61">
@@ -2216,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>40.3552461423116</v>
+        <v>40.3552407211205</v>
       </c>
     </row>
     <row r="62">
@@ -2233,7 +2233,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>44.9088356785533</v>
+        <v>44.9088189377118</v>
       </c>
     </row>
     <row r="63">
@@ -2250,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>55.155431784233</v>
+        <v>55.1554294292567</v>
       </c>
     </row>
     <row r="64">
@@ -2267,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>38.2675028888477</v>
+        <v>38.267471011957</v>
       </c>
     </row>
     <row r="65">
@@ -2284,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>41.6354793998991</v>
+        <v>41.6354909621521</v>
       </c>
     </row>
     <row r="66">
@@ -2301,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>42.2044793736565</v>
+        <v>42.2044926777813</v>
       </c>
     </row>
     <row r="67">
@@ -2318,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>45.8754607721024</v>
+        <v>45.8754836203738</v>
       </c>
     </row>
     <row r="68">
@@ -2335,7 +2335,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>46.6740269321122</v>
+        <v>46.674053330842</v>
       </c>
     </row>
     <row r="69">
@@ -2352,7 +2352,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>42.2791653715875</v>
+        <v>42.2791824410856</v>
       </c>
     </row>
     <row r="70">
@@ -2369,7 +2369,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>55.043402112303</v>
+        <v>55.043408948397</v>
       </c>
     </row>
     <row r="71">
@@ -2386,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="E71" t="n">
-        <v>45.1509839184142</v>
+        <v>45.1509771968087</v>
       </c>
     </row>
     <row r="72">
@@ -2403,7 +2403,7 @@
         <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>47.3398522533624</v>
+        <v>47.3398395990648</v>
       </c>
     </row>
     <row r="73">
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="n">
-        <v>48.5139008416311</v>
+        <v>48.5138831525831</v>
       </c>
     </row>
     <row r="74">
@@ -2437,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>46.4310292365164</v>
+        <v>46.4310343917857</v>
       </c>
     </row>
     <row r="75">
@@ -2454,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>47.4414241084396</v>
+        <v>47.4414267612192</v>
       </c>
     </row>
     <row r="76">
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>46.4636496098622</v>
+        <v>46.4636438850683</v>
       </c>
     </row>
     <row r="77">
@@ -2488,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>54.4112074662416</v>
+        <v>54.4112149409371</v>
       </c>
     </row>
     <row r="78">
@@ -2505,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>59.9726658362268</v>
+        <v>59.9726654340784</v>
       </c>
     </row>
     <row r="79">
@@ -2522,7 +2522,7 @@
         <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>52.5891848463323</v>
+        <v>52.5892335229769</v>
       </c>
     </row>
     <row r="80">
@@ -2539,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>58.5764285092193</v>
+        <v>58.5763982904463</v>
       </c>
     </row>
     <row r="81">
@@ -2556,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>59.9493054933967</v>
+        <v>59.9493156790591</v>
       </c>
     </row>
     <row r="82">
@@ -2573,7 +2573,7 @@
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>57.3645396182131</v>
+        <v>57.3645812281117</v>
       </c>
     </row>
     <row r="83">
@@ -2590,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>29.1629321022407</v>
+        <v>29.1629430842261</v>
       </c>
     </row>
     <row r="84">
@@ -2607,7 +2607,7 @@
         <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>33.5466014139451</v>
+        <v>33.5466074423867</v>
       </c>
     </row>
     <row r="85">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>40.6195916273634</v>
+        <v>40.6195804924459</v>
       </c>
     </row>
     <row r="86">
@@ -2641,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>52.5614766192664</v>
+        <v>52.5614961624529</v>
       </c>
     </row>
     <row r="87">
@@ -2658,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>52.5929594148074</v>
+        <v>52.59298635544</v>
       </c>
     </row>
     <row r="88">
@@ -2675,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>46.3953561950008</v>
+        <v>46.3953563784941</v>
       </c>
     </row>
     <row r="89">
@@ -2692,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>45.7041893424417</v>
+        <v>45.7041726709346</v>
       </c>
     </row>
     <row r="90">
@@ -2709,7 +2709,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>40.8345530744343</v>
+        <v>40.834561814972</v>
       </c>
     </row>
     <row r="91">
@@ -2726,7 +2726,7 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>43.7250063380839</v>
+        <v>43.7249918927452</v>
       </c>
     </row>
     <row r="92">
@@ -2743,7 +2743,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>47.9848485466741</v>
+        <v>47.9848541906101</v>
       </c>
     </row>
     <row r="93">
@@ -2760,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>26.7234502444643</v>
+        <v>26.7234500881829</v>
       </c>
     </row>
     <row r="94">
@@ -2777,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>30.927326619182</v>
+        <v>30.9273016240883</v>
       </c>
     </row>
     <row r="95">
@@ -2794,7 +2794,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>27.6034548342403</v>
+        <v>27.6034382772661</v>
       </c>
     </row>
     <row r="96">
@@ -2811,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>29.7055621209118</v>
+        <v>29.7055751422466</v>
       </c>
     </row>
     <row r="97">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>34.6500103403064</v>
+        <v>34.6500216299893</v>
       </c>
     </row>
     <row r="98">
@@ -2845,7 +2845,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>31.345864259551</v>
+        <v>31.3458684211203</v>
       </c>
     </row>
     <row r="99">
@@ -2862,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>40.7071560652893</v>
+        <v>40.7071480011882</v>
       </c>
     </row>
     <row r="100">
@@ -2879,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>40.9001732037387</v>
+        <v>40.9001713325111</v>
       </c>
     </row>
     <row r="101">
@@ -2896,7 +2896,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>49.5992278773187</v>
+        <v>49.5992383173497</v>
       </c>
     </row>
     <row r="102">
@@ -2913,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>54.366621100046</v>
+        <v>54.3666198656381</v>
       </c>
     </row>
     <row r="103">
@@ -2930,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>51.7881783991158</v>
+        <v>51.78816079573</v>
       </c>
     </row>
     <row r="104">
@@ -2947,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>58.7937658754926</v>
+        <v>58.7937623095026</v>
       </c>
     </row>
     <row r="105">
@@ -2964,7 +2964,7 @@
         <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>52.4221962408704</v>
+        <v>52.4221714136978</v>
       </c>
     </row>
     <row r="106">
@@ -2981,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>58.3011481642967</v>
+        <v>58.301151210348</v>
       </c>
     </row>
     <row r="107">
@@ -2998,7 +2998,7 @@
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>60.5110643758995</v>
+        <v>60.5110695447628</v>
       </c>
     </row>
     <row r="108">
@@ -3015,7 +3015,7 @@
         <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>41.9963497265139</v>
+        <v>41.9963486275067</v>
       </c>
     </row>
     <row r="109">
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>47.1187415681545</v>
+        <v>47.1187252032773</v>
       </c>
     </row>
     <row r="110">
@@ -3049,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>37.6923561855792</v>
+        <v>37.6923707324657</v>
       </c>
     </row>
     <row r="111">
@@ -3066,7 +3066,7 @@
         <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>46.7914676692063</v>
+        <v>46.7914656398425</v>
       </c>
     </row>
     <row r="112">
@@ -3083,7 +3083,7 @@
         <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>55.0367932775727</v>
+        <v>55.036836325212</v>
       </c>
     </row>
     <row r="113">
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>46.8095719173191</v>
+        <v>46.8095797284263</v>
       </c>
     </row>
     <row r="114">
@@ -3117,7 +3117,7 @@
         <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>52.8709882024139</v>
+        <v>52.8710044672527</v>
       </c>
     </row>
     <row r="115">
@@ -3134,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>50.1621713714451</v>
+        <v>50.1621829483075</v>
       </c>
     </row>
     <row r="116">
@@ -3151,7 +3151,7 @@
         <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>55.7266594565222</v>
+        <v>55.7266628869164</v>
       </c>
     </row>
     <row r="117">
@@ -3168,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="E117" t="n">
-        <v>55.9697942846888</v>
+        <v>55.9698069659999</v>
       </c>
     </row>
     <row r="118">
@@ -3185,7 +3185,7 @@
         <v>7</v>
       </c>
       <c r="E118" t="n">
-        <v>59.6167749263193</v>
+        <v>59.6167323694689</v>
       </c>
     </row>
     <row r="119">
@@ -3202,7 +3202,7 @@
         <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>64.9908506302698</v>
+        <v>64.9908167782056</v>
       </c>
     </row>
     <row r="120">
@@ -3219,7 +3219,7 @@
         <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>60.4389198855371</v>
+        <v>60.4389566302736</v>
       </c>
     </row>
     <row r="121">
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>65.8944110486311</v>
+        <v>65.8943964995936</v>
       </c>
     </row>
     <row r="122">
@@ -3253,7 +3253,7 @@
         <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>68.2900142523754</v>
+        <v>68.290006331453</v>
       </c>
     </row>
     <row r="123">
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E123" t="n">
-        <v>16.32724523885</v>
+        <v>16.3272134949536</v>
       </c>
     </row>
     <row r="124">
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="E124" t="n">
-        <v>13.7449021954138</v>
+        <v>13.7449139548816</v>
       </c>
     </row>
     <row r="125">
@@ -3304,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="E125" t="n">
-        <v>12.9714031509413</v>
+        <v>12.9713993112151</v>
       </c>
     </row>
     <row r="126">
@@ -3321,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="n">
-        <v>14.1670508941049</v>
+        <v>14.1670463710968</v>
       </c>
     </row>
     <row r="127">
@@ -3338,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>57.3739119158604</v>
+        <v>57.3739025388479</v>
       </c>
     </row>
     <row r="128">
@@ -3355,7 +3355,7 @@
         <v>7</v>
       </c>
       <c r="E128" t="n">
-        <v>61.5476302134164</v>
+        <v>61.5475813887467</v>
       </c>
     </row>
     <row r="129">
@@ -3372,7 +3372,7 @@
         <v>7</v>
       </c>
       <c r="E129" t="n">
-        <v>58.7457836845026</v>
+        <v>58.7457836109263</v>
       </c>
     </row>
     <row r="130">
@@ -3389,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>63.3343328131495</v>
+        <v>63.3343227672093</v>
       </c>
     </row>
     <row r="131">
@@ -3406,7 +3406,7 @@
         <v>7</v>
       </c>
       <c r="E131" t="n">
-        <v>63.3430884035857</v>
+        <v>63.3430738825572</v>
       </c>
     </row>
     <row r="132">
@@ -3423,7 +3423,7 @@
         <v>7</v>
       </c>
       <c r="E132" t="n">
-        <v>40.9015497988999</v>
+        <v>40.9015565859867</v>
       </c>
     </row>
     <row r="133">
@@ -3440,7 +3440,7 @@
         <v>7</v>
       </c>
       <c r="E133" t="n">
-        <v>38.6026376827496</v>
+        <v>38.6026386114919</v>
       </c>
     </row>
     <row r="134">
@@ -3457,7 +3457,7 @@
         <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>46.5704557930726</v>
+        <v>46.5704617667783</v>
       </c>
     </row>
     <row r="135">
@@ -3474,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>48.1084635057512</v>
+        <v>48.1084553333386</v>
       </c>
     </row>
     <row r="136">
@@ -3491,7 +3491,7 @@
         <v>7</v>
       </c>
       <c r="E136" t="n">
-        <v>55.7516612148505</v>
+        <v>55.7516656971916</v>
       </c>
     </row>
     <row r="137">
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="E137" t="n">
-        <v>61.4157419806061</v>
+        <v>61.4157448681603</v>
       </c>
     </row>
     <row r="138">
@@ -3525,7 +3525,7 @@
         <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>65.6876632635885</v>
+        <v>65.6876843542727</v>
       </c>
     </row>
     <row r="139">
@@ -3542,7 +3542,7 @@
         <v>7</v>
       </c>
       <c r="E139" t="n">
-        <v>65.4602220594671</v>
+        <v>65.4602920406598</v>
       </c>
     </row>
     <row r="140">
@@ -3559,7 +3559,7 @@
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>63.9448034495715</v>
+        <v>63.944793741084</v>
       </c>
     </row>
     <row r="141">
@@ -3576,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="E141" t="n">
-        <v>36.0392087172863</v>
+        <v>36.039200203563</v>
       </c>
     </row>
     <row r="142">
@@ -3593,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>51.5970156595762</v>
+        <v>51.5993693845688</v>
       </c>
     </row>
     <row r="143">
@@ -3610,7 +3610,7 @@
         <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>42.7831087425425</v>
+        <v>42.7831059904645</v>
       </c>
     </row>
     <row r="144">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="E144" t="n">
-        <v>38.3983338439373</v>
+        <v>38.398336188524</v>
       </c>
     </row>
     <row r="145">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>44.9080698689636</v>
+        <v>44.908069086582</v>
       </c>
     </row>
     <row r="146">
@@ -3661,7 +3661,7 @@
         <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>48.656335788217</v>
+        <v>48.6563018300944</v>
       </c>
     </row>
     <row r="147">
@@ -3678,7 +3678,7 @@
         <v>7</v>
       </c>
       <c r="E147" t="n">
-        <v>52.6080825841581</v>
+        <v>52.6080813459301</v>
       </c>
     </row>
     <row r="148">
@@ -3695,7 +3695,7 @@
         <v>7</v>
       </c>
       <c r="E148" t="n">
-        <v>41.3136920972599</v>
+        <v>41.3136862893307</v>
       </c>
     </row>
     <row r="149">
@@ -3712,7 +3712,7 @@
         <v>7</v>
       </c>
       <c r="E149" t="n">
-        <v>40.9591489058104</v>
+        <v>40.9591597144654</v>
       </c>
     </row>
     <row r="150">
@@ -3729,7 +3729,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>46.5751649819312</v>
+        <v>46.5751484293377</v>
       </c>
     </row>
     <row r="151">
@@ -3746,7 +3746,7 @@
         <v>7</v>
       </c>
       <c r="E151" t="n">
-        <v>49.784458593743</v>
+        <v>49.7844579343412</v>
       </c>
     </row>
     <row r="152">
@@ -3763,7 +3763,7 @@
         <v>7</v>
       </c>
       <c r="E152" t="n">
-        <v>57.6773548853696</v>
+        <v>57.6773658846039</v>
       </c>
     </row>
     <row r="153">
@@ -3780,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="E153" t="n">
-        <v>49.9374406784921</v>
+        <v>49.9374324300737</v>
       </c>
     </row>
     <row r="154">
@@ -3797,7 +3797,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>53.1236222112337</v>
+        <v>53.1236227274102</v>
       </c>
     </row>
     <row r="155">
@@ -3814,7 +3814,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>55.0389390336422</v>
+        <v>55.0389267745095</v>
       </c>
     </row>
     <row r="156">
@@ -3831,7 +3831,7 @@
         <v>7</v>
       </c>
       <c r="E156" t="n">
-        <v>62.241881471081</v>
+        <v>62.2418732830174</v>
       </c>
     </row>
     <row r="157">
@@ -3848,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>64.6069060660641</v>
+        <v>64.6068957930785</v>
       </c>
     </row>
     <row r="158">
@@ -3865,7 +3865,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>63.3541136203785</v>
+        <v>63.3541147953491</v>
       </c>
     </row>
     <row r="159">
@@ -3882,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>63.871553243721</v>
+        <v>63.871553755706</v>
       </c>
     </row>
     <row r="160">
@@ -3899,7 +3899,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="n">
-        <v>47.3074037076987</v>
+        <v>47.3074177281472</v>
       </c>
     </row>
     <row r="161">
@@ -3916,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="E161" t="n">
-        <v>52.1856470049743</v>
+        <v>52.185644497699</v>
       </c>
     </row>
     <row r="162">
@@ -3933,7 +3933,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>49.4991895202216</v>
+        <v>49.4991857838793</v>
       </c>
     </row>
     <row r="163">
@@ -3950,7 +3950,7 @@
         <v>7</v>
       </c>
       <c r="E163" t="n">
-        <v>56.9964325398373</v>
+        <v>56.9964170745362</v>
       </c>
     </row>
     <row r="164">
@@ -3967,7 +3967,7 @@
         <v>7</v>
       </c>
       <c r="E164" t="n">
-        <v>59.2970996434243</v>
+        <v>59.2971103729202</v>
       </c>
     </row>
     <row r="165">
@@ -3984,7 +3984,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="n">
-        <v>44.9407351538259</v>
+        <v>44.9407361187168</v>
       </c>
     </row>
     <row r="166">
@@ -4001,7 +4001,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>51.4664342494336</v>
+        <v>51.4664447509386</v>
       </c>
     </row>
     <row r="167">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>42.2194115037176</v>
+        <v>42.2194119979995</v>
       </c>
     </row>
     <row r="168">
@@ -4035,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="E168" t="n">
-        <v>50.551394887624</v>
+        <v>50.551407314729</v>
       </c>
     </row>
     <row r="169">
@@ -4052,7 +4052,7 @@
         <v>7</v>
       </c>
       <c r="E169" t="n">
-        <v>24.9976222674747</v>
+        <v>24.9976259874325</v>
       </c>
     </row>
     <row r="170">
@@ -4069,7 +4069,7 @@
         <v>7</v>
       </c>
       <c r="E170" t="n">
-        <v>23.4329101442282</v>
+        <v>23.432920413776</v>
       </c>
     </row>
     <row r="171">
@@ -4086,7 +4086,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>35.1523749912695</v>
+        <v>35.1523720373761</v>
       </c>
     </row>
     <row r="172">
@@ -4103,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="E172" t="n">
-        <v>36.018985058899</v>
+        <v>36.0189866469943</v>
       </c>
     </row>
     <row r="173">
@@ -4120,7 +4120,7 @@
         <v>7</v>
       </c>
       <c r="E173" t="n">
-        <v>37.0703449139672</v>
+        <v>37.0703551055925</v>
       </c>
     </row>
     <row r="174">
@@ -4137,7 +4137,7 @@
         <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>64.367951799779</v>
+        <v>64.3679353863556</v>
       </c>
     </row>
     <row r="175">
@@ -4154,7 +4154,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>59.4648309182494</v>
+        <v>59.464838620508</v>
       </c>
     </row>
     <row r="176">
@@ -4171,7 +4171,7 @@
         <v>7</v>
       </c>
       <c r="E176" t="n">
-        <v>53.9068805042015</v>
+        <v>53.9068825876056</v>
       </c>
     </row>
     <row r="177">
@@ -4188,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>56.0377149335744</v>
+        <v>56.0377072910589</v>
       </c>
     </row>
     <row r="178">
@@ -4205,7 +4205,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="n">
-        <v>46.2993292662816</v>
+        <v>46.2993343674785</v>
       </c>
     </row>
     <row r="179">
@@ -4222,7 +4222,7 @@
         <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>47.9607572791454</v>
+        <v>47.9607567880789</v>
       </c>
     </row>
     <row r="180">
@@ -4239,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>42.913989295142</v>
+        <v>42.9139924501293</v>
       </c>
     </row>
     <row r="181">
@@ -4256,7 +4256,7 @@
         <v>7</v>
       </c>
       <c r="E181" t="n">
-        <v>43.345294174415</v>
+        <v>43.3452945199122</v>
       </c>
     </row>
     <row r="182">
@@ -4273,7 +4273,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>46.9597561119764</v>
+        <v>46.959751539538</v>
       </c>
     </row>
     <row r="183">
@@ -4290,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="E183" t="n">
-        <v>34.6660139997361</v>
+        <v>34.6660272392899</v>
       </c>
     </row>
     <row r="184">
@@ -4307,7 +4307,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>40.4120337609633</v>
+        <v>40.4120450226538</v>
       </c>
     </row>
     <row r="185">
@@ -4324,7 +4324,7 @@
         <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>39.2992345304763</v>
+        <v>39.2992435003973</v>
       </c>
     </row>
     <row r="186">
@@ -4341,7 +4341,7 @@
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>50.7201519991944</v>
+        <v>50.7201300305314</v>
       </c>
     </row>
     <row r="187">
@@ -4358,7 +4358,7 @@
         <v>7</v>
       </c>
       <c r="E187" t="n">
-        <v>52.1957852437398</v>
+        <v>52.1957774827749</v>
       </c>
     </row>
     <row r="188">
@@ -4375,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="E188" t="n">
-        <v>16.4535019416462</v>
+        <v>16.4535010228767</v>
       </c>
     </row>
     <row r="189">
@@ -4392,7 +4392,7 @@
         <v>7</v>
       </c>
       <c r="E189" t="n">
-        <v>24.6961435437308</v>
+        <v>24.6961602632479</v>
       </c>
     </row>
     <row r="190">
@@ -4409,7 +4409,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>22.278483908393</v>
+        <v>22.2784870265446</v>
       </c>
     </row>
     <row r="191">
@@ -4426,7 +4426,7 @@
         <v>7</v>
       </c>
       <c r="E191" t="n">
-        <v>23.7770739068148</v>
+        <v>23.7770751787808</v>
       </c>
     </row>
     <row r="192">
@@ -4443,7 +4443,7 @@
         <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>22.5963170745388</v>
+        <v>22.5963154014752</v>
       </c>
     </row>
     <row r="193">
@@ -4460,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="E193" t="n">
-        <v>55.518852146381</v>
+        <v>55.5188099627972</v>
       </c>
     </row>
     <row r="194">
@@ -4477,7 +4477,7 @@
         <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>61.3391532085741</v>
+        <v>61.3391742861894</v>
       </c>
     </row>
     <row r="195">
@@ -4494,7 +4494,7 @@
         <v>7</v>
       </c>
       <c r="E195" t="n">
-        <v>59.2639868556462</v>
+        <v>59.2640162487956</v>
       </c>
     </row>
     <row r="196">
@@ -4511,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>63.3595037813138</v>
+        <v>63.3595238624169</v>
       </c>
     </row>
     <row r="197">
@@ -4528,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="E197" t="n">
-        <v>62.7020650262998</v>
+        <v>62.7020788592321</v>
       </c>
     </row>
     <row r="198">
@@ -4545,7 +4545,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>56.2452914714384</v>
+        <v>56.2452584330605</v>
       </c>
     </row>
     <row r="199">
@@ -4562,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="E199" t="n">
-        <v>63.6143888334206</v>
+        <v>63.6143984259808</v>
       </c>
     </row>
     <row r="200">
@@ -4579,7 +4579,7 @@
         <v>7</v>
       </c>
       <c r="E200" t="n">
-        <v>62.7547069167894</v>
+        <v>62.7547218038287</v>
       </c>
     </row>
     <row r="201">
@@ -4596,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="n">
-        <v>57.7233719255265</v>
+        <v>57.7234100353179</v>
       </c>
     </row>
     <row r="202">
@@ -4613,7 +4613,7 @@
         <v>7</v>
       </c>
       <c r="E202" t="n">
-        <v>60.6125970486915</v>
+        <v>60.6126172441662</v>
       </c>
     </row>
     <row r="203">
@@ -4630,7 +4630,7 @@
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>56.8742057118058</v>
+        <v>56.8741930890095</v>
       </c>
     </row>
     <row r="204">
@@ -4647,7 +4647,7 @@
         <v>7</v>
       </c>
       <c r="E204" t="n">
-        <v>59.483336087036</v>
+        <v>59.4833423967767</v>
       </c>
     </row>
     <row r="205">
@@ -4664,7 +4664,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>61.3088615916022</v>
+        <v>61.3088618824304</v>
       </c>
     </row>
     <row r="206">
@@ -4681,7 +4681,7 @@
         <v>7</v>
       </c>
       <c r="E206" t="n">
-        <v>58.514716053921</v>
+        <v>58.5147174394114</v>
       </c>
     </row>
     <row r="207">
@@ -4698,7 +4698,7 @@
         <v>7</v>
       </c>
       <c r="E207" t="n">
-        <v>62.7796333629758</v>
+        <v>62.7796118893112</v>
       </c>
     </row>
     <row r="208">
@@ -4715,7 +4715,7 @@
         <v>7</v>
       </c>
       <c r="E208" t="n">
-        <v>42.993456479767</v>
+        <v>42.9934437832803</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="n">
-        <v>51.3027877958129</v>
+        <v>51.3027701253718</v>
       </c>
     </row>
     <row r="210">
@@ -4749,7 +4749,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="n">
-        <v>49.8203837321333</v>
+        <v>49.8203807338197</v>
       </c>
     </row>
     <row r="211">
@@ -4766,7 +4766,7 @@
         <v>7</v>
       </c>
       <c r="E211" t="n">
-        <v>54.4232960479138</v>
+        <v>54.4232873100666</v>
       </c>
     </row>
     <row r="212">
@@ -4783,7 +4783,7 @@
         <v>7</v>
       </c>
       <c r="E212" t="n">
-        <v>60.0925886188233</v>
+        <v>60.0925975746302</v>
       </c>
     </row>
     <row r="213">
@@ -4800,7 +4800,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="n">
-        <v>48.1078159846239</v>
+        <v>48.107825147134</v>
       </c>
     </row>
     <row r="214">
@@ -4817,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="n">
-        <v>48.4304800873481</v>
+        <v>48.4304908492516</v>
       </c>
     </row>
     <row r="215">
@@ -4834,7 +4834,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="n">
-        <v>45.559361512809</v>
+        <v>45.5593461350536</v>
       </c>
     </row>
     <row r="216">
@@ -4851,7 +4851,7 @@
         <v>7</v>
       </c>
       <c r="E216" t="n">
-        <v>55.6580584831327</v>
+        <v>55.6580557825809</v>
       </c>
     </row>
     <row r="217">
@@ -4868,7 +4868,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="n">
-        <v>57.5718566686275</v>
+        <v>57.5718583805057</v>
       </c>
     </row>
     <row r="218">
@@ -4885,7 +4885,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="n">
-        <v>33.4113391473967</v>
+        <v>33.4113381821696</v>
       </c>
     </row>
     <row r="219">
@@ -4902,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="E219" t="n">
-        <v>39.8072928631545</v>
+        <v>39.8072874171112</v>
       </c>
     </row>
     <row r="220">
@@ -4919,7 +4919,7 @@
         <v>7</v>
       </c>
       <c r="E220" t="n">
-        <v>40.6852458958128</v>
+        <v>40.6852210485404</v>
       </c>
     </row>
     <row r="221">
@@ -4936,7 +4936,7 @@
         <v>7</v>
       </c>
       <c r="E221" t="n">
-        <v>40.1733943002765</v>
+        <v>40.1734362920776</v>
       </c>
     </row>
     <row r="222">
@@ -4953,7 +4953,7 @@
         <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>42.0437647431126</v>
+        <v>42.0437643435395</v>
       </c>
     </row>
     <row r="223">
@@ -4970,7 +4970,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>48.5482007221085</v>
+        <v>48.5481892051306</v>
       </c>
     </row>
     <row r="224">
@@ -4987,7 +4987,7 @@
         <v>7</v>
       </c>
       <c r="E224" t="n">
-        <v>50.8021744903032</v>
+        <v>50.80217526701</v>
       </c>
     </row>
     <row r="225">
@@ -5004,7 +5004,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="n">
-        <v>47.3025208334883</v>
+        <v>47.3025149707792</v>
       </c>
     </row>
     <row r="226">
@@ -5021,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="n">
-        <v>51.5360622341987</v>
+        <v>51.5360627897436</v>
       </c>
     </row>
     <row r="227">
@@ -5038,7 +5038,7 @@
         <v>7</v>
       </c>
       <c r="E227" t="n">
-        <v>50.3736497762448</v>
+        <v>50.3736590537779</v>
       </c>
     </row>
     <row r="228">
@@ -5055,7 +5055,7 @@
         <v>7</v>
       </c>
       <c r="E228" t="n">
-        <v>27.9869308761652</v>
+        <v>27.9869406766445</v>
       </c>
     </row>
     <row r="229">
@@ -5072,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="E229" t="n">
-        <v>37.8204945062244</v>
+        <v>37.8205010996731</v>
       </c>
     </row>
     <row r="230">
@@ -5089,7 +5089,7 @@
         <v>7</v>
       </c>
       <c r="E230" t="n">
-        <v>30.259024863733</v>
+        <v>30.2590282832491</v>
       </c>
     </row>
     <row r="231">
@@ -5106,7 +5106,7 @@
         <v>7</v>
       </c>
       <c r="E231" t="n">
-        <v>35.9857075106724</v>
+        <v>35.9857083217472</v>
       </c>
     </row>
     <row r="232">
@@ -5123,7 +5123,7 @@
         <v>7</v>
       </c>
       <c r="E232" t="n">
-        <v>39.2067995428736</v>
+        <v>39.2068028761442</v>
       </c>
     </row>
     <row r="233">
@@ -5140,7 +5140,7 @@
         <v>7</v>
       </c>
       <c r="E233" t="n">
-        <v>73.3613008532032</v>
+        <v>73.3613141322157</v>
       </c>
     </row>
     <row r="234">
@@ -5157,7 +5157,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="n">
-        <v>59.871003146773</v>
+        <v>59.8710054017519</v>
       </c>
     </row>
     <row r="235">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="E235" t="n">
-        <v>58.4536887125452</v>
+        <v>58.4536792680299</v>
       </c>
     </row>
     <row r="236">
@@ -5191,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="E236" t="n">
-        <v>60.7502817223026</v>
+        <v>60.7502905635242</v>
       </c>
     </row>
     <row r="237">
@@ -5208,7 +5208,7 @@
         <v>7</v>
       </c>
       <c r="E237" t="n">
-        <v>61.9467537712764</v>
+        <v>61.9467393342019</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="n">
-        <v>49.3767118813521</v>
+        <v>49.376701407284</v>
       </c>
     </row>
     <row r="239">
@@ -5242,7 +5242,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="n">
-        <v>52.7283740334276</v>
+        <v>52.7283939980682</v>
       </c>
     </row>
     <row r="240">
@@ -5259,7 +5259,7 @@
         <v>7</v>
       </c>
       <c r="E240" t="n">
-        <v>46.6358785233772</v>
+        <v>46.6358767171929</v>
       </c>
     </row>
     <row r="241">
@@ -5276,7 +5276,7 @@
         <v>7</v>
       </c>
       <c r="E241" t="n">
-        <v>52.117587953912</v>
+        <v>52.1176067618473</v>
       </c>
     </row>
     <row r="242">
@@ -5293,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="E242" t="n">
-        <v>54.6013856311828</v>
+        <v>54.6013720191561</v>
       </c>
     </row>
     <row r="243">
@@ -5310,7 +5310,7 @@
         <v>7</v>
       </c>
       <c r="E243" t="n">
-        <v>44.5898754536118</v>
+        <v>44.5898591292164</v>
       </c>
     </row>
     <row r="244">
@@ -5327,7 +5327,7 @@
         <v>7</v>
       </c>
       <c r="E244" t="n">
-        <v>48.3968300774235</v>
+        <v>48.3968217306261</v>
       </c>
     </row>
     <row r="245">
@@ -5344,7 +5344,7 @@
         <v>7</v>
       </c>
       <c r="E245" t="n">
-        <v>46.1678476658728</v>
+        <v>46.1678278434338</v>
       </c>
     </row>
     <row r="246">
@@ -5361,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>45.7984483319708</v>
+        <v>45.7984509402638</v>
       </c>
     </row>
     <row r="247">
@@ -5378,7 +5378,7 @@
         <v>7</v>
       </c>
       <c r="E247" t="n">
-        <v>49.3364287213263</v>
+        <v>49.3364045392298</v>
       </c>
     </row>
     <row r="248">
@@ -5395,7 +5395,7 @@
         <v>7</v>
       </c>
       <c r="E248" t="n">
-        <v>49.9719734448083</v>
+        <v>49.9719342103807</v>
       </c>
     </row>
     <row r="249">
@@ -5412,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="E249" t="n">
-        <v>53.5434885385852</v>
+        <v>53.5434719140517</v>
       </c>
     </row>
     <row r="250">
@@ -5429,7 +5429,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="n">
-        <v>53.4638430748894</v>
+        <v>53.4638221693755</v>
       </c>
     </row>
     <row r="251">
@@ -5446,7 +5446,7 @@
         <v>7</v>
       </c>
       <c r="E251" t="n">
-        <v>62.0185361655037</v>
+        <v>62.0185546666299</v>
       </c>
     </row>
     <row r="252">
@@ -5463,7 +5463,7 @@
         <v>7</v>
       </c>
       <c r="E252" t="n">
-        <v>62.7904763487738</v>
+        <v>62.7904584461603</v>
       </c>
     </row>
     <row r="253">
@@ -5480,7 +5480,7 @@
         <v>7</v>
       </c>
       <c r="E253" t="n">
-        <v>41.6891933228771</v>
+        <v>41.6891788900631</v>
       </c>
     </row>
     <row r="254">
@@ -5497,7 +5497,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="n">
-        <v>39.8230546537782</v>
+        <v>39.8230600614275</v>
       </c>
     </row>
     <row r="255">
@@ -5514,7 +5514,7 @@
         <v>7</v>
       </c>
       <c r="E255" t="n">
-        <v>41.0763985375342</v>
+        <v>41.0763768819177</v>
       </c>
     </row>
     <row r="256">
@@ -5531,7 +5531,7 @@
         <v>7</v>
       </c>
       <c r="E256" t="n">
-        <v>44.7956389478474</v>
+        <v>44.7956382858252</v>
       </c>
     </row>
     <row r="257">
@@ -5548,7 +5548,7 @@
         <v>7</v>
       </c>
       <c r="E257" t="n">
-        <v>46.932285947195</v>
+        <v>46.9322794965797</v>
       </c>
     </row>
     <row r="258">
@@ -5565,7 +5565,7 @@
         <v>7</v>
       </c>
       <c r="E258" t="n">
-        <v>40.6122013102928</v>
+        <v>40.6121894896158</v>
       </c>
     </row>
     <row r="259">
@@ -5582,7 +5582,7 @@
         <v>7</v>
       </c>
       <c r="E259" t="n">
-        <v>43.5418332349804</v>
+        <v>43.5418415762678</v>
       </c>
     </row>
     <row r="260">
@@ -5599,7 +5599,7 @@
         <v>7</v>
       </c>
       <c r="E260" t="n">
-        <v>39.2079408823745</v>
+        <v>39.2079603890061</v>
       </c>
     </row>
     <row r="261">
@@ -5616,7 +5616,7 @@
         <v>7</v>
       </c>
       <c r="E261" t="n">
-        <v>43.4916248968916</v>
+        <v>43.4916380471679</v>
       </c>
     </row>
     <row r="262">
@@ -5633,7 +5633,7 @@
         <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>45.9436100326141</v>
+        <v>45.9436253139828</v>
       </c>
     </row>
     <row r="263">
@@ -5650,7 +5650,7 @@
         <v>7</v>
       </c>
       <c r="E263" t="n">
-        <v>48.0042544600299</v>
+        <v>48.0042384435737</v>
       </c>
     </row>
     <row r="264">
@@ -5667,7 +5667,7 @@
         <v>7</v>
       </c>
       <c r="E264" t="n">
-        <v>44.5196481398574</v>
+        <v>44.5196462298552</v>
       </c>
     </row>
     <row r="265">
@@ -5684,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="E265" t="n">
-        <v>42.7251541913823</v>
+        <v>42.7251591909615</v>
       </c>
     </row>
     <row r="266">
@@ -5701,7 +5701,7 @@
         <v>7</v>
       </c>
       <c r="E266" t="n">
-        <v>53.0999562496374</v>
+        <v>53.0999496532129</v>
       </c>
     </row>
     <row r="267">
@@ -5718,7 +5718,7 @@
         <v>7</v>
       </c>
       <c r="E267" t="n">
-        <v>54.6626133107997</v>
+        <v>54.6626118829481</v>
       </c>
     </row>
     <row r="268">
@@ -5735,7 +5735,7 @@
         <v>7</v>
       </c>
       <c r="E268" t="n">
-        <v>34.9814324082363</v>
+        <v>34.981435319297</v>
       </c>
     </row>
     <row r="269">
@@ -5752,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="E269" t="n">
-        <v>38.7172905921799</v>
+        <v>38.7172981005222</v>
       </c>
     </row>
     <row r="270">
@@ -5769,7 +5769,7 @@
         <v>7</v>
       </c>
       <c r="E270" t="n">
-        <v>40.8244263445243</v>
+        <v>40.8244165475587</v>
       </c>
     </row>
     <row r="271">
@@ -5786,7 +5786,7 @@
         <v>7</v>
       </c>
       <c r="E271" t="n">
-        <v>41.1920332428353</v>
+        <v>41.1920370665149</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>7</v>
       </c>
       <c r="E272" t="n">
-        <v>42.996778038767</v>
+        <v>42.9967853490883</v>
       </c>
     </row>
     <row r="273">
@@ -5820,7 +5820,7 @@
         <v>7</v>
       </c>
       <c r="E273" t="n">
-        <v>46.9675072317575</v>
+        <v>46.9674975766542</v>
       </c>
     </row>
     <row r="274">
@@ -5837,7 +5837,7 @@
         <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>46.1587974958588</v>
+        <v>46.158805787009</v>
       </c>
     </row>
     <row r="275">
@@ -5854,7 +5854,7 @@
         <v>7</v>
       </c>
       <c r="E275" t="n">
-        <v>42.2057073881655</v>
+        <v>42.2057067269668</v>
       </c>
     </row>
     <row r="276">
@@ -5871,7 +5871,7 @@
         <v>7</v>
       </c>
       <c r="E276" t="n">
-        <v>40.9806309659546</v>
+        <v>40.9806411455824</v>
       </c>
     </row>
     <row r="277">
@@ -5888,7 +5888,7 @@
         <v>7</v>
       </c>
       <c r="E277" t="n">
-        <v>50.4036390519536</v>
+        <v>50.4036309317555</v>
       </c>
     </row>
     <row r="278">
@@ -5905,7 +5905,7 @@
         <v>7</v>
       </c>
       <c r="E278" t="n">
-        <v>56.571965856015</v>
+        <v>56.5719544142825</v>
       </c>
     </row>
     <row r="279">
@@ -5922,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="E279" t="n">
-        <v>54.9111080464392</v>
+        <v>54.9111161000894</v>
       </c>
     </row>
     <row r="280">
@@ -5939,7 +5939,7 @@
         <v>7</v>
       </c>
       <c r="E280" t="n">
-        <v>55.1704338858679</v>
+        <v>55.1704546612864</v>
       </c>
     </row>
     <row r="281">
@@ -5956,7 +5956,7 @@
         <v>7</v>
       </c>
       <c r="E281" t="n">
-        <v>57.1564038438603</v>
+        <v>57.1564092885331</v>
       </c>
     </row>
     <row r="282">
@@ -5973,7 +5973,7 @@
         <v>7</v>
       </c>
       <c r="E282" t="n">
-        <v>58.9343330144497</v>
+        <v>58.9343222994606</v>
       </c>
     </row>
     <row r="283">
@@ -5990,7 +5990,7 @@
         <v>7</v>
       </c>
       <c r="E283" t="n">
-        <v>19.591174257701</v>
+        <v>19.5911810867505</v>
       </c>
     </row>
     <row r="284">
@@ -6007,7 +6007,7 @@
         <v>7</v>
       </c>
       <c r="E284" t="n">
-        <v>24.8551925597154</v>
+        <v>24.8552156428869</v>
       </c>
     </row>
     <row r="285">
@@ -6024,7 +6024,7 @@
         <v>7</v>
       </c>
       <c r="E285" t="n">
-        <v>26.1778033803698</v>
+        <v>26.1778186459651</v>
       </c>
     </row>
     <row r="286">
@@ -6041,7 +6041,7 @@
         <v>7</v>
       </c>
       <c r="E286" t="n">
-        <v>34.359258599377</v>
+        <v>34.3592580091675</v>
       </c>
     </row>
     <row r="287">
@@ -6058,7 +6058,7 @@
         <v>7</v>
       </c>
       <c r="E287" t="n">
-        <v>39.0206400145835</v>
+        <v>39.020638870125</v>
       </c>
     </row>
     <row r="288">
@@ -6075,7 +6075,7 @@
         <v>7</v>
       </c>
       <c r="E288" t="n">
-        <v>30.4744108024359</v>
+        <v>30.4744186676669</v>
       </c>
     </row>
     <row r="289">
@@ -6092,7 +6092,7 @@
         <v>7</v>
       </c>
       <c r="E289" t="n">
-        <v>34.6025143316906</v>
+        <v>34.6025177582242</v>
       </c>
     </row>
     <row r="290">
@@ -6109,7 +6109,7 @@
         <v>7</v>
       </c>
       <c r="E290" t="n">
-        <v>37.748929155006</v>
+        <v>37.7489363332213</v>
       </c>
     </row>
     <row r="291">
@@ -6126,7 +6126,7 @@
         <v>7</v>
       </c>
       <c r="E291" t="n">
-        <v>46.3123156927268</v>
+        <v>46.3123234888682</v>
       </c>
     </row>
     <row r="292">
@@ -6143,7 +6143,7 @@
         <v>7</v>
       </c>
       <c r="E292" t="n">
-        <v>50.0272754708476</v>
+        <v>50.0272613137022</v>
       </c>
     </row>
     <row r="293">
@@ -6160,7 +6160,7 @@
         <v>7</v>
       </c>
       <c r="E293" t="n">
-        <v>42.9232129478021</v>
+        <v>42.9231836200463</v>
       </c>
     </row>
     <row r="294">
@@ -6177,7 +6177,7 @@
         <v>7</v>
       </c>
       <c r="E294" t="n">
-        <v>36.0786310813323</v>
+        <v>36.0786204764691</v>
       </c>
     </row>
     <row r="295">
@@ -6194,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="E295" t="n">
-        <v>31.5969503677022</v>
+        <v>31.5969394406485</v>
       </c>
     </row>
     <row r="296">
@@ -6211,7 +6211,7 @@
         <v>7</v>
       </c>
       <c r="E296" t="n">
-        <v>42.6413033130516</v>
+        <v>42.6413151476204</v>
       </c>
     </row>
     <row r="297">
@@ -6228,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="E297" t="n">
-        <v>44.7487944233703</v>
+        <v>44.748805300852</v>
       </c>
     </row>
     <row r="298">
@@ -6245,7 +6245,7 @@
         <v>7</v>
       </c>
       <c r="E298" t="n">
-        <v>48.2902665991836</v>
+        <v>48.290296694817</v>
       </c>
     </row>
     <row r="299">
@@ -6262,7 +6262,7 @@
         <v>7</v>
       </c>
       <c r="E299" t="n">
-        <v>52.8023323417203</v>
+        <v>52.8023447602376</v>
       </c>
     </row>
     <row r="300">
@@ -6279,7 +6279,7 @@
         <v>7</v>
       </c>
       <c r="E300" t="n">
-        <v>54.2256817025291</v>
+        <v>54.2257036188311</v>
       </c>
     </row>
     <row r="301">
@@ -6296,7 +6296,7 @@
         <v>7</v>
       </c>
       <c r="E301" t="n">
-        <v>51.3043822520349</v>
+        <v>51.3043605335189</v>
       </c>
     </row>
     <row r="302">
@@ -6313,7 +6313,7 @@
         <v>7</v>
       </c>
       <c r="E302" t="n">
-        <v>53.26855770384</v>
+        <v>53.2685702067014</v>
       </c>
     </row>
     <row r="303">
@@ -6330,7 +6330,7 @@
         <v>7</v>
       </c>
       <c r="E303" t="n">
-        <v>41.7330916577223</v>
+        <v>41.7330870333051</v>
       </c>
     </row>
     <row r="304">
@@ -6347,7 +6347,7 @@
         <v>7</v>
       </c>
       <c r="E304" t="n">
-        <v>38.650289786994</v>
+        <v>38.6503000004974</v>
       </c>
     </row>
     <row r="305">
@@ -6364,7 +6364,7 @@
         <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>40.1999872023329</v>
+        <v>40.200002896864</v>
       </c>
     </row>
     <row r="306">
@@ -6381,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="E306" t="n">
-        <v>43.2828479993831</v>
+        <v>43.2828589139728</v>
       </c>
     </row>
     <row r="307">
@@ -6398,7 +6398,7 @@
         <v>7</v>
       </c>
       <c r="E307" t="n">
-        <v>46.9254165833065</v>
+        <v>46.9253974283734</v>
       </c>
     </row>
     <row r="308">
@@ -6415,7 +6415,7 @@
         <v>7</v>
       </c>
       <c r="E308" t="n">
-        <v>38.4159900506838</v>
+        <v>38.4159728607068</v>
       </c>
     </row>
     <row r="309">
@@ -6432,7 +6432,7 @@
         <v>7</v>
       </c>
       <c r="E309" t="n">
-        <v>42.4922565881617</v>
+        <v>42.4922494314657</v>
       </c>
     </row>
     <row r="310">
@@ -6449,7 +6449,7 @@
         <v>7</v>
       </c>
       <c r="E310" t="n">
-        <v>42.8212948961708</v>
+        <v>42.8212924939625</v>
       </c>
     </row>
     <row r="311">
@@ -6466,7 +6466,7 @@
         <v>7</v>
       </c>
       <c r="E311" t="n">
-        <v>43.4083665592166</v>
+        <v>43.4083703627173</v>
       </c>
     </row>
     <row r="312">
@@ -6483,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="E312" t="n">
-        <v>42.7628205815231</v>
+        <v>42.7628367092685</v>
       </c>
     </row>
     <row r="313">
@@ -6500,7 +6500,7 @@
         <v>7</v>
       </c>
       <c r="E313" t="n">
-        <v>33.6375726141549</v>
+        <v>33.6375813380124</v>
       </c>
     </row>
     <row r="314">
@@ -6517,7 +6517,7 @@
         <v>7</v>
       </c>
       <c r="E314" t="n">
-        <v>22.0725182551456</v>
+        <v>22.072523166579</v>
       </c>
     </row>
     <row r="315">
@@ -6534,7 +6534,7 @@
         <v>7</v>
       </c>
       <c r="E315" t="n">
-        <v>28.0747304131265</v>
+        <v>28.0747333991585</v>
       </c>
     </row>
     <row r="316">
@@ -6551,7 +6551,7 @@
         <v>7</v>
       </c>
       <c r="E316" t="n">
-        <v>37.8184680114586</v>
+        <v>37.8184759417058</v>
       </c>
     </row>
     <row r="317">
@@ -6568,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="E317" t="n">
-        <v>45.2866895227371</v>
+        <v>45.2867112533278</v>
       </c>
     </row>
     <row r="318">
@@ -6585,7 +6585,7 @@
         <v>7</v>
       </c>
       <c r="E318" t="n">
-        <v>41.3470655053946</v>
+        <v>41.3470604245359</v>
       </c>
     </row>
     <row r="319">
@@ -6602,7 +6602,7 @@
         <v>7</v>
       </c>
       <c r="E319" t="n">
-        <v>46.2632400292178</v>
+        <v>46.2632535504619</v>
       </c>
     </row>
     <row r="320">
@@ -6619,7 +6619,7 @@
         <v>7</v>
       </c>
       <c r="E320" t="n">
-        <v>39.0646429883694</v>
+        <v>39.0646433036355</v>
       </c>
     </row>
     <row r="321">
@@ -6636,7 +6636,7 @@
         <v>7</v>
       </c>
       <c r="E321" t="n">
-        <v>46.7673072597057</v>
+        <v>46.767324521624</v>
       </c>
     </row>
     <row r="322">
@@ -6653,7 +6653,7 @@
         <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>59.2994389611602</v>
+        <v>59.2994488314148</v>
       </c>
     </row>
     <row r="323">
@@ -6670,7 +6670,7 @@
         <v>7</v>
       </c>
       <c r="E323" t="n">
-        <v>65.8518771896953</v>
+        <v>65.8518620550254</v>
       </c>
     </row>
     <row r="324">
@@ -6687,7 +6687,7 @@
         <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>62.1926972473208</v>
+        <v>62.1926972610839</v>
       </c>
     </row>
     <row r="325">
@@ -6704,7 +6704,7 @@
         <v>7</v>
       </c>
       <c r="E325" t="n">
-        <v>69.1126820908312</v>
+        <v>69.1126529368471</v>
       </c>
     </row>
     <row r="326">
@@ -6721,7 +6721,7 @@
         <v>7</v>
       </c>
       <c r="E326" t="n">
-        <v>56.7737957915658</v>
+        <v>56.7738035063693</v>
       </c>
     </row>
     <row r="327">
@@ -6738,7 +6738,7 @@
         <v>7</v>
       </c>
       <c r="E327" t="n">
-        <v>58.4004684187801</v>
+        <v>58.4004661849056</v>
       </c>
     </row>
     <row r="328">
@@ -6755,7 +6755,7 @@
         <v>7</v>
       </c>
       <c r="E328" t="n">
-        <v>61.0851322953816</v>
+        <v>61.0851440270609</v>
       </c>
     </row>
     <row r="329">
@@ -6772,7 +6772,7 @@
         <v>7</v>
       </c>
       <c r="E329" t="n">
-        <v>67.0524357502706</v>
+        <v>67.0524221441829</v>
       </c>
     </row>
     <row r="330">
@@ -6789,7 +6789,7 @@
         <v>7</v>
       </c>
       <c r="E330" t="n">
-        <v>67.6014042170051</v>
+        <v>67.6014001738156</v>
       </c>
     </row>
     <row r="331">
@@ -6806,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>56.5099746478067</v>
+        <v>56.5099987355874</v>
       </c>
     </row>
     <row r="332">
@@ -6823,7 +6823,7 @@
         <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>59.3297637250677</v>
+        <v>59.3297604369768</v>
       </c>
     </row>
     <row r="333">
@@ -6840,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="E333" t="n">
-        <v>65.4470395994264</v>
+        <v>65.4470223961228</v>
       </c>
     </row>
     <row r="334">
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
       <c r="E334" t="n">
-        <v>62.0716912462609</v>
+        <v>62.0716701890391</v>
       </c>
     </row>
     <row r="335">
@@ -6874,7 +6874,7 @@
         <v>7</v>
       </c>
       <c r="E335" t="n">
-        <v>63.3382066878414</v>
+        <v>63.3382135455828</v>
       </c>
     </row>
     <row r="336">
@@ -6891,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="E336" t="n">
-        <v>33.820278040139</v>
+        <v>33.8202722181101</v>
       </c>
     </row>
     <row r="337">
@@ -6908,7 +6908,7 @@
         <v>7</v>
       </c>
       <c r="E337" t="n">
-        <v>40.1326729413566</v>
+        <v>40.1326726499537</v>
       </c>
     </row>
     <row r="338">
@@ -6925,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="E338" t="n">
-        <v>39.0464633398001</v>
+        <v>39.0464600359542</v>
       </c>
     </row>
     <row r="339">
@@ -6942,7 +6942,7 @@
         <v>7</v>
       </c>
       <c r="E339" t="n">
-        <v>37.4889273827857</v>
+        <v>37.4889320098722</v>
       </c>
     </row>
     <row r="340">
@@ -6959,7 +6959,7 @@
         <v>7</v>
       </c>
       <c r="E340" t="n">
-        <v>37.2767504750911</v>
+        <v>37.2767427500745</v>
       </c>
     </row>
     <row r="341">
@@ -6976,7 +6976,7 @@
         <v>7</v>
       </c>
       <c r="E341" t="n">
-        <v>50.3914805231245</v>
+        <v>50.3914860619673</v>
       </c>
     </row>
     <row r="342">
@@ -6993,7 +6993,7 @@
         <v>7</v>
       </c>
       <c r="E342" t="n">
-        <v>53.256915551143</v>
+        <v>53.2569202080454</v>
       </c>
     </row>
     <row r="343">
@@ -7010,7 +7010,7 @@
         <v>7</v>
       </c>
       <c r="E343" t="n">
-        <v>54.0555314904975</v>
+        <v>54.0555237164792</v>
       </c>
     </row>
     <row r="344">
@@ -7027,7 +7027,7 @@
         <v>7</v>
       </c>
       <c r="E344" t="n">
-        <v>59.486392889543</v>
+        <v>59.4863964470616</v>
       </c>
     </row>
     <row r="345">
@@ -7044,7 +7044,7 @@
         <v>7</v>
       </c>
       <c r="E345" t="n">
-        <v>60.9582235251687</v>
+        <v>60.9581916831193</v>
       </c>
     </row>
     <row r="346">
@@ -7061,7 +7061,7 @@
         <v>7</v>
       </c>
       <c r="E346" t="n">
-        <v>45.4266141384805</v>
+        <v>45.4266432800098</v>
       </c>
     </row>
     <row r="347">
@@ -7078,7 +7078,7 @@
         <v>7</v>
       </c>
       <c r="E347" t="n">
-        <v>45.7459089528034</v>
+        <v>45.7458865803769</v>
       </c>
     </row>
     <row r="348">
@@ -7095,7 +7095,7 @@
         <v>7</v>
       </c>
       <c r="E348" t="n">
-        <v>43.1502941762631</v>
+        <v>43.1503007186208</v>
       </c>
     </row>
     <row r="349">
@@ -7112,7 +7112,7 @@
         <v>7</v>
       </c>
       <c r="E349" t="n">
-        <v>60.6338235342417</v>
+        <v>60.6338411780788</v>
       </c>
     </row>
     <row r="350">
@@ -7129,7 +7129,7 @@
         <v>7</v>
       </c>
       <c r="E350" t="n">
-        <v>62.3771861354285</v>
+        <v>62.3771544013974</v>
       </c>
     </row>
     <row r="351">
@@ -7146,7 +7146,7 @@
         <v>7</v>
       </c>
       <c r="E351" t="n">
-        <v>47.0132133904628</v>
+        <v>47.0132073452717</v>
       </c>
     </row>
     <row r="352">
@@ -7163,7 +7163,7 @@
         <v>7</v>
       </c>
       <c r="E352" t="n">
-        <v>51.8238802952179</v>
+        <v>51.8238758354292</v>
       </c>
     </row>
     <row r="353">
@@ -7180,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="E353" t="n">
-        <v>39.879293234749</v>
+        <v>39.8792886345943</v>
       </c>
     </row>
     <row r="354">
@@ -7197,7 +7197,7 @@
         <v>7</v>
       </c>
       <c r="E354" t="n">
-        <v>45.1300677680677</v>
+        <v>45.13005899448</v>
       </c>
     </row>
     <row r="355">
@@ -7214,7 +7214,7 @@
         <v>7</v>
       </c>
       <c r="E355" t="n">
-        <v>37.4785766450112</v>
+        <v>37.4785817579191</v>
       </c>
     </row>
     <row r="356">
@@ -7231,7 +7231,7 @@
         <v>7</v>
       </c>
       <c r="E356" t="n">
-        <v>36.1806429311757</v>
+        <v>36.1806416195665</v>
       </c>
     </row>
     <row r="357">
@@ -7248,7 +7248,7 @@
         <v>7</v>
       </c>
       <c r="E357" t="n">
-        <v>41.0710599459049</v>
+        <v>41.0710624726845</v>
       </c>
     </row>
     <row r="358">
@@ -7265,7 +7265,7 @@
         <v>7</v>
       </c>
       <c r="E358" t="n">
-        <v>49.6955306878662</v>
+        <v>49.6955245634011</v>
       </c>
     </row>
     <row r="359">
@@ -7282,7 +7282,7 @@
         <v>7</v>
       </c>
       <c r="E359" t="n">
-        <v>50.8609934077308</v>
+        <v>50.8609833646224</v>
       </c>
     </row>
     <row r="360">
@@ -7299,7 +7299,7 @@
         <v>7</v>
       </c>
       <c r="E360" t="n">
-        <v>51.4111490504642</v>
+        <v>51.4111570260213</v>
       </c>
     </row>
     <row r="361">
@@ -7316,7 +7316,7 @@
         <v>7</v>
       </c>
       <c r="E361" t="n">
-        <v>44.994936046391</v>
+        <v>44.9949454285374</v>
       </c>
     </row>
     <row r="362">
@@ -7333,7 +7333,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>50.4231371221896</v>
+        <v>50.4231387158496</v>
       </c>
     </row>
     <row r="363">
@@ -7350,7 +7350,7 @@
         <v>7</v>
       </c>
       <c r="E363" t="n">
-        <v>57.3261806593016</v>
+        <v>57.3261644539142</v>
       </c>
     </row>
     <row r="364">
@@ -7367,7 +7367,7 @@
         <v>7</v>
       </c>
       <c r="E364" t="n">
-        <v>46.0004691088068</v>
+        <v>46.0004695080927</v>
       </c>
     </row>
     <row r="365">
@@ -7384,7 +7384,7 @@
         <v>7</v>
       </c>
       <c r="E365" t="n">
-        <v>47.2322505045277</v>
+        <v>47.2322481126263</v>
       </c>
     </row>
     <row r="366">
@@ -7401,7 +7401,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>46.9974582493259</v>
+        <v>46.9974652432675</v>
       </c>
     </row>
     <row r="367">
@@ -7418,7 +7418,7 @@
         <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>49.2202016167561</v>
+        <v>49.2202025176299</v>
       </c>
     </row>
     <row r="368">
@@ -7435,7 +7435,7 @@
         <v>7</v>
       </c>
       <c r="E368" t="n">
-        <v>58.7578172321785</v>
+        <v>58.7578276737667</v>
       </c>
     </row>
     <row r="369">
@@ -7452,7 +7452,7 @@
         <v>7</v>
       </c>
       <c r="E369" t="n">
-        <v>64.3279109860137</v>
+        <v>64.3279065692033</v>
       </c>
     </row>
     <row r="370">
@@ -7469,7 +7469,7 @@
         <v>7</v>
       </c>
       <c r="E370" t="n">
-        <v>55.451482180302</v>
+        <v>55.451480789375</v>
       </c>
     </row>
     <row r="371">
@@ -7486,7 +7486,7 @@
         <v>7</v>
       </c>
       <c r="E371" t="n">
-        <v>59.7015053002552</v>
+        <v>59.7015196228045</v>
       </c>
     </row>
     <row r="372">
@@ -7503,7 +7503,7 @@
         <v>7</v>
       </c>
       <c r="E372" t="n">
-        <v>57.9819516349339</v>
+        <v>57.9819324674529</v>
       </c>
     </row>
     <row r="373">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="E373" t="n">
-        <v>65.7249520324961</v>
+        <v>65.7249056059837</v>
       </c>
     </row>
     <row r="374">
@@ -7537,7 +7537,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>60.7902998839317</v>
+        <v>60.7903135081507</v>
       </c>
     </row>
     <row r="375">
@@ -7554,7 +7554,7 @@
         <v>7</v>
       </c>
       <c r="E375" t="n">
-        <v>62.1880596854926</v>
+        <v>62.1880850024432</v>
       </c>
     </row>
     <row r="376">
@@ -7571,7 +7571,7 @@
         <v>7</v>
       </c>
       <c r="E376" t="n">
-        <v>65.2549881520657</v>
+        <v>65.2549924923441</v>
       </c>
     </row>
     <row r="377">
@@ -7588,7 +7588,7 @@
         <v>7</v>
       </c>
       <c r="E377" t="n">
-        <v>49.1227799975663</v>
+        <v>49.1227982703598</v>
       </c>
     </row>
     <row r="378">
@@ -7605,7 +7605,7 @@
         <v>7</v>
       </c>
       <c r="E378" t="n">
-        <v>55.6618713940605</v>
+        <v>55.6618800371363</v>
       </c>
     </row>
     <row r="379">
@@ -7622,7 +7622,7 @@
         <v>7</v>
       </c>
       <c r="E379" t="n">
-        <v>53.533073836482</v>
+        <v>53.5243752737466</v>
       </c>
     </row>
     <row r="380">
@@ -7639,7 +7639,7 @@
         <v>7</v>
       </c>
       <c r="E380" t="n">
-        <v>51.503473901416</v>
+        <v>51.5034672868962</v>
       </c>
     </row>
     <row r="381">
@@ -7656,7 +7656,7 @@
         <v>7</v>
       </c>
       <c r="E381" t="n">
-        <v>57.3147878467828</v>
+        <v>57.3147859373153</v>
       </c>
     </row>
     <row r="382">
@@ -7673,7 +7673,7 @@
         <v>7</v>
       </c>
       <c r="E382" t="n">
-        <v>25.3732437163963</v>
+        <v>25.373234666043</v>
       </c>
     </row>
     <row r="383">
@@ -7690,7 +7690,7 @@
         <v>7</v>
       </c>
       <c r="E383" t="n">
-        <v>26.6990630999607</v>
+        <v>26.6990619916649</v>
       </c>
     </row>
     <row r="384">
@@ -7707,7 +7707,7 @@
         <v>7</v>
       </c>
       <c r="E384" t="n">
-        <v>25.3439794612774</v>
+        <v>25.3439888064608</v>
       </c>
     </row>
     <row r="385">
@@ -7724,7 +7724,7 @@
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>32.3600182521449</v>
+        <v>32.3600185258792</v>
       </c>
     </row>
     <row r="386">
@@ -7741,7 +7741,7 @@
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>38.1432735171419</v>
+        <v>38.1432538174266</v>
       </c>
     </row>
     <row r="387">
@@ -7758,7 +7758,7 @@
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>38.6509093746027</v>
+        <v>38.6508813071507</v>
       </c>
     </row>
     <row r="388">
@@ -7775,7 +7775,7 @@
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>39.9266688548797</v>
+        <v>39.926679050863</v>
       </c>
     </row>
     <row r="389">
@@ -7792,7 +7792,7 @@
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>41.2610150386461</v>
+        <v>41.2609883048032</v>
       </c>
     </row>
     <row r="390">
@@ -7809,7 +7809,7 @@
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>46.4522597963729</v>
+        <v>46.4522519979846</v>
       </c>
     </row>
     <row r="391">
@@ -7826,7 +7826,7 @@
         <v>7</v>
       </c>
       <c r="E391" t="n">
-        <v>55.9770715781472</v>
+        <v>55.9770749533349</v>
       </c>
     </row>
     <row r="392">
@@ -7843,7 +7843,7 @@
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>50.3259312620672</v>
+        <v>50.3259267969149</v>
       </c>
     </row>
     <row r="393">
@@ -7860,7 +7860,7 @@
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>57.0475139977085</v>
+        <v>57.0475191711862</v>
       </c>
     </row>
     <row r="394">
@@ -7877,7 +7877,7 @@
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>59.9131265221191</v>
+        <v>59.9131363089865</v>
       </c>
     </row>
     <row r="395">
@@ -7894,7 +7894,7 @@
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>47.2818402179142</v>
+        <v>47.2818437152852</v>
       </c>
     </row>
     <row r="396">
@@ -7911,7 +7911,7 @@
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>52.8800999707687</v>
+        <v>52.8800954714713</v>
       </c>
     </row>
     <row r="397">
@@ -7928,7 +7928,7 @@
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>50.8793337631336</v>
+        <v>50.879329441801</v>
       </c>
     </row>
     <row r="398">
@@ -7945,7 +7945,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>53.9827428899652</v>
+        <v>53.9827338009822</v>
       </c>
     </row>
     <row r="399">
@@ -7962,7 +7962,7 @@
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>55.7921881079372</v>
+        <v>55.7921884936871</v>
       </c>
     </row>
     <row r="400">
@@ -7979,7 +7979,7 @@
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>59.8619399005622</v>
+        <v>59.8619505062088</v>
       </c>
     </row>
     <row r="401">
@@ -7996,7 +7996,7 @@
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>59.136683847546</v>
+        <v>59.1366799003868</v>
       </c>
     </row>
     <row r="402">
@@ -8013,7 +8013,7 @@
         <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>74.5771870767185</v>
+        <v>74.5771918610048</v>
       </c>
     </row>
     <row r="403">
@@ -8030,7 +8030,7 @@
         <v>7</v>
       </c>
       <c r="E403" t="n">
-        <v>23.5820506429672</v>
+        <v>23.5820371314722</v>
       </c>
     </row>
     <row r="404">
@@ -8047,7 +8047,7 @@
         <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>31.4572926451586</v>
+        <v>31.4572999972478</v>
       </c>
     </row>
     <row r="405">
@@ -8064,7 +8064,7 @@
         <v>7</v>
       </c>
       <c r="E405" t="n">
-        <v>31.9470177935045</v>
+        <v>31.9470031719696</v>
       </c>
     </row>
     <row r="406">
@@ -8081,7 +8081,7 @@
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>31.2438751581109</v>
+        <v>31.243883644324</v>
       </c>
     </row>
     <row r="407">
@@ -8098,7 +8098,7 @@
         <v>7</v>
       </c>
       <c r="E407" t="n">
-        <v>31.0281992060771</v>
+        <v>31.02819847229</v>
       </c>
     </row>
     <row r="408">
@@ -8115,7 +8115,7 @@
         <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>35.3645796121677</v>
+        <v>35.3645924111419</v>
       </c>
     </row>
     <row r="409">
@@ -8132,7 +8132,7 @@
         <v>7</v>
       </c>
       <c r="E409" t="n">
-        <v>41.3232660271953</v>
+        <v>41.3232604964629</v>
       </c>
     </row>
     <row r="410">
@@ -8149,7 +8149,7 @@
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>36.3388104443142</v>
+        <v>36.3388059969425</v>
       </c>
     </row>
     <row r="411">
@@ -8166,7 +8166,7 @@
         <v>7</v>
       </c>
       <c r="E411" t="n">
-        <v>45.1127503479841</v>
+        <v>45.1127381414038</v>
       </c>
     </row>
     <row r="412">
@@ -8183,7 +8183,7 @@
         <v>7</v>
       </c>
       <c r="E412" t="n">
-        <v>44.746758156154</v>
+        <v>44.7467700960829</v>
       </c>
     </row>
     <row r="413">
@@ -8200,7 +8200,7 @@
         <v>7</v>
       </c>
       <c r="E413" t="n">
-        <v>42.4583642864824</v>
+        <v>42.4583566187155</v>
       </c>
     </row>
     <row r="414">
@@ -8217,7 +8217,7 @@
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>47.5203366677848</v>
+        <v>47.5203476472884</v>
       </c>
     </row>
     <row r="415">
@@ -8234,7 +8234,7 @@
         <v>7</v>
       </c>
       <c r="E415" t="n">
-        <v>48.463993949178</v>
+        <v>48.4640116972906</v>
       </c>
     </row>
     <row r="416">
@@ -8251,7 +8251,7 @@
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>50.6957737451056</v>
+        <v>50.6957520071084</v>
       </c>
     </row>
     <row r="417">
@@ -8268,7 +8268,7 @@
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>50.4206623838459</v>
+        <v>50.4206716255706</v>
       </c>
     </row>
     <row r="418">
@@ -8285,7 +8285,7 @@
         <v>7</v>
       </c>
       <c r="E418" t="n">
-        <v>43.6604844579977</v>
+        <v>43.6605063285129</v>
       </c>
     </row>
     <row r="419">
@@ -8302,7 +8302,7 @@
         <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>41.8525660319529</v>
+        <v>41.8525850599663</v>
       </c>
     </row>
     <row r="420">
@@ -8319,7 +8319,7 @@
         <v>7</v>
       </c>
       <c r="E420" t="n">
-        <v>45.7764256342944</v>
+        <v>45.7764370512789</v>
       </c>
     </row>
     <row r="421">
@@ -8336,7 +8336,7 @@
         <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>47.7622894034794</v>
+        <v>47.7623156251567</v>
       </c>
     </row>
     <row r="422">
@@ -8353,7 +8353,7 @@
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>52.7756763536088</v>
+        <v>52.775682869789</v>
       </c>
     </row>
     <row r="423">
@@ -8370,7 +8370,7 @@
         <v>7</v>
       </c>
       <c r="E423" t="n">
-        <v>58.480367078633</v>
+        <v>58.4803700416941</v>
       </c>
     </row>
     <row r="424">
@@ -8387,7 +8387,7 @@
         <v>7</v>
       </c>
       <c r="E424" t="n">
-        <v>62.5324480053445</v>
+        <v>62.5324496584133</v>
       </c>
     </row>
     <row r="425">
@@ -8404,7 +8404,7 @@
         <v>7</v>
       </c>
       <c r="E425" t="n">
-        <v>64.9571550861942</v>
+        <v>64.9571513417847</v>
       </c>
     </row>
     <row r="426">
@@ -8421,7 +8421,7 @@
         <v>7</v>
       </c>
       <c r="E426" t="n">
-        <v>67.178808740905</v>
+        <v>67.178800825632</v>
       </c>
     </row>
     <row r="427">
@@ -8438,7 +8438,7 @@
         <v>7</v>
       </c>
       <c r="E427" t="n">
-        <v>17.8833469943927</v>
+        <v>17.8833337655137</v>
       </c>
     </row>
     <row r="428">
@@ -8455,7 +8455,7 @@
         <v>7</v>
       </c>
       <c r="E428" t="n">
-        <v>20.9768012282081</v>
+        <v>20.9767861706903</v>
       </c>
     </row>
     <row r="429">
@@ -8472,7 +8472,7 @@
         <v>7</v>
       </c>
       <c r="E429" t="n">
-        <v>25.5104261752233</v>
+        <v>25.510394370536</v>
       </c>
     </row>
     <row r="430">
@@ -8489,7 +8489,7 @@
         <v>7</v>
       </c>
       <c r="E430" t="n">
-        <v>26.8262476079786</v>
+        <v>26.8262519827496</v>
       </c>
     </row>
     <row r="431">
@@ -8506,7 +8506,7 @@
         <v>7</v>
       </c>
       <c r="E431" t="n">
-        <v>29.7091899399743</v>
+        <v>29.7091583660021</v>
       </c>
     </row>
     <row r="432">
@@ -8523,7 +8523,7 @@
         <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>38.1654377421348</v>
+        <v>38.1654395749273</v>
       </c>
     </row>
     <row r="433">
@@ -8540,7 +8540,7 @@
         <v>7</v>
       </c>
       <c r="E433" t="n">
-        <v>39.0735809308578</v>
+        <v>39.0735852797321</v>
       </c>
     </row>
     <row r="434">
@@ -8557,7 +8557,7 @@
         <v>7</v>
       </c>
       <c r="E434" t="n">
-        <v>49.9733436690594</v>
+        <v>49.9733459787904</v>
       </c>
     </row>
     <row r="435">
@@ -8574,7 +8574,7 @@
         <v>7</v>
       </c>
       <c r="E435" t="n">
-        <v>49.97335700128</v>
+        <v>49.9733459787903</v>
       </c>
     </row>
     <row r="436">
@@ -8591,7 +8591,7 @@
         <v>7</v>
       </c>
       <c r="E436" t="n">
-        <v>52.3269612894312</v>
+        <v>52.3269330788134</v>
       </c>
     </row>
     <row r="437">
@@ -8608,7 +8608,7 @@
         <v>7</v>
       </c>
       <c r="E437" t="n">
-        <v>42.9948310767747</v>
+        <v>42.9948327013584</v>
       </c>
     </row>
     <row r="438">
@@ -8625,7 +8625,7 @@
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>40.9712901638189</v>
+        <v>40.9713146615681</v>
       </c>
     </row>
     <row r="439">
@@ -8642,7 +8642,7 @@
         <v>7</v>
       </c>
       <c r="E439" t="n">
-        <v>46.681947665163</v>
+        <v>46.6819634723795</v>
       </c>
     </row>
     <row r="440">
@@ -8659,7 +8659,7 @@
         <v>7</v>
       </c>
       <c r="E440" t="n">
-        <v>45.9359515958042</v>
+        <v>45.9359429971097</v>
       </c>
     </row>
     <row r="441">
@@ -8676,7 +8676,7 @@
         <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>47.2681635833997</v>
+        <v>47.2681549326267</v>
       </c>
     </row>
     <row r="442">
@@ -8693,7 +8693,7 @@
         <v>7</v>
       </c>
       <c r="E442" t="n">
-        <v>34.5661420690889</v>
+        <v>34.5661468193325</v>
       </c>
     </row>
     <row r="443">
@@ -8710,7 +8710,7 @@
         <v>7</v>
       </c>
       <c r="E443" t="n">
-        <v>32.8094950770272</v>
+        <v>32.8094842037585</v>
       </c>
     </row>
     <row r="444">
@@ -8727,7 +8727,7 @@
         <v>7</v>
       </c>
       <c r="E444" t="n">
-        <v>30.8996039205156</v>
+        <v>30.8996061101853</v>
       </c>
     </row>
     <row r="445">
@@ -8744,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="E445" t="n">
-        <v>32.8672198599472</v>
+        <v>32.867193738857</v>
       </c>
     </row>
     <row r="446">
@@ -8761,7 +8761,7 @@
         <v>7</v>
       </c>
       <c r="E446" t="n">
-        <v>34.2482691540885</v>
+        <v>34.24826079611</v>
       </c>
     </row>
     <row r="447">
@@ -8778,7 +8778,7 @@
         <v>7</v>
       </c>
       <c r="E447" t="n">
-        <v>50.4286548816931</v>
+        <v>50.4286547413439</v>
       </c>
     </row>
     <row r="448">
@@ -8795,7 +8795,7 @@
         <v>7</v>
       </c>
       <c r="E448" t="n">
-        <v>59.4585136067412</v>
+        <v>59.4585020629766</v>
       </c>
     </row>
     <row r="449">
@@ -8812,7 +8812,7 @@
         <v>7</v>
       </c>
       <c r="E449" t="n">
-        <v>59.4825941544723</v>
+        <v>59.4825900235226</v>
       </c>
     </row>
     <row r="450">
@@ -8829,7 +8829,7 @@
         <v>7</v>
       </c>
       <c r="E450" t="n">
-        <v>34.6255884387088</v>
+        <v>34.6255613357536</v>
       </c>
     </row>
     <row r="451">
@@ -8846,7 +8846,7 @@
         <v>7</v>
       </c>
       <c r="E451" t="n">
-        <v>39.1806725406556</v>
+        <v>39.1806651601455</v>
       </c>
     </row>
     <row r="452">
@@ -8863,7 +8863,7 @@
         <v>7</v>
       </c>
       <c r="E452" t="n">
-        <v>35.5829375601746</v>
+        <v>35.5829567068174</v>
       </c>
     </row>
     <row r="453">
@@ -8880,7 +8880,7 @@
         <v>7</v>
       </c>
       <c r="E453" t="n">
-        <v>44.1985479088093</v>
+        <v>44.1985523848895</v>
       </c>
     </row>
     <row r="454">
@@ -8897,7 +8897,7 @@
         <v>7</v>
       </c>
       <c r="E454" t="n">
-        <v>42.2129765609675</v>
+        <v>42.2130079590151</v>
       </c>
     </row>
     <row r="455">
@@ -8914,7 +8914,7 @@
         <v>7</v>
       </c>
       <c r="E455" t="n">
-        <v>36.7662269254663</v>
+        <v>36.7662576379776</v>
       </c>
     </row>
     <row r="456">
@@ -8931,7 +8931,7 @@
         <v>7</v>
       </c>
       <c r="E456" t="n">
-        <v>39.9137833831644</v>
+        <v>39.913796974351</v>
       </c>
     </row>
     <row r="457">
@@ -8948,7 +8948,7 @@
         <v>7</v>
       </c>
       <c r="E457" t="n">
-        <v>38.1536848479823</v>
+        <v>38.153704138248</v>
       </c>
     </row>
     <row r="458">
@@ -8965,7 +8965,7 @@
         <v>7</v>
       </c>
       <c r="E458" t="n">
-        <v>40.9243507854126</v>
+        <v>40.9243473046505</v>
       </c>
     </row>
     <row r="459">
@@ -8982,7 +8982,7 @@
         <v>7</v>
       </c>
       <c r="E459" t="n">
-        <v>45.4366957375077</v>
+        <v>45.4366938374842</v>
       </c>
     </row>
     <row r="460">
@@ -8999,7 +8999,7 @@
         <v>7</v>
       </c>
       <c r="E460" t="n">
-        <v>45.3440952242304</v>
+        <v>45.344096635862</v>
       </c>
     </row>
     <row r="461">
@@ -9016,7 +9016,7 @@
         <v>7</v>
       </c>
       <c r="E461" t="n">
-        <v>52.3161778249342</v>
+        <v>52.3073689391169</v>
       </c>
     </row>
     <row r="462">
@@ -9033,7 +9033,7 @@
         <v>7</v>
       </c>
       <c r="E462" t="n">
-        <v>59.857403464241</v>
+        <v>59.8573979083777</v>
       </c>
     </row>
     <row r="463">
@@ -9050,7 +9050,7 @@
         <v>7</v>
       </c>
       <c r="E463" t="n">
-        <v>60.2983955385237</v>
+        <v>60.2983908698182</v>
       </c>
     </row>
     <row r="464">
@@ -9067,7 +9067,7 @@
         <v>7</v>
       </c>
       <c r="E464" t="n">
-        <v>26.2042859108381</v>
+        <v>26.2042893202577</v>
       </c>
     </row>
     <row r="465">
@@ -9084,7 +9084,7 @@
         <v>7</v>
       </c>
       <c r="E465" t="n">
-        <v>34.4581651830263</v>
+        <v>34.45815865307</v>
       </c>
     </row>
     <row r="466">
@@ -9101,7 +9101,7 @@
         <v>7</v>
       </c>
       <c r="E466" t="n">
-        <v>35.9196047351003</v>
+        <v>35.9196031367972</v>
       </c>
     </row>
     <row r="467">
@@ -9118,7 +9118,7 @@
         <v>7</v>
       </c>
       <c r="E467" t="n">
-        <v>40.0918634162582</v>
+        <v>40.0918771091332</v>
       </c>
     </row>
     <row r="468">
@@ -9135,7 +9135,7 @@
         <v>7</v>
       </c>
       <c r="E468" t="n">
-        <v>44.0470576487187</v>
+        <v>44.0470529912985</v>
       </c>
     </row>
     <row r="469">
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="E469" t="n">
-        <v>46.1245418092059</v>
+        <v>46.1245510820464</v>
       </c>
     </row>
     <row r="470">
@@ -9169,7 +9169,7 @@
         <v>7</v>
       </c>
       <c r="E470" t="n">
-        <v>47.5969861210835</v>
+        <v>47.5970065264278</v>
       </c>
     </row>
     <row r="471">
@@ -9186,7 +9186,7 @@
         <v>7</v>
       </c>
       <c r="E471" t="n">
-        <v>48.2937844957566</v>
+        <v>48.2937772619833</v>
       </c>
     </row>
     <row r="472">
@@ -9203,7 +9203,7 @@
         <v>7</v>
       </c>
       <c r="E472" t="n">
-        <v>52.8815860165589</v>
+        <v>52.8815874994045</v>
       </c>
     </row>
     <row r="473">
@@ -9220,7 +9220,7 @@
         <v>7</v>
       </c>
       <c r="E473" t="n">
-        <v>55.5802002777903</v>
+        <v>55.5801931365622</v>
       </c>
     </row>
     <row r="474">
@@ -9237,7 +9237,7 @@
         <v>7</v>
       </c>
       <c r="E474" t="n">
-        <v>48.3886845599649</v>
+        <v>48.3886813490037</v>
       </c>
     </row>
     <row r="475">
@@ -9254,7 +9254,7 @@
         <v>7</v>
       </c>
       <c r="E475" t="n">
-        <v>54.9289852741356</v>
+        <v>54.9289733889944</v>
       </c>
     </row>
     <row r="476">
@@ -9271,7 +9271,7 @@
         <v>7</v>
       </c>
       <c r="E476" t="n">
-        <v>50.7078848099285</v>
+        <v>50.7078844151106</v>
       </c>
     </row>
     <row r="477">
@@ -9288,7 +9288,7 @@
         <v>7</v>
       </c>
       <c r="E477" t="n">
-        <v>54.5039229500628</v>
+        <v>54.5039233575906</v>
       </c>
     </row>
     <row r="478">
@@ -9305,7 +9305,7 @@
         <v>7</v>
       </c>
       <c r="E478" t="n">
-        <v>55.776291963244</v>
+        <v>55.7762923753983</v>
       </c>
     </row>
     <row r="479">
@@ -9322,7 +9322,7 @@
         <v>7</v>
       </c>
       <c r="E479" t="n">
-        <v>38.0586001689741</v>
+        <v>38.0585731638933</v>
       </c>
     </row>
     <row r="480">
@@ -9339,7 +9339,7 @@
         <v>7</v>
       </c>
       <c r="E480" t="n">
-        <v>43.2178606528357</v>
+        <v>43.2178350239425</v>
       </c>
     </row>
     <row r="481">
@@ -9356,7 +9356,7 @@
         <v>7</v>
       </c>
       <c r="E481" t="n">
-        <v>42.442615879217</v>
+        <v>42.4426107800335</v>
       </c>
     </row>
     <row r="482">
@@ -9373,7 +9373,7 @@
         <v>7</v>
       </c>
       <c r="E482" t="n">
-        <v>47.0806336345006</v>
+        <v>47.0806690128265</v>
       </c>
     </row>
     <row r="483">
@@ -9390,7 +9390,7 @@
         <v>7</v>
       </c>
       <c r="E483" t="n">
-        <v>49.9749195671249</v>
+        <v>49.9749725874943</v>
       </c>
     </row>
     <row r="484">
@@ -9407,7 +9407,7 @@
         <v>7</v>
       </c>
       <c r="E484" t="n">
-        <v>51.6122923605899</v>
+        <v>51.6122817877223</v>
       </c>
     </row>
     <row r="485">
@@ -9424,7 +9424,7 @@
         <v>7</v>
       </c>
       <c r="E485" t="n">
-        <v>58.4844903590128</v>
+        <v>58.4845121137412</v>
       </c>
     </row>
     <row r="486">
@@ -9441,7 +9441,7 @@
         <v>7</v>
       </c>
       <c r="E486" t="n">
-        <v>59.9186791039802</v>
+        <v>59.918684286805</v>
       </c>
     </row>
     <row r="487">
@@ -9458,7 +9458,7 @@
         <v>7</v>
       </c>
       <c r="E487" t="n">
-        <v>63.031156710231</v>
+        <v>63.0311481407299</v>
       </c>
     </row>
     <row r="488">
@@ -9475,7 +9475,7 @@
         <v>7</v>
       </c>
       <c r="E488" t="n">
-        <v>46.9554304466426</v>
+        <v>46.9554237997134</v>
       </c>
     </row>
     <row r="489">
@@ -9492,7 +9492,7 @@
         <v>7</v>
       </c>
       <c r="E489" t="n">
-        <v>48.9209057885171</v>
+        <v>48.9209146460371</v>
       </c>
     </row>
     <row r="490">
@@ -9509,7 +9509,7 @@
         <v>7</v>
       </c>
       <c r="E490" t="n">
-        <v>51.5730267389775</v>
+        <v>51.5730275134815</v>
       </c>
     </row>
     <row r="491">
@@ -9526,7 +9526,7 @@
         <v>7</v>
       </c>
       <c r="E491" t="n">
-        <v>56.4194240480774</v>
+        <v>56.4194359224833</v>
       </c>
     </row>
     <row r="492">
@@ -9543,7 +9543,7 @@
         <v>7</v>
       </c>
       <c r="E492" t="n">
-        <v>57.6125017864124</v>
+        <v>57.6124854056395</v>
       </c>
     </row>
     <row r="493">
@@ -9560,7 +9560,7 @@
         <v>7</v>
       </c>
       <c r="E493" t="n">
-        <v>59.3197332710119</v>
+        <v>59.3197453448637</v>
       </c>
     </row>
     <row r="494">
@@ -9577,7 +9577,7 @@
         <v>7</v>
       </c>
       <c r="E494" t="n">
-        <v>59.9461557194603</v>
+        <v>59.9461867769653</v>
       </c>
     </row>
     <row r="495">
@@ -9594,7 +9594,7 @@
         <v>7</v>
       </c>
       <c r="E495" t="n">
-        <v>64.1659015635009</v>
+        <v>64.1658687317439</v>
       </c>
     </row>
     <row r="496">
@@ -9611,7 +9611,7 @@
         <v>7</v>
       </c>
       <c r="E496" t="n">
-        <v>64.3498038949113</v>
+        <v>64.3498081439032</v>
       </c>
     </row>
     <row r="497">
@@ -9628,7 +9628,7 @@
         <v>7</v>
       </c>
       <c r="E497" t="n">
-        <v>46.1072585406672</v>
+        <v>46.1072768833555</v>
       </c>
     </row>
     <row r="498">
@@ -9645,7 +9645,7 @@
         <v>7</v>
       </c>
       <c r="E498" t="n">
-        <v>48.95134725312</v>
+        <v>48.9513290238295</v>
       </c>
     </row>
     <row r="499">
@@ -9662,7 +9662,7 @@
         <v>7</v>
       </c>
       <c r="E499" t="n">
-        <v>50.7935947173124</v>
+        <v>50.7936048529393</v>
       </c>
     </row>
     <row r="500">
@@ -9679,7 +9679,7 @@
         <v>7</v>
       </c>
       <c r="E500" t="n">
-        <v>53.0855666438856</v>
+        <v>53.0855598505363</v>
       </c>
     </row>
     <row r="501">
@@ -9696,7 +9696,7 @@
         <v>7</v>
       </c>
       <c r="E501" t="n">
-        <v>56.1002966348178</v>
+        <v>56.1003041326585</v>
       </c>
     </row>
     <row r="502">
@@ -9713,7 +9713,7 @@
         <v>7</v>
       </c>
       <c r="E502" t="n">
-        <v>34.2366107694312</v>
+        <v>34.2366045939522</v>
       </c>
     </row>
     <row r="503">
@@ -9730,7 +9730,7 @@
         <v>7</v>
       </c>
       <c r="E503" t="n">
-        <v>30.6096889053816</v>
+        <v>30.6096851179973</v>
       </c>
     </row>
     <row r="504">
@@ -9747,7 +9747,7 @@
         <v>7</v>
       </c>
       <c r="E504" t="n">
-        <v>40.1776064330663</v>
+        <v>40.1776106147852</v>
       </c>
     </row>
     <row r="505">
@@ -9764,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="E505" t="n">
-        <v>37.9049679767916</v>
+        <v>37.9049621104885</v>
       </c>
     </row>
     <row r="506">
@@ -9781,7 +9781,7 @@
         <v>7</v>
       </c>
       <c r="E506" t="n">
-        <v>40.7921829573089</v>
+        <v>40.7921748664957</v>
       </c>
     </row>
     <row r="507">
@@ -9798,7 +9798,7 @@
         <v>7</v>
       </c>
       <c r="E507" t="n">
-        <v>56.3099612019089</v>
+        <v>56.3099532540136</v>
       </c>
     </row>
     <row r="508">
@@ -9815,7 +9815,7 @@
         <v>7</v>
       </c>
       <c r="E508" t="n">
-        <v>61.6169603993144</v>
+        <v>61.6169431812015</v>
       </c>
     </row>
     <row r="509">
@@ -9832,7 +9832,7 @@
         <v>7</v>
       </c>
       <c r="E509" t="n">
-        <v>61.710663181063</v>
+        <v>61.7106618953987</v>
       </c>
     </row>
     <row r="510">
@@ -9849,7 +9849,7 @@
         <v>7</v>
       </c>
       <c r="E510" t="n">
-        <v>60.7918804332594</v>
+        <v>60.7918895914686</v>
       </c>
     </row>
     <row r="511">
@@ -9866,7 +9866,7 @@
         <v>7</v>
       </c>
       <c r="E511" t="n">
-        <v>62.6188966334323</v>
+        <v>62.618878753355</v>
       </c>
     </row>
     <row r="512">
@@ -9883,7 +9883,7 @@
         <v>7</v>
       </c>
       <c r="E512" t="n">
-        <v>47.1712230946809</v>
+        <v>47.171218366801</v>
       </c>
     </row>
     <row r="513">
@@ -9900,7 +9900,7 @@
         <v>7</v>
       </c>
       <c r="E513" t="n">
-        <v>51.3153643956436</v>
+        <v>51.3153743244877</v>
       </c>
     </row>
     <row r="514">
@@ -9917,7 +9917,7 @@
         <v>7</v>
       </c>
       <c r="E514" t="n">
-        <v>48.9800735719647</v>
+        <v>48.9800723773615</v>
       </c>
     </row>
     <row r="515">
@@ -9934,7 +9934,7 @@
         <v>7</v>
       </c>
       <c r="E515" t="n">
-        <v>48.9001713757698</v>
+        <v>48.9001728018957</v>
       </c>
     </row>
     <row r="516">
@@ -9951,7 +9951,7 @@
         <v>7</v>
       </c>
       <c r="E516" t="n">
-        <v>48.5661873267747</v>
+        <v>48.5661870049206</v>
       </c>
     </row>
     <row r="517">
@@ -9968,7 +9968,7 @@
         <v>7</v>
       </c>
       <c r="E517" t="n">
-        <v>42.5260491257666</v>
+        <v>42.526052470889</v>
       </c>
     </row>
     <row r="518">
@@ -9985,7 +9985,7 @@
         <v>7</v>
       </c>
       <c r="E518" t="n">
-        <v>49.0786300210563</v>
+        <v>49.0786385848798</v>
       </c>
     </row>
     <row r="519">
@@ -10002,7 +10002,7 @@
         <v>7</v>
       </c>
       <c r="E519" t="n">
-        <v>43.4439495340193</v>
+        <v>43.4439426478261</v>
       </c>
     </row>
     <row r="520">
@@ -10019,7 +10019,7 @@
         <v>7</v>
       </c>
       <c r="E520" t="n">
-        <v>44.6049671957413</v>
+        <v>44.6049659547908</v>
       </c>
     </row>
     <row r="521">
@@ -10036,7 +10036,7 @@
         <v>7</v>
       </c>
       <c r="E521" t="n">
-        <v>45.581065259078</v>
+        <v>45.5810689559327</v>
       </c>
     </row>
     <row r="522">
@@ -10053,7 +10053,7 @@
         <v>7</v>
       </c>
       <c r="E522" t="n">
-        <v>41.4387743505037</v>
+        <v>41.4387813107048</v>
       </c>
     </row>
     <row r="523">
@@ -10070,7 +10070,7 @@
         <v>7</v>
       </c>
       <c r="E523" t="n">
-        <v>42.250532848399</v>
+        <v>42.2505298049745</v>
       </c>
     </row>
     <row r="524">
@@ -10087,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="E524" t="n">
-        <v>38.8573793106936</v>
+        <v>38.8573879915029</v>
       </c>
     </row>
     <row r="525">
@@ -10104,7 +10104,7 @@
         <v>7</v>
       </c>
       <c r="E525" t="n">
-        <v>43.372562286789</v>
+        <v>43.3725701409089</v>
       </c>
     </row>
     <row r="526">
@@ -10121,7 +10121,7 @@
         <v>7</v>
       </c>
       <c r="E526" t="n">
-        <v>45.7294357183863</v>
+        <v>45.7294362853927</v>
       </c>
     </row>
     <row r="527">
@@ -10138,7 +10138,7 @@
         <v>7</v>
       </c>
       <c r="E527" t="n">
-        <v>50.4822980446376</v>
+        <v>50.4822756912168</v>
       </c>
     </row>
     <row r="528">
@@ -10155,7 +10155,7 @@
         <v>7</v>
       </c>
       <c r="E528" t="n">
-        <v>49.3470370411231</v>
+        <v>49.3470241895712</v>
       </c>
     </row>
     <row r="529">
@@ -10172,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="E529" t="n">
-        <v>48.2370578965799</v>
+        <v>48.2370543799184</v>
       </c>
     </row>
     <row r="530">
@@ -10189,7 +10189,7 @@
         <v>7</v>
       </c>
       <c r="E530" t="n">
-        <v>52.740266934387</v>
+        <v>52.7402628134016</v>
       </c>
     </row>
   </sheetData>
@@ -10237,19 +10237,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>31.3793627477846</v>
+        <v>31.3793739976324</v>
       </c>
       <c r="D2" t="n">
-        <v>30.6590707134378</v>
+        <v>30.6590622491174</v>
       </c>
       <c r="E2" t="n">
-        <v>23.9804356814054</v>
+        <v>23.9804244273641</v>
       </c>
       <c r="F2" t="n">
-        <v>30.192356892624</v>
+        <v>30.1923512198067</v>
       </c>
       <c r="G2" t="n">
-        <v>34.4038315196257</v>
+        <v>34.4038103559782</v>
       </c>
     </row>
     <row r="3">
@@ -10260,19 +10260,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>25.6766506852885</v>
+        <v>25.6766436266407</v>
       </c>
       <c r="D3" t="n">
-        <v>30.6050486235066</v>
+        <v>30.6050357477832</v>
       </c>
       <c r="E3" t="n">
-        <v>24.4208046501618</v>
+        <v>24.4208104625321</v>
       </c>
       <c r="F3" t="n">
-        <v>31.9417455004602</v>
+        <v>31.9417476356537</v>
       </c>
       <c r="G3" t="n">
-        <v>33.533799992907</v>
+        <v>33.5337891400656</v>
       </c>
     </row>
     <row r="4">
@@ -10284,16 +10284,16 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>41.2109368633193</v>
+        <v>41.2109440039309</v>
       </c>
       <c r="E4" t="n">
-        <v>32.5624747706856</v>
+        <v>32.5624679923956</v>
       </c>
       <c r="F4" t="n">
-        <v>44.519643800193</v>
+        <v>44.519631518778</v>
       </c>
       <c r="G4" t="n">
-        <v>45.5117099904605</v>
+        <v>45.5117260752882</v>
       </c>
     </row>
     <row r="5">
@@ -10304,19 +10304,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>48.2795128703706</v>
+        <v>48.2794797261962</v>
       </c>
       <c r="D5" t="n">
-        <v>50.3713889918453</v>
+        <v>50.3714076414175</v>
       </c>
       <c r="E5" t="n">
-        <v>48.377255243371</v>
+        <v>48.3772610676706</v>
       </c>
       <c r="F5" t="n">
-        <v>42.4345709572808</v>
+        <v>42.4345620959145</v>
       </c>
       <c r="G5" t="n">
-        <v>51.5810611849339</v>
+        <v>51.5810705199496</v>
       </c>
     </row>
     <row r="6">
@@ -10327,19 +10327,19 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>35.9697808180874</v>
+        <v>35.9697909860943</v>
       </c>
       <c r="D6" t="n">
-        <v>39.9175829756117</v>
+        <v>39.9175918285481</v>
       </c>
       <c r="E6" t="n">
-        <v>34.3390201523398</v>
+        <v>34.3390286907074</v>
       </c>
       <c r="F6" t="n">
-        <v>46.860826295443</v>
+        <v>46.8608603578369</v>
       </c>
       <c r="G6" t="n">
-        <v>47.8416822689531</v>
+        <v>47.8416745743146</v>
       </c>
     </row>
     <row r="7">
@@ -10351,16 +10351,16 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>24.4402826824454</v>
+        <v>24.4402701396343</v>
       </c>
       <c r="E7" t="n">
-        <v>17.3448175847685</v>
+        <v>17.3447955729498</v>
       </c>
       <c r="F7" t="n">
-        <v>25.4096582730266</v>
+        <v>25.4096811744798</v>
       </c>
       <c r="G7" t="n">
-        <v>25.9044463162243</v>
+        <v>25.9044447720919</v>
       </c>
     </row>
     <row r="8">
@@ -10371,19 +10371,19 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>44.8973389547433</v>
+        <v>44.8973450585342</v>
       </c>
       <c r="D8" t="n">
-        <v>47.1163986679156</v>
+        <v>47.1164007374228</v>
       </c>
       <c r="E8" t="n">
-        <v>42.7537351223057</v>
+        <v>42.7537390254132</v>
       </c>
       <c r="F8" t="n">
-        <v>48.4363486934086</v>
+        <v>48.4363515742528</v>
       </c>
       <c r="G8" t="n">
-        <v>50.765001952497</v>
+        <v>50.7649958406698</v>
       </c>
     </row>
     <row r="9">
@@ -10395,16 +10395,16 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>35.7575324354135</v>
+        <v>35.7575277792393</v>
       </c>
       <c r="E9" t="n">
-        <v>39.1922780950351</v>
+        <v>39.1922607964956</v>
       </c>
       <c r="F9" t="n">
-        <v>41.7200899692159</v>
+        <v>41.7200894217999</v>
       </c>
       <c r="G9" t="n">
-        <v>40.5092963832395</v>
+        <v>40.5092768401444</v>
       </c>
     </row>
     <row r="10">
@@ -10415,19 +10415,19 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>44.2885009852547</v>
+        <v>44.2885143979449</v>
       </c>
       <c r="D10" t="n">
-        <v>36.8781834565591</v>
+        <v>36.8781798178048</v>
       </c>
       <c r="E10" t="n">
-        <v>34.8419600936983</v>
+        <v>34.8419608036374</v>
       </c>
       <c r="F10" t="n">
-        <v>39.3607153616861</v>
+        <v>39.3550561337518</v>
       </c>
       <c r="G10" t="n">
-        <v>40.7987301550893</v>
+        <v>40.7926387108949</v>
       </c>
     </row>
     <row r="11">
@@ -10438,19 +10438,19 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>49.6427223977025</v>
+        <v>49.6427205759137</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3768729765153</v>
+        <v>54.3768719282408</v>
       </c>
       <c r="E11" t="n">
-        <v>44.5848960878857</v>
+        <v>44.5848963083756</v>
       </c>
       <c r="F11" t="n">
-        <v>54.5120060120931</v>
+        <v>54.5120076366559</v>
       </c>
       <c r="G11" t="n">
-        <v>57.0825957605319</v>
+        <v>57.082585056921</v>
       </c>
     </row>
     <row r="12">
@@ -10461,19 +10461,19 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>37.2349024045591</v>
+        <v>37.2349162277474</v>
       </c>
       <c r="D12" t="n">
-        <v>51.5475443276322</v>
+        <v>51.5475350497105</v>
       </c>
       <c r="E12" t="n">
-        <v>49.0037515827541</v>
+        <v>49.0037471877987</v>
       </c>
       <c r="F12" t="n">
-        <v>54.3278399485579</v>
+        <v>54.3278399918758</v>
       </c>
       <c r="G12" t="n">
-        <v>56.6990111110953</v>
+        <v>56.698998343725</v>
       </c>
     </row>
     <row r="13">
@@ -10484,19 +10484,19 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>40.3266907470191</v>
+        <v>40.3266938584083</v>
       </c>
       <c r="D13" t="n">
-        <v>46.4034456210255</v>
+        <v>46.4034198923169</v>
       </c>
       <c r="E13" t="n">
-        <v>41.3511336087088</v>
+        <v>41.3511394738798</v>
       </c>
       <c r="F13" t="n">
-        <v>51.4711010155533</v>
+        <v>51.471104969453</v>
       </c>
       <c r="G13" t="n">
-        <v>50.6642899912851</v>
+        <v>50.6642862644124</v>
       </c>
     </row>
     <row r="14">
@@ -10507,19 +10507,19 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>47.5290139132305</v>
+        <v>47.5290053139789</v>
       </c>
       <c r="D14" t="n">
-        <v>47.5121551673355</v>
+        <v>47.512164815567</v>
       </c>
       <c r="E14" t="n">
-        <v>40.3552461423116</v>
+        <v>40.3552407211205</v>
       </c>
       <c r="F14" t="n">
-        <v>44.9088356785533</v>
+        <v>44.9088189377118</v>
       </c>
       <c r="G14" t="n">
-        <v>55.155431784233</v>
+        <v>55.1554294292567</v>
       </c>
     </row>
     <row r="15">
@@ -10530,19 +10530,19 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>38.2675028888477</v>
+        <v>38.267471011957</v>
       </c>
       <c r="D15" t="n">
-        <v>41.6354793998991</v>
+        <v>41.6354909621521</v>
       </c>
       <c r="E15" t="n">
-        <v>42.2044793736565</v>
+        <v>42.2044926777813</v>
       </c>
       <c r="F15" t="n">
-        <v>45.8754607721024</v>
+        <v>45.8754836203738</v>
       </c>
       <c r="G15" t="n">
-        <v>46.6740269321122</v>
+        <v>46.674053330842</v>
       </c>
     </row>
     <row r="16">
@@ -10553,19 +10553,19 @@
         <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>42.2791653715875</v>
+        <v>42.2791824410856</v>
       </c>
       <c r="D16" t="n">
-        <v>55.043402112303</v>
+        <v>55.043408948397</v>
       </c>
       <c r="E16" t="n">
-        <v>45.1509839184142</v>
+        <v>45.1509771968087</v>
       </c>
       <c r="F16" t="n">
-        <v>47.3398522533624</v>
+        <v>47.3398395990648</v>
       </c>
       <c r="G16" t="n">
-        <v>48.5139008416311</v>
+        <v>48.5138831525831</v>
       </c>
     </row>
     <row r="17">
@@ -10576,19 +10576,19 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>46.4310292365164</v>
+        <v>46.4310343917857</v>
       </c>
       <c r="D17" t="n">
-        <v>47.4414241084396</v>
+        <v>47.4414267612192</v>
       </c>
       <c r="E17" t="n">
-        <v>46.4636496098622</v>
+        <v>46.4636438850683</v>
       </c>
       <c r="F17" t="n">
-        <v>54.4112074662416</v>
+        <v>54.4112149409371</v>
       </c>
       <c r="G17" t="n">
-        <v>59.9726658362268</v>
+        <v>59.9726654340784</v>
       </c>
     </row>
     <row r="18">
@@ -10599,16 +10599,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>52.5891848463323</v>
+        <v>52.5892335229769</v>
       </c>
       <c r="D18" t="n">
-        <v>58.5764285092193</v>
+        <v>58.5763982904463</v>
       </c>
       <c r="E18" t="n">
-        <v>59.9493054933967</v>
+        <v>59.9493156790591</v>
       </c>
       <c r="F18" t="n">
-        <v>57.3645396182131</v>
+        <v>57.3645812281117</v>
       </c>
       <c r="G18"/>
     </row>
@@ -10620,19 +10620,19 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>29.1629321022407</v>
+        <v>29.1629430842261</v>
       </c>
       <c r="D19" t="n">
-        <v>33.5466014139451</v>
+        <v>33.5466074423867</v>
       </c>
       <c r="E19" t="n">
-        <v>40.6195916273634</v>
+        <v>40.6195804924459</v>
       </c>
       <c r="F19" t="n">
-        <v>52.5614766192664</v>
+        <v>52.5614961624529</v>
       </c>
       <c r="G19" t="n">
-        <v>52.5929594148074</v>
+        <v>52.59298635544</v>
       </c>
     </row>
     <row r="20">
@@ -10643,19 +10643,19 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>46.3953561950008</v>
+        <v>46.3953563784941</v>
       </c>
       <c r="D20" t="n">
-        <v>45.7041893424417</v>
+        <v>45.7041726709346</v>
       </c>
       <c r="E20" t="n">
-        <v>40.8345530744343</v>
+        <v>40.834561814972</v>
       </c>
       <c r="F20" t="n">
-        <v>43.7250063380839</v>
+        <v>43.7249918927452</v>
       </c>
       <c r="G20" t="n">
-        <v>47.9848485466741</v>
+        <v>47.9848541906101</v>
       </c>
     </row>
     <row r="21">
@@ -10666,19 +10666,19 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>26.7234502444643</v>
+        <v>26.7234500881829</v>
       </c>
       <c r="D21" t="n">
-        <v>30.927326619182</v>
+        <v>30.9273016240883</v>
       </c>
       <c r="E21" t="n">
-        <v>27.6034548342403</v>
+        <v>27.6034382772661</v>
       </c>
       <c r="F21" t="n">
-        <v>29.7055621209118</v>
+        <v>29.7055751422466</v>
       </c>
       <c r="G21" t="n">
-        <v>34.6500103403064</v>
+        <v>34.6500216299893</v>
       </c>
     </row>
     <row r="22">
@@ -10689,19 +10689,19 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>31.345864259551</v>
+        <v>31.3458684211203</v>
       </c>
       <c r="D22" t="n">
-        <v>40.7071560652893</v>
+        <v>40.7071480011882</v>
       </c>
       <c r="E22" t="n">
-        <v>40.9001732037387</v>
+        <v>40.9001713325111</v>
       </c>
       <c r="F22" t="n">
-        <v>49.5992278773187</v>
+        <v>49.5992383173497</v>
       </c>
       <c r="G22" t="n">
-        <v>54.366621100046</v>
+        <v>54.3666198656381</v>
       </c>
     </row>
     <row r="23">
@@ -10712,19 +10712,19 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>51.7881783991158</v>
+        <v>51.78816079573</v>
       </c>
       <c r="D23" t="n">
-        <v>58.7937658754926</v>
+        <v>58.7937623095026</v>
       </c>
       <c r="E23" t="n">
-        <v>52.4221962408704</v>
+        <v>52.4221714136978</v>
       </c>
       <c r="F23" t="n">
-        <v>58.3011481642967</v>
+        <v>58.301151210348</v>
       </c>
       <c r="G23" t="n">
-        <v>60.5110643758995</v>
+        <v>60.5110695447628</v>
       </c>
     </row>
     <row r="24">
@@ -10735,19 +10735,19 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>41.9963497265139</v>
+        <v>41.9963486275067</v>
       </c>
       <c r="D24" t="n">
-        <v>47.1187415681545</v>
+        <v>47.1187252032773</v>
       </c>
       <c r="E24" t="n">
-        <v>37.6923561855792</v>
+        <v>37.6923707324657</v>
       </c>
       <c r="F24" t="n">
-        <v>46.7914676692063</v>
+        <v>46.7914656398425</v>
       </c>
       <c r="G24" t="n">
-        <v>55.0367932775727</v>
+        <v>55.036836325212</v>
       </c>
     </row>
     <row r="25">
@@ -10758,19 +10758,19 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>46.8095719173191</v>
+        <v>46.8095797284263</v>
       </c>
       <c r="D25" t="n">
-        <v>52.8709882024139</v>
+        <v>52.8710044672527</v>
       </c>
       <c r="E25" t="n">
-        <v>50.1621713714451</v>
+        <v>50.1621829483075</v>
       </c>
       <c r="F25" t="n">
-        <v>55.7266594565222</v>
+        <v>55.7266628869164</v>
       </c>
       <c r="G25" t="n">
-        <v>55.9697942846888</v>
+        <v>55.9698069659999</v>
       </c>
     </row>
     <row r="26">
@@ -10781,19 +10781,19 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>59.6167749263193</v>
+        <v>59.6167323694689</v>
       </c>
       <c r="D26" t="n">
-        <v>64.9908506302698</v>
+        <v>64.9908167782056</v>
       </c>
       <c r="E26" t="n">
-        <v>60.4389198855371</v>
+        <v>60.4389566302736</v>
       </c>
       <c r="F26" t="n">
-        <v>65.8944110486311</v>
+        <v>65.8943964995936</v>
       </c>
       <c r="G26" t="n">
-        <v>68.2900142523754</v>
+        <v>68.290006331453</v>
       </c>
     </row>
     <row r="27">
@@ -10805,16 +10805,16 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>16.32724523885</v>
+        <v>16.3272134949536</v>
       </c>
       <c r="E27" t="n">
-        <v>13.7449021954138</v>
+        <v>13.7449139548816</v>
       </c>
       <c r="F27" t="n">
-        <v>12.9714031509413</v>
+        <v>12.9713993112151</v>
       </c>
       <c r="G27" t="n">
-        <v>14.1670508941049</v>
+        <v>14.1670463710968</v>
       </c>
     </row>
     <row r="28">
@@ -10825,19 +10825,19 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>57.3739119158604</v>
+        <v>57.3739025388479</v>
       </c>
       <c r="D28" t="n">
-        <v>61.5476302134164</v>
+        <v>61.5475813887467</v>
       </c>
       <c r="E28" t="n">
-        <v>58.7457836845026</v>
+        <v>58.7457836109263</v>
       </c>
       <c r="F28" t="n">
-        <v>63.3343328131495</v>
+        <v>63.3343227672093</v>
       </c>
       <c r="G28" t="n">
-        <v>63.3430884035857</v>
+        <v>63.3430738825572</v>
       </c>
     </row>
     <row r="29">
@@ -10849,16 +10849,16 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
-        <v>40.9015497988999</v>
+        <v>40.9015565859867</v>
       </c>
       <c r="E29" t="n">
-        <v>38.6026376827496</v>
+        <v>38.6026386114919</v>
       </c>
       <c r="F29" t="n">
-        <v>46.5704557930726</v>
+        <v>46.5704617667783</v>
       </c>
       <c r="G29" t="n">
-        <v>48.1084635057512</v>
+        <v>48.1084553333386</v>
       </c>
     </row>
     <row r="30">
@@ -10869,19 +10869,19 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>55.7516612148505</v>
+        <v>55.7516656971916</v>
       </c>
       <c r="D30" t="n">
-        <v>61.4157419806061</v>
+        <v>61.4157448681603</v>
       </c>
       <c r="E30" t="n">
-        <v>65.6876632635885</v>
+        <v>65.6876843542727</v>
       </c>
       <c r="F30" t="n">
-        <v>65.4602220594671</v>
+        <v>65.4602920406598</v>
       </c>
       <c r="G30" t="n">
-        <v>63.9448034495715</v>
+        <v>63.944793741084</v>
       </c>
     </row>
     <row r="31">
@@ -10892,19 +10892,19 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>36.0392087172863</v>
+        <v>36.039200203563</v>
       </c>
       <c r="D31" t="n">
-        <v>51.5970156595762</v>
+        <v>51.5993693845688</v>
       </c>
       <c r="E31" t="n">
-        <v>42.7831087425425</v>
+        <v>42.7831059904645</v>
       </c>
       <c r="F31" t="n">
-        <v>38.3983338439373</v>
+        <v>38.398336188524</v>
       </c>
       <c r="G31" t="n">
-        <v>44.9080698689636</v>
+        <v>44.908069086582</v>
       </c>
     </row>
     <row r="32">
@@ -10915,19 +10915,19 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>48.656335788217</v>
+        <v>48.6563018300944</v>
       </c>
       <c r="D32" t="n">
-        <v>52.6080825841581</v>
+        <v>52.6080813459301</v>
       </c>
       <c r="E32" t="n">
-        <v>41.3136920972599</v>
+        <v>41.3136862893307</v>
       </c>
       <c r="F32" t="n">
-        <v>40.9591489058104</v>
+        <v>40.9591597144654</v>
       </c>
       <c r="G32" t="n">
-        <v>46.5751649819312</v>
+        <v>46.5751484293377</v>
       </c>
     </row>
     <row r="33">
@@ -10938,19 +10938,19 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>49.784458593743</v>
+        <v>49.7844579343412</v>
       </c>
       <c r="D33" t="n">
-        <v>57.6773548853696</v>
+        <v>57.6773658846039</v>
       </c>
       <c r="E33" t="n">
-        <v>49.9374406784921</v>
+        <v>49.9374324300737</v>
       </c>
       <c r="F33" t="n">
-        <v>53.1236222112337</v>
+        <v>53.1236227274102</v>
       </c>
       <c r="G33" t="n">
-        <v>55.0389390336422</v>
+        <v>55.0389267745095</v>
       </c>
     </row>
     <row r="34">
@@ -10961,17 +10961,17 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>62.241881471081</v>
+        <v>62.2418732830174</v>
       </c>
       <c r="D34" t="n">
-        <v>64.6069060660641</v>
+        <v>64.6068957930785</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="n">
-        <v>63.3541136203785</v>
+        <v>63.3541147953491</v>
       </c>
       <c r="G34" t="n">
-        <v>63.871553243721</v>
+        <v>63.871553755706</v>
       </c>
     </row>
     <row r="35">
@@ -10982,19 +10982,19 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>47.3074037076987</v>
+        <v>47.3074177281472</v>
       </c>
       <c r="D35" t="n">
-        <v>52.1856470049743</v>
+        <v>52.185644497699</v>
       </c>
       <c r="E35" t="n">
-        <v>49.4991895202216</v>
+        <v>49.4991857838793</v>
       </c>
       <c r="F35" t="n">
-        <v>56.9964325398373</v>
+        <v>56.9964170745362</v>
       </c>
       <c r="G35" t="n">
-        <v>59.2970996434243</v>
+        <v>59.2971103729202</v>
       </c>
     </row>
     <row r="36">
@@ -11005,17 +11005,17 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>44.9407351538259</v>
+        <v>44.9407361187168</v>
       </c>
       <c r="D36" t="n">
-        <v>51.4664342494336</v>
+        <v>51.4664447509386</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="n">
-        <v>42.2194115037176</v>
+        <v>42.2194119979995</v>
       </c>
       <c r="G36" t="n">
-        <v>50.551394887624</v>
+        <v>50.551407314729</v>
       </c>
     </row>
     <row r="37">
@@ -11026,19 +11026,19 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>24.9976222674747</v>
+        <v>24.9976259874325</v>
       </c>
       <c r="D37" t="n">
-        <v>23.4329101442282</v>
+        <v>23.432920413776</v>
       </c>
       <c r="E37" t="n">
-        <v>35.1523749912695</v>
+        <v>35.1523720373761</v>
       </c>
       <c r="F37" t="n">
-        <v>36.018985058899</v>
+        <v>36.0189866469943</v>
       </c>
       <c r="G37" t="n">
-        <v>37.0703449139672</v>
+        <v>37.0703551055925</v>
       </c>
     </row>
     <row r="38">
@@ -11050,16 +11050,16 @@
       </c>
       <c r="C38"/>
       <c r="D38" t="n">
-        <v>64.367951799779</v>
+        <v>64.3679353863556</v>
       </c>
       <c r="E38" t="n">
-        <v>59.4648309182494</v>
+        <v>59.464838620508</v>
       </c>
       <c r="F38" t="n">
-        <v>53.9068805042015</v>
+        <v>53.9068825876056</v>
       </c>
       <c r="G38" t="n">
-        <v>56.0377149335744</v>
+        <v>56.0377072910589</v>
       </c>
     </row>
     <row r="39">
@@ -11070,19 +11070,19 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>46.2993292662816</v>
+        <v>46.2993343674785</v>
       </c>
       <c r="D39" t="n">
-        <v>47.9607572791454</v>
+        <v>47.9607567880789</v>
       </c>
       <c r="E39" t="n">
-        <v>42.913989295142</v>
+        <v>42.9139924501293</v>
       </c>
       <c r="F39" t="n">
-        <v>43.345294174415</v>
+        <v>43.3452945199122</v>
       </c>
       <c r="G39" t="n">
-        <v>46.9597561119764</v>
+        <v>46.959751539538</v>
       </c>
     </row>
     <row r="40">
@@ -11093,19 +11093,19 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>34.6660139997361</v>
+        <v>34.6660272392899</v>
       </c>
       <c r="D40" t="n">
-        <v>40.4120337609633</v>
+        <v>40.4120450226538</v>
       </c>
       <c r="E40" t="n">
-        <v>39.2992345304763</v>
+        <v>39.2992435003973</v>
       </c>
       <c r="F40" t="n">
-        <v>50.7201519991944</v>
+        <v>50.7201300305314</v>
       </c>
       <c r="G40" t="n">
-        <v>52.1957852437398</v>
+        <v>52.1957774827749</v>
       </c>
     </row>
     <row r="41">
@@ -11116,19 +11116,19 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>16.4535019416462</v>
+        <v>16.4535010228767</v>
       </c>
       <c r="D41" t="n">
-        <v>24.6961435437308</v>
+        <v>24.6961602632479</v>
       </c>
       <c r="E41" t="n">
-        <v>22.278483908393</v>
+        <v>22.2784870265446</v>
       </c>
       <c r="F41" t="n">
-        <v>23.7770739068148</v>
+        <v>23.7770751787808</v>
       </c>
       <c r="G41" t="n">
-        <v>22.5963170745388</v>
+        <v>22.5963154014752</v>
       </c>
     </row>
     <row r="42">
@@ -11139,19 +11139,19 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>55.518852146381</v>
+        <v>55.5188099627972</v>
       </c>
       <c r="D42" t="n">
-        <v>61.3391532085741</v>
+        <v>61.3391742861894</v>
       </c>
       <c r="E42" t="n">
-        <v>59.2639868556462</v>
+        <v>59.2640162487956</v>
       </c>
       <c r="F42" t="n">
-        <v>63.3595037813138</v>
+        <v>63.3595238624169</v>
       </c>
       <c r="G42" t="n">
-        <v>62.7020650262998</v>
+        <v>62.7020788592321</v>
       </c>
     </row>
     <row r="43">
@@ -11162,19 +11162,19 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>56.2452914714384</v>
+        <v>56.2452584330605</v>
       </c>
       <c r="D43" t="n">
-        <v>63.6143888334206</v>
+        <v>63.6143984259808</v>
       </c>
       <c r="E43" t="n">
-        <v>62.7547069167894</v>
+        <v>62.7547218038287</v>
       </c>
       <c r="F43" t="n">
-        <v>57.7233719255265</v>
+        <v>57.7234100353179</v>
       </c>
       <c r="G43" t="n">
-        <v>60.6125970486915</v>
+        <v>60.6126172441662</v>
       </c>
     </row>
     <row r="44">
@@ -11185,19 +11185,19 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>56.8742057118058</v>
+        <v>56.8741930890095</v>
       </c>
       <c r="D44" t="n">
-        <v>59.483336087036</v>
+        <v>59.4833423967767</v>
       </c>
       <c r="E44" t="n">
-        <v>61.3088615916022</v>
+        <v>61.3088618824304</v>
       </c>
       <c r="F44" t="n">
-        <v>58.514716053921</v>
+        <v>58.5147174394114</v>
       </c>
       <c r="G44" t="n">
-        <v>62.7796333629758</v>
+        <v>62.7796118893112</v>
       </c>
     </row>
     <row r="45">
@@ -11208,19 +11208,19 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>42.993456479767</v>
+        <v>42.9934437832803</v>
       </c>
       <c r="D45" t="n">
-        <v>51.3027877958129</v>
+        <v>51.3027701253718</v>
       </c>
       <c r="E45" t="n">
-        <v>49.8203837321333</v>
+        <v>49.8203807338197</v>
       </c>
       <c r="F45" t="n">
-        <v>54.4232960479138</v>
+        <v>54.4232873100666</v>
       </c>
       <c r="G45" t="n">
-        <v>60.0925886188233</v>
+        <v>60.0925975746302</v>
       </c>
     </row>
     <row r="46">
@@ -11231,19 +11231,19 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>48.1078159846239</v>
+        <v>48.107825147134</v>
       </c>
       <c r="D46" t="n">
-        <v>48.4304800873481</v>
+        <v>48.4304908492516</v>
       </c>
       <c r="E46" t="n">
-        <v>45.559361512809</v>
+        <v>45.5593461350536</v>
       </c>
       <c r="F46" t="n">
-        <v>55.6580584831327</v>
+        <v>55.6580557825809</v>
       </c>
       <c r="G46" t="n">
-        <v>57.5718566686275</v>
+        <v>57.5718583805057</v>
       </c>
     </row>
     <row r="47">
@@ -11254,19 +11254,19 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>33.4113391473967</v>
+        <v>33.4113381821696</v>
       </c>
       <c r="D47" t="n">
-        <v>39.8072928631545</v>
+        <v>39.8072874171112</v>
       </c>
       <c r="E47" t="n">
-        <v>40.6852458958128</v>
+        <v>40.6852210485404</v>
       </c>
       <c r="F47" t="n">
-        <v>40.1733943002765</v>
+        <v>40.1734362920776</v>
       </c>
       <c r="G47" t="n">
-        <v>42.0437647431126</v>
+        <v>42.0437643435395</v>
       </c>
     </row>
     <row r="48">
@@ -11277,19 +11277,19 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>48.5482007221085</v>
+        <v>48.5481892051306</v>
       </c>
       <c r="D48" t="n">
-        <v>50.8021744903032</v>
+        <v>50.80217526701</v>
       </c>
       <c r="E48" t="n">
-        <v>47.3025208334883</v>
+        <v>47.3025149707792</v>
       </c>
       <c r="F48" t="n">
-        <v>51.5360622341987</v>
+        <v>51.5360627897436</v>
       </c>
       <c r="G48" t="n">
-        <v>50.3736497762448</v>
+        <v>50.3736590537779</v>
       </c>
     </row>
     <row r="49">
@@ -11300,19 +11300,19 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>27.9869308761652</v>
+        <v>27.9869406766445</v>
       </c>
       <c r="D49" t="n">
-        <v>37.8204945062244</v>
+        <v>37.8205010996731</v>
       </c>
       <c r="E49" t="n">
-        <v>30.259024863733</v>
+        <v>30.2590282832491</v>
       </c>
       <c r="F49" t="n">
-        <v>35.9857075106724</v>
+        <v>35.9857083217472</v>
       </c>
       <c r="G49" t="n">
-        <v>39.2067995428736</v>
+        <v>39.2068028761442</v>
       </c>
     </row>
     <row r="50">
@@ -11323,19 +11323,19 @@
         <v>103</v>
       </c>
       <c r="C50" t="n">
-        <v>73.3613008532032</v>
+        <v>73.3613141322157</v>
       </c>
       <c r="D50" t="n">
-        <v>59.871003146773</v>
+        <v>59.8710054017519</v>
       </c>
       <c r="E50" t="n">
-        <v>58.4536887125452</v>
+        <v>58.4536792680299</v>
       </c>
       <c r="F50" t="n">
-        <v>60.7502817223026</v>
+        <v>60.7502905635242</v>
       </c>
       <c r="G50" t="n">
-        <v>61.9467537712764</v>
+        <v>61.9467393342019</v>
       </c>
     </row>
     <row r="51">
@@ -11346,19 +11346,19 @@
         <v>105</v>
       </c>
       <c r="C51" t="n">
-        <v>49.3767118813521</v>
+        <v>49.376701407284</v>
       </c>
       <c r="D51" t="n">
-        <v>52.7283740334276</v>
+        <v>52.7283939980682</v>
       </c>
       <c r="E51" t="n">
-        <v>46.6358785233772</v>
+        <v>46.6358767171929</v>
       </c>
       <c r="F51" t="n">
-        <v>52.117587953912</v>
+        <v>52.1176067618473</v>
       </c>
       <c r="G51" t="n">
-        <v>54.6013856311828</v>
+        <v>54.6013720191561</v>
       </c>
     </row>
     <row r="52">
@@ -11369,19 +11369,19 @@
         <v>107</v>
       </c>
       <c r="C52" t="n">
-        <v>44.5898754536118</v>
+        <v>44.5898591292164</v>
       </c>
       <c r="D52" t="n">
-        <v>48.3968300774235</v>
+        <v>48.3968217306261</v>
       </c>
       <c r="E52" t="n">
-        <v>46.1678476658728</v>
+        <v>46.1678278434338</v>
       </c>
       <c r="F52" t="n">
-        <v>45.7984483319708</v>
+        <v>45.7984509402638</v>
       </c>
       <c r="G52" t="n">
-        <v>49.3364287213263</v>
+        <v>49.3364045392298</v>
       </c>
     </row>
     <row r="53">
@@ -11392,19 +11392,19 @@
         <v>109</v>
       </c>
       <c r="C53" t="n">
-        <v>49.9719734448083</v>
+        <v>49.9719342103807</v>
       </c>
       <c r="D53" t="n">
-        <v>53.5434885385852</v>
+        <v>53.5434719140517</v>
       </c>
       <c r="E53" t="n">
-        <v>53.4638430748894</v>
+        <v>53.4638221693755</v>
       </c>
       <c r="F53" t="n">
-        <v>62.0185361655037</v>
+        <v>62.0185546666299</v>
       </c>
       <c r="G53" t="n">
-        <v>62.7904763487738</v>
+        <v>62.7904584461603</v>
       </c>
     </row>
     <row r="54">
@@ -11415,19 +11415,19 @@
         <v>111</v>
       </c>
       <c r="C54" t="n">
-        <v>41.6891933228771</v>
+        <v>41.6891788900631</v>
       </c>
       <c r="D54" t="n">
-        <v>39.8230546537782</v>
+        <v>39.8230600614275</v>
       </c>
       <c r="E54" t="n">
-        <v>41.0763985375342</v>
+        <v>41.0763768819177</v>
       </c>
       <c r="F54" t="n">
-        <v>44.7956389478474</v>
+        <v>44.7956382858252</v>
       </c>
       <c r="G54" t="n">
-        <v>46.932285947195</v>
+        <v>46.9322794965797</v>
       </c>
     </row>
     <row r="55">
@@ -11438,19 +11438,19 @@
         <v>113</v>
       </c>
       <c r="C55" t="n">
-        <v>40.6122013102928</v>
+        <v>40.6121894896158</v>
       </c>
       <c r="D55" t="n">
-        <v>43.5418332349804</v>
+        <v>43.5418415762678</v>
       </c>
       <c r="E55" t="n">
-        <v>39.2079408823745</v>
+        <v>39.2079603890061</v>
       </c>
       <c r="F55" t="n">
-        <v>43.4916248968916</v>
+        <v>43.4916380471679</v>
       </c>
       <c r="G55" t="n">
-        <v>45.9436100326141</v>
+        <v>45.9436253139828</v>
       </c>
     </row>
     <row r="56">
@@ -11461,19 +11461,19 @@
         <v>115</v>
       </c>
       <c r="C56" t="n">
-        <v>48.0042544600299</v>
+        <v>48.0042384435737</v>
       </c>
       <c r="D56" t="n">
-        <v>44.5196481398574</v>
+        <v>44.5196462298552</v>
       </c>
       <c r="E56" t="n">
-        <v>42.7251541913823</v>
+        <v>42.7251591909615</v>
       </c>
       <c r="F56" t="n">
-        <v>53.0999562496374</v>
+        <v>53.0999496532129</v>
       </c>
       <c r="G56" t="n">
-        <v>54.6626133107997</v>
+        <v>54.6626118829481</v>
       </c>
     </row>
     <row r="57">
@@ -11484,19 +11484,19 @@
         <v>117</v>
       </c>
       <c r="C57" t="n">
-        <v>34.9814324082363</v>
+        <v>34.981435319297</v>
       </c>
       <c r="D57" t="n">
-        <v>38.7172905921799</v>
+        <v>38.7172981005222</v>
       </c>
       <c r="E57" t="n">
-        <v>40.8244263445243</v>
+        <v>40.8244165475587</v>
       </c>
       <c r="F57" t="n">
-        <v>41.1920332428353</v>
+        <v>41.1920370665149</v>
       </c>
       <c r="G57" t="n">
-        <v>42.996778038767</v>
+        <v>42.9967853490883</v>
       </c>
     </row>
     <row r="58">
@@ -11507,19 +11507,19 @@
         <v>119</v>
       </c>
       <c r="C58" t="n">
-        <v>46.9675072317575</v>
+        <v>46.9674975766542</v>
       </c>
       <c r="D58" t="n">
-        <v>46.1587974958588</v>
+        <v>46.158805787009</v>
       </c>
       <c r="E58" t="n">
-        <v>42.2057073881655</v>
+        <v>42.2057067269668</v>
       </c>
       <c r="F58" t="n">
-        <v>40.9806309659546</v>
+        <v>40.9806411455824</v>
       </c>
       <c r="G58" t="n">
-        <v>50.4036390519536</v>
+        <v>50.4036309317555</v>
       </c>
     </row>
     <row r="59">
@@ -11530,19 +11530,19 @@
         <v>121</v>
       </c>
       <c r="C59" t="n">
-        <v>56.571965856015</v>
+        <v>56.5719544142825</v>
       </c>
       <c r="D59" t="n">
-        <v>54.9111080464392</v>
+        <v>54.9111161000894</v>
       </c>
       <c r="E59" t="n">
-        <v>55.1704338858679</v>
+        <v>55.1704546612864</v>
       </c>
       <c r="F59" t="n">
-        <v>57.1564038438603</v>
+        <v>57.1564092885331</v>
       </c>
       <c r="G59" t="n">
-        <v>58.9343330144497</v>
+        <v>58.9343222994606</v>
       </c>
     </row>
     <row r="60">
@@ -11553,19 +11553,19 @@
         <v>123</v>
       </c>
       <c r="C60" t="n">
-        <v>19.591174257701</v>
+        <v>19.5911810867505</v>
       </c>
       <c r="D60" t="n">
-        <v>24.8551925597154</v>
+        <v>24.8552156428869</v>
       </c>
       <c r="E60" t="n">
-        <v>26.1778033803698</v>
+        <v>26.1778186459651</v>
       </c>
       <c r="F60" t="n">
-        <v>34.359258599377</v>
+        <v>34.3592580091675</v>
       </c>
       <c r="G60" t="n">
-        <v>39.0206400145835</v>
+        <v>39.020638870125</v>
       </c>
     </row>
     <row r="61">
@@ -11576,19 +11576,19 @@
         <v>125</v>
       </c>
       <c r="C61" t="n">
-        <v>30.4744108024359</v>
+        <v>30.4744186676669</v>
       </c>
       <c r="D61" t="n">
-        <v>34.6025143316906</v>
+        <v>34.6025177582242</v>
       </c>
       <c r="E61" t="n">
-        <v>37.748929155006</v>
+        <v>37.7489363332213</v>
       </c>
       <c r="F61" t="n">
-        <v>46.3123156927268</v>
+        <v>46.3123234888682</v>
       </c>
       <c r="G61" t="n">
-        <v>50.0272754708476</v>
+        <v>50.0272613137022</v>
       </c>
     </row>
     <row r="62">
@@ -11599,19 +11599,19 @@
         <v>127</v>
       </c>
       <c r="C62" t="n">
-        <v>42.9232129478021</v>
+        <v>42.9231836200463</v>
       </c>
       <c r="D62" t="n">
-        <v>36.0786310813323</v>
+        <v>36.0786204764691</v>
       </c>
       <c r="E62" t="n">
-        <v>31.5969503677022</v>
+        <v>31.5969394406485</v>
       </c>
       <c r="F62" t="n">
-        <v>42.6413033130516</v>
+        <v>42.6413151476204</v>
       </c>
       <c r="G62" t="n">
-        <v>44.7487944233703</v>
+        <v>44.748805300852</v>
       </c>
     </row>
     <row r="63">
@@ -11622,19 +11622,19 @@
         <v>129</v>
       </c>
       <c r="C63" t="n">
-        <v>48.2902665991836</v>
+        <v>48.290296694817</v>
       </c>
       <c r="D63" t="n">
-        <v>52.8023323417203</v>
+        <v>52.8023447602376</v>
       </c>
       <c r="E63" t="n">
-        <v>54.2256817025291</v>
+        <v>54.2257036188311</v>
       </c>
       <c r="F63" t="n">
-        <v>51.3043822520349</v>
+        <v>51.3043605335189</v>
       </c>
       <c r="G63" t="n">
-        <v>53.26855770384</v>
+        <v>53.2685702067014</v>
       </c>
     </row>
     <row r="64">
@@ -11645,19 +11645,19 @@
         <v>131</v>
       </c>
       <c r="C64" t="n">
-        <v>41.7330916577223</v>
+        <v>41.7330870333051</v>
       </c>
       <c r="D64" t="n">
-        <v>38.650289786994</v>
+        <v>38.6503000004974</v>
       </c>
       <c r="E64" t="n">
-        <v>40.1999872023329</v>
+        <v>40.200002896864</v>
       </c>
       <c r="F64" t="n">
-        <v>43.2828479993831</v>
+        <v>43.2828589139728</v>
       </c>
       <c r="G64" t="n">
-        <v>46.9254165833065</v>
+        <v>46.9253974283734</v>
       </c>
     </row>
     <row r="65">
@@ -11668,19 +11668,19 @@
         <v>133</v>
       </c>
       <c r="C65" t="n">
-        <v>38.4159900506838</v>
+        <v>38.4159728607068</v>
       </c>
       <c r="D65" t="n">
-        <v>42.4922565881617</v>
+        <v>42.4922494314657</v>
       </c>
       <c r="E65" t="n">
-        <v>42.8212948961708</v>
+        <v>42.8212924939625</v>
       </c>
       <c r="F65" t="n">
-        <v>43.4083665592166</v>
+        <v>43.4083703627173</v>
       </c>
       <c r="G65" t="n">
-        <v>42.7628205815231</v>
+        <v>42.7628367092685</v>
       </c>
     </row>
     <row r="66">
@@ -11691,19 +11691,19 @@
         <v>135</v>
       </c>
       <c r="C66" t="n">
-        <v>33.6375726141549</v>
+        <v>33.6375813380124</v>
       </c>
       <c r="D66" t="n">
-        <v>22.0725182551456</v>
+        <v>22.072523166579</v>
       </c>
       <c r="E66" t="n">
-        <v>28.0747304131265</v>
+        <v>28.0747333991585</v>
       </c>
       <c r="F66" t="n">
-        <v>37.8184680114586</v>
+        <v>37.8184759417058</v>
       </c>
       <c r="G66" t="n">
-        <v>45.2866895227371</v>
+        <v>45.2867112533278</v>
       </c>
     </row>
     <row r="67">
@@ -11714,17 +11714,17 @@
         <v>137</v>
       </c>
       <c r="C67" t="n">
-        <v>41.3470655053946</v>
+        <v>41.3470604245359</v>
       </c>
       <c r="D67" t="n">
-        <v>46.2632400292178</v>
+        <v>46.2632535504619</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>39.0646429883694</v>
+        <v>39.0646433036355</v>
       </c>
       <c r="G67" t="n">
-        <v>46.7673072597057</v>
+        <v>46.767324521624</v>
       </c>
     </row>
     <row r="68">
@@ -11735,16 +11735,16 @@
         <v>139</v>
       </c>
       <c r="C68" t="n">
-        <v>59.2994389611602</v>
+        <v>59.2994488314148</v>
       </c>
       <c r="D68" t="n">
-        <v>65.8518771896953</v>
+        <v>65.8518620550254</v>
       </c>
       <c r="E68" t="n">
-        <v>62.1926972473208</v>
+        <v>62.1926972610839</v>
       </c>
       <c r="F68" t="n">
-        <v>69.1126820908312</v>
+        <v>69.1126529368471</v>
       </c>
       <c r="G68"/>
     </row>
@@ -11756,19 +11756,19 @@
         <v>141</v>
       </c>
       <c r="C69" t="n">
-        <v>56.7737957915658</v>
+        <v>56.7738035063693</v>
       </c>
       <c r="D69" t="n">
-        <v>58.4004684187801</v>
+        <v>58.4004661849056</v>
       </c>
       <c r="E69" t="n">
-        <v>61.0851322953816</v>
+        <v>61.0851440270609</v>
       </c>
       <c r="F69" t="n">
-        <v>67.0524357502706</v>
+        <v>67.0524221441829</v>
       </c>
       <c r="G69" t="n">
-        <v>67.6014042170051</v>
+        <v>67.6014001738156</v>
       </c>
     </row>
     <row r="70">
@@ -11779,19 +11779,19 @@
         <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>56.5099746478067</v>
+        <v>56.5099987355874</v>
       </c>
       <c r="D70" t="n">
-        <v>59.3297637250677</v>
+        <v>59.3297604369768</v>
       </c>
       <c r="E70" t="n">
-        <v>65.4470395994264</v>
+        <v>65.4470223961228</v>
       </c>
       <c r="F70" t="n">
-        <v>62.0716912462609</v>
+        <v>62.0716701890391</v>
       </c>
       <c r="G70" t="n">
-        <v>63.3382066878414</v>
+        <v>63.3382135455828</v>
       </c>
     </row>
     <row r="71">
@@ -11802,19 +11802,19 @@
         <v>145</v>
       </c>
       <c r="C71" t="n">
-        <v>33.820278040139</v>
+        <v>33.8202722181101</v>
       </c>
       <c r="D71" t="n">
-        <v>40.1326729413566</v>
+        <v>40.1326726499537</v>
       </c>
       <c r="E71" t="n">
-        <v>39.0464633398001</v>
+        <v>39.0464600359542</v>
       </c>
       <c r="F71" t="n">
-        <v>37.4889273827857</v>
+        <v>37.4889320098722</v>
       </c>
       <c r="G71" t="n">
-        <v>37.2767504750911</v>
+        <v>37.2767427500745</v>
       </c>
     </row>
     <row r="72">
@@ -11825,19 +11825,19 @@
         <v>147</v>
       </c>
       <c r="C72" t="n">
-        <v>50.3914805231245</v>
+        <v>50.3914860619673</v>
       </c>
       <c r="D72" t="n">
-        <v>53.256915551143</v>
+        <v>53.2569202080454</v>
       </c>
       <c r="E72" t="n">
-        <v>54.0555314904975</v>
+        <v>54.0555237164792</v>
       </c>
       <c r="F72" t="n">
-        <v>59.486392889543</v>
+        <v>59.4863964470616</v>
       </c>
       <c r="G72" t="n">
-        <v>60.9582235251687</v>
+        <v>60.9581916831193</v>
       </c>
     </row>
     <row r="73">
@@ -11848,19 +11848,19 @@
         <v>149</v>
       </c>
       <c r="C73" t="n">
-        <v>45.4266141384805</v>
+        <v>45.4266432800098</v>
       </c>
       <c r="D73" t="n">
-        <v>45.7459089528034</v>
+        <v>45.7458865803769</v>
       </c>
       <c r="E73" t="n">
-        <v>43.1502941762631</v>
+        <v>43.1503007186208</v>
       </c>
       <c r="F73" t="n">
-        <v>60.6338235342417</v>
+        <v>60.6338411780788</v>
       </c>
       <c r="G73" t="n">
-        <v>62.3771861354285</v>
+        <v>62.3771544013974</v>
       </c>
     </row>
     <row r="74">
@@ -11871,17 +11871,17 @@
         <v>151</v>
       </c>
       <c r="C74" t="n">
-        <v>47.0132133904628</v>
+        <v>47.0132073452717</v>
       </c>
       <c r="D74" t="n">
-        <v>51.8238802952179</v>
+        <v>51.8238758354292</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="n">
-        <v>39.879293234749</v>
+        <v>39.8792886345943</v>
       </c>
       <c r="G74" t="n">
-        <v>45.1300677680677</v>
+        <v>45.13005899448</v>
       </c>
     </row>
     <row r="75">
@@ -11892,17 +11892,17 @@
         <v>153</v>
       </c>
       <c r="C75" t="n">
-        <v>37.4785766450112</v>
+        <v>37.4785817579191</v>
       </c>
       <c r="D75" t="n">
-        <v>36.1806429311757</v>
+        <v>36.1806416195665</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
-        <v>41.0710599459049</v>
+        <v>41.0710624726845</v>
       </c>
       <c r="G75" t="n">
-        <v>49.6955306878662</v>
+        <v>49.6955245634011</v>
       </c>
     </row>
     <row r="76">
@@ -11913,19 +11913,19 @@
         <v>155</v>
       </c>
       <c r="C76" t="n">
-        <v>50.8609934077308</v>
+        <v>50.8609833646224</v>
       </c>
       <c r="D76" t="n">
-        <v>51.4111490504642</v>
+        <v>51.4111570260213</v>
       </c>
       <c r="E76" t="n">
-        <v>44.994936046391</v>
+        <v>44.9949454285374</v>
       </c>
       <c r="F76" t="n">
-        <v>50.4231371221896</v>
+        <v>50.4231387158496</v>
       </c>
       <c r="G76" t="n">
-        <v>57.3261806593016</v>
+        <v>57.3261644539142</v>
       </c>
     </row>
     <row r="77">
@@ -11936,17 +11936,17 @@
         <v>157</v>
       </c>
       <c r="C77" t="n">
-        <v>46.0004691088068</v>
+        <v>46.0004695080927</v>
       </c>
       <c r="D77" t="n">
-        <v>47.2322505045277</v>
+        <v>47.2322481126263</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="n">
-        <v>46.9974582493259</v>
+        <v>46.9974652432675</v>
       </c>
       <c r="G77" t="n">
-        <v>49.2202016167561</v>
+        <v>49.2202025176299</v>
       </c>
     </row>
     <row r="78">
@@ -11957,17 +11957,17 @@
         <v>159</v>
       </c>
       <c r="C78" t="n">
-        <v>58.7578172321785</v>
+        <v>58.7578276737667</v>
       </c>
       <c r="D78" t="n">
-        <v>64.3279109860137</v>
+        <v>64.3279065692033</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="n">
-        <v>55.451482180302</v>
+        <v>55.451480789375</v>
       </c>
       <c r="G78" t="n">
-        <v>59.7015053002552</v>
+        <v>59.7015196228045</v>
       </c>
     </row>
     <row r="79">
@@ -11978,19 +11978,19 @@
         <v>161</v>
       </c>
       <c r="C79" t="n">
-        <v>57.9819516349339</v>
+        <v>57.9819324674529</v>
       </c>
       <c r="D79" t="n">
-        <v>65.7249520324961</v>
+        <v>65.7249056059837</v>
       </c>
       <c r="E79" t="n">
-        <v>60.7902998839317</v>
+        <v>60.7903135081507</v>
       </c>
       <c r="F79" t="n">
-        <v>62.1880596854926</v>
+        <v>62.1880850024432</v>
       </c>
       <c r="G79" t="n">
-        <v>65.2549881520657</v>
+        <v>65.2549924923441</v>
       </c>
     </row>
     <row r="80">
@@ -12001,19 +12001,19 @@
         <v>163</v>
       </c>
       <c r="C80" t="n">
-        <v>49.1227799975663</v>
+        <v>49.1227982703598</v>
       </c>
       <c r="D80" t="n">
-        <v>55.6618713940605</v>
+        <v>55.6618800371363</v>
       </c>
       <c r="E80" t="n">
-        <v>53.533073836482</v>
+        <v>53.5243752737466</v>
       </c>
       <c r="F80" t="n">
-        <v>51.503473901416</v>
+        <v>51.5034672868962</v>
       </c>
       <c r="G80" t="n">
-        <v>57.3147878467828</v>
+        <v>57.3147859373153</v>
       </c>
     </row>
     <row r="81">
@@ -12024,13 +12024,13 @@
         <v>165</v>
       </c>
       <c r="C81" t="n">
-        <v>25.3732437163963</v>
+        <v>25.373234666043</v>
       </c>
       <c r="D81" t="n">
-        <v>26.6990630999607</v>
+        <v>26.6990619916649</v>
       </c>
       <c r="E81" t="n">
-        <v>25.3439794612774</v>
+        <v>25.3439888064608</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
@@ -12043,19 +12043,19 @@
         <v>167</v>
       </c>
       <c r="C82" t="n">
-        <v>32.3600182521449</v>
+        <v>32.3600185258792</v>
       </c>
       <c r="D82" t="n">
-        <v>38.1432735171419</v>
+        <v>38.1432538174266</v>
       </c>
       <c r="E82" t="n">
-        <v>38.6509093746027</v>
+        <v>38.6508813071507</v>
       </c>
       <c r="F82" t="n">
-        <v>39.9266688548797</v>
+        <v>39.926679050863</v>
       </c>
       <c r="G82" t="n">
-        <v>41.2610150386461</v>
+        <v>41.2609883048032</v>
       </c>
     </row>
     <row r="83">
@@ -12066,19 +12066,19 @@
         <v>169</v>
       </c>
       <c r="C83" t="n">
-        <v>46.4522597963729</v>
+        <v>46.4522519979846</v>
       </c>
       <c r="D83" t="n">
-        <v>55.9770715781472</v>
+        <v>55.9770749533349</v>
       </c>
       <c r="E83" t="n">
-        <v>50.3259312620672</v>
+        <v>50.3259267969149</v>
       </c>
       <c r="F83" t="n">
-        <v>57.0475139977085</v>
+        <v>57.0475191711862</v>
       </c>
       <c r="G83" t="n">
-        <v>59.9131265221191</v>
+        <v>59.9131363089865</v>
       </c>
     </row>
     <row r="84">
@@ -12089,19 +12089,19 @@
         <v>171</v>
       </c>
       <c r="C84" t="n">
-        <v>47.2818402179142</v>
+        <v>47.2818437152852</v>
       </c>
       <c r="D84" t="n">
-        <v>52.8800999707687</v>
+        <v>52.8800954714713</v>
       </c>
       <c r="E84" t="n">
-        <v>50.8793337631336</v>
+        <v>50.879329441801</v>
       </c>
       <c r="F84" t="n">
-        <v>53.9827428899652</v>
+        <v>53.9827338009822</v>
       </c>
       <c r="G84" t="n">
-        <v>55.7921881079372</v>
+        <v>55.7921884936871</v>
       </c>
     </row>
     <row r="85">
@@ -12112,15 +12112,15 @@
         <v>173</v>
       </c>
       <c r="C85" t="n">
-        <v>59.8619399005622</v>
+        <v>59.8619505062088</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>59.136683847546</v>
+        <v>59.1366799003868</v>
       </c>
       <c r="G85" t="n">
-        <v>74.5771870767185</v>
+        <v>74.5771918610048</v>
       </c>
     </row>
     <row r="86">
@@ -12131,19 +12131,19 @@
         <v>175</v>
       </c>
       <c r="C86" t="n">
-        <v>23.5820506429672</v>
+        <v>23.5820371314722</v>
       </c>
       <c r="D86" t="n">
-        <v>31.4572926451586</v>
+        <v>31.4572999972478</v>
       </c>
       <c r="E86" t="n">
-        <v>31.9470177935045</v>
+        <v>31.9470031719696</v>
       </c>
       <c r="F86" t="n">
-        <v>31.2438751581109</v>
+        <v>31.243883644324</v>
       </c>
       <c r="G86" t="n">
-        <v>31.0281992060771</v>
+        <v>31.02819847229</v>
       </c>
     </row>
     <row r="87">
@@ -12154,19 +12154,19 @@
         <v>177</v>
       </c>
       <c r="C87" t="n">
-        <v>35.3645796121677</v>
+        <v>35.3645924111419</v>
       </c>
       <c r="D87" t="n">
-        <v>41.3232660271953</v>
+        <v>41.3232604964629</v>
       </c>
       <c r="E87" t="n">
-        <v>36.3388104443142</v>
+        <v>36.3388059969425</v>
       </c>
       <c r="F87" t="n">
-        <v>45.1127503479841</v>
+        <v>45.1127381414038</v>
       </c>
       <c r="G87" t="n">
-        <v>44.746758156154</v>
+        <v>44.7467700960829</v>
       </c>
     </row>
     <row r="88">
@@ -12177,17 +12177,17 @@
         <v>179</v>
       </c>
       <c r="C88" t="n">
-        <v>42.4583642864824</v>
+        <v>42.4583566187155</v>
       </c>
       <c r="D88" t="n">
-        <v>47.5203366677848</v>
+        <v>47.5203476472884</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="n">
-        <v>48.463993949178</v>
+        <v>48.4640116972906</v>
       </c>
       <c r="G88" t="n">
-        <v>50.6957737451056</v>
+        <v>50.6957520071084</v>
       </c>
     </row>
     <row r="89">
@@ -12198,19 +12198,19 @@
         <v>181</v>
       </c>
       <c r="C89" t="n">
-        <v>50.4206623838459</v>
+        <v>50.4206716255706</v>
       </c>
       <c r="D89" t="n">
-        <v>43.6604844579977</v>
+        <v>43.6605063285129</v>
       </c>
       <c r="E89" t="n">
-        <v>41.8525660319529</v>
+        <v>41.8525850599663</v>
       </c>
       <c r="F89" t="n">
-        <v>45.7764256342944</v>
+        <v>45.7764370512789</v>
       </c>
       <c r="G89" t="n">
-        <v>47.7622894034794</v>
+        <v>47.7623156251567</v>
       </c>
     </row>
     <row r="90">
@@ -12221,19 +12221,19 @@
         <v>183</v>
       </c>
       <c r="C90" t="n">
-        <v>52.7756763536088</v>
+        <v>52.775682869789</v>
       </c>
       <c r="D90" t="n">
-        <v>58.480367078633</v>
+        <v>58.4803700416941</v>
       </c>
       <c r="E90" t="n">
-        <v>62.5324480053445</v>
+        <v>62.5324496584133</v>
       </c>
       <c r="F90" t="n">
-        <v>64.9571550861942</v>
+        <v>64.9571513417847</v>
       </c>
       <c r="G90" t="n">
-        <v>67.178808740905</v>
+        <v>67.178800825632</v>
       </c>
     </row>
     <row r="91">
@@ -12244,19 +12244,19 @@
         <v>185</v>
       </c>
       <c r="C91" t="n">
-        <v>17.8833469943927</v>
+        <v>17.8833337655137</v>
       </c>
       <c r="D91" t="n">
-        <v>20.9768012282081</v>
+        <v>20.9767861706903</v>
       </c>
       <c r="E91" t="n">
-        <v>25.5104261752233</v>
+        <v>25.510394370536</v>
       </c>
       <c r="F91" t="n">
-        <v>26.8262476079786</v>
+        <v>26.8262519827496</v>
       </c>
       <c r="G91" t="n">
-        <v>29.7091899399743</v>
+        <v>29.7091583660021</v>
       </c>
     </row>
     <row r="92">
@@ -12267,19 +12267,19 @@
         <v>187</v>
       </c>
       <c r="C92" t="n">
-        <v>38.1654377421348</v>
+        <v>38.1654395749273</v>
       </c>
       <c r="D92" t="n">
-        <v>39.0735809308578</v>
+        <v>39.0735852797321</v>
       </c>
       <c r="E92" t="n">
-        <v>49.9733436690594</v>
+        <v>49.9733459787904</v>
       </c>
       <c r="F92" t="n">
-        <v>49.97335700128</v>
+        <v>49.9733459787903</v>
       </c>
       <c r="G92" t="n">
-        <v>52.3269612894312</v>
+        <v>52.3269330788134</v>
       </c>
     </row>
     <row r="93">
@@ -12290,19 +12290,19 @@
         <v>189</v>
       </c>
       <c r="C93" t="n">
-        <v>42.9948310767747</v>
+        <v>42.9948327013584</v>
       </c>
       <c r="D93" t="n">
-        <v>40.9712901638189</v>
+        <v>40.9713146615681</v>
       </c>
       <c r="E93" t="n">
-        <v>46.681947665163</v>
+        <v>46.6819634723795</v>
       </c>
       <c r="F93" t="n">
-        <v>45.9359515958042</v>
+        <v>45.9359429971097</v>
       </c>
       <c r="G93" t="n">
-        <v>47.2681635833997</v>
+        <v>47.2681549326267</v>
       </c>
     </row>
     <row r="94">
@@ -12313,19 +12313,19 @@
         <v>191</v>
       </c>
       <c r="C94" t="n">
-        <v>34.5661420690889</v>
+        <v>34.5661468193325</v>
       </c>
       <c r="D94" t="n">
-        <v>32.8094950770272</v>
+        <v>32.8094842037585</v>
       </c>
       <c r="E94" t="n">
-        <v>30.8996039205156</v>
+        <v>30.8996061101853</v>
       </c>
       <c r="F94" t="n">
-        <v>32.8672198599472</v>
+        <v>32.867193738857</v>
       </c>
       <c r="G94" t="n">
-        <v>34.2482691540885</v>
+        <v>34.24826079611</v>
       </c>
     </row>
     <row r="95">
@@ -12336,15 +12336,15 @@
         <v>193</v>
       </c>
       <c r="C95" t="n">
-        <v>50.4286548816931</v>
+        <v>50.4286547413439</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="n">
-        <v>59.4585136067412</v>
+        <v>59.4585020629766</v>
       </c>
       <c r="G95" t="n">
-        <v>59.4825941544723</v>
+        <v>59.4825900235226</v>
       </c>
     </row>
     <row r="96">
@@ -12355,17 +12355,17 @@
         <v>195</v>
       </c>
       <c r="C96" t="n">
-        <v>34.6255884387088</v>
+        <v>34.6255613357536</v>
       </c>
       <c r="D96"/>
       <c r="E96" t="n">
-        <v>39.1806725406556</v>
+        <v>39.1806651601455</v>
       </c>
       <c r="F96" t="n">
-        <v>35.5829375601746</v>
+        <v>35.5829567068174</v>
       </c>
       <c r="G96" t="n">
-        <v>44.1985479088093</v>
+        <v>44.1985523848895</v>
       </c>
     </row>
     <row r="97">
@@ -12376,19 +12376,19 @@
         <v>197</v>
       </c>
       <c r="C97" t="n">
-        <v>42.2129765609675</v>
+        <v>42.2130079590151</v>
       </c>
       <c r="D97" t="n">
-        <v>36.7662269254663</v>
+        <v>36.7662576379776</v>
       </c>
       <c r="E97" t="n">
-        <v>39.9137833831644</v>
+        <v>39.913796974351</v>
       </c>
       <c r="F97" t="n">
-        <v>38.1536848479823</v>
+        <v>38.153704138248</v>
       </c>
       <c r="G97" t="n">
-        <v>40.9243507854126</v>
+        <v>40.9243473046505</v>
       </c>
     </row>
     <row r="98">
@@ -12399,19 +12399,19 @@
         <v>199</v>
       </c>
       <c r="C98" t="n">
-        <v>45.4366957375077</v>
+        <v>45.4366938374842</v>
       </c>
       <c r="D98" t="n">
-        <v>45.3440952242304</v>
+        <v>45.344096635862</v>
       </c>
       <c r="E98" t="n">
-        <v>52.3161778249342</v>
+        <v>52.3073689391169</v>
       </c>
       <c r="F98" t="n">
-        <v>59.857403464241</v>
+        <v>59.8573979083777</v>
       </c>
       <c r="G98" t="n">
-        <v>60.2983955385237</v>
+        <v>60.2983908698182</v>
       </c>
     </row>
     <row r="99">
@@ -12422,19 +12422,19 @@
         <v>201</v>
       </c>
       <c r="C99" t="n">
-        <v>26.2042859108381</v>
+        <v>26.2042893202577</v>
       </c>
       <c r="D99" t="n">
-        <v>34.4581651830263</v>
+        <v>34.45815865307</v>
       </c>
       <c r="E99" t="n">
-        <v>35.9196047351003</v>
+        <v>35.9196031367972</v>
       </c>
       <c r="F99" t="n">
-        <v>40.0918634162582</v>
+        <v>40.0918771091332</v>
       </c>
       <c r="G99" t="n">
-        <v>44.0470576487187</v>
+        <v>44.0470529912985</v>
       </c>
     </row>
     <row r="100">
@@ -12445,19 +12445,19 @@
         <v>203</v>
       </c>
       <c r="C100" t="n">
-        <v>46.1245418092059</v>
+        <v>46.1245510820464</v>
       </c>
       <c r="D100" t="n">
-        <v>47.5969861210835</v>
+        <v>47.5970065264278</v>
       </c>
       <c r="E100" t="n">
-        <v>48.2937844957566</v>
+        <v>48.2937772619833</v>
       </c>
       <c r="F100" t="n">
-        <v>52.8815860165589</v>
+        <v>52.8815874994045</v>
       </c>
       <c r="G100" t="n">
-        <v>55.5802002777903</v>
+        <v>55.5801931365622</v>
       </c>
     </row>
     <row r="101">
@@ -12468,19 +12468,19 @@
         <v>205</v>
       </c>
       <c r="C101" t="n">
-        <v>48.3886845599649</v>
+        <v>48.3886813490037</v>
       </c>
       <c r="D101" t="n">
-        <v>54.9289852741356</v>
+        <v>54.9289733889944</v>
       </c>
       <c r="E101" t="n">
-        <v>50.7078848099285</v>
+        <v>50.7078844151106</v>
       </c>
       <c r="F101" t="n">
-        <v>54.5039229500628</v>
+        <v>54.5039233575906</v>
       </c>
       <c r="G101" t="n">
-        <v>55.776291963244</v>
+        <v>55.7762923753983</v>
       </c>
     </row>
     <row r="102">
@@ -12491,19 +12491,19 @@
         <v>207</v>
       </c>
       <c r="C102" t="n">
-        <v>38.0586001689741</v>
+        <v>38.0585731638933</v>
       </c>
       <c r="D102" t="n">
-        <v>43.2178606528357</v>
+        <v>43.2178350239425</v>
       </c>
       <c r="E102" t="n">
-        <v>42.442615879217</v>
+        <v>42.4426107800335</v>
       </c>
       <c r="F102" t="n">
-        <v>47.0806336345006</v>
+        <v>47.0806690128265</v>
       </c>
       <c r="G102" t="n">
-        <v>49.9749195671249</v>
+        <v>49.9749725874943</v>
       </c>
     </row>
     <row r="103">
@@ -12514,17 +12514,17 @@
         <v>209</v>
       </c>
       <c r="C103" t="n">
-        <v>51.6122923605899</v>
+        <v>51.6122817877223</v>
       </c>
       <c r="D103" t="n">
-        <v>58.4844903590128</v>
+        <v>58.4845121137412</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="n">
-        <v>59.9186791039802</v>
+        <v>59.918684286805</v>
       </c>
       <c r="G103" t="n">
-        <v>63.031156710231</v>
+        <v>63.0311481407299</v>
       </c>
     </row>
     <row r="104">
@@ -12535,19 +12535,19 @@
         <v>211</v>
       </c>
       <c r="C104" t="n">
-        <v>46.9554304466426</v>
+        <v>46.9554237997134</v>
       </c>
       <c r="D104" t="n">
-        <v>48.9209057885171</v>
+        <v>48.9209146460371</v>
       </c>
       <c r="E104" t="n">
-        <v>51.5730267389775</v>
+        <v>51.5730275134815</v>
       </c>
       <c r="F104" t="n">
-        <v>56.4194240480774</v>
+        <v>56.4194359224833</v>
       </c>
       <c r="G104" t="n">
-        <v>57.6125017864124</v>
+        <v>57.6124854056395</v>
       </c>
     </row>
     <row r="105">
@@ -12558,17 +12558,17 @@
         <v>213</v>
       </c>
       <c r="C105" t="n">
-        <v>59.3197332710119</v>
+        <v>59.3197453448637</v>
       </c>
       <c r="D105" t="n">
-        <v>59.9461557194603</v>
+        <v>59.9461867769653</v>
       </c>
       <c r="E105"/>
       <c r="F105" t="n">
-        <v>64.1659015635009</v>
+        <v>64.1658687317439</v>
       </c>
       <c r="G105" t="n">
-        <v>64.3498038949113</v>
+        <v>64.3498081439032</v>
       </c>
     </row>
     <row r="106">
@@ -12579,19 +12579,19 @@
         <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>46.1072585406672</v>
+        <v>46.1072768833555</v>
       </c>
       <c r="D106" t="n">
-        <v>48.95134725312</v>
+        <v>48.9513290238295</v>
       </c>
       <c r="E106" t="n">
-        <v>50.7935947173124</v>
+        <v>50.7936048529393</v>
       </c>
       <c r="F106" t="n">
-        <v>53.0855666438856</v>
+        <v>53.0855598505363</v>
       </c>
       <c r="G106" t="n">
-        <v>56.1002966348178</v>
+        <v>56.1003041326585</v>
       </c>
     </row>
     <row r="107">
@@ -12602,19 +12602,19 @@
         <v>217</v>
       </c>
       <c r="C107" t="n">
-        <v>34.2366107694312</v>
+        <v>34.2366045939522</v>
       </c>
       <c r="D107" t="n">
-        <v>30.6096889053816</v>
+        <v>30.6096851179973</v>
       </c>
       <c r="E107" t="n">
-        <v>40.1776064330663</v>
+        <v>40.1776106147852</v>
       </c>
       <c r="F107" t="n">
-        <v>37.9049679767916</v>
+        <v>37.9049621104885</v>
       </c>
       <c r="G107" t="n">
-        <v>40.7921829573089</v>
+        <v>40.7921748664957</v>
       </c>
     </row>
     <row r="108">
@@ -12625,19 +12625,19 @@
         <v>219</v>
       </c>
       <c r="C108" t="n">
-        <v>56.3099612019089</v>
+        <v>56.3099532540136</v>
       </c>
       <c r="D108" t="n">
-        <v>61.6169603993144</v>
+        <v>61.6169431812015</v>
       </c>
       <c r="E108" t="n">
-        <v>61.710663181063</v>
+        <v>61.7106618953987</v>
       </c>
       <c r="F108" t="n">
-        <v>60.7918804332594</v>
+        <v>60.7918895914686</v>
       </c>
       <c r="G108" t="n">
-        <v>62.6188966334323</v>
+        <v>62.618878753355</v>
       </c>
     </row>
     <row r="109">
@@ -12648,19 +12648,19 @@
         <v>221</v>
       </c>
       <c r="C109" t="n">
-        <v>47.1712230946809</v>
+        <v>47.171218366801</v>
       </c>
       <c r="D109" t="n">
-        <v>51.3153643956436</v>
+        <v>51.3153743244877</v>
       </c>
       <c r="E109" t="n">
-        <v>48.9800735719647</v>
+        <v>48.9800723773615</v>
       </c>
       <c r="F109" t="n">
-        <v>48.9001713757698</v>
+        <v>48.9001728018957</v>
       </c>
       <c r="G109" t="n">
-        <v>48.5661873267747</v>
+        <v>48.5661870049206</v>
       </c>
     </row>
     <row r="110">
@@ -12671,19 +12671,19 @@
         <v>223</v>
       </c>
       <c r="C110" t="n">
-        <v>42.5260491257666</v>
+        <v>42.526052470889</v>
       </c>
       <c r="D110" t="n">
-        <v>49.0786300210563</v>
+        <v>49.0786385848798</v>
       </c>
       <c r="E110" t="n">
-        <v>43.4439495340193</v>
+        <v>43.4439426478261</v>
       </c>
       <c r="F110" t="n">
-        <v>44.6049671957413</v>
+        <v>44.6049659547908</v>
       </c>
       <c r="G110" t="n">
-        <v>45.581065259078</v>
+        <v>45.5810689559327</v>
       </c>
     </row>
     <row r="111">
@@ -12694,19 +12694,19 @@
         <v>225</v>
       </c>
       <c r="C111" t="n">
-        <v>41.4387743505037</v>
+        <v>41.4387813107048</v>
       </c>
       <c r="D111" t="n">
-        <v>42.250532848399</v>
+        <v>42.2505298049745</v>
       </c>
       <c r="E111" t="n">
-        <v>38.8573793106936</v>
+        <v>38.8573879915029</v>
       </c>
       <c r="F111" t="n">
-        <v>43.372562286789</v>
+        <v>43.3725701409089</v>
       </c>
       <c r="G111" t="n">
-        <v>45.7294357183863</v>
+        <v>45.7294362853927</v>
       </c>
     </row>
     <row r="112">
@@ -12718,16 +12718,16 @@
       </c>
       <c r="C112"/>
       <c r="D112" t="n">
-        <v>50.4822980446376</v>
+        <v>50.4822756912168</v>
       </c>
       <c r="E112" t="n">
-        <v>49.3470370411231</v>
+        <v>49.3470241895712</v>
       </c>
       <c r="F112" t="n">
-        <v>48.2370578965799</v>
+        <v>48.2370543799184</v>
       </c>
       <c r="G112" t="n">
-        <v>52.740266934387</v>
+        <v>52.7402628134016</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
+++ b/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
@@ -724,7 +724,7 @@
     <t>Units of measure: percent</t>
   </si>
   <si>
-    <t>Source: Local Government Budgets - Ministry of Finance, Planning and Economic Development</t>
+    <t>Source: Local government budgets â€“ Ministry of Finance, Planning and Economic Development</t>
   </si>
   <si>
     <t>Source-link: http://www.budget.go.ug/</t>

--- a/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
+++ b/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
@@ -1213,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>31.3793739976324</v>
+        <v>31.3793739976</v>
       </c>
     </row>
     <row r="3">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>30.6590622491174</v>
+        <v>30.6590622491</v>
       </c>
     </row>
     <row r="4">
@@ -1247,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>23.9804244273641</v>
+        <v>23.9804244274</v>
       </c>
     </row>
     <row r="5">
@@ -1264,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>30.1923512198067</v>
+        <v>30.1923512198</v>
       </c>
     </row>
     <row r="6">
@@ -1281,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>34.4038103559782</v>
+        <v>34.403810356</v>
       </c>
     </row>
     <row r="7">
@@ -1298,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>25.6766436266407</v>
+        <v>25.6766436266</v>
       </c>
     </row>
     <row r="8">
@@ -1315,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>30.6050357477832</v>
+        <v>30.6050357478</v>
       </c>
     </row>
     <row r="9">
@@ -1332,7 +1332,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>24.4208104625321</v>
+        <v>24.4208104625</v>
       </c>
     </row>
     <row r="10">
@@ -1349,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>31.9417476356537</v>
+        <v>31.9417476357</v>
       </c>
     </row>
     <row r="11">
@@ -1366,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>33.5337891400656</v>
+        <v>33.5337891401</v>
       </c>
     </row>
     <row r="12">
@@ -1383,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>41.2109440039309</v>
+        <v>41.2109440039</v>
       </c>
     </row>
     <row r="13">
@@ -1400,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>32.5624679923956</v>
+        <v>32.5624679924</v>
       </c>
     </row>
     <row r="14">
@@ -1417,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>44.519631518778</v>
+        <v>44.5196315188</v>
       </c>
     </row>
     <row r="15">
@@ -1434,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>45.5117260752882</v>
+        <v>45.5117260753</v>
       </c>
     </row>
     <row r="16">
@@ -1451,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>48.2794797261962</v>
+        <v>48.2794797262</v>
       </c>
     </row>
     <row r="17">
@@ -1468,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>50.3714076414175</v>
+        <v>50.3714076414</v>
       </c>
     </row>
     <row r="18">
@@ -1485,7 +1485,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>48.3772610676706</v>
+        <v>48.3772610677</v>
       </c>
     </row>
     <row r="19">
@@ -1502,7 +1502,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>42.4345620959145</v>
+        <v>42.4345620959</v>
       </c>
     </row>
     <row r="20">
@@ -1519,7 +1519,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>51.5810705199496</v>
+        <v>51.5810705199</v>
       </c>
     </row>
     <row r="21">
@@ -1536,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>35.9697909860943</v>
+        <v>35.9697909861</v>
       </c>
     </row>
     <row r="22">
@@ -1553,7 +1553,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>39.9175918285481</v>
+        <v>39.9175918285</v>
       </c>
     </row>
     <row r="23">
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>34.3390286907074</v>
+        <v>34.3390286907</v>
       </c>
     </row>
     <row r="24">
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>46.8608603578369</v>
+        <v>46.8608603578</v>
       </c>
     </row>
     <row r="25">
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>47.8416745743146</v>
+        <v>47.8416745743</v>
       </c>
     </row>
     <row r="26">
@@ -1621,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>24.4402701396343</v>
+        <v>24.4402701396</v>
       </c>
     </row>
     <row r="27">
@@ -1638,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>17.3447955729498</v>
+        <v>17.3447955729</v>
       </c>
     </row>
     <row r="28">
@@ -1655,7 +1655,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>25.4096811744798</v>
+        <v>25.4096811745</v>
       </c>
     </row>
     <row r="29">
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>25.9044447720919</v>
+        <v>25.9044447721</v>
       </c>
     </row>
     <row r="30">
@@ -1689,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>44.8973450585342</v>
+        <v>44.8973450585</v>
       </c>
     </row>
     <row r="31">
@@ -1706,7 +1706,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>47.1164007374228</v>
+        <v>47.1164007374</v>
       </c>
     </row>
     <row r="32">
@@ -1723,7 +1723,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>42.7537390254132</v>
+        <v>42.7537390254</v>
       </c>
     </row>
     <row r="33">
@@ -1740,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>48.4363515742528</v>
+        <v>48.4363515743</v>
       </c>
     </row>
     <row r="34">
@@ -1757,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>50.7649958406698</v>
+        <v>50.7649958407</v>
       </c>
     </row>
     <row r="35">
@@ -1774,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>35.7575277792393</v>
+        <v>35.7575277792</v>
       </c>
     </row>
     <row r="36">
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>39.1922607964956</v>
+        <v>39.1922607965</v>
       </c>
     </row>
     <row r="37">
@@ -1808,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>41.7200894217999</v>
+        <v>41.7200894218</v>
       </c>
     </row>
     <row r="38">
@@ -1825,7 +1825,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>40.5092768401444</v>
+        <v>40.5092768401</v>
       </c>
     </row>
     <row r="39">
@@ -1842,7 +1842,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>44.2885143979449</v>
+        <v>44.2885143979</v>
       </c>
     </row>
     <row r="40">
@@ -1859,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>36.8781798178048</v>
+        <v>36.8781798178</v>
       </c>
     </row>
     <row r="41">
@@ -1876,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>34.8419608036374</v>
+        <v>34.8419608036</v>
       </c>
     </row>
     <row r="42">
@@ -1893,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>39.3550561337518</v>
+        <v>39.3550561338</v>
       </c>
     </row>
     <row r="43">
@@ -1910,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>40.7926387108949</v>
+        <v>40.7926387109</v>
       </c>
     </row>
     <row r="44">
@@ -1927,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>49.6427205759137</v>
+        <v>49.6427205759</v>
       </c>
     </row>
     <row r="45">
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>54.3768719282408</v>
+        <v>54.3768719282</v>
       </c>
     </row>
     <row r="46">
@@ -1961,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>44.5848963083756</v>
+        <v>44.5848963084</v>
       </c>
     </row>
     <row r="47">
@@ -1978,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>54.5120076366559</v>
+        <v>54.5120076367</v>
       </c>
     </row>
     <row r="48">
@@ -1995,7 +1995,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>57.082585056921</v>
+        <v>57.0825850569</v>
       </c>
     </row>
     <row r="49">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>37.2349162277474</v>
+        <v>37.2349162277</v>
       </c>
     </row>
     <row r="50">
@@ -2029,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>51.5475350497105</v>
+        <v>51.5475350497</v>
       </c>
     </row>
     <row r="51">
@@ -2046,7 +2046,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>49.0037471877987</v>
+        <v>49.0037471878</v>
       </c>
     </row>
     <row r="52">
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>54.3278399918758</v>
+        <v>54.3278399919</v>
       </c>
     </row>
     <row r="53">
@@ -2080,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>56.698998343725</v>
+        <v>56.6989983437</v>
       </c>
     </row>
     <row r="54">
@@ -2097,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>40.3266938584083</v>
+        <v>40.3266938584</v>
       </c>
     </row>
     <row r="55">
@@ -2114,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>46.4034198923169</v>
+        <v>46.4034198923</v>
       </c>
     </row>
     <row r="56">
@@ -2131,7 +2131,7 @@
         <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>41.3511394738798</v>
+        <v>41.3511394739</v>
       </c>
     </row>
     <row r="57">
@@ -2148,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>51.471104969453</v>
+        <v>51.4711049695</v>
       </c>
     </row>
     <row r="58">
@@ -2165,7 +2165,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>50.6642862644124</v>
+        <v>50.6642862644</v>
       </c>
     </row>
     <row r="59">
@@ -2182,7 +2182,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>47.5290053139789</v>
+        <v>47.529005314</v>
       </c>
     </row>
     <row r="60">
@@ -2199,7 +2199,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>47.512164815567</v>
+        <v>47.5121648156</v>
       </c>
     </row>
     <row r="61">
@@ -2216,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>40.3552407211205</v>
+        <v>40.3552407211</v>
       </c>
     </row>
     <row r="62">
@@ -2233,7 +2233,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>44.9088189377118</v>
+        <v>44.9088189377</v>
       </c>
     </row>
     <row r="63">
@@ -2250,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>55.1554294292567</v>
+        <v>55.1554294293</v>
       </c>
     </row>
     <row r="64">
@@ -2267,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>38.267471011957</v>
+        <v>38.267471012</v>
       </c>
     </row>
     <row r="65">
@@ -2284,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>41.6354909621521</v>
+        <v>41.6354909622</v>
       </c>
     </row>
     <row r="66">
@@ -2301,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>42.2044926777813</v>
+        <v>42.2044926778</v>
       </c>
     </row>
     <row r="67">
@@ -2318,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>45.8754836203738</v>
+        <v>45.8754836204</v>
       </c>
     </row>
     <row r="68">
@@ -2335,7 +2335,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>46.674053330842</v>
+        <v>46.6740533308</v>
       </c>
     </row>
     <row r="69">
@@ -2352,7 +2352,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>42.2791824410856</v>
+        <v>42.2791824411</v>
       </c>
     </row>
     <row r="70">
@@ -2369,7 +2369,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>55.043408948397</v>
+        <v>55.0434089484</v>
       </c>
     </row>
     <row r="71">
@@ -2386,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="E71" t="n">
-        <v>45.1509771968087</v>
+        <v>45.1509771968</v>
       </c>
     </row>
     <row r="72">
@@ -2403,7 +2403,7 @@
         <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>47.3398395990648</v>
+        <v>47.3398395991</v>
       </c>
     </row>
     <row r="73">
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="n">
-        <v>48.5138831525831</v>
+        <v>48.5138831526</v>
       </c>
     </row>
     <row r="74">
@@ -2437,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>46.4310343917857</v>
+        <v>46.4310343918</v>
       </c>
     </row>
     <row r="75">
@@ -2454,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>47.4414267612192</v>
+        <v>47.4414267612</v>
       </c>
     </row>
     <row r="76">
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>46.4636438850683</v>
+        <v>46.4636438851</v>
       </c>
     </row>
     <row r="77">
@@ -2488,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>54.4112149409371</v>
+        <v>54.4112149409</v>
       </c>
     </row>
     <row r="78">
@@ -2505,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>59.9726654340784</v>
+        <v>59.9726654341</v>
       </c>
     </row>
     <row r="79">
@@ -2522,7 +2522,7 @@
         <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>52.5892335229769</v>
+        <v>52.589233523</v>
       </c>
     </row>
     <row r="80">
@@ -2539,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>58.5763982904463</v>
+        <v>58.5763982904</v>
       </c>
     </row>
     <row r="81">
@@ -2556,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>59.9493156790591</v>
+        <v>59.9493156791</v>
       </c>
     </row>
     <row r="82">
@@ -2573,7 +2573,7 @@
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>57.3645812281117</v>
+        <v>57.3645812281</v>
       </c>
     </row>
     <row r="83">
@@ -2590,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>29.1629430842261</v>
+        <v>29.1629430842</v>
       </c>
     </row>
     <row r="84">
@@ -2607,7 +2607,7 @@
         <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>33.5466074423867</v>
+        <v>33.5466074424</v>
       </c>
     </row>
     <row r="85">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>40.6195804924459</v>
+        <v>40.6195804924</v>
       </c>
     </row>
     <row r="86">
@@ -2641,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>52.5614961624529</v>
+        <v>52.5614961625</v>
       </c>
     </row>
     <row r="87">
@@ -2658,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>52.59298635544</v>
+        <v>52.5929863554</v>
       </c>
     </row>
     <row r="88">
@@ -2675,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>46.3953563784941</v>
+        <v>46.3953563785</v>
       </c>
     </row>
     <row r="89">
@@ -2692,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>45.7041726709346</v>
+        <v>45.7041726709</v>
       </c>
     </row>
     <row r="90">
@@ -2709,7 +2709,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>40.834561814972</v>
+        <v>40.834561815</v>
       </c>
     </row>
     <row r="91">
@@ -2726,7 +2726,7 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>43.7249918927452</v>
+        <v>43.7249918927</v>
       </c>
     </row>
     <row r="92">
@@ -2743,7 +2743,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>47.9848541906101</v>
+        <v>47.9848541906</v>
       </c>
     </row>
     <row r="93">
@@ -2760,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>26.7234500881829</v>
+        <v>26.7234500882</v>
       </c>
     </row>
     <row r="94">
@@ -2777,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>30.9273016240883</v>
+        <v>30.9273016241</v>
       </c>
     </row>
     <row r="95">
@@ -2794,7 +2794,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>27.6034382772661</v>
+        <v>27.6034382773</v>
       </c>
     </row>
     <row r="96">
@@ -2811,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>29.7055751422466</v>
+        <v>29.7055751422</v>
       </c>
     </row>
     <row r="97">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>34.6500216299893</v>
+        <v>34.65002163</v>
       </c>
     </row>
     <row r="98">
@@ -2845,7 +2845,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>31.3458684211203</v>
+        <v>31.3458684211</v>
       </c>
     </row>
     <row r="99">
@@ -2862,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>40.7071480011882</v>
+        <v>40.7071480012</v>
       </c>
     </row>
     <row r="100">
@@ -2879,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>40.9001713325111</v>
+        <v>40.9001713325</v>
       </c>
     </row>
     <row r="101">
@@ -2896,7 +2896,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>49.5992383173497</v>
+        <v>49.5992383173</v>
       </c>
     </row>
     <row r="102">
@@ -2913,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>54.3666198656381</v>
+        <v>54.3666198656</v>
       </c>
     </row>
     <row r="103">
@@ -2930,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>51.78816079573</v>
+        <v>51.7881607957</v>
       </c>
     </row>
     <row r="104">
@@ -2947,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>58.7937623095026</v>
+        <v>58.7937623095</v>
       </c>
     </row>
     <row r="105">
@@ -2964,7 +2964,7 @@
         <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>52.4221714136978</v>
+        <v>52.4221714137</v>
       </c>
     </row>
     <row r="106">
@@ -2981,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>58.301151210348</v>
+        <v>58.3011512103</v>
       </c>
     </row>
     <row r="107">
@@ -2998,7 +2998,7 @@
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>60.5110695447628</v>
+        <v>60.5110695448</v>
       </c>
     </row>
     <row r="108">
@@ -3015,7 +3015,7 @@
         <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>41.9963486275067</v>
+        <v>41.9963486275</v>
       </c>
     </row>
     <row r="109">
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>47.1187252032773</v>
+        <v>47.1187252033</v>
       </c>
     </row>
     <row r="110">
@@ -3049,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>37.6923707324657</v>
+        <v>37.6923707325</v>
       </c>
     </row>
     <row r="111">
@@ -3066,7 +3066,7 @@
         <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>46.7914656398425</v>
+        <v>46.7914656398</v>
       </c>
     </row>
     <row r="112">
@@ -3083,7 +3083,7 @@
         <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>55.036836325212</v>
+        <v>55.0368363252</v>
       </c>
     </row>
     <row r="113">
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>46.8095797284263</v>
+        <v>46.8095797284</v>
       </c>
     </row>
     <row r="114">
@@ -3117,7 +3117,7 @@
         <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>52.8710044672527</v>
+        <v>52.8710044673</v>
       </c>
     </row>
     <row r="115">
@@ -3134,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>50.1621829483075</v>
+        <v>50.1621829483</v>
       </c>
     </row>
     <row r="116">
@@ -3151,7 +3151,7 @@
         <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>55.7266628869164</v>
+        <v>55.7266628869</v>
       </c>
     </row>
     <row r="117">
@@ -3168,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="E117" t="n">
-        <v>55.9698069659999</v>
+        <v>55.969806966</v>
       </c>
     </row>
     <row r="118">
@@ -3185,7 +3185,7 @@
         <v>7</v>
       </c>
       <c r="E118" t="n">
-        <v>59.6167323694689</v>
+        <v>59.6167323695</v>
       </c>
     </row>
     <row r="119">
@@ -3202,7 +3202,7 @@
         <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>64.9908167782056</v>
+        <v>64.9908167782</v>
       </c>
     </row>
     <row r="120">
@@ -3219,7 +3219,7 @@
         <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>60.4389566302736</v>
+        <v>60.4389566303</v>
       </c>
     </row>
     <row r="121">
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>65.8943964995936</v>
+        <v>65.8943964996</v>
       </c>
     </row>
     <row r="122">
@@ -3253,7 +3253,7 @@
         <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>68.290006331453</v>
+        <v>68.2900063315</v>
       </c>
     </row>
     <row r="123">
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E123" t="n">
-        <v>16.3272134949536</v>
+        <v>16.327213495</v>
       </c>
     </row>
     <row r="124">
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="E124" t="n">
-        <v>13.7449139548816</v>
+        <v>13.7449139549</v>
       </c>
     </row>
     <row r="125">
@@ -3304,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="E125" t="n">
-        <v>12.9713993112151</v>
+        <v>12.9713993112</v>
       </c>
     </row>
     <row r="126">
@@ -3321,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="n">
-        <v>14.1670463710968</v>
+        <v>14.1670463711</v>
       </c>
     </row>
     <row r="127">
@@ -3338,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>57.3739025388479</v>
+        <v>57.3739025388</v>
       </c>
     </row>
     <row r="128">
@@ -3355,7 +3355,7 @@
         <v>7</v>
       </c>
       <c r="E128" t="n">
-        <v>61.5475813887467</v>
+        <v>61.5475813887</v>
       </c>
     </row>
     <row r="129">
@@ -3372,7 +3372,7 @@
         <v>7</v>
       </c>
       <c r="E129" t="n">
-        <v>58.7457836109263</v>
+        <v>58.7457836109</v>
       </c>
     </row>
     <row r="130">
@@ -3389,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>63.3343227672093</v>
+        <v>63.3343227672</v>
       </c>
     </row>
     <row r="131">
@@ -3406,7 +3406,7 @@
         <v>7</v>
       </c>
       <c r="E131" t="n">
-        <v>63.3430738825572</v>
+        <v>63.3430738826</v>
       </c>
     </row>
     <row r="132">
@@ -3423,7 +3423,7 @@
         <v>7</v>
       </c>
       <c r="E132" t="n">
-        <v>40.9015565859867</v>
+        <v>40.901556586</v>
       </c>
     </row>
     <row r="133">
@@ -3440,7 +3440,7 @@
         <v>7</v>
       </c>
       <c r="E133" t="n">
-        <v>38.6026386114919</v>
+        <v>38.6026386115</v>
       </c>
     </row>
     <row r="134">
@@ -3457,7 +3457,7 @@
         <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>46.5704617667783</v>
+        <v>46.5704617668</v>
       </c>
     </row>
     <row r="135">
@@ -3474,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>48.1084553333386</v>
+        <v>48.1084553333</v>
       </c>
     </row>
     <row r="136">
@@ -3491,7 +3491,7 @@
         <v>7</v>
       </c>
       <c r="E136" t="n">
-        <v>55.7516656971916</v>
+        <v>55.7516656972</v>
       </c>
     </row>
     <row r="137">
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="E137" t="n">
-        <v>61.4157448681603</v>
+        <v>61.4157448682</v>
       </c>
     </row>
     <row r="138">
@@ -3525,7 +3525,7 @@
         <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>65.6876843542727</v>
+        <v>65.6876843543</v>
       </c>
     </row>
     <row r="139">
@@ -3542,7 +3542,7 @@
         <v>7</v>
       </c>
       <c r="E139" t="n">
-        <v>65.4602920406598</v>
+        <v>65.4602920407</v>
       </c>
     </row>
     <row r="140">
@@ -3559,7 +3559,7 @@
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>63.944793741084</v>
+        <v>63.9447937411</v>
       </c>
     </row>
     <row r="141">
@@ -3576,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="E141" t="n">
-        <v>36.039200203563</v>
+        <v>36.0392002036</v>
       </c>
     </row>
     <row r="142">
@@ -3593,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>51.5993693845688</v>
+        <v>51.5993693846</v>
       </c>
     </row>
     <row r="143">
@@ -3610,7 +3610,7 @@
         <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>42.7831059904645</v>
+        <v>42.7831059905</v>
       </c>
     </row>
     <row r="144">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="E144" t="n">
-        <v>38.398336188524</v>
+        <v>38.3983361885</v>
       </c>
     </row>
     <row r="145">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>44.908069086582</v>
+        <v>44.9080690866</v>
       </c>
     </row>
     <row r="146">
@@ -3661,7 +3661,7 @@
         <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>48.6563018300944</v>
+        <v>48.6563018301</v>
       </c>
     </row>
     <row r="147">
@@ -3678,7 +3678,7 @@
         <v>7</v>
       </c>
       <c r="E147" t="n">
-        <v>52.6080813459301</v>
+        <v>52.6080813459</v>
       </c>
     </row>
     <row r="148">
@@ -3695,7 +3695,7 @@
         <v>7</v>
       </c>
       <c r="E148" t="n">
-        <v>41.3136862893307</v>
+        <v>41.3136862893</v>
       </c>
     </row>
     <row r="149">
@@ -3712,7 +3712,7 @@
         <v>7</v>
       </c>
       <c r="E149" t="n">
-        <v>40.9591597144654</v>
+        <v>40.9591597145</v>
       </c>
     </row>
     <row r="150">
@@ -3729,7 +3729,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>46.5751484293377</v>
+        <v>46.5751484293</v>
       </c>
     </row>
     <row r="151">
@@ -3746,7 +3746,7 @@
         <v>7</v>
       </c>
       <c r="E151" t="n">
-        <v>49.7844579343412</v>
+        <v>49.7844579343</v>
       </c>
     </row>
     <row r="152">
@@ -3763,7 +3763,7 @@
         <v>7</v>
       </c>
       <c r="E152" t="n">
-        <v>57.6773658846039</v>
+        <v>57.6773658846</v>
       </c>
     </row>
     <row r="153">
@@ -3780,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="E153" t="n">
-        <v>49.9374324300737</v>
+        <v>49.9374324301</v>
       </c>
     </row>
     <row r="154">
@@ -3797,7 +3797,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>53.1236227274102</v>
+        <v>53.1236227274</v>
       </c>
     </row>
     <row r="155">
@@ -3814,7 +3814,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>55.0389267745095</v>
+        <v>55.0389267745</v>
       </c>
     </row>
     <row r="156">
@@ -3831,7 +3831,7 @@
         <v>7</v>
       </c>
       <c r="E156" t="n">
-        <v>62.2418732830174</v>
+        <v>62.241873283</v>
       </c>
     </row>
     <row r="157">
@@ -3848,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>64.6068957930785</v>
+        <v>64.6068957931</v>
       </c>
     </row>
     <row r="158">
@@ -3865,7 +3865,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>63.3541147953491</v>
+        <v>63.3541147953</v>
       </c>
     </row>
     <row r="159">
@@ -3882,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>63.871553755706</v>
+        <v>63.8715537557</v>
       </c>
     </row>
     <row r="160">
@@ -3899,7 +3899,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="n">
-        <v>47.3074177281472</v>
+        <v>47.3074177281</v>
       </c>
     </row>
     <row r="161">
@@ -3916,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="E161" t="n">
-        <v>52.185644497699</v>
+        <v>52.1856444977</v>
       </c>
     </row>
     <row r="162">
@@ -3933,7 +3933,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>49.4991857838793</v>
+        <v>49.4991857839</v>
       </c>
     </row>
     <row r="163">
@@ -3950,7 +3950,7 @@
         <v>7</v>
       </c>
       <c r="E163" t="n">
-        <v>56.9964170745362</v>
+        <v>56.9964170745</v>
       </c>
     </row>
     <row r="164">
@@ -3967,7 +3967,7 @@
         <v>7</v>
       </c>
       <c r="E164" t="n">
-        <v>59.2971103729202</v>
+        <v>59.2971103729</v>
       </c>
     </row>
     <row r="165">
@@ -3984,7 +3984,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="n">
-        <v>44.9407361187168</v>
+        <v>44.9407361187</v>
       </c>
     </row>
     <row r="166">
@@ -4001,7 +4001,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>51.4664447509386</v>
+        <v>51.4664447509</v>
       </c>
     </row>
     <row r="167">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>42.2194119979995</v>
+        <v>42.219411998</v>
       </c>
     </row>
     <row r="168">
@@ -4035,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="E168" t="n">
-        <v>50.551407314729</v>
+        <v>50.5514073147</v>
       </c>
     </row>
     <row r="169">
@@ -4052,7 +4052,7 @@
         <v>7</v>
       </c>
       <c r="E169" t="n">
-        <v>24.9976259874325</v>
+        <v>24.9976259874</v>
       </c>
     </row>
     <row r="170">
@@ -4069,7 +4069,7 @@
         <v>7</v>
       </c>
       <c r="E170" t="n">
-        <v>23.432920413776</v>
+        <v>23.4329204138</v>
       </c>
     </row>
     <row r="171">
@@ -4086,7 +4086,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>35.1523720373761</v>
+        <v>35.1523720374</v>
       </c>
     </row>
     <row r="172">
@@ -4103,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="E172" t="n">
-        <v>36.0189866469943</v>
+        <v>36.018986647</v>
       </c>
     </row>
     <row r="173">
@@ -4120,7 +4120,7 @@
         <v>7</v>
       </c>
       <c r="E173" t="n">
-        <v>37.0703551055925</v>
+        <v>37.0703551056</v>
       </c>
     </row>
     <row r="174">
@@ -4137,7 +4137,7 @@
         <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>64.3679353863556</v>
+        <v>64.3679353864</v>
       </c>
     </row>
     <row r="175">
@@ -4154,7 +4154,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>59.464838620508</v>
+        <v>59.4648386205</v>
       </c>
     </row>
     <row r="176">
@@ -4171,7 +4171,7 @@
         <v>7</v>
       </c>
       <c r="E176" t="n">
-        <v>53.9068825876056</v>
+        <v>53.9068825876</v>
       </c>
     </row>
     <row r="177">
@@ -4188,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>56.0377072910589</v>
+        <v>56.0377072911</v>
       </c>
     </row>
     <row r="178">
@@ -4205,7 +4205,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="n">
-        <v>46.2993343674785</v>
+        <v>46.2993343675</v>
       </c>
     </row>
     <row r="179">
@@ -4222,7 +4222,7 @@
         <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>47.9607567880789</v>
+        <v>47.9607567881</v>
       </c>
     </row>
     <row r="180">
@@ -4239,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>42.9139924501293</v>
+        <v>42.9139924501</v>
       </c>
     </row>
     <row r="181">
@@ -4256,7 +4256,7 @@
         <v>7</v>
       </c>
       <c r="E181" t="n">
-        <v>43.3452945199122</v>
+        <v>43.3452945199</v>
       </c>
     </row>
     <row r="182">
@@ -4273,7 +4273,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>46.959751539538</v>
+        <v>46.9597515395</v>
       </c>
     </row>
     <row r="183">
@@ -4290,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="E183" t="n">
-        <v>34.6660272392899</v>
+        <v>34.6660272393</v>
       </c>
     </row>
     <row r="184">
@@ -4307,7 +4307,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>40.4120450226538</v>
+        <v>40.4120450227</v>
       </c>
     </row>
     <row r="185">
@@ -4324,7 +4324,7 @@
         <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>39.2992435003973</v>
+        <v>39.2992435004</v>
       </c>
     </row>
     <row r="186">
@@ -4341,7 +4341,7 @@
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>50.7201300305314</v>
+        <v>50.7201300305</v>
       </c>
     </row>
     <row r="187">
@@ -4358,7 +4358,7 @@
         <v>7</v>
       </c>
       <c r="E187" t="n">
-        <v>52.1957774827749</v>
+        <v>52.1957774828</v>
       </c>
     </row>
     <row r="188">
@@ -4375,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="E188" t="n">
-        <v>16.4535010228767</v>
+        <v>16.4535010229</v>
       </c>
     </row>
     <row r="189">
@@ -4392,7 +4392,7 @@
         <v>7</v>
       </c>
       <c r="E189" t="n">
-        <v>24.6961602632479</v>
+        <v>24.6961602632</v>
       </c>
     </row>
     <row r="190">
@@ -4409,7 +4409,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>22.2784870265446</v>
+        <v>22.2784870265</v>
       </c>
     </row>
     <row r="191">
@@ -4426,7 +4426,7 @@
         <v>7</v>
       </c>
       <c r="E191" t="n">
-        <v>23.7770751787808</v>
+        <v>23.7770751788</v>
       </c>
     </row>
     <row r="192">
@@ -4443,7 +4443,7 @@
         <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>22.5963154014752</v>
+        <v>22.5963154015</v>
       </c>
     </row>
     <row r="193">
@@ -4460,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="E193" t="n">
-        <v>55.5188099627972</v>
+        <v>55.5188099628</v>
       </c>
     </row>
     <row r="194">
@@ -4477,7 +4477,7 @@
         <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>61.3391742861894</v>
+        <v>61.3391742862</v>
       </c>
     </row>
     <row r="195">
@@ -4494,7 +4494,7 @@
         <v>7</v>
       </c>
       <c r="E195" t="n">
-        <v>59.2640162487956</v>
+        <v>59.2640162488</v>
       </c>
     </row>
     <row r="196">
@@ -4511,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>63.3595238624169</v>
+        <v>63.3595238624</v>
       </c>
     </row>
     <row r="197">
@@ -4528,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="E197" t="n">
-        <v>62.7020788592321</v>
+        <v>62.7020788592</v>
       </c>
     </row>
     <row r="198">
@@ -4545,7 +4545,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>56.2452584330605</v>
+        <v>56.2452584331</v>
       </c>
     </row>
     <row r="199">
@@ -4562,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="E199" t="n">
-        <v>63.6143984259808</v>
+        <v>63.614398426</v>
       </c>
     </row>
     <row r="200">
@@ -4579,7 +4579,7 @@
         <v>7</v>
       </c>
       <c r="E200" t="n">
-        <v>62.7547218038287</v>
+        <v>62.7547218038</v>
       </c>
     </row>
     <row r="201">
@@ -4596,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="n">
-        <v>57.7234100353179</v>
+        <v>57.7234100353</v>
       </c>
     </row>
     <row r="202">
@@ -4613,7 +4613,7 @@
         <v>7</v>
       </c>
       <c r="E202" t="n">
-        <v>60.6126172441662</v>
+        <v>60.6126172442</v>
       </c>
     </row>
     <row r="203">
@@ -4630,7 +4630,7 @@
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>56.8741930890095</v>
+        <v>56.874193089</v>
       </c>
     </row>
     <row r="204">
@@ -4647,7 +4647,7 @@
         <v>7</v>
       </c>
       <c r="E204" t="n">
-        <v>59.4833423967767</v>
+        <v>59.4833423968</v>
       </c>
     </row>
     <row r="205">
@@ -4664,7 +4664,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>61.3088618824304</v>
+        <v>61.3088618824</v>
       </c>
     </row>
     <row r="206">
@@ -4681,7 +4681,7 @@
         <v>7</v>
       </c>
       <c r="E206" t="n">
-        <v>58.5147174394114</v>
+        <v>58.5147174394</v>
       </c>
     </row>
     <row r="207">
@@ -4698,7 +4698,7 @@
         <v>7</v>
       </c>
       <c r="E207" t="n">
-        <v>62.7796118893112</v>
+        <v>62.7796118893</v>
       </c>
     </row>
     <row r="208">
@@ -4715,7 +4715,7 @@
         <v>7</v>
       </c>
       <c r="E208" t="n">
-        <v>42.9934437832803</v>
+        <v>42.9934437833</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="n">
-        <v>51.3027701253718</v>
+        <v>51.3027701254</v>
       </c>
     </row>
     <row r="210">
@@ -4749,7 +4749,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="n">
-        <v>49.8203807338197</v>
+        <v>49.8203807338</v>
       </c>
     </row>
     <row r="211">
@@ -4766,7 +4766,7 @@
         <v>7</v>
       </c>
       <c r="E211" t="n">
-        <v>54.4232873100666</v>
+        <v>54.4232873101</v>
       </c>
     </row>
     <row r="212">
@@ -4783,7 +4783,7 @@
         <v>7</v>
       </c>
       <c r="E212" t="n">
-        <v>60.0925975746302</v>
+        <v>60.0925975746</v>
       </c>
     </row>
     <row r="213">
@@ -4800,7 +4800,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="n">
-        <v>48.107825147134</v>
+        <v>48.1078251471</v>
       </c>
     </row>
     <row r="214">
@@ -4817,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="n">
-        <v>48.4304908492516</v>
+        <v>48.4304908493</v>
       </c>
     </row>
     <row r="215">
@@ -4834,7 +4834,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="n">
-        <v>45.5593461350536</v>
+        <v>45.5593461351</v>
       </c>
     </row>
     <row r="216">
@@ -4851,7 +4851,7 @@
         <v>7</v>
       </c>
       <c r="E216" t="n">
-        <v>55.6580557825809</v>
+        <v>55.6580557826</v>
       </c>
     </row>
     <row r="217">
@@ -4868,7 +4868,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="n">
-        <v>57.5718583805057</v>
+        <v>57.5718583805</v>
       </c>
     </row>
     <row r="218">
@@ -4885,7 +4885,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="n">
-        <v>33.4113381821696</v>
+        <v>33.4113381822</v>
       </c>
     </row>
     <row r="219">
@@ -4902,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="E219" t="n">
-        <v>39.8072874171112</v>
+        <v>39.8072874171</v>
       </c>
     </row>
     <row r="220">
@@ -4919,7 +4919,7 @@
         <v>7</v>
       </c>
       <c r="E220" t="n">
-        <v>40.6852210485404</v>
+        <v>40.6852210485</v>
       </c>
     </row>
     <row r="221">
@@ -4936,7 +4936,7 @@
         <v>7</v>
       </c>
       <c r="E221" t="n">
-        <v>40.1734362920776</v>
+        <v>40.1734362921</v>
       </c>
     </row>
     <row r="222">
@@ -4953,7 +4953,7 @@
         <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>42.0437643435395</v>
+        <v>42.0437643435</v>
       </c>
     </row>
     <row r="223">
@@ -4970,7 +4970,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>48.5481892051306</v>
+        <v>48.5481892051</v>
       </c>
     </row>
     <row r="224">
@@ -4987,7 +4987,7 @@
         <v>7</v>
       </c>
       <c r="E224" t="n">
-        <v>50.80217526701</v>
+        <v>50.802175267</v>
       </c>
     </row>
     <row r="225">
@@ -5004,7 +5004,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="n">
-        <v>47.3025149707792</v>
+        <v>47.3025149708</v>
       </c>
     </row>
     <row r="226">
@@ -5021,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="n">
-        <v>51.5360627897436</v>
+        <v>51.5360627897</v>
       </c>
     </row>
     <row r="227">
@@ -5038,7 +5038,7 @@
         <v>7</v>
       </c>
       <c r="E227" t="n">
-        <v>50.3736590537779</v>
+        <v>50.3736590538</v>
       </c>
     </row>
     <row r="228">
@@ -5055,7 +5055,7 @@
         <v>7</v>
       </c>
       <c r="E228" t="n">
-        <v>27.9869406766445</v>
+        <v>27.9869406766</v>
       </c>
     </row>
     <row r="229">
@@ -5072,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="E229" t="n">
-        <v>37.8205010996731</v>
+        <v>37.8205010997</v>
       </c>
     </row>
     <row r="230">
@@ -5089,7 +5089,7 @@
         <v>7</v>
       </c>
       <c r="E230" t="n">
-        <v>30.2590282832491</v>
+        <v>30.2590282832</v>
       </c>
     </row>
     <row r="231">
@@ -5106,7 +5106,7 @@
         <v>7</v>
       </c>
       <c r="E231" t="n">
-        <v>35.9857083217472</v>
+        <v>35.9857083217</v>
       </c>
     </row>
     <row r="232">
@@ -5123,7 +5123,7 @@
         <v>7</v>
       </c>
       <c r="E232" t="n">
-        <v>39.2068028761442</v>
+        <v>39.2068028761</v>
       </c>
     </row>
     <row r="233">
@@ -5140,7 +5140,7 @@
         <v>7</v>
       </c>
       <c r="E233" t="n">
-        <v>73.3613141322157</v>
+        <v>73.3613141322</v>
       </c>
     </row>
     <row r="234">
@@ -5157,7 +5157,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="n">
-        <v>59.8710054017519</v>
+        <v>59.8710054018</v>
       </c>
     </row>
     <row r="235">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="E235" t="n">
-        <v>58.4536792680299</v>
+        <v>58.453679268</v>
       </c>
     </row>
     <row r="236">
@@ -5191,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="E236" t="n">
-        <v>60.7502905635242</v>
+        <v>60.7502905635</v>
       </c>
     </row>
     <row r="237">
@@ -5208,7 +5208,7 @@
         <v>7</v>
       </c>
       <c r="E237" t="n">
-        <v>61.9467393342019</v>
+        <v>61.9467393342</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="n">
-        <v>49.376701407284</v>
+        <v>49.3767014073</v>
       </c>
     </row>
     <row r="239">
@@ -5242,7 +5242,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="n">
-        <v>52.7283939980682</v>
+        <v>52.7283939981</v>
       </c>
     </row>
     <row r="240">
@@ -5259,7 +5259,7 @@
         <v>7</v>
       </c>
       <c r="E240" t="n">
-        <v>46.6358767171929</v>
+        <v>46.6358767172</v>
       </c>
     </row>
     <row r="241">
@@ -5276,7 +5276,7 @@
         <v>7</v>
       </c>
       <c r="E241" t="n">
-        <v>52.1176067618473</v>
+        <v>52.1176067618</v>
       </c>
     </row>
     <row r="242">
@@ -5293,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="E242" t="n">
-        <v>54.6013720191561</v>
+        <v>54.6013720192</v>
       </c>
     </row>
     <row r="243">
@@ -5310,7 +5310,7 @@
         <v>7</v>
       </c>
       <c r="E243" t="n">
-        <v>44.5898591292164</v>
+        <v>44.5898591292</v>
       </c>
     </row>
     <row r="244">
@@ -5327,7 +5327,7 @@
         <v>7</v>
       </c>
       <c r="E244" t="n">
-        <v>48.3968217306261</v>
+        <v>48.3968217306</v>
       </c>
     </row>
     <row r="245">
@@ -5344,7 +5344,7 @@
         <v>7</v>
       </c>
       <c r="E245" t="n">
-        <v>46.1678278434338</v>
+        <v>46.1678278434</v>
       </c>
     </row>
     <row r="246">
@@ -5361,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>45.7984509402638</v>
+        <v>45.7984509403</v>
       </c>
     </row>
     <row r="247">
@@ -5378,7 +5378,7 @@
         <v>7</v>
       </c>
       <c r="E247" t="n">
-        <v>49.3364045392298</v>
+        <v>49.3364045392</v>
       </c>
     </row>
     <row r="248">
@@ -5395,7 +5395,7 @@
         <v>7</v>
       </c>
       <c r="E248" t="n">
-        <v>49.9719342103807</v>
+        <v>49.9719342104</v>
       </c>
     </row>
     <row r="249">
@@ -5412,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="E249" t="n">
-        <v>53.5434719140517</v>
+        <v>53.5434719141</v>
       </c>
     </row>
     <row r="250">
@@ -5429,7 +5429,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="n">
-        <v>53.4638221693755</v>
+        <v>53.4638221694</v>
       </c>
     </row>
     <row r="251">
@@ -5446,7 +5446,7 @@
         <v>7</v>
       </c>
       <c r="E251" t="n">
-        <v>62.0185546666299</v>
+        <v>62.0185546666</v>
       </c>
     </row>
     <row r="252">
@@ -5463,7 +5463,7 @@
         <v>7</v>
       </c>
       <c r="E252" t="n">
-        <v>62.7904584461603</v>
+        <v>62.7904584462</v>
       </c>
     </row>
     <row r="253">
@@ -5480,7 +5480,7 @@
         <v>7</v>
       </c>
       <c r="E253" t="n">
-        <v>41.6891788900631</v>
+        <v>41.6891788901</v>
       </c>
     </row>
     <row r="254">
@@ -5497,7 +5497,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="n">
-        <v>39.8230600614275</v>
+        <v>39.8230600614</v>
       </c>
     </row>
     <row r="255">
@@ -5514,7 +5514,7 @@
         <v>7</v>
       </c>
       <c r="E255" t="n">
-        <v>41.0763768819177</v>
+        <v>41.0763768819</v>
       </c>
     </row>
     <row r="256">
@@ -5531,7 +5531,7 @@
         <v>7</v>
       </c>
       <c r="E256" t="n">
-        <v>44.7956382858252</v>
+        <v>44.7956382858</v>
       </c>
     </row>
     <row r="257">
@@ -5548,7 +5548,7 @@
         <v>7</v>
       </c>
       <c r="E257" t="n">
-        <v>46.9322794965797</v>
+        <v>46.9322794966</v>
       </c>
     </row>
     <row r="258">
@@ -5565,7 +5565,7 @@
         <v>7</v>
       </c>
       <c r="E258" t="n">
-        <v>40.6121894896158</v>
+        <v>40.6121894896</v>
       </c>
     </row>
     <row r="259">
@@ -5582,7 +5582,7 @@
         <v>7</v>
       </c>
       <c r="E259" t="n">
-        <v>43.5418415762678</v>
+        <v>43.5418415763</v>
       </c>
     </row>
     <row r="260">
@@ -5599,7 +5599,7 @@
         <v>7</v>
       </c>
       <c r="E260" t="n">
-        <v>39.2079603890061</v>
+        <v>39.207960389</v>
       </c>
     </row>
     <row r="261">
@@ -5616,7 +5616,7 @@
         <v>7</v>
       </c>
       <c r="E261" t="n">
-        <v>43.4916380471679</v>
+        <v>43.4916380472</v>
       </c>
     </row>
     <row r="262">
@@ -5633,7 +5633,7 @@
         <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>45.9436253139828</v>
+        <v>45.943625314</v>
       </c>
     </row>
     <row r="263">
@@ -5650,7 +5650,7 @@
         <v>7</v>
       </c>
       <c r="E263" t="n">
-        <v>48.0042384435737</v>
+        <v>48.0042384436</v>
       </c>
     </row>
     <row r="264">
@@ -5667,7 +5667,7 @@
         <v>7</v>
       </c>
       <c r="E264" t="n">
-        <v>44.5196462298552</v>
+        <v>44.5196462299</v>
       </c>
     </row>
     <row r="265">
@@ -5684,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="E265" t="n">
-        <v>42.7251591909615</v>
+        <v>42.725159191</v>
       </c>
     </row>
     <row r="266">
@@ -5701,7 +5701,7 @@
         <v>7</v>
       </c>
       <c r="E266" t="n">
-        <v>53.0999496532129</v>
+        <v>53.0999496532</v>
       </c>
     </row>
     <row r="267">
@@ -5718,7 +5718,7 @@
         <v>7</v>
       </c>
       <c r="E267" t="n">
-        <v>54.6626118829481</v>
+        <v>54.6626118829</v>
       </c>
     </row>
     <row r="268">
@@ -5735,7 +5735,7 @@
         <v>7</v>
       </c>
       <c r="E268" t="n">
-        <v>34.981435319297</v>
+        <v>34.9814353193</v>
       </c>
     </row>
     <row r="269">
@@ -5752,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="E269" t="n">
-        <v>38.7172981005222</v>
+        <v>38.7172981005</v>
       </c>
     </row>
     <row r="270">
@@ -5769,7 +5769,7 @@
         <v>7</v>
       </c>
       <c r="E270" t="n">
-        <v>40.8244165475587</v>
+        <v>40.8244165476</v>
       </c>
     </row>
     <row r="271">
@@ -5786,7 +5786,7 @@
         <v>7</v>
       </c>
       <c r="E271" t="n">
-        <v>41.1920370665149</v>
+        <v>41.1920370665</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>7</v>
       </c>
       <c r="E272" t="n">
-        <v>42.9967853490883</v>
+        <v>42.9967853491</v>
       </c>
     </row>
     <row r="273">
@@ -5820,7 +5820,7 @@
         <v>7</v>
       </c>
       <c r="E273" t="n">
-        <v>46.9674975766542</v>
+        <v>46.9674975767</v>
       </c>
     </row>
     <row r="274">
@@ -5837,7 +5837,7 @@
         <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>46.158805787009</v>
+        <v>46.158805787</v>
       </c>
     </row>
     <row r="275">
@@ -5854,7 +5854,7 @@
         <v>7</v>
       </c>
       <c r="E275" t="n">
-        <v>42.2057067269668</v>
+        <v>42.205706727</v>
       </c>
     </row>
     <row r="276">
@@ -5871,7 +5871,7 @@
         <v>7</v>
       </c>
       <c r="E276" t="n">
-        <v>40.9806411455824</v>
+        <v>40.9806411456</v>
       </c>
     </row>
     <row r="277">
@@ -5888,7 +5888,7 @@
         <v>7</v>
       </c>
       <c r="E277" t="n">
-        <v>50.4036309317555</v>
+        <v>50.4036309318</v>
       </c>
     </row>
     <row r="278">
@@ -5905,7 +5905,7 @@
         <v>7</v>
       </c>
       <c r="E278" t="n">
-        <v>56.5719544142825</v>
+        <v>56.5719544143</v>
       </c>
     </row>
     <row r="279">
@@ -5922,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="E279" t="n">
-        <v>54.9111161000894</v>
+        <v>54.9111161001</v>
       </c>
     </row>
     <row r="280">
@@ -5939,7 +5939,7 @@
         <v>7</v>
       </c>
       <c r="E280" t="n">
-        <v>55.1704546612864</v>
+        <v>55.1704546613</v>
       </c>
     </row>
     <row r="281">
@@ -5956,7 +5956,7 @@
         <v>7</v>
       </c>
       <c r="E281" t="n">
-        <v>57.1564092885331</v>
+        <v>57.1564092885</v>
       </c>
     </row>
     <row r="282">
@@ -5973,7 +5973,7 @@
         <v>7</v>
       </c>
       <c r="E282" t="n">
-        <v>58.9343222994606</v>
+        <v>58.9343222995</v>
       </c>
     </row>
     <row r="283">
@@ -5990,7 +5990,7 @@
         <v>7</v>
       </c>
       <c r="E283" t="n">
-        <v>19.5911810867505</v>
+        <v>19.5911810868</v>
       </c>
     </row>
     <row r="284">
@@ -6007,7 +6007,7 @@
         <v>7</v>
       </c>
       <c r="E284" t="n">
-        <v>24.8552156428869</v>
+        <v>24.8552156429</v>
       </c>
     </row>
     <row r="285">
@@ -6024,7 +6024,7 @@
         <v>7</v>
       </c>
       <c r="E285" t="n">
-        <v>26.1778186459651</v>
+        <v>26.177818646</v>
       </c>
     </row>
     <row r="286">
@@ -6041,7 +6041,7 @@
         <v>7</v>
       </c>
       <c r="E286" t="n">
-        <v>34.3592580091675</v>
+        <v>34.3592580092</v>
       </c>
     </row>
     <row r="287">
@@ -6058,7 +6058,7 @@
         <v>7</v>
       </c>
       <c r="E287" t="n">
-        <v>39.020638870125</v>
+        <v>39.0206388701</v>
       </c>
     </row>
     <row r="288">
@@ -6075,7 +6075,7 @@
         <v>7</v>
       </c>
       <c r="E288" t="n">
-        <v>30.4744186676669</v>
+        <v>30.4744186677</v>
       </c>
     </row>
     <row r="289">
@@ -6092,7 +6092,7 @@
         <v>7</v>
       </c>
       <c r="E289" t="n">
-        <v>34.6025177582242</v>
+        <v>34.6025177582</v>
       </c>
     </row>
     <row r="290">
@@ -6109,7 +6109,7 @@
         <v>7</v>
       </c>
       <c r="E290" t="n">
-        <v>37.7489363332213</v>
+        <v>37.7489363332</v>
       </c>
     </row>
     <row r="291">
@@ -6126,7 +6126,7 @@
         <v>7</v>
       </c>
       <c r="E291" t="n">
-        <v>46.3123234888682</v>
+        <v>46.3123234889</v>
       </c>
     </row>
     <row r="292">
@@ -6143,7 +6143,7 @@
         <v>7</v>
       </c>
       <c r="E292" t="n">
-        <v>50.0272613137022</v>
+        <v>50.0272613137</v>
       </c>
     </row>
     <row r="293">
@@ -6160,7 +6160,7 @@
         <v>7</v>
       </c>
       <c r="E293" t="n">
-        <v>42.9231836200463</v>
+        <v>42.92318362</v>
       </c>
     </row>
     <row r="294">
@@ -6177,7 +6177,7 @@
         <v>7</v>
       </c>
       <c r="E294" t="n">
-        <v>36.0786204764691</v>
+        <v>36.0786204765</v>
       </c>
     </row>
     <row r="295">
@@ -6194,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="E295" t="n">
-        <v>31.5969394406485</v>
+        <v>31.5969394406</v>
       </c>
     </row>
     <row r="296">
@@ -6211,7 +6211,7 @@
         <v>7</v>
       </c>
       <c r="E296" t="n">
-        <v>42.6413151476204</v>
+        <v>42.6413151476</v>
       </c>
     </row>
     <row r="297">
@@ -6228,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="E297" t="n">
-        <v>44.748805300852</v>
+        <v>44.7488053009</v>
       </c>
     </row>
     <row r="298">
@@ -6245,7 +6245,7 @@
         <v>7</v>
       </c>
       <c r="E298" t="n">
-        <v>48.290296694817</v>
+        <v>48.2902966948</v>
       </c>
     </row>
     <row r="299">
@@ -6262,7 +6262,7 @@
         <v>7</v>
       </c>
       <c r="E299" t="n">
-        <v>52.8023447602376</v>
+        <v>52.8023447602</v>
       </c>
     </row>
     <row r="300">
@@ -6279,7 +6279,7 @@
         <v>7</v>
       </c>
       <c r="E300" t="n">
-        <v>54.2257036188311</v>
+        <v>54.2257036188</v>
       </c>
     </row>
     <row r="301">
@@ -6296,7 +6296,7 @@
         <v>7</v>
       </c>
       <c r="E301" t="n">
-        <v>51.3043605335189</v>
+        <v>51.3043605335</v>
       </c>
     </row>
     <row r="302">
@@ -6313,7 +6313,7 @@
         <v>7</v>
       </c>
       <c r="E302" t="n">
-        <v>53.2685702067014</v>
+        <v>53.2685702067</v>
       </c>
     </row>
     <row r="303">
@@ -6330,7 +6330,7 @@
         <v>7</v>
       </c>
       <c r="E303" t="n">
-        <v>41.7330870333051</v>
+        <v>41.7330870333</v>
       </c>
     </row>
     <row r="304">
@@ -6347,7 +6347,7 @@
         <v>7</v>
       </c>
       <c r="E304" t="n">
-        <v>38.6503000004974</v>
+        <v>38.6503000005</v>
       </c>
     </row>
     <row r="305">
@@ -6364,7 +6364,7 @@
         <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>40.200002896864</v>
+        <v>40.2000028969</v>
       </c>
     </row>
     <row r="306">
@@ -6381,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="E306" t="n">
-        <v>43.2828589139728</v>
+        <v>43.282858914</v>
       </c>
     </row>
     <row r="307">
@@ -6398,7 +6398,7 @@
         <v>7</v>
       </c>
       <c r="E307" t="n">
-        <v>46.9253974283734</v>
+        <v>46.9253974284</v>
       </c>
     </row>
     <row r="308">
@@ -6415,7 +6415,7 @@
         <v>7</v>
       </c>
       <c r="E308" t="n">
-        <v>38.4159728607068</v>
+        <v>38.4159728607</v>
       </c>
     </row>
     <row r="309">
@@ -6432,7 +6432,7 @@
         <v>7</v>
       </c>
       <c r="E309" t="n">
-        <v>42.4922494314657</v>
+        <v>42.4922494315</v>
       </c>
     </row>
     <row r="310">
@@ -6449,7 +6449,7 @@
         <v>7</v>
       </c>
       <c r="E310" t="n">
-        <v>42.8212924939625</v>
+        <v>42.821292494</v>
       </c>
     </row>
     <row r="311">
@@ -6466,7 +6466,7 @@
         <v>7</v>
       </c>
       <c r="E311" t="n">
-        <v>43.4083703627173</v>
+        <v>43.4083703627</v>
       </c>
     </row>
     <row r="312">
@@ -6483,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="E312" t="n">
-        <v>42.7628367092685</v>
+        <v>42.7628367093</v>
       </c>
     </row>
     <row r="313">
@@ -6500,7 +6500,7 @@
         <v>7</v>
       </c>
       <c r="E313" t="n">
-        <v>33.6375813380124</v>
+        <v>33.637581338</v>
       </c>
     </row>
     <row r="314">
@@ -6517,7 +6517,7 @@
         <v>7</v>
       </c>
       <c r="E314" t="n">
-        <v>22.072523166579</v>
+        <v>22.0725231666</v>
       </c>
     </row>
     <row r="315">
@@ -6534,7 +6534,7 @@
         <v>7</v>
       </c>
       <c r="E315" t="n">
-        <v>28.0747333991585</v>
+        <v>28.0747333992</v>
       </c>
     </row>
     <row r="316">
@@ -6551,7 +6551,7 @@
         <v>7</v>
       </c>
       <c r="E316" t="n">
-        <v>37.8184759417058</v>
+        <v>37.8184759417</v>
       </c>
     </row>
     <row r="317">
@@ -6568,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="E317" t="n">
-        <v>45.2867112533278</v>
+        <v>45.2867112533</v>
       </c>
     </row>
     <row r="318">
@@ -6585,7 +6585,7 @@
         <v>7</v>
       </c>
       <c r="E318" t="n">
-        <v>41.3470604245359</v>
+        <v>41.3470604245</v>
       </c>
     </row>
     <row r="319">
@@ -6602,7 +6602,7 @@
         <v>7</v>
       </c>
       <c r="E319" t="n">
-        <v>46.2632535504619</v>
+        <v>46.2632535505</v>
       </c>
     </row>
     <row r="320">
@@ -6619,7 +6619,7 @@
         <v>7</v>
       </c>
       <c r="E320" t="n">
-        <v>39.0646433036355</v>
+        <v>39.0646433036</v>
       </c>
     </row>
     <row r="321">
@@ -6636,7 +6636,7 @@
         <v>7</v>
       </c>
       <c r="E321" t="n">
-        <v>46.767324521624</v>
+        <v>46.7673245216</v>
       </c>
     </row>
     <row r="322">
@@ -6653,7 +6653,7 @@
         <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>59.2994488314148</v>
+        <v>59.2994488314</v>
       </c>
     </row>
     <row r="323">
@@ -6670,7 +6670,7 @@
         <v>7</v>
       </c>
       <c r="E323" t="n">
-        <v>65.8518620550254</v>
+        <v>65.851862055</v>
       </c>
     </row>
     <row r="324">
@@ -6687,7 +6687,7 @@
         <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>62.1926972610839</v>
+        <v>62.1926972611</v>
       </c>
     </row>
     <row r="325">
@@ -6704,7 +6704,7 @@
         <v>7</v>
       </c>
       <c r="E325" t="n">
-        <v>69.1126529368471</v>
+        <v>69.1126529368</v>
       </c>
     </row>
     <row r="326">
@@ -6721,7 +6721,7 @@
         <v>7</v>
       </c>
       <c r="E326" t="n">
-        <v>56.7738035063693</v>
+        <v>56.7738035064</v>
       </c>
     </row>
     <row r="327">
@@ -6738,7 +6738,7 @@
         <v>7</v>
       </c>
       <c r="E327" t="n">
-        <v>58.4004661849056</v>
+        <v>58.4004661849</v>
       </c>
     </row>
     <row r="328">
@@ -6755,7 +6755,7 @@
         <v>7</v>
       </c>
       <c r="E328" t="n">
-        <v>61.0851440270609</v>
+        <v>61.0851440271</v>
       </c>
     </row>
     <row r="329">
@@ -6772,7 +6772,7 @@
         <v>7</v>
       </c>
       <c r="E329" t="n">
-        <v>67.0524221441829</v>
+        <v>67.0524221442</v>
       </c>
     </row>
     <row r="330">
@@ -6789,7 +6789,7 @@
         <v>7</v>
       </c>
       <c r="E330" t="n">
-        <v>67.6014001738156</v>
+        <v>67.6014001738</v>
       </c>
     </row>
     <row r="331">
@@ -6806,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>56.5099987355874</v>
+        <v>56.5099987356</v>
       </c>
     </row>
     <row r="332">
@@ -6823,7 +6823,7 @@
         <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>59.3297604369768</v>
+        <v>59.329760437</v>
       </c>
     </row>
     <row r="333">
@@ -6840,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="E333" t="n">
-        <v>65.4470223961228</v>
+        <v>65.4470223961</v>
       </c>
     </row>
     <row r="334">
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
       <c r="E334" t="n">
-        <v>62.0716701890391</v>
+        <v>62.071670189</v>
       </c>
     </row>
     <row r="335">
@@ -6874,7 +6874,7 @@
         <v>7</v>
       </c>
       <c r="E335" t="n">
-        <v>63.3382135455828</v>
+        <v>63.3382135456</v>
       </c>
     </row>
     <row r="336">
@@ -6891,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="E336" t="n">
-        <v>33.8202722181101</v>
+        <v>33.8202722181</v>
       </c>
     </row>
     <row r="337">
@@ -6908,7 +6908,7 @@
         <v>7</v>
       </c>
       <c r="E337" t="n">
-        <v>40.1326726499537</v>
+        <v>40.13267265</v>
       </c>
     </row>
     <row r="338">
@@ -6925,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="E338" t="n">
-        <v>39.0464600359542</v>
+        <v>39.046460036</v>
       </c>
     </row>
     <row r="339">
@@ -6942,7 +6942,7 @@
         <v>7</v>
       </c>
       <c r="E339" t="n">
-        <v>37.4889320098722</v>
+        <v>37.4889320099</v>
       </c>
     </row>
     <row r="340">
@@ -6959,7 +6959,7 @@
         <v>7</v>
       </c>
       <c r="E340" t="n">
-        <v>37.2767427500745</v>
+        <v>37.2767427501</v>
       </c>
     </row>
     <row r="341">
@@ -6976,7 +6976,7 @@
         <v>7</v>
       </c>
       <c r="E341" t="n">
-        <v>50.3914860619673</v>
+        <v>50.391486062</v>
       </c>
     </row>
     <row r="342">
@@ -6993,7 +6993,7 @@
         <v>7</v>
       </c>
       <c r="E342" t="n">
-        <v>53.2569202080454</v>
+        <v>53.256920208</v>
       </c>
     </row>
     <row r="343">
@@ -7010,7 +7010,7 @@
         <v>7</v>
       </c>
       <c r="E343" t="n">
-        <v>54.0555237164792</v>
+        <v>54.0555237165</v>
       </c>
     </row>
     <row r="344">
@@ -7027,7 +7027,7 @@
         <v>7</v>
       </c>
       <c r="E344" t="n">
-        <v>59.4863964470616</v>
+        <v>59.4863964471</v>
       </c>
     </row>
     <row r="345">
@@ -7044,7 +7044,7 @@
         <v>7</v>
       </c>
       <c r="E345" t="n">
-        <v>60.9581916831193</v>
+        <v>60.9581916831</v>
       </c>
     </row>
     <row r="346">
@@ -7061,7 +7061,7 @@
         <v>7</v>
       </c>
       <c r="E346" t="n">
-        <v>45.4266432800098</v>
+        <v>45.42664328</v>
       </c>
     </row>
     <row r="347">
@@ -7078,7 +7078,7 @@
         <v>7</v>
       </c>
       <c r="E347" t="n">
-        <v>45.7458865803769</v>
+        <v>45.7458865804</v>
       </c>
     </row>
     <row r="348">
@@ -7095,7 +7095,7 @@
         <v>7</v>
       </c>
       <c r="E348" t="n">
-        <v>43.1503007186208</v>
+        <v>43.1503007186</v>
       </c>
     </row>
     <row r="349">
@@ -7112,7 +7112,7 @@
         <v>7</v>
       </c>
       <c r="E349" t="n">
-        <v>60.6338411780788</v>
+        <v>60.6338411781</v>
       </c>
     </row>
     <row r="350">
@@ -7129,7 +7129,7 @@
         <v>7</v>
       </c>
       <c r="E350" t="n">
-        <v>62.3771544013974</v>
+        <v>62.3771544014</v>
       </c>
     </row>
     <row r="351">
@@ -7146,7 +7146,7 @@
         <v>7</v>
       </c>
       <c r="E351" t="n">
-        <v>47.0132073452717</v>
+        <v>47.0132073453</v>
       </c>
     </row>
     <row r="352">
@@ -7163,7 +7163,7 @@
         <v>7</v>
       </c>
       <c r="E352" t="n">
-        <v>51.8238758354292</v>
+        <v>51.8238758354</v>
       </c>
     </row>
     <row r="353">
@@ -7180,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="E353" t="n">
-        <v>39.8792886345943</v>
+        <v>39.8792886346</v>
       </c>
     </row>
     <row r="354">
@@ -7197,7 +7197,7 @@
         <v>7</v>
       </c>
       <c r="E354" t="n">
-        <v>45.13005899448</v>
+        <v>45.1300589945</v>
       </c>
     </row>
     <row r="355">
@@ -7214,7 +7214,7 @@
         <v>7</v>
       </c>
       <c r="E355" t="n">
-        <v>37.4785817579191</v>
+        <v>37.4785817579</v>
       </c>
     </row>
     <row r="356">
@@ -7231,7 +7231,7 @@
         <v>7</v>
       </c>
       <c r="E356" t="n">
-        <v>36.1806416195665</v>
+        <v>36.1806416196</v>
       </c>
     </row>
     <row r="357">
@@ -7248,7 +7248,7 @@
         <v>7</v>
       </c>
       <c r="E357" t="n">
-        <v>41.0710624726845</v>
+        <v>41.0710624727</v>
       </c>
     </row>
     <row r="358">
@@ -7265,7 +7265,7 @@
         <v>7</v>
       </c>
       <c r="E358" t="n">
-        <v>49.6955245634011</v>
+        <v>49.6955245634</v>
       </c>
     </row>
     <row r="359">
@@ -7282,7 +7282,7 @@
         <v>7</v>
       </c>
       <c r="E359" t="n">
-        <v>50.8609833646224</v>
+        <v>50.8609833646</v>
       </c>
     </row>
     <row r="360">
@@ -7299,7 +7299,7 @@
         <v>7</v>
       </c>
       <c r="E360" t="n">
-        <v>51.4111570260213</v>
+        <v>51.411157026</v>
       </c>
     </row>
     <row r="361">
@@ -7316,7 +7316,7 @@
         <v>7</v>
       </c>
       <c r="E361" t="n">
-        <v>44.9949454285374</v>
+        <v>44.9949454285</v>
       </c>
     </row>
     <row r="362">
@@ -7333,7 +7333,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>50.4231387158496</v>
+        <v>50.4231387158</v>
       </c>
     </row>
     <row r="363">
@@ -7350,7 +7350,7 @@
         <v>7</v>
       </c>
       <c r="E363" t="n">
-        <v>57.3261644539142</v>
+        <v>57.3261644539</v>
       </c>
     </row>
     <row r="364">
@@ -7367,7 +7367,7 @@
         <v>7</v>
       </c>
       <c r="E364" t="n">
-        <v>46.0004695080927</v>
+        <v>46.0004695081</v>
       </c>
     </row>
     <row r="365">
@@ -7384,7 +7384,7 @@
         <v>7</v>
       </c>
       <c r="E365" t="n">
-        <v>47.2322481126263</v>
+        <v>47.2322481126</v>
       </c>
     </row>
     <row r="366">
@@ -7401,7 +7401,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>46.9974652432675</v>
+        <v>46.9974652433</v>
       </c>
     </row>
     <row r="367">
@@ -7418,7 +7418,7 @@
         <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>49.2202025176299</v>
+        <v>49.2202025176</v>
       </c>
     </row>
     <row r="368">
@@ -7435,7 +7435,7 @@
         <v>7</v>
       </c>
       <c r="E368" t="n">
-        <v>58.7578276737667</v>
+        <v>58.7578276738</v>
       </c>
     </row>
     <row r="369">
@@ -7452,7 +7452,7 @@
         <v>7</v>
       </c>
       <c r="E369" t="n">
-        <v>64.3279065692033</v>
+        <v>64.3279065692</v>
       </c>
     </row>
     <row r="370">
@@ -7469,7 +7469,7 @@
         <v>7</v>
       </c>
       <c r="E370" t="n">
-        <v>55.451480789375</v>
+        <v>55.4514807894</v>
       </c>
     </row>
     <row r="371">
@@ -7486,7 +7486,7 @@
         <v>7</v>
       </c>
       <c r="E371" t="n">
-        <v>59.7015196228045</v>
+        <v>59.7015196228</v>
       </c>
     </row>
     <row r="372">
@@ -7503,7 +7503,7 @@
         <v>7</v>
       </c>
       <c r="E372" t="n">
-        <v>57.9819324674529</v>
+        <v>57.9819324675</v>
       </c>
     </row>
     <row r="373">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="E373" t="n">
-        <v>65.7249056059837</v>
+        <v>65.724905606</v>
       </c>
     </row>
     <row r="374">
@@ -7537,7 +7537,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>60.7903135081507</v>
+        <v>60.7903135082</v>
       </c>
     </row>
     <row r="375">
@@ -7554,7 +7554,7 @@
         <v>7</v>
       </c>
       <c r="E375" t="n">
-        <v>62.1880850024432</v>
+        <v>62.1880850024</v>
       </c>
     </row>
     <row r="376">
@@ -7571,7 +7571,7 @@
         <v>7</v>
       </c>
       <c r="E376" t="n">
-        <v>65.2549924923441</v>
+        <v>65.2549924923</v>
       </c>
     </row>
     <row r="377">
@@ -7588,7 +7588,7 @@
         <v>7</v>
       </c>
       <c r="E377" t="n">
-        <v>49.1227982703598</v>
+        <v>49.1227982704</v>
       </c>
     </row>
     <row r="378">
@@ -7605,7 +7605,7 @@
         <v>7</v>
       </c>
       <c r="E378" t="n">
-        <v>55.6618800371363</v>
+        <v>55.6618800371</v>
       </c>
     </row>
     <row r="379">
@@ -7622,7 +7622,7 @@
         <v>7</v>
       </c>
       <c r="E379" t="n">
-        <v>53.5243752737466</v>
+        <v>53.5243752737</v>
       </c>
     </row>
     <row r="380">
@@ -7639,7 +7639,7 @@
         <v>7</v>
       </c>
       <c r="E380" t="n">
-        <v>51.5034672868962</v>
+        <v>51.5034672869</v>
       </c>
     </row>
     <row r="381">
@@ -7656,7 +7656,7 @@
         <v>7</v>
       </c>
       <c r="E381" t="n">
-        <v>57.3147859373153</v>
+        <v>57.3147859373</v>
       </c>
     </row>
     <row r="382">
@@ -7673,7 +7673,7 @@
         <v>7</v>
       </c>
       <c r="E382" t="n">
-        <v>25.373234666043</v>
+        <v>25.373234666</v>
       </c>
     </row>
     <row r="383">
@@ -7690,7 +7690,7 @@
         <v>7</v>
       </c>
       <c r="E383" t="n">
-        <v>26.6990619916649</v>
+        <v>26.6990619917</v>
       </c>
     </row>
     <row r="384">
@@ -7707,7 +7707,7 @@
         <v>7</v>
       </c>
       <c r="E384" t="n">
-        <v>25.3439888064608</v>
+        <v>25.3439888065</v>
       </c>
     </row>
     <row r="385">
@@ -7724,7 +7724,7 @@
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>32.3600185258792</v>
+        <v>32.3600185259</v>
       </c>
     </row>
     <row r="386">
@@ -7741,7 +7741,7 @@
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>38.1432538174266</v>
+        <v>38.1432538174</v>
       </c>
     </row>
     <row r="387">
@@ -7758,7 +7758,7 @@
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>38.6508813071507</v>
+        <v>38.6508813072</v>
       </c>
     </row>
     <row r="388">
@@ -7775,7 +7775,7 @@
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>39.926679050863</v>
+        <v>39.9266790509</v>
       </c>
     </row>
     <row r="389">
@@ -7792,7 +7792,7 @@
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>41.2609883048032</v>
+        <v>41.2609883048</v>
       </c>
     </row>
     <row r="390">
@@ -7809,7 +7809,7 @@
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>46.4522519979846</v>
+        <v>46.452251998</v>
       </c>
     </row>
     <row r="391">
@@ -7826,7 +7826,7 @@
         <v>7</v>
       </c>
       <c r="E391" t="n">
-        <v>55.9770749533349</v>
+        <v>55.9770749533</v>
       </c>
     </row>
     <row r="392">
@@ -7843,7 +7843,7 @@
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>50.3259267969149</v>
+        <v>50.3259267969</v>
       </c>
     </row>
     <row r="393">
@@ -7860,7 +7860,7 @@
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>57.0475191711862</v>
+        <v>57.0475191712</v>
       </c>
     </row>
     <row r="394">
@@ -7877,7 +7877,7 @@
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>59.9131363089865</v>
+        <v>59.913136309</v>
       </c>
     </row>
     <row r="395">
@@ -7894,7 +7894,7 @@
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>47.2818437152852</v>
+        <v>47.2818437153</v>
       </c>
     </row>
     <row r="396">
@@ -7911,7 +7911,7 @@
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>52.8800954714713</v>
+        <v>52.8800954715</v>
       </c>
     </row>
     <row r="397">
@@ -7928,7 +7928,7 @@
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>50.879329441801</v>
+        <v>50.8793294418</v>
       </c>
     </row>
     <row r="398">
@@ -7945,7 +7945,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>53.9827338009822</v>
+        <v>53.982733801</v>
       </c>
     </row>
     <row r="399">
@@ -7962,7 +7962,7 @@
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>55.7921884936871</v>
+        <v>55.7921884937</v>
       </c>
     </row>
     <row r="400">
@@ -7979,7 +7979,7 @@
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>59.8619505062088</v>
+        <v>59.8619505062</v>
       </c>
     </row>
     <row r="401">
@@ -7996,7 +7996,7 @@
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>59.1366799003868</v>
+        <v>59.1366799004</v>
       </c>
     </row>
     <row r="402">
@@ -8013,7 +8013,7 @@
         <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>74.5771918610048</v>
+        <v>74.577191861</v>
       </c>
     </row>
     <row r="403">
@@ -8030,7 +8030,7 @@
         <v>7</v>
       </c>
       <c r="E403" t="n">
-        <v>23.5820371314722</v>
+        <v>23.5820371315</v>
       </c>
     </row>
     <row r="404">
@@ -8047,7 +8047,7 @@
         <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>31.4572999972478</v>
+        <v>31.4572999972</v>
       </c>
     </row>
     <row r="405">
@@ -8064,7 +8064,7 @@
         <v>7</v>
       </c>
       <c r="E405" t="n">
-        <v>31.9470031719696</v>
+        <v>31.947003172</v>
       </c>
     </row>
     <row r="406">
@@ -8081,7 +8081,7 @@
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>31.243883644324</v>
+        <v>31.2438836443</v>
       </c>
     </row>
     <row r="407">
@@ -8098,7 +8098,7 @@
         <v>7</v>
       </c>
       <c r="E407" t="n">
-        <v>31.02819847229</v>
+        <v>31.0281984723</v>
       </c>
     </row>
     <row r="408">
@@ -8115,7 +8115,7 @@
         <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>35.3645924111419</v>
+        <v>35.3645924111</v>
       </c>
     </row>
     <row r="409">
@@ -8132,7 +8132,7 @@
         <v>7</v>
       </c>
       <c r="E409" t="n">
-        <v>41.3232604964629</v>
+        <v>41.3232604965</v>
       </c>
     </row>
     <row r="410">
@@ -8149,7 +8149,7 @@
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>36.3388059969425</v>
+        <v>36.3388059969</v>
       </c>
     </row>
     <row r="411">
@@ -8166,7 +8166,7 @@
         <v>7</v>
       </c>
       <c r="E411" t="n">
-        <v>45.1127381414038</v>
+        <v>45.1127381414</v>
       </c>
     </row>
     <row r="412">
@@ -8183,7 +8183,7 @@
         <v>7</v>
       </c>
       <c r="E412" t="n">
-        <v>44.7467700960829</v>
+        <v>44.7467700961</v>
       </c>
     </row>
     <row r="413">
@@ -8200,7 +8200,7 @@
         <v>7</v>
       </c>
       <c r="E413" t="n">
-        <v>42.4583566187155</v>
+        <v>42.4583566187</v>
       </c>
     </row>
     <row r="414">
@@ -8217,7 +8217,7 @@
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>47.5203476472884</v>
+        <v>47.5203476473</v>
       </c>
     </row>
     <row r="415">
@@ -8234,7 +8234,7 @@
         <v>7</v>
       </c>
       <c r="E415" t="n">
-        <v>48.4640116972906</v>
+        <v>48.4640116973</v>
       </c>
     </row>
     <row r="416">
@@ -8251,7 +8251,7 @@
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>50.6957520071084</v>
+        <v>50.6957520071</v>
       </c>
     </row>
     <row r="417">
@@ -8268,7 +8268,7 @@
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>50.4206716255706</v>
+        <v>50.4206716256</v>
       </c>
     </row>
     <row r="418">
@@ -8285,7 +8285,7 @@
         <v>7</v>
       </c>
       <c r="E418" t="n">
-        <v>43.6605063285129</v>
+        <v>43.6605063285</v>
       </c>
     </row>
     <row r="419">
@@ -8302,7 +8302,7 @@
         <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>41.8525850599663</v>
+        <v>41.85258506</v>
       </c>
     </row>
     <row r="420">
@@ -8319,7 +8319,7 @@
         <v>7</v>
       </c>
       <c r="E420" t="n">
-        <v>45.7764370512789</v>
+        <v>45.7764370513</v>
       </c>
     </row>
     <row r="421">
@@ -8336,7 +8336,7 @@
         <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>47.7623156251567</v>
+        <v>47.7623156252</v>
       </c>
     </row>
     <row r="422">
@@ -8353,7 +8353,7 @@
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>52.775682869789</v>
+        <v>52.7756828698</v>
       </c>
     </row>
     <row r="423">
@@ -8370,7 +8370,7 @@
         <v>7</v>
       </c>
       <c r="E423" t="n">
-        <v>58.4803700416941</v>
+        <v>58.4803700417</v>
       </c>
     </row>
     <row r="424">
@@ -8387,7 +8387,7 @@
         <v>7</v>
       </c>
       <c r="E424" t="n">
-        <v>62.5324496584133</v>
+        <v>62.5324496584</v>
       </c>
     </row>
     <row r="425">
@@ -8404,7 +8404,7 @@
         <v>7</v>
       </c>
       <c r="E425" t="n">
-        <v>64.9571513417847</v>
+        <v>64.9571513418</v>
       </c>
     </row>
     <row r="426">
@@ -8421,7 +8421,7 @@
         <v>7</v>
       </c>
       <c r="E426" t="n">
-        <v>67.178800825632</v>
+        <v>67.1788008256</v>
       </c>
     </row>
     <row r="427">
@@ -8438,7 +8438,7 @@
         <v>7</v>
       </c>
       <c r="E427" t="n">
-        <v>17.8833337655137</v>
+        <v>17.8833337655</v>
       </c>
     </row>
     <row r="428">
@@ -8455,7 +8455,7 @@
         <v>7</v>
       </c>
       <c r="E428" t="n">
-        <v>20.9767861706903</v>
+        <v>20.9767861707</v>
       </c>
     </row>
     <row r="429">
@@ -8472,7 +8472,7 @@
         <v>7</v>
       </c>
       <c r="E429" t="n">
-        <v>25.510394370536</v>
+        <v>25.5103943705</v>
       </c>
     </row>
     <row r="430">
@@ -8489,7 +8489,7 @@
         <v>7</v>
       </c>
       <c r="E430" t="n">
-        <v>26.8262519827496</v>
+        <v>26.8262519827</v>
       </c>
     </row>
     <row r="431">
@@ -8506,7 +8506,7 @@
         <v>7</v>
       </c>
       <c r="E431" t="n">
-        <v>29.7091583660021</v>
+        <v>29.709158366</v>
       </c>
     </row>
     <row r="432">
@@ -8523,7 +8523,7 @@
         <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>38.1654395749273</v>
+        <v>38.1654395749</v>
       </c>
     </row>
     <row r="433">
@@ -8540,7 +8540,7 @@
         <v>7</v>
       </c>
       <c r="E433" t="n">
-        <v>39.0735852797321</v>
+        <v>39.0735852797</v>
       </c>
     </row>
     <row r="434">
@@ -8557,7 +8557,7 @@
         <v>7</v>
       </c>
       <c r="E434" t="n">
-        <v>49.9733459787904</v>
+        <v>49.9733459788</v>
       </c>
     </row>
     <row r="435">
@@ -8574,7 +8574,7 @@
         <v>7</v>
       </c>
       <c r="E435" t="n">
-        <v>49.9733459787903</v>
+        <v>49.9733459788</v>
       </c>
     </row>
     <row r="436">
@@ -8591,7 +8591,7 @@
         <v>7</v>
       </c>
       <c r="E436" t="n">
-        <v>52.3269330788134</v>
+        <v>52.3269330788</v>
       </c>
     </row>
     <row r="437">
@@ -8608,7 +8608,7 @@
         <v>7</v>
       </c>
       <c r="E437" t="n">
-        <v>42.9948327013584</v>
+        <v>42.9948327014</v>
       </c>
     </row>
     <row r="438">
@@ -8625,7 +8625,7 @@
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>40.9713146615681</v>
+        <v>40.9713146616</v>
       </c>
     </row>
     <row r="439">
@@ -8642,7 +8642,7 @@
         <v>7</v>
       </c>
       <c r="E439" t="n">
-        <v>46.6819634723795</v>
+        <v>46.6819634724</v>
       </c>
     </row>
     <row r="440">
@@ -8659,7 +8659,7 @@
         <v>7</v>
       </c>
       <c r="E440" t="n">
-        <v>45.9359429971097</v>
+        <v>45.9359429971</v>
       </c>
     </row>
     <row r="441">
@@ -8676,7 +8676,7 @@
         <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>47.2681549326267</v>
+        <v>47.2681549326</v>
       </c>
     </row>
     <row r="442">
@@ -8693,7 +8693,7 @@
         <v>7</v>
       </c>
       <c r="E442" t="n">
-        <v>34.5661468193325</v>
+        <v>34.5661468193</v>
       </c>
     </row>
     <row r="443">
@@ -8710,7 +8710,7 @@
         <v>7</v>
       </c>
       <c r="E443" t="n">
-        <v>32.8094842037585</v>
+        <v>32.8094842038</v>
       </c>
     </row>
     <row r="444">
@@ -8727,7 +8727,7 @@
         <v>7</v>
       </c>
       <c r="E444" t="n">
-        <v>30.8996061101853</v>
+        <v>30.8996061102</v>
       </c>
     </row>
     <row r="445">
@@ -8744,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="E445" t="n">
-        <v>32.867193738857</v>
+        <v>32.8671937389</v>
       </c>
     </row>
     <row r="446">
@@ -8761,7 +8761,7 @@
         <v>7</v>
       </c>
       <c r="E446" t="n">
-        <v>34.24826079611</v>
+        <v>34.2482607961</v>
       </c>
     </row>
     <row r="447">
@@ -8778,7 +8778,7 @@
         <v>7</v>
       </c>
       <c r="E447" t="n">
-        <v>50.4286547413439</v>
+        <v>50.4286547413</v>
       </c>
     </row>
     <row r="448">
@@ -8795,7 +8795,7 @@
         <v>7</v>
       </c>
       <c r="E448" t="n">
-        <v>59.4585020629766</v>
+        <v>59.458502063</v>
       </c>
     </row>
     <row r="449">
@@ -8812,7 +8812,7 @@
         <v>7</v>
       </c>
       <c r="E449" t="n">
-        <v>59.4825900235226</v>
+        <v>59.4825900235</v>
       </c>
     </row>
     <row r="450">
@@ -8829,7 +8829,7 @@
         <v>7</v>
       </c>
       <c r="E450" t="n">
-        <v>34.6255613357536</v>
+        <v>34.6255613358</v>
       </c>
     </row>
     <row r="451">
@@ -8846,7 +8846,7 @@
         <v>7</v>
       </c>
       <c r="E451" t="n">
-        <v>39.1806651601455</v>
+        <v>39.1806651601</v>
       </c>
     </row>
     <row r="452">
@@ -8863,7 +8863,7 @@
         <v>7</v>
       </c>
       <c r="E452" t="n">
-        <v>35.5829567068174</v>
+        <v>35.5829567068</v>
       </c>
     </row>
     <row r="453">
@@ -8880,7 +8880,7 @@
         <v>7</v>
       </c>
       <c r="E453" t="n">
-        <v>44.1985523848895</v>
+        <v>44.1985523849</v>
       </c>
     </row>
     <row r="454">
@@ -8897,7 +8897,7 @@
         <v>7</v>
       </c>
       <c r="E454" t="n">
-        <v>42.2130079590151</v>
+        <v>42.213007959</v>
       </c>
     </row>
     <row r="455">
@@ -8914,7 +8914,7 @@
         <v>7</v>
       </c>
       <c r="E455" t="n">
-        <v>36.7662576379776</v>
+        <v>36.766257638</v>
       </c>
     </row>
     <row r="456">
@@ -8931,7 +8931,7 @@
         <v>7</v>
       </c>
       <c r="E456" t="n">
-        <v>39.913796974351</v>
+        <v>39.9137969744</v>
       </c>
     </row>
     <row r="457">
@@ -8948,7 +8948,7 @@
         <v>7</v>
       </c>
       <c r="E457" t="n">
-        <v>38.153704138248</v>
+        <v>38.1537041382</v>
       </c>
     </row>
     <row r="458">
@@ -8965,7 +8965,7 @@
         <v>7</v>
       </c>
       <c r="E458" t="n">
-        <v>40.9243473046505</v>
+        <v>40.9243473047</v>
       </c>
     </row>
     <row r="459">
@@ -8982,7 +8982,7 @@
         <v>7</v>
       </c>
       <c r="E459" t="n">
-        <v>45.4366938374842</v>
+        <v>45.4366938375</v>
       </c>
     </row>
     <row r="460">
@@ -8999,7 +8999,7 @@
         <v>7</v>
       </c>
       <c r="E460" t="n">
-        <v>45.344096635862</v>
+        <v>45.3440966359</v>
       </c>
     </row>
     <row r="461">
@@ -9016,7 +9016,7 @@
         <v>7</v>
       </c>
       <c r="E461" t="n">
-        <v>52.3073689391169</v>
+        <v>52.3073689391</v>
       </c>
     </row>
     <row r="462">
@@ -9033,7 +9033,7 @@
         <v>7</v>
       </c>
       <c r="E462" t="n">
-        <v>59.8573979083777</v>
+        <v>59.8573979084</v>
       </c>
     </row>
     <row r="463">
@@ -9050,7 +9050,7 @@
         <v>7</v>
       </c>
       <c r="E463" t="n">
-        <v>60.2983908698182</v>
+        <v>60.2983908698</v>
       </c>
     </row>
     <row r="464">
@@ -9067,7 +9067,7 @@
         <v>7</v>
       </c>
       <c r="E464" t="n">
-        <v>26.2042893202577</v>
+        <v>26.2042893203</v>
       </c>
     </row>
     <row r="465">
@@ -9084,7 +9084,7 @@
         <v>7</v>
       </c>
       <c r="E465" t="n">
-        <v>34.45815865307</v>
+        <v>34.4581586531</v>
       </c>
     </row>
     <row r="466">
@@ -9101,7 +9101,7 @@
         <v>7</v>
       </c>
       <c r="E466" t="n">
-        <v>35.9196031367972</v>
+        <v>35.9196031368</v>
       </c>
     </row>
     <row r="467">
@@ -9118,7 +9118,7 @@
         <v>7</v>
       </c>
       <c r="E467" t="n">
-        <v>40.0918771091332</v>
+        <v>40.0918771091</v>
       </c>
     </row>
     <row r="468">
@@ -9135,7 +9135,7 @@
         <v>7</v>
       </c>
       <c r="E468" t="n">
-        <v>44.0470529912985</v>
+        <v>44.0470529913</v>
       </c>
     </row>
     <row r="469">
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="E469" t="n">
-        <v>46.1245510820464</v>
+        <v>46.124551082</v>
       </c>
     </row>
     <row r="470">
@@ -9169,7 +9169,7 @@
         <v>7</v>
       </c>
       <c r="E470" t="n">
-        <v>47.5970065264278</v>
+        <v>47.5970065264</v>
       </c>
     </row>
     <row r="471">
@@ -9186,7 +9186,7 @@
         <v>7</v>
       </c>
       <c r="E471" t="n">
-        <v>48.2937772619833</v>
+        <v>48.293777262</v>
       </c>
     </row>
     <row r="472">
@@ -9203,7 +9203,7 @@
         <v>7</v>
       </c>
       <c r="E472" t="n">
-        <v>52.8815874994045</v>
+        <v>52.8815874994</v>
       </c>
     </row>
     <row r="473">
@@ -9220,7 +9220,7 @@
         <v>7</v>
       </c>
       <c r="E473" t="n">
-        <v>55.5801931365622</v>
+        <v>55.5801931366</v>
       </c>
     </row>
     <row r="474">
@@ -9237,7 +9237,7 @@
         <v>7</v>
       </c>
       <c r="E474" t="n">
-        <v>48.3886813490037</v>
+        <v>48.388681349</v>
       </c>
     </row>
     <row r="475">
@@ -9254,7 +9254,7 @@
         <v>7</v>
       </c>
       <c r="E475" t="n">
-        <v>54.9289733889944</v>
+        <v>54.928973389</v>
       </c>
     </row>
     <row r="476">
@@ -9271,7 +9271,7 @@
         <v>7</v>
       </c>
       <c r="E476" t="n">
-        <v>50.7078844151106</v>
+        <v>50.7078844151</v>
       </c>
     </row>
     <row r="477">
@@ -9288,7 +9288,7 @@
         <v>7</v>
       </c>
       <c r="E477" t="n">
-        <v>54.5039233575906</v>
+        <v>54.5039233576</v>
       </c>
     </row>
     <row r="478">
@@ -9305,7 +9305,7 @@
         <v>7</v>
       </c>
       <c r="E478" t="n">
-        <v>55.7762923753983</v>
+        <v>55.7762923754</v>
       </c>
     </row>
     <row r="479">
@@ -9322,7 +9322,7 @@
         <v>7</v>
       </c>
       <c r="E479" t="n">
-        <v>38.0585731638933</v>
+        <v>38.0585731639</v>
       </c>
     </row>
     <row r="480">
@@ -9339,7 +9339,7 @@
         <v>7</v>
       </c>
       <c r="E480" t="n">
-        <v>43.2178350239425</v>
+        <v>43.2178350239</v>
       </c>
     </row>
     <row r="481">
@@ -9356,7 +9356,7 @@
         <v>7</v>
       </c>
       <c r="E481" t="n">
-        <v>42.4426107800335</v>
+        <v>42.44261078</v>
       </c>
     </row>
     <row r="482">
@@ -9373,7 +9373,7 @@
         <v>7</v>
       </c>
       <c r="E482" t="n">
-        <v>47.0806690128265</v>
+        <v>47.0806690128</v>
       </c>
     </row>
     <row r="483">
@@ -9390,7 +9390,7 @@
         <v>7</v>
       </c>
       <c r="E483" t="n">
-        <v>49.9749725874943</v>
+        <v>49.9749725875</v>
       </c>
     </row>
     <row r="484">
@@ -9407,7 +9407,7 @@
         <v>7</v>
       </c>
       <c r="E484" t="n">
-        <v>51.6122817877223</v>
+        <v>51.6122817877</v>
       </c>
     </row>
     <row r="485">
@@ -9424,7 +9424,7 @@
         <v>7</v>
       </c>
       <c r="E485" t="n">
-        <v>58.4845121137412</v>
+        <v>58.4845121137</v>
       </c>
     </row>
     <row r="486">
@@ -9441,7 +9441,7 @@
         <v>7</v>
       </c>
       <c r="E486" t="n">
-        <v>59.918684286805</v>
+        <v>59.9186842868</v>
       </c>
     </row>
     <row r="487">
@@ -9458,7 +9458,7 @@
         <v>7</v>
       </c>
       <c r="E487" t="n">
-        <v>63.0311481407299</v>
+        <v>63.0311481407</v>
       </c>
     </row>
     <row r="488">
@@ -9475,7 +9475,7 @@
         <v>7</v>
       </c>
       <c r="E488" t="n">
-        <v>46.9554237997134</v>
+        <v>46.9554237997</v>
       </c>
     </row>
     <row r="489">
@@ -9492,7 +9492,7 @@
         <v>7</v>
       </c>
       <c r="E489" t="n">
-        <v>48.9209146460371</v>
+        <v>48.920914646</v>
       </c>
     </row>
     <row r="490">
@@ -9509,7 +9509,7 @@
         <v>7</v>
       </c>
       <c r="E490" t="n">
-        <v>51.5730275134815</v>
+        <v>51.5730275135</v>
       </c>
     </row>
     <row r="491">
@@ -9526,7 +9526,7 @@
         <v>7</v>
       </c>
       <c r="E491" t="n">
-        <v>56.4194359224833</v>
+        <v>56.4194359225</v>
       </c>
     </row>
     <row r="492">
@@ -9543,7 +9543,7 @@
         <v>7</v>
       </c>
       <c r="E492" t="n">
-        <v>57.6124854056395</v>
+        <v>57.6124854056</v>
       </c>
     </row>
     <row r="493">
@@ -9560,7 +9560,7 @@
         <v>7</v>
       </c>
       <c r="E493" t="n">
-        <v>59.3197453448637</v>
+        <v>59.3197453449</v>
       </c>
     </row>
     <row r="494">
@@ -9577,7 +9577,7 @@
         <v>7</v>
       </c>
       <c r="E494" t="n">
-        <v>59.9461867769653</v>
+        <v>59.946186777</v>
       </c>
     </row>
     <row r="495">
@@ -9594,7 +9594,7 @@
         <v>7</v>
       </c>
       <c r="E495" t="n">
-        <v>64.1658687317439</v>
+        <v>64.1658687317</v>
       </c>
     </row>
     <row r="496">
@@ -9611,7 +9611,7 @@
         <v>7</v>
       </c>
       <c r="E496" t="n">
-        <v>64.3498081439032</v>
+        <v>64.3498081439</v>
       </c>
     </row>
     <row r="497">
@@ -9628,7 +9628,7 @@
         <v>7</v>
       </c>
       <c r="E497" t="n">
-        <v>46.1072768833555</v>
+        <v>46.1072768834</v>
       </c>
     </row>
     <row r="498">
@@ -9645,7 +9645,7 @@
         <v>7</v>
       </c>
       <c r="E498" t="n">
-        <v>48.9513290238295</v>
+        <v>48.9513290238</v>
       </c>
     </row>
     <row r="499">
@@ -9662,7 +9662,7 @@
         <v>7</v>
       </c>
       <c r="E499" t="n">
-        <v>50.7936048529393</v>
+        <v>50.7936048529</v>
       </c>
     </row>
     <row r="500">
@@ -9679,7 +9679,7 @@
         <v>7</v>
       </c>
       <c r="E500" t="n">
-        <v>53.0855598505363</v>
+        <v>53.0855598505</v>
       </c>
     </row>
     <row r="501">
@@ -9696,7 +9696,7 @@
         <v>7</v>
       </c>
       <c r="E501" t="n">
-        <v>56.1003041326585</v>
+        <v>56.1003041327</v>
       </c>
     </row>
     <row r="502">
@@ -9713,7 +9713,7 @@
         <v>7</v>
       </c>
       <c r="E502" t="n">
-        <v>34.2366045939522</v>
+        <v>34.236604594</v>
       </c>
     </row>
     <row r="503">
@@ -9730,7 +9730,7 @@
         <v>7</v>
       </c>
       <c r="E503" t="n">
-        <v>30.6096851179973</v>
+        <v>30.609685118</v>
       </c>
     </row>
     <row r="504">
@@ -9747,7 +9747,7 @@
         <v>7</v>
       </c>
       <c r="E504" t="n">
-        <v>40.1776106147852</v>
+        <v>40.1776106148</v>
       </c>
     </row>
     <row r="505">
@@ -9764,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="E505" t="n">
-        <v>37.9049621104885</v>
+        <v>37.9049621105</v>
       </c>
     </row>
     <row r="506">
@@ -9781,7 +9781,7 @@
         <v>7</v>
       </c>
       <c r="E506" t="n">
-        <v>40.7921748664957</v>
+        <v>40.7921748665</v>
       </c>
     </row>
     <row r="507">
@@ -9798,7 +9798,7 @@
         <v>7</v>
       </c>
       <c r="E507" t="n">
-        <v>56.3099532540136</v>
+        <v>56.309953254</v>
       </c>
     </row>
     <row r="508">
@@ -9815,7 +9815,7 @@
         <v>7</v>
       </c>
       <c r="E508" t="n">
-        <v>61.6169431812015</v>
+        <v>61.6169431812</v>
       </c>
     </row>
     <row r="509">
@@ -9832,7 +9832,7 @@
         <v>7</v>
       </c>
       <c r="E509" t="n">
-        <v>61.7106618953987</v>
+        <v>61.7106618954</v>
       </c>
     </row>
     <row r="510">
@@ -9849,7 +9849,7 @@
         <v>7</v>
       </c>
       <c r="E510" t="n">
-        <v>60.7918895914686</v>
+        <v>60.7918895915</v>
       </c>
     </row>
     <row r="511">
@@ -9866,7 +9866,7 @@
         <v>7</v>
       </c>
       <c r="E511" t="n">
-        <v>62.618878753355</v>
+        <v>62.6188787534</v>
       </c>
     </row>
     <row r="512">
@@ -9883,7 +9883,7 @@
         <v>7</v>
       </c>
       <c r="E512" t="n">
-        <v>47.171218366801</v>
+        <v>47.1712183668</v>
       </c>
     </row>
     <row r="513">
@@ -9900,7 +9900,7 @@
         <v>7</v>
       </c>
       <c r="E513" t="n">
-        <v>51.3153743244877</v>
+        <v>51.3153743245</v>
       </c>
     </row>
     <row r="514">
@@ -9917,7 +9917,7 @@
         <v>7</v>
       </c>
       <c r="E514" t="n">
-        <v>48.9800723773615</v>
+        <v>48.9800723774</v>
       </c>
     </row>
     <row r="515">
@@ -9934,7 +9934,7 @@
         <v>7</v>
       </c>
       <c r="E515" t="n">
-        <v>48.9001728018957</v>
+        <v>48.9001728019</v>
       </c>
     </row>
     <row r="516">
@@ -9951,7 +9951,7 @@
         <v>7</v>
       </c>
       <c r="E516" t="n">
-        <v>48.5661870049206</v>
+        <v>48.5661870049</v>
       </c>
     </row>
     <row r="517">
@@ -9968,7 +9968,7 @@
         <v>7</v>
       </c>
       <c r="E517" t="n">
-        <v>42.526052470889</v>
+        <v>42.5260524709</v>
       </c>
     </row>
     <row r="518">
@@ -9985,7 +9985,7 @@
         <v>7</v>
       </c>
       <c r="E518" t="n">
-        <v>49.0786385848798</v>
+        <v>49.0786385849</v>
       </c>
     </row>
     <row r="519">
@@ -10002,7 +10002,7 @@
         <v>7</v>
       </c>
       <c r="E519" t="n">
-        <v>43.4439426478261</v>
+        <v>43.4439426478</v>
       </c>
     </row>
     <row r="520">
@@ -10019,7 +10019,7 @@
         <v>7</v>
       </c>
       <c r="E520" t="n">
-        <v>44.6049659547908</v>
+        <v>44.6049659548</v>
       </c>
     </row>
     <row r="521">
@@ -10036,7 +10036,7 @@
         <v>7</v>
       </c>
       <c r="E521" t="n">
-        <v>45.5810689559327</v>
+        <v>45.5810689559</v>
       </c>
     </row>
     <row r="522">
@@ -10053,7 +10053,7 @@
         <v>7</v>
       </c>
       <c r="E522" t="n">
-        <v>41.4387813107048</v>
+        <v>41.4387813107</v>
       </c>
     </row>
     <row r="523">
@@ -10070,7 +10070,7 @@
         <v>7</v>
       </c>
       <c r="E523" t="n">
-        <v>42.2505298049745</v>
+        <v>42.250529805</v>
       </c>
     </row>
     <row r="524">
@@ -10087,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="E524" t="n">
-        <v>38.8573879915029</v>
+        <v>38.8573879915</v>
       </c>
     </row>
     <row r="525">
@@ -10104,7 +10104,7 @@
         <v>7</v>
       </c>
       <c r="E525" t="n">
-        <v>43.3725701409089</v>
+        <v>43.3725701409</v>
       </c>
     </row>
     <row r="526">
@@ -10121,7 +10121,7 @@
         <v>7</v>
       </c>
       <c r="E526" t="n">
-        <v>45.7294362853927</v>
+        <v>45.7294362854</v>
       </c>
     </row>
     <row r="527">
@@ -10138,7 +10138,7 @@
         <v>7</v>
       </c>
       <c r="E527" t="n">
-        <v>50.4822756912168</v>
+        <v>50.4822756912</v>
       </c>
     </row>
     <row r="528">
@@ -10155,7 +10155,7 @@
         <v>7</v>
       </c>
       <c r="E528" t="n">
-        <v>49.3470241895712</v>
+        <v>49.3470241896</v>
       </c>
     </row>
     <row r="529">
@@ -10172,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="E529" t="n">
-        <v>48.2370543799184</v>
+        <v>48.2370543799</v>
       </c>
     </row>
     <row r="530">
@@ -10189,7 +10189,7 @@
         <v>7</v>
       </c>
       <c r="E530" t="n">
-        <v>52.7402628134016</v>
+        <v>52.7402628134</v>
       </c>
     </row>
   </sheetData>
@@ -10237,19 +10237,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>31.3793739976324</v>
+        <v>31.3793739976</v>
       </c>
       <c r="D2" t="n">
-        <v>30.6590622491174</v>
+        <v>30.6590622491</v>
       </c>
       <c r="E2" t="n">
-        <v>23.9804244273641</v>
+        <v>23.9804244274</v>
       </c>
       <c r="F2" t="n">
-        <v>30.1923512198067</v>
+        <v>30.1923512198</v>
       </c>
       <c r="G2" t="n">
-        <v>34.4038103559782</v>
+        <v>34.403810356</v>
       </c>
     </row>
     <row r="3">
@@ -10260,19 +10260,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>25.6766436266407</v>
+        <v>25.6766436266</v>
       </c>
       <c r="D3" t="n">
-        <v>30.6050357477832</v>
+        <v>30.6050357478</v>
       </c>
       <c r="E3" t="n">
-        <v>24.4208104625321</v>
+        <v>24.4208104625</v>
       </c>
       <c r="F3" t="n">
-        <v>31.9417476356537</v>
+        <v>31.9417476357</v>
       </c>
       <c r="G3" t="n">
-        <v>33.5337891400656</v>
+        <v>33.5337891401</v>
       </c>
     </row>
     <row r="4">
@@ -10284,16 +10284,16 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>41.2109440039309</v>
+        <v>41.2109440039</v>
       </c>
       <c r="E4" t="n">
-        <v>32.5624679923956</v>
+        <v>32.5624679924</v>
       </c>
       <c r="F4" t="n">
-        <v>44.519631518778</v>
+        <v>44.5196315188</v>
       </c>
       <c r="G4" t="n">
-        <v>45.5117260752882</v>
+        <v>45.5117260753</v>
       </c>
     </row>
     <row r="5">
@@ -10304,19 +10304,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>48.2794797261962</v>
+        <v>48.2794797262</v>
       </c>
       <c r="D5" t="n">
-        <v>50.3714076414175</v>
+        <v>50.3714076414</v>
       </c>
       <c r="E5" t="n">
-        <v>48.3772610676706</v>
+        <v>48.3772610677</v>
       </c>
       <c r="F5" t="n">
-        <v>42.4345620959145</v>
+        <v>42.4345620959</v>
       </c>
       <c r="G5" t="n">
-        <v>51.5810705199496</v>
+        <v>51.5810705199</v>
       </c>
     </row>
     <row r="6">
@@ -10327,19 +10327,19 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>35.9697909860943</v>
+        <v>35.9697909861</v>
       </c>
       <c r="D6" t="n">
-        <v>39.9175918285481</v>
+        <v>39.9175918285</v>
       </c>
       <c r="E6" t="n">
-        <v>34.3390286907074</v>
+        <v>34.3390286907</v>
       </c>
       <c r="F6" t="n">
-        <v>46.8608603578369</v>
+        <v>46.8608603578</v>
       </c>
       <c r="G6" t="n">
-        <v>47.8416745743146</v>
+        <v>47.8416745743</v>
       </c>
     </row>
     <row r="7">
@@ -10351,16 +10351,16 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>24.4402701396343</v>
+        <v>24.4402701396</v>
       </c>
       <c r="E7" t="n">
-        <v>17.3447955729498</v>
+        <v>17.3447955729</v>
       </c>
       <c r="F7" t="n">
-        <v>25.4096811744798</v>
+        <v>25.4096811745</v>
       </c>
       <c r="G7" t="n">
-        <v>25.9044447720919</v>
+        <v>25.9044447721</v>
       </c>
     </row>
     <row r="8">
@@ -10371,19 +10371,19 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>44.8973450585342</v>
+        <v>44.8973450585</v>
       </c>
       <c r="D8" t="n">
-        <v>47.1164007374228</v>
+        <v>47.1164007374</v>
       </c>
       <c r="E8" t="n">
-        <v>42.7537390254132</v>
+        <v>42.7537390254</v>
       </c>
       <c r="F8" t="n">
-        <v>48.4363515742528</v>
+        <v>48.4363515743</v>
       </c>
       <c r="G8" t="n">
-        <v>50.7649958406698</v>
+        <v>50.7649958407</v>
       </c>
     </row>
     <row r="9">
@@ -10395,16 +10395,16 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>35.7575277792393</v>
+        <v>35.7575277792</v>
       </c>
       <c r="E9" t="n">
-        <v>39.1922607964956</v>
+        <v>39.1922607965</v>
       </c>
       <c r="F9" t="n">
-        <v>41.7200894217999</v>
+        <v>41.7200894218</v>
       </c>
       <c r="G9" t="n">
-        <v>40.5092768401444</v>
+        <v>40.5092768401</v>
       </c>
     </row>
     <row r="10">
@@ -10415,19 +10415,19 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>44.2885143979449</v>
+        <v>44.2885143979</v>
       </c>
       <c r="D10" t="n">
-        <v>36.8781798178048</v>
+        <v>36.8781798178</v>
       </c>
       <c r="E10" t="n">
-        <v>34.8419608036374</v>
+        <v>34.8419608036</v>
       </c>
       <c r="F10" t="n">
-        <v>39.3550561337518</v>
+        <v>39.3550561338</v>
       </c>
       <c r="G10" t="n">
-        <v>40.7926387108949</v>
+        <v>40.7926387109</v>
       </c>
     </row>
     <row r="11">
@@ -10438,19 +10438,19 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>49.6427205759137</v>
+        <v>49.6427205759</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3768719282408</v>
+        <v>54.3768719282</v>
       </c>
       <c r="E11" t="n">
-        <v>44.5848963083756</v>
+        <v>44.5848963084</v>
       </c>
       <c r="F11" t="n">
-        <v>54.5120076366559</v>
+        <v>54.5120076367</v>
       </c>
       <c r="G11" t="n">
-        <v>57.082585056921</v>
+        <v>57.0825850569</v>
       </c>
     </row>
     <row r="12">
@@ -10461,19 +10461,19 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>37.2349162277474</v>
+        <v>37.2349162277</v>
       </c>
       <c r="D12" t="n">
-        <v>51.5475350497105</v>
+        <v>51.5475350497</v>
       </c>
       <c r="E12" t="n">
-        <v>49.0037471877987</v>
+        <v>49.0037471878</v>
       </c>
       <c r="F12" t="n">
-        <v>54.3278399918758</v>
+        <v>54.3278399919</v>
       </c>
       <c r="G12" t="n">
-        <v>56.698998343725</v>
+        <v>56.6989983437</v>
       </c>
     </row>
     <row r="13">
@@ -10484,19 +10484,19 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>40.3266938584083</v>
+        <v>40.3266938584</v>
       </c>
       <c r="D13" t="n">
-        <v>46.4034198923169</v>
+        <v>46.4034198923</v>
       </c>
       <c r="E13" t="n">
-        <v>41.3511394738798</v>
+        <v>41.3511394739</v>
       </c>
       <c r="F13" t="n">
-        <v>51.471104969453</v>
+        <v>51.4711049695</v>
       </c>
       <c r="G13" t="n">
-        <v>50.6642862644124</v>
+        <v>50.6642862644</v>
       </c>
     </row>
     <row r="14">
@@ -10507,19 +10507,19 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>47.5290053139789</v>
+        <v>47.529005314</v>
       </c>
       <c r="D14" t="n">
-        <v>47.512164815567</v>
+        <v>47.5121648156</v>
       </c>
       <c r="E14" t="n">
-        <v>40.3552407211205</v>
+        <v>40.3552407211</v>
       </c>
       <c r="F14" t="n">
-        <v>44.9088189377118</v>
+        <v>44.9088189377</v>
       </c>
       <c r="G14" t="n">
-        <v>55.1554294292567</v>
+        <v>55.1554294293</v>
       </c>
     </row>
     <row r="15">
@@ -10530,19 +10530,19 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>38.267471011957</v>
+        <v>38.267471012</v>
       </c>
       <c r="D15" t="n">
-        <v>41.6354909621521</v>
+        <v>41.6354909622</v>
       </c>
       <c r="E15" t="n">
-        <v>42.2044926777813</v>
+        <v>42.2044926778</v>
       </c>
       <c r="F15" t="n">
-        <v>45.8754836203738</v>
+        <v>45.8754836204</v>
       </c>
       <c r="G15" t="n">
-        <v>46.674053330842</v>
+        <v>46.6740533308</v>
       </c>
     </row>
     <row r="16">
@@ -10553,19 +10553,19 @@
         <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>42.2791824410856</v>
+        <v>42.2791824411</v>
       </c>
       <c r="D16" t="n">
-        <v>55.043408948397</v>
+        <v>55.0434089484</v>
       </c>
       <c r="E16" t="n">
-        <v>45.1509771968087</v>
+        <v>45.1509771968</v>
       </c>
       <c r="F16" t="n">
-        <v>47.3398395990648</v>
+        <v>47.3398395991</v>
       </c>
       <c r="G16" t="n">
-        <v>48.5138831525831</v>
+        <v>48.5138831526</v>
       </c>
     </row>
     <row r="17">
@@ -10576,19 +10576,19 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>46.4310343917857</v>
+        <v>46.4310343918</v>
       </c>
       <c r="D17" t="n">
-        <v>47.4414267612192</v>
+        <v>47.4414267612</v>
       </c>
       <c r="E17" t="n">
-        <v>46.4636438850683</v>
+        <v>46.4636438851</v>
       </c>
       <c r="F17" t="n">
-        <v>54.4112149409371</v>
+        <v>54.4112149409</v>
       </c>
       <c r="G17" t="n">
-        <v>59.9726654340784</v>
+        <v>59.9726654341</v>
       </c>
     </row>
     <row r="18">
@@ -10599,16 +10599,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>52.5892335229769</v>
+        <v>52.589233523</v>
       </c>
       <c r="D18" t="n">
-        <v>58.5763982904463</v>
+        <v>58.5763982904</v>
       </c>
       <c r="E18" t="n">
-        <v>59.9493156790591</v>
+        <v>59.9493156791</v>
       </c>
       <c r="F18" t="n">
-        <v>57.3645812281117</v>
+        <v>57.3645812281</v>
       </c>
       <c r="G18"/>
     </row>
@@ -10620,19 +10620,19 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>29.1629430842261</v>
+        <v>29.1629430842</v>
       </c>
       <c r="D19" t="n">
-        <v>33.5466074423867</v>
+        <v>33.5466074424</v>
       </c>
       <c r="E19" t="n">
-        <v>40.6195804924459</v>
+        <v>40.6195804924</v>
       </c>
       <c r="F19" t="n">
-        <v>52.5614961624529</v>
+        <v>52.5614961625</v>
       </c>
       <c r="G19" t="n">
-        <v>52.59298635544</v>
+        <v>52.5929863554</v>
       </c>
     </row>
     <row r="20">
@@ -10643,19 +10643,19 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>46.3953563784941</v>
+        <v>46.3953563785</v>
       </c>
       <c r="D20" t="n">
-        <v>45.7041726709346</v>
+        <v>45.7041726709</v>
       </c>
       <c r="E20" t="n">
-        <v>40.834561814972</v>
+        <v>40.834561815</v>
       </c>
       <c r="F20" t="n">
-        <v>43.7249918927452</v>
+        <v>43.7249918927</v>
       </c>
       <c r="G20" t="n">
-        <v>47.9848541906101</v>
+        <v>47.9848541906</v>
       </c>
     </row>
     <row r="21">
@@ -10666,19 +10666,19 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>26.7234500881829</v>
+        <v>26.7234500882</v>
       </c>
       <c r="D21" t="n">
-        <v>30.9273016240883</v>
+        <v>30.9273016241</v>
       </c>
       <c r="E21" t="n">
-        <v>27.6034382772661</v>
+        <v>27.6034382773</v>
       </c>
       <c r="F21" t="n">
-        <v>29.7055751422466</v>
+        <v>29.7055751422</v>
       </c>
       <c r="G21" t="n">
-        <v>34.6500216299893</v>
+        <v>34.65002163</v>
       </c>
     </row>
     <row r="22">
@@ -10689,19 +10689,19 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>31.3458684211203</v>
+        <v>31.3458684211</v>
       </c>
       <c r="D22" t="n">
-        <v>40.7071480011882</v>
+        <v>40.7071480012</v>
       </c>
       <c r="E22" t="n">
-        <v>40.9001713325111</v>
+        <v>40.9001713325</v>
       </c>
       <c r="F22" t="n">
-        <v>49.5992383173497</v>
+        <v>49.5992383173</v>
       </c>
       <c r="G22" t="n">
-        <v>54.3666198656381</v>
+        <v>54.3666198656</v>
       </c>
     </row>
     <row r="23">
@@ -10712,19 +10712,19 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>51.78816079573</v>
+        <v>51.7881607957</v>
       </c>
       <c r="D23" t="n">
-        <v>58.7937623095026</v>
+        <v>58.7937623095</v>
       </c>
       <c r="E23" t="n">
-        <v>52.4221714136978</v>
+        <v>52.4221714137</v>
       </c>
       <c r="F23" t="n">
-        <v>58.301151210348</v>
+        <v>58.3011512103</v>
       </c>
       <c r="G23" t="n">
-        <v>60.5110695447628</v>
+        <v>60.5110695448</v>
       </c>
     </row>
     <row r="24">
@@ -10735,19 +10735,19 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>41.9963486275067</v>
+        <v>41.9963486275</v>
       </c>
       <c r="D24" t="n">
-        <v>47.1187252032773</v>
+        <v>47.1187252033</v>
       </c>
       <c r="E24" t="n">
-        <v>37.6923707324657</v>
+        <v>37.6923707325</v>
       </c>
       <c r="F24" t="n">
-        <v>46.7914656398425</v>
+        <v>46.7914656398</v>
       </c>
       <c r="G24" t="n">
-        <v>55.036836325212</v>
+        <v>55.0368363252</v>
       </c>
     </row>
     <row r="25">
@@ -10758,19 +10758,19 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>46.8095797284263</v>
+        <v>46.8095797284</v>
       </c>
       <c r="D25" t="n">
-        <v>52.8710044672527</v>
+        <v>52.8710044673</v>
       </c>
       <c r="E25" t="n">
-        <v>50.1621829483075</v>
+        <v>50.1621829483</v>
       </c>
       <c r="F25" t="n">
-        <v>55.7266628869164</v>
+        <v>55.7266628869</v>
       </c>
       <c r="G25" t="n">
-        <v>55.9698069659999</v>
+        <v>55.969806966</v>
       </c>
     </row>
     <row r="26">
@@ -10781,19 +10781,19 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>59.6167323694689</v>
+        <v>59.6167323695</v>
       </c>
       <c r="D26" t="n">
-        <v>64.9908167782056</v>
+        <v>64.9908167782</v>
       </c>
       <c r="E26" t="n">
-        <v>60.4389566302736</v>
+        <v>60.4389566303</v>
       </c>
       <c r="F26" t="n">
-        <v>65.8943964995936</v>
+        <v>65.8943964996</v>
       </c>
       <c r="G26" t="n">
-        <v>68.290006331453</v>
+        <v>68.2900063315</v>
       </c>
     </row>
     <row r="27">
@@ -10805,16 +10805,16 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>16.3272134949536</v>
+        <v>16.327213495</v>
       </c>
       <c r="E27" t="n">
-        <v>13.7449139548816</v>
+        <v>13.7449139549</v>
       </c>
       <c r="F27" t="n">
-        <v>12.9713993112151</v>
+        <v>12.9713993112</v>
       </c>
       <c r="G27" t="n">
-        <v>14.1670463710968</v>
+        <v>14.1670463711</v>
       </c>
     </row>
     <row r="28">
@@ -10825,19 +10825,19 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>57.3739025388479</v>
+        <v>57.3739025388</v>
       </c>
       <c r="D28" t="n">
-        <v>61.5475813887467</v>
+        <v>61.5475813887</v>
       </c>
       <c r="E28" t="n">
-        <v>58.7457836109263</v>
+        <v>58.7457836109</v>
       </c>
       <c r="F28" t="n">
-        <v>63.3343227672093</v>
+        <v>63.3343227672</v>
       </c>
       <c r="G28" t="n">
-        <v>63.3430738825572</v>
+        <v>63.3430738826</v>
       </c>
     </row>
     <row r="29">
@@ -10849,16 +10849,16 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
-        <v>40.9015565859867</v>
+        <v>40.901556586</v>
       </c>
       <c r="E29" t="n">
-        <v>38.6026386114919</v>
+        <v>38.6026386115</v>
       </c>
       <c r="F29" t="n">
-        <v>46.5704617667783</v>
+        <v>46.5704617668</v>
       </c>
       <c r="G29" t="n">
-        <v>48.1084553333386</v>
+        <v>48.1084553333</v>
       </c>
     </row>
     <row r="30">
@@ -10869,19 +10869,19 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>55.7516656971916</v>
+        <v>55.7516656972</v>
       </c>
       <c r="D30" t="n">
-        <v>61.4157448681603</v>
+        <v>61.4157448682</v>
       </c>
       <c r="E30" t="n">
-        <v>65.6876843542727</v>
+        <v>65.6876843543</v>
       </c>
       <c r="F30" t="n">
-        <v>65.4602920406598</v>
+        <v>65.4602920407</v>
       </c>
       <c r="G30" t="n">
-        <v>63.944793741084</v>
+        <v>63.9447937411</v>
       </c>
     </row>
     <row r="31">
@@ -10892,19 +10892,19 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>36.039200203563</v>
+        <v>36.0392002036</v>
       </c>
       <c r="D31" t="n">
-        <v>51.5993693845688</v>
+        <v>51.5993693846</v>
       </c>
       <c r="E31" t="n">
-        <v>42.7831059904645</v>
+        <v>42.7831059905</v>
       </c>
       <c r="F31" t="n">
-        <v>38.398336188524</v>
+        <v>38.3983361885</v>
       </c>
       <c r="G31" t="n">
-        <v>44.908069086582</v>
+        <v>44.9080690866</v>
       </c>
     </row>
     <row r="32">
@@ -10915,19 +10915,19 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>48.6563018300944</v>
+        <v>48.6563018301</v>
       </c>
       <c r="D32" t="n">
-        <v>52.6080813459301</v>
+        <v>52.6080813459</v>
       </c>
       <c r="E32" t="n">
-        <v>41.3136862893307</v>
+        <v>41.3136862893</v>
       </c>
       <c r="F32" t="n">
-        <v>40.9591597144654</v>
+        <v>40.9591597145</v>
       </c>
       <c r="G32" t="n">
-        <v>46.5751484293377</v>
+        <v>46.5751484293</v>
       </c>
     </row>
     <row r="33">
@@ -10938,19 +10938,19 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>49.7844579343412</v>
+        <v>49.7844579343</v>
       </c>
       <c r="D33" t="n">
-        <v>57.6773658846039</v>
+        <v>57.6773658846</v>
       </c>
       <c r="E33" t="n">
-        <v>49.9374324300737</v>
+        <v>49.9374324301</v>
       </c>
       <c r="F33" t="n">
-        <v>53.1236227274102</v>
+        <v>53.1236227274</v>
       </c>
       <c r="G33" t="n">
-        <v>55.0389267745095</v>
+        <v>55.0389267745</v>
       </c>
     </row>
     <row r="34">
@@ -10961,17 +10961,17 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>62.2418732830174</v>
+        <v>62.241873283</v>
       </c>
       <c r="D34" t="n">
-        <v>64.6068957930785</v>
+        <v>64.6068957931</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="n">
-        <v>63.3541147953491</v>
+        <v>63.3541147953</v>
       </c>
       <c r="G34" t="n">
-        <v>63.871553755706</v>
+        <v>63.8715537557</v>
       </c>
     </row>
     <row r="35">
@@ -10982,19 +10982,19 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>47.3074177281472</v>
+        <v>47.3074177281</v>
       </c>
       <c r="D35" t="n">
-        <v>52.185644497699</v>
+        <v>52.1856444977</v>
       </c>
       <c r="E35" t="n">
-        <v>49.4991857838793</v>
+        <v>49.4991857839</v>
       </c>
       <c r="F35" t="n">
-        <v>56.9964170745362</v>
+        <v>56.9964170745</v>
       </c>
       <c r="G35" t="n">
-        <v>59.2971103729202</v>
+        <v>59.2971103729</v>
       </c>
     </row>
     <row r="36">
@@ -11005,17 +11005,17 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>44.9407361187168</v>
+        <v>44.9407361187</v>
       </c>
       <c r="D36" t="n">
-        <v>51.4664447509386</v>
+        <v>51.4664447509</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="n">
-        <v>42.2194119979995</v>
+        <v>42.219411998</v>
       </c>
       <c r="G36" t="n">
-        <v>50.551407314729</v>
+        <v>50.5514073147</v>
       </c>
     </row>
     <row r="37">
@@ -11026,19 +11026,19 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>24.9976259874325</v>
+        <v>24.9976259874</v>
       </c>
       <c r="D37" t="n">
-        <v>23.432920413776</v>
+        <v>23.4329204138</v>
       </c>
       <c r="E37" t="n">
-        <v>35.1523720373761</v>
+        <v>35.1523720374</v>
       </c>
       <c r="F37" t="n">
-        <v>36.0189866469943</v>
+        <v>36.018986647</v>
       </c>
       <c r="G37" t="n">
-        <v>37.0703551055925</v>
+        <v>37.0703551056</v>
       </c>
     </row>
     <row r="38">
@@ -11050,16 +11050,16 @@
       </c>
       <c r="C38"/>
       <c r="D38" t="n">
-        <v>64.3679353863556</v>
+        <v>64.3679353864</v>
       </c>
       <c r="E38" t="n">
-        <v>59.464838620508</v>
+        <v>59.4648386205</v>
       </c>
       <c r="F38" t="n">
-        <v>53.9068825876056</v>
+        <v>53.9068825876</v>
       </c>
       <c r="G38" t="n">
-        <v>56.0377072910589</v>
+        <v>56.0377072911</v>
       </c>
     </row>
     <row r="39">
@@ -11070,19 +11070,19 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>46.2993343674785</v>
+        <v>46.2993343675</v>
       </c>
       <c r="D39" t="n">
-        <v>47.9607567880789</v>
+        <v>47.9607567881</v>
       </c>
       <c r="E39" t="n">
-        <v>42.9139924501293</v>
+        <v>42.9139924501</v>
       </c>
       <c r="F39" t="n">
-        <v>43.3452945199122</v>
+        <v>43.3452945199</v>
       </c>
       <c r="G39" t="n">
-        <v>46.959751539538</v>
+        <v>46.9597515395</v>
       </c>
     </row>
     <row r="40">
@@ -11093,19 +11093,19 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>34.6660272392899</v>
+        <v>34.6660272393</v>
       </c>
       <c r="D40" t="n">
-        <v>40.4120450226538</v>
+        <v>40.4120450227</v>
       </c>
       <c r="E40" t="n">
-        <v>39.2992435003973</v>
+        <v>39.2992435004</v>
       </c>
       <c r="F40" t="n">
-        <v>50.7201300305314</v>
+        <v>50.7201300305</v>
       </c>
       <c r="G40" t="n">
-        <v>52.1957774827749</v>
+        <v>52.1957774828</v>
       </c>
     </row>
     <row r="41">
@@ -11116,19 +11116,19 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>16.4535010228767</v>
+        <v>16.4535010229</v>
       </c>
       <c r="D41" t="n">
-        <v>24.6961602632479</v>
+        <v>24.6961602632</v>
       </c>
       <c r="E41" t="n">
-        <v>22.2784870265446</v>
+        <v>22.2784870265</v>
       </c>
       <c r="F41" t="n">
-        <v>23.7770751787808</v>
+        <v>23.7770751788</v>
       </c>
       <c r="G41" t="n">
-        <v>22.5963154014752</v>
+        <v>22.5963154015</v>
       </c>
     </row>
     <row r="42">
@@ -11139,19 +11139,19 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>55.5188099627972</v>
+        <v>55.5188099628</v>
       </c>
       <c r="D42" t="n">
-        <v>61.3391742861894</v>
+        <v>61.3391742862</v>
       </c>
       <c r="E42" t="n">
-        <v>59.2640162487956</v>
+        <v>59.2640162488</v>
       </c>
       <c r="F42" t="n">
-        <v>63.3595238624169</v>
+        <v>63.3595238624</v>
       </c>
       <c r="G42" t="n">
-        <v>62.7020788592321</v>
+        <v>62.7020788592</v>
       </c>
     </row>
     <row r="43">
@@ -11162,19 +11162,19 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>56.2452584330605</v>
+        <v>56.2452584331</v>
       </c>
       <c r="D43" t="n">
-        <v>63.6143984259808</v>
+        <v>63.614398426</v>
       </c>
       <c r="E43" t="n">
-        <v>62.7547218038287</v>
+        <v>62.7547218038</v>
       </c>
       <c r="F43" t="n">
-        <v>57.7234100353179</v>
+        <v>57.7234100353</v>
       </c>
       <c r="G43" t="n">
-        <v>60.6126172441662</v>
+        <v>60.6126172442</v>
       </c>
     </row>
     <row r="44">
@@ -11185,19 +11185,19 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>56.8741930890095</v>
+        <v>56.874193089</v>
       </c>
       <c r="D44" t="n">
-        <v>59.4833423967767</v>
+        <v>59.4833423968</v>
       </c>
       <c r="E44" t="n">
-        <v>61.3088618824304</v>
+        <v>61.3088618824</v>
       </c>
       <c r="F44" t="n">
-        <v>58.5147174394114</v>
+        <v>58.5147174394</v>
       </c>
       <c r="G44" t="n">
-        <v>62.7796118893112</v>
+        <v>62.7796118893</v>
       </c>
     </row>
     <row r="45">
@@ -11208,19 +11208,19 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>42.9934437832803</v>
+        <v>42.9934437833</v>
       </c>
       <c r="D45" t="n">
-        <v>51.3027701253718</v>
+        <v>51.3027701254</v>
       </c>
       <c r="E45" t="n">
-        <v>49.8203807338197</v>
+        <v>49.8203807338</v>
       </c>
       <c r="F45" t="n">
-        <v>54.4232873100666</v>
+        <v>54.4232873101</v>
       </c>
       <c r="G45" t="n">
-        <v>60.0925975746302</v>
+        <v>60.0925975746</v>
       </c>
     </row>
     <row r="46">
@@ -11231,19 +11231,19 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>48.107825147134</v>
+        <v>48.1078251471</v>
       </c>
       <c r="D46" t="n">
-        <v>48.4304908492516</v>
+        <v>48.4304908493</v>
       </c>
       <c r="E46" t="n">
-        <v>45.5593461350536</v>
+        <v>45.5593461351</v>
       </c>
       <c r="F46" t="n">
-        <v>55.6580557825809</v>
+        <v>55.6580557826</v>
       </c>
       <c r="G46" t="n">
-        <v>57.5718583805057</v>
+        <v>57.5718583805</v>
       </c>
     </row>
     <row r="47">
@@ -11254,19 +11254,19 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>33.4113381821696</v>
+        <v>33.4113381822</v>
       </c>
       <c r="D47" t="n">
-        <v>39.8072874171112</v>
+        <v>39.8072874171</v>
       </c>
       <c r="E47" t="n">
-        <v>40.6852210485404</v>
+        <v>40.6852210485</v>
       </c>
       <c r="F47" t="n">
-        <v>40.1734362920776</v>
+        <v>40.1734362921</v>
       </c>
       <c r="G47" t="n">
-        <v>42.0437643435395</v>
+        <v>42.0437643435</v>
       </c>
     </row>
     <row r="48">
@@ -11277,19 +11277,19 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>48.5481892051306</v>
+        <v>48.5481892051</v>
       </c>
       <c r="D48" t="n">
-        <v>50.80217526701</v>
+        <v>50.802175267</v>
       </c>
       <c r="E48" t="n">
-        <v>47.3025149707792</v>
+        <v>47.3025149708</v>
       </c>
       <c r="F48" t="n">
-        <v>51.5360627897436</v>
+        <v>51.5360627897</v>
       </c>
       <c r="G48" t="n">
-        <v>50.3736590537779</v>
+        <v>50.3736590538</v>
       </c>
     </row>
     <row r="49">
@@ -11300,19 +11300,19 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>27.9869406766445</v>
+        <v>27.9869406766</v>
       </c>
       <c r="D49" t="n">
-        <v>37.8205010996731</v>
+        <v>37.8205010997</v>
       </c>
       <c r="E49" t="n">
-        <v>30.2590282832491</v>
+        <v>30.2590282832</v>
       </c>
       <c r="F49" t="n">
-        <v>35.9857083217472</v>
+        <v>35.9857083217</v>
       </c>
       <c r="G49" t="n">
-        <v>39.2068028761442</v>
+        <v>39.2068028761</v>
       </c>
     </row>
     <row r="50">
@@ -11323,19 +11323,19 @@
         <v>103</v>
       </c>
       <c r="C50" t="n">
-        <v>73.3613141322157</v>
+        <v>73.3613141322</v>
       </c>
       <c r="D50" t="n">
-        <v>59.8710054017519</v>
+        <v>59.8710054018</v>
       </c>
       <c r="E50" t="n">
-        <v>58.4536792680299</v>
+        <v>58.453679268</v>
       </c>
       <c r="F50" t="n">
-        <v>60.7502905635242</v>
+        <v>60.7502905635</v>
       </c>
       <c r="G50" t="n">
-        <v>61.9467393342019</v>
+        <v>61.9467393342</v>
       </c>
     </row>
     <row r="51">
@@ -11346,19 +11346,19 @@
         <v>105</v>
       </c>
       <c r="C51" t="n">
-        <v>49.376701407284</v>
+        <v>49.3767014073</v>
       </c>
       <c r="D51" t="n">
-        <v>52.7283939980682</v>
+        <v>52.7283939981</v>
       </c>
       <c r="E51" t="n">
-        <v>46.6358767171929</v>
+        <v>46.6358767172</v>
       </c>
       <c r="F51" t="n">
-        <v>52.1176067618473</v>
+        <v>52.1176067618</v>
       </c>
       <c r="G51" t="n">
-        <v>54.6013720191561</v>
+        <v>54.6013720192</v>
       </c>
     </row>
     <row r="52">
@@ -11369,19 +11369,19 @@
         <v>107</v>
       </c>
       <c r="C52" t="n">
-        <v>44.5898591292164</v>
+        <v>44.5898591292</v>
       </c>
       <c r="D52" t="n">
-        <v>48.3968217306261</v>
+        <v>48.3968217306</v>
       </c>
       <c r="E52" t="n">
-        <v>46.1678278434338</v>
+        <v>46.1678278434</v>
       </c>
       <c r="F52" t="n">
-        <v>45.7984509402638</v>
+        <v>45.7984509403</v>
       </c>
       <c r="G52" t="n">
-        <v>49.3364045392298</v>
+        <v>49.3364045392</v>
       </c>
     </row>
     <row r="53">
@@ -11392,19 +11392,19 @@
         <v>109</v>
       </c>
       <c r="C53" t="n">
-        <v>49.9719342103807</v>
+        <v>49.9719342104</v>
       </c>
       <c r="D53" t="n">
-        <v>53.5434719140517</v>
+        <v>53.5434719141</v>
       </c>
       <c r="E53" t="n">
-        <v>53.4638221693755</v>
+        <v>53.4638221694</v>
       </c>
       <c r="F53" t="n">
-        <v>62.0185546666299</v>
+        <v>62.0185546666</v>
       </c>
       <c r="G53" t="n">
-        <v>62.7904584461603</v>
+        <v>62.7904584462</v>
       </c>
     </row>
     <row r="54">
@@ -11415,19 +11415,19 @@
         <v>111</v>
       </c>
       <c r="C54" t="n">
-        <v>41.6891788900631</v>
+        <v>41.6891788901</v>
       </c>
       <c r="D54" t="n">
-        <v>39.8230600614275</v>
+        <v>39.8230600614</v>
       </c>
       <c r="E54" t="n">
-        <v>41.0763768819177</v>
+        <v>41.0763768819</v>
       </c>
       <c r="F54" t="n">
-        <v>44.7956382858252</v>
+        <v>44.7956382858</v>
       </c>
       <c r="G54" t="n">
-        <v>46.9322794965797</v>
+        <v>46.9322794966</v>
       </c>
     </row>
     <row r="55">
@@ -11438,19 +11438,19 @@
         <v>113</v>
       </c>
       <c r="C55" t="n">
-        <v>40.6121894896158</v>
+        <v>40.6121894896</v>
       </c>
       <c r="D55" t="n">
-        <v>43.5418415762678</v>
+        <v>43.5418415763</v>
       </c>
       <c r="E55" t="n">
-        <v>39.2079603890061</v>
+        <v>39.207960389</v>
       </c>
       <c r="F55" t="n">
-        <v>43.4916380471679</v>
+        <v>43.4916380472</v>
       </c>
       <c r="G55" t="n">
-        <v>45.9436253139828</v>
+        <v>45.943625314</v>
       </c>
     </row>
     <row r="56">
@@ -11461,19 +11461,19 @@
         <v>115</v>
       </c>
       <c r="C56" t="n">
-        <v>48.0042384435737</v>
+        <v>48.0042384436</v>
       </c>
       <c r="D56" t="n">
-        <v>44.5196462298552</v>
+        <v>44.5196462299</v>
       </c>
       <c r="E56" t="n">
-        <v>42.7251591909615</v>
+        <v>42.725159191</v>
       </c>
       <c r="F56" t="n">
-        <v>53.0999496532129</v>
+        <v>53.0999496532</v>
       </c>
       <c r="G56" t="n">
-        <v>54.6626118829481</v>
+        <v>54.6626118829</v>
       </c>
     </row>
     <row r="57">
@@ -11484,19 +11484,19 @@
         <v>117</v>
       </c>
       <c r="C57" t="n">
-        <v>34.981435319297</v>
+        <v>34.9814353193</v>
       </c>
       <c r="D57" t="n">
-        <v>38.7172981005222</v>
+        <v>38.7172981005</v>
       </c>
       <c r="E57" t="n">
-        <v>40.8244165475587</v>
+        <v>40.8244165476</v>
       </c>
       <c r="F57" t="n">
-        <v>41.1920370665149</v>
+        <v>41.1920370665</v>
       </c>
       <c r="G57" t="n">
-        <v>42.9967853490883</v>
+        <v>42.9967853491</v>
       </c>
     </row>
     <row r="58">
@@ -11507,19 +11507,19 @@
         <v>119</v>
       </c>
       <c r="C58" t="n">
-        <v>46.9674975766542</v>
+        <v>46.9674975767</v>
       </c>
       <c r="D58" t="n">
-        <v>46.158805787009</v>
+        <v>46.158805787</v>
       </c>
       <c r="E58" t="n">
-        <v>42.2057067269668</v>
+        <v>42.205706727</v>
       </c>
       <c r="F58" t="n">
-        <v>40.9806411455824</v>
+        <v>40.9806411456</v>
       </c>
       <c r="G58" t="n">
-        <v>50.4036309317555</v>
+        <v>50.4036309318</v>
       </c>
     </row>
     <row r="59">
@@ -11530,19 +11530,19 @@
         <v>121</v>
       </c>
       <c r="C59" t="n">
-        <v>56.5719544142825</v>
+        <v>56.5719544143</v>
       </c>
       <c r="D59" t="n">
-        <v>54.9111161000894</v>
+        <v>54.9111161001</v>
       </c>
       <c r="E59" t="n">
-        <v>55.1704546612864</v>
+        <v>55.1704546613</v>
       </c>
       <c r="F59" t="n">
-        <v>57.1564092885331</v>
+        <v>57.1564092885</v>
       </c>
       <c r="G59" t="n">
-        <v>58.9343222994606</v>
+        <v>58.9343222995</v>
       </c>
     </row>
     <row r="60">
@@ -11553,19 +11553,19 @@
         <v>123</v>
       </c>
       <c r="C60" t="n">
-        <v>19.5911810867505</v>
+        <v>19.5911810868</v>
       </c>
       <c r="D60" t="n">
-        <v>24.8552156428869</v>
+        <v>24.8552156429</v>
       </c>
       <c r="E60" t="n">
-        <v>26.1778186459651</v>
+        <v>26.177818646</v>
       </c>
       <c r="F60" t="n">
-        <v>34.3592580091675</v>
+        <v>34.3592580092</v>
       </c>
       <c r="G60" t="n">
-        <v>39.020638870125</v>
+        <v>39.0206388701</v>
       </c>
     </row>
     <row r="61">
@@ -11576,19 +11576,19 @@
         <v>125</v>
       </c>
       <c r="C61" t="n">
-        <v>30.4744186676669</v>
+        <v>30.4744186677</v>
       </c>
       <c r="D61" t="n">
-        <v>34.6025177582242</v>
+        <v>34.6025177582</v>
       </c>
       <c r="E61" t="n">
-        <v>37.7489363332213</v>
+        <v>37.7489363332</v>
       </c>
       <c r="F61" t="n">
-        <v>46.3123234888682</v>
+        <v>46.3123234889</v>
       </c>
       <c r="G61" t="n">
-        <v>50.0272613137022</v>
+        <v>50.0272613137</v>
       </c>
     </row>
     <row r="62">
@@ -11599,19 +11599,19 @@
         <v>127</v>
       </c>
       <c r="C62" t="n">
-        <v>42.9231836200463</v>
+        <v>42.92318362</v>
       </c>
       <c r="D62" t="n">
-        <v>36.0786204764691</v>
+        <v>36.0786204765</v>
       </c>
       <c r="E62" t="n">
-        <v>31.5969394406485</v>
+        <v>31.5969394406</v>
       </c>
       <c r="F62" t="n">
-        <v>42.6413151476204</v>
+        <v>42.6413151476</v>
       </c>
       <c r="G62" t="n">
-        <v>44.748805300852</v>
+        <v>44.7488053009</v>
       </c>
     </row>
     <row r="63">
@@ -11622,19 +11622,19 @@
         <v>129</v>
       </c>
       <c r="C63" t="n">
-        <v>48.290296694817</v>
+        <v>48.2902966948</v>
       </c>
       <c r="D63" t="n">
-        <v>52.8023447602376</v>
+        <v>52.8023447602</v>
       </c>
       <c r="E63" t="n">
-        <v>54.2257036188311</v>
+        <v>54.2257036188</v>
       </c>
       <c r="F63" t="n">
-        <v>51.3043605335189</v>
+        <v>51.3043605335</v>
       </c>
       <c r="G63" t="n">
-        <v>53.2685702067014</v>
+        <v>53.2685702067</v>
       </c>
     </row>
     <row r="64">
@@ -11645,19 +11645,19 @@
         <v>131</v>
       </c>
       <c r="C64" t="n">
-        <v>41.7330870333051</v>
+        <v>41.7330870333</v>
       </c>
       <c r="D64" t="n">
-        <v>38.6503000004974</v>
+        <v>38.6503000005</v>
       </c>
       <c r="E64" t="n">
-        <v>40.200002896864</v>
+        <v>40.2000028969</v>
       </c>
       <c r="F64" t="n">
-        <v>43.2828589139728</v>
+        <v>43.282858914</v>
       </c>
       <c r="G64" t="n">
-        <v>46.9253974283734</v>
+        <v>46.9253974284</v>
       </c>
     </row>
     <row r="65">
@@ -11668,19 +11668,19 @@
         <v>133</v>
       </c>
       <c r="C65" t="n">
-        <v>38.4159728607068</v>
+        <v>38.4159728607</v>
       </c>
       <c r="D65" t="n">
-        <v>42.4922494314657</v>
+        <v>42.4922494315</v>
       </c>
       <c r="E65" t="n">
-        <v>42.8212924939625</v>
+        <v>42.821292494</v>
       </c>
       <c r="F65" t="n">
-        <v>43.4083703627173</v>
+        <v>43.4083703627</v>
       </c>
       <c r="G65" t="n">
-        <v>42.7628367092685</v>
+        <v>42.7628367093</v>
       </c>
     </row>
     <row r="66">
@@ -11691,19 +11691,19 @@
         <v>135</v>
       </c>
       <c r="C66" t="n">
-        <v>33.6375813380124</v>
+        <v>33.637581338</v>
       </c>
       <c r="D66" t="n">
-        <v>22.072523166579</v>
+        <v>22.0725231666</v>
       </c>
       <c r="E66" t="n">
-        <v>28.0747333991585</v>
+        <v>28.0747333992</v>
       </c>
       <c r="F66" t="n">
-        <v>37.8184759417058</v>
+        <v>37.8184759417</v>
       </c>
       <c r="G66" t="n">
-        <v>45.2867112533278</v>
+        <v>45.2867112533</v>
       </c>
     </row>
     <row r="67">
@@ -11714,17 +11714,17 @@
         <v>137</v>
       </c>
       <c r="C67" t="n">
-        <v>41.3470604245359</v>
+        <v>41.3470604245</v>
       </c>
       <c r="D67" t="n">
-        <v>46.2632535504619</v>
+        <v>46.2632535505</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>39.0646433036355</v>
+        <v>39.0646433036</v>
       </c>
       <c r="G67" t="n">
-        <v>46.767324521624</v>
+        <v>46.7673245216</v>
       </c>
     </row>
     <row r="68">
@@ -11735,16 +11735,16 @@
         <v>139</v>
       </c>
       <c r="C68" t="n">
-        <v>59.2994488314148</v>
+        <v>59.2994488314</v>
       </c>
       <c r="D68" t="n">
-        <v>65.8518620550254</v>
+        <v>65.851862055</v>
       </c>
       <c r="E68" t="n">
-        <v>62.1926972610839</v>
+        <v>62.1926972611</v>
       </c>
       <c r="F68" t="n">
-        <v>69.1126529368471</v>
+        <v>69.1126529368</v>
       </c>
       <c r="G68"/>
     </row>
@@ -11756,19 +11756,19 @@
         <v>141</v>
       </c>
       <c r="C69" t="n">
-        <v>56.7738035063693</v>
+        <v>56.7738035064</v>
       </c>
       <c r="D69" t="n">
-        <v>58.4004661849056</v>
+        <v>58.4004661849</v>
       </c>
       <c r="E69" t="n">
-        <v>61.0851440270609</v>
+        <v>61.0851440271</v>
       </c>
       <c r="F69" t="n">
-        <v>67.0524221441829</v>
+        <v>67.0524221442</v>
       </c>
       <c r="G69" t="n">
-        <v>67.6014001738156</v>
+        <v>67.6014001738</v>
       </c>
     </row>
     <row r="70">
@@ -11779,19 +11779,19 @@
         <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>56.5099987355874</v>
+        <v>56.5099987356</v>
       </c>
       <c r="D70" t="n">
-        <v>59.3297604369768</v>
+        <v>59.329760437</v>
       </c>
       <c r="E70" t="n">
-        <v>65.4470223961228</v>
+        <v>65.4470223961</v>
       </c>
       <c r="F70" t="n">
-        <v>62.0716701890391</v>
+        <v>62.071670189</v>
       </c>
       <c r="G70" t="n">
-        <v>63.3382135455828</v>
+        <v>63.3382135456</v>
       </c>
     </row>
     <row r="71">
@@ -11802,19 +11802,19 @@
         <v>145</v>
       </c>
       <c r="C71" t="n">
-        <v>33.8202722181101</v>
+        <v>33.8202722181</v>
       </c>
       <c r="D71" t="n">
-        <v>40.1326726499537</v>
+        <v>40.13267265</v>
       </c>
       <c r="E71" t="n">
-        <v>39.0464600359542</v>
+        <v>39.046460036</v>
       </c>
       <c r="F71" t="n">
-        <v>37.4889320098722</v>
+        <v>37.4889320099</v>
       </c>
       <c r="G71" t="n">
-        <v>37.2767427500745</v>
+        <v>37.2767427501</v>
       </c>
     </row>
     <row r="72">
@@ -11825,19 +11825,19 @@
         <v>147</v>
       </c>
       <c r="C72" t="n">
-        <v>50.3914860619673</v>
+        <v>50.391486062</v>
       </c>
       <c r="D72" t="n">
-        <v>53.2569202080454</v>
+        <v>53.256920208</v>
       </c>
       <c r="E72" t="n">
-        <v>54.0555237164792</v>
+        <v>54.0555237165</v>
       </c>
       <c r="F72" t="n">
-        <v>59.4863964470616</v>
+        <v>59.4863964471</v>
       </c>
       <c r="G72" t="n">
-        <v>60.9581916831193</v>
+        <v>60.9581916831</v>
       </c>
     </row>
     <row r="73">
@@ -11848,19 +11848,19 @@
         <v>149</v>
       </c>
       <c r="C73" t="n">
-        <v>45.4266432800098</v>
+        <v>45.42664328</v>
       </c>
       <c r="D73" t="n">
-        <v>45.7458865803769</v>
+        <v>45.7458865804</v>
       </c>
       <c r="E73" t="n">
-        <v>43.1503007186208</v>
+        <v>43.1503007186</v>
       </c>
       <c r="F73" t="n">
-        <v>60.6338411780788</v>
+        <v>60.6338411781</v>
       </c>
       <c r="G73" t="n">
-        <v>62.3771544013974</v>
+        <v>62.3771544014</v>
       </c>
     </row>
     <row r="74">
@@ -11871,17 +11871,17 @@
         <v>151</v>
       </c>
       <c r="C74" t="n">
-        <v>47.0132073452717</v>
+        <v>47.0132073453</v>
       </c>
       <c r="D74" t="n">
-        <v>51.8238758354292</v>
+        <v>51.8238758354</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="n">
-        <v>39.8792886345943</v>
+        <v>39.8792886346</v>
       </c>
       <c r="G74" t="n">
-        <v>45.13005899448</v>
+        <v>45.1300589945</v>
       </c>
     </row>
     <row r="75">
@@ -11892,17 +11892,17 @@
         <v>153</v>
       </c>
       <c r="C75" t="n">
-        <v>37.4785817579191</v>
+        <v>37.4785817579</v>
       </c>
       <c r="D75" t="n">
-        <v>36.1806416195665</v>
+        <v>36.1806416196</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
-        <v>41.0710624726845</v>
+        <v>41.0710624727</v>
       </c>
       <c r="G75" t="n">
-        <v>49.6955245634011</v>
+        <v>49.6955245634</v>
       </c>
     </row>
     <row r="76">
@@ -11913,19 +11913,19 @@
         <v>155</v>
       </c>
       <c r="C76" t="n">
-        <v>50.8609833646224</v>
+        <v>50.8609833646</v>
       </c>
       <c r="D76" t="n">
-        <v>51.4111570260213</v>
+        <v>51.411157026</v>
       </c>
       <c r="E76" t="n">
-        <v>44.9949454285374</v>
+        <v>44.9949454285</v>
       </c>
       <c r="F76" t="n">
-        <v>50.4231387158496</v>
+        <v>50.4231387158</v>
       </c>
       <c r="G76" t="n">
-        <v>57.3261644539142</v>
+        <v>57.3261644539</v>
       </c>
     </row>
     <row r="77">
@@ -11936,17 +11936,17 @@
         <v>157</v>
       </c>
       <c r="C77" t="n">
-        <v>46.0004695080927</v>
+        <v>46.0004695081</v>
       </c>
       <c r="D77" t="n">
-        <v>47.2322481126263</v>
+        <v>47.2322481126</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="n">
-        <v>46.9974652432675</v>
+        <v>46.9974652433</v>
       </c>
       <c r="G77" t="n">
-        <v>49.2202025176299</v>
+        <v>49.2202025176</v>
       </c>
     </row>
     <row r="78">
@@ -11957,17 +11957,17 @@
         <v>159</v>
       </c>
       <c r="C78" t="n">
-        <v>58.7578276737667</v>
+        <v>58.7578276738</v>
       </c>
       <c r="D78" t="n">
-        <v>64.3279065692033</v>
+        <v>64.3279065692</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="n">
-        <v>55.451480789375</v>
+        <v>55.4514807894</v>
       </c>
       <c r="G78" t="n">
-        <v>59.7015196228045</v>
+        <v>59.7015196228</v>
       </c>
     </row>
     <row r="79">
@@ -11978,19 +11978,19 @@
         <v>161</v>
       </c>
       <c r="C79" t="n">
-        <v>57.9819324674529</v>
+        <v>57.9819324675</v>
       </c>
       <c r="D79" t="n">
-        <v>65.7249056059837</v>
+        <v>65.724905606</v>
       </c>
       <c r="E79" t="n">
-        <v>60.7903135081507</v>
+        <v>60.7903135082</v>
       </c>
       <c r="F79" t="n">
-        <v>62.1880850024432</v>
+        <v>62.1880850024</v>
       </c>
       <c r="G79" t="n">
-        <v>65.2549924923441</v>
+        <v>65.2549924923</v>
       </c>
     </row>
     <row r="80">
@@ -12001,19 +12001,19 @@
         <v>163</v>
       </c>
       <c r="C80" t="n">
-        <v>49.1227982703598</v>
+        <v>49.1227982704</v>
       </c>
       <c r="D80" t="n">
-        <v>55.6618800371363</v>
+        <v>55.6618800371</v>
       </c>
       <c r="E80" t="n">
-        <v>53.5243752737466</v>
+        <v>53.5243752737</v>
       </c>
       <c r="F80" t="n">
-        <v>51.5034672868962</v>
+        <v>51.5034672869</v>
       </c>
       <c r="G80" t="n">
-        <v>57.3147859373153</v>
+        <v>57.3147859373</v>
       </c>
     </row>
     <row r="81">
@@ -12024,13 +12024,13 @@
         <v>165</v>
       </c>
       <c r="C81" t="n">
-        <v>25.373234666043</v>
+        <v>25.373234666</v>
       </c>
       <c r="D81" t="n">
-        <v>26.6990619916649</v>
+        <v>26.6990619917</v>
       </c>
       <c r="E81" t="n">
-        <v>25.3439888064608</v>
+        <v>25.3439888065</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
@@ -12043,19 +12043,19 @@
         <v>167</v>
       </c>
       <c r="C82" t="n">
-        <v>32.3600185258792</v>
+        <v>32.3600185259</v>
       </c>
       <c r="D82" t="n">
-        <v>38.1432538174266</v>
+        <v>38.1432538174</v>
       </c>
       <c r="E82" t="n">
-        <v>38.6508813071507</v>
+        <v>38.6508813072</v>
       </c>
       <c r="F82" t="n">
-        <v>39.926679050863</v>
+        <v>39.9266790509</v>
       </c>
       <c r="G82" t="n">
-        <v>41.2609883048032</v>
+        <v>41.2609883048</v>
       </c>
     </row>
     <row r="83">
@@ -12066,19 +12066,19 @@
         <v>169</v>
       </c>
       <c r="C83" t="n">
-        <v>46.4522519979846</v>
+        <v>46.452251998</v>
       </c>
       <c r="D83" t="n">
-        <v>55.9770749533349</v>
+        <v>55.9770749533</v>
       </c>
       <c r="E83" t="n">
-        <v>50.3259267969149</v>
+        <v>50.3259267969</v>
       </c>
       <c r="F83" t="n">
-        <v>57.0475191711862</v>
+        <v>57.0475191712</v>
       </c>
       <c r="G83" t="n">
-        <v>59.9131363089865</v>
+        <v>59.913136309</v>
       </c>
     </row>
     <row r="84">
@@ -12089,19 +12089,19 @@
         <v>171</v>
       </c>
       <c r="C84" t="n">
-        <v>47.2818437152852</v>
+        <v>47.2818437153</v>
       </c>
       <c r="D84" t="n">
-        <v>52.8800954714713</v>
+        <v>52.8800954715</v>
       </c>
       <c r="E84" t="n">
-        <v>50.879329441801</v>
+        <v>50.8793294418</v>
       </c>
       <c r="F84" t="n">
-        <v>53.9827338009822</v>
+        <v>53.982733801</v>
       </c>
       <c r="G84" t="n">
-        <v>55.7921884936871</v>
+        <v>55.7921884937</v>
       </c>
     </row>
     <row r="85">
@@ -12112,15 +12112,15 @@
         <v>173</v>
       </c>
       <c r="C85" t="n">
-        <v>59.8619505062088</v>
+        <v>59.8619505062</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>59.1366799003868</v>
+        <v>59.1366799004</v>
       </c>
       <c r="G85" t="n">
-        <v>74.5771918610048</v>
+        <v>74.577191861</v>
       </c>
     </row>
     <row r="86">
@@ -12131,19 +12131,19 @@
         <v>175</v>
       </c>
       <c r="C86" t="n">
-        <v>23.5820371314722</v>
+        <v>23.5820371315</v>
       </c>
       <c r="D86" t="n">
-        <v>31.4572999972478</v>
+        <v>31.4572999972</v>
       </c>
       <c r="E86" t="n">
-        <v>31.9470031719696</v>
+        <v>31.947003172</v>
       </c>
       <c r="F86" t="n">
-        <v>31.243883644324</v>
+        <v>31.2438836443</v>
       </c>
       <c r="G86" t="n">
-        <v>31.02819847229</v>
+        <v>31.0281984723</v>
       </c>
     </row>
     <row r="87">
@@ -12154,19 +12154,19 @@
         <v>177</v>
       </c>
       <c r="C87" t="n">
-        <v>35.3645924111419</v>
+        <v>35.3645924111</v>
       </c>
       <c r="D87" t="n">
-        <v>41.3232604964629</v>
+        <v>41.3232604965</v>
       </c>
       <c r="E87" t="n">
-        <v>36.3388059969425</v>
+        <v>36.3388059969</v>
       </c>
       <c r="F87" t="n">
-        <v>45.1127381414038</v>
+        <v>45.1127381414</v>
       </c>
       <c r="G87" t="n">
-        <v>44.7467700960829</v>
+        <v>44.7467700961</v>
       </c>
     </row>
     <row r="88">
@@ -12177,17 +12177,17 @@
         <v>179</v>
       </c>
       <c r="C88" t="n">
-        <v>42.4583566187155</v>
+        <v>42.4583566187</v>
       </c>
       <c r="D88" t="n">
-        <v>47.5203476472884</v>
+        <v>47.5203476473</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="n">
-        <v>48.4640116972906</v>
+        <v>48.4640116973</v>
       </c>
       <c r="G88" t="n">
-        <v>50.6957520071084</v>
+        <v>50.6957520071</v>
       </c>
     </row>
     <row r="89">
@@ -12198,19 +12198,19 @@
         <v>181</v>
       </c>
       <c r="C89" t="n">
-        <v>50.4206716255706</v>
+        <v>50.4206716256</v>
       </c>
       <c r="D89" t="n">
-        <v>43.6605063285129</v>
+        <v>43.6605063285</v>
       </c>
       <c r="E89" t="n">
-        <v>41.8525850599663</v>
+        <v>41.85258506</v>
       </c>
       <c r="F89" t="n">
-        <v>45.7764370512789</v>
+        <v>45.7764370513</v>
       </c>
       <c r="G89" t="n">
-        <v>47.7623156251567</v>
+        <v>47.7623156252</v>
       </c>
     </row>
     <row r="90">
@@ -12221,19 +12221,19 @@
         <v>183</v>
       </c>
       <c r="C90" t="n">
-        <v>52.775682869789</v>
+        <v>52.7756828698</v>
       </c>
       <c r="D90" t="n">
-        <v>58.4803700416941</v>
+        <v>58.4803700417</v>
       </c>
       <c r="E90" t="n">
-        <v>62.5324496584133</v>
+        <v>62.5324496584</v>
       </c>
       <c r="F90" t="n">
-        <v>64.9571513417847</v>
+        <v>64.9571513418</v>
       </c>
       <c r="G90" t="n">
-        <v>67.178800825632</v>
+        <v>67.1788008256</v>
       </c>
     </row>
     <row r="91">
@@ -12244,19 +12244,19 @@
         <v>185</v>
       </c>
       <c r="C91" t="n">
-        <v>17.8833337655137</v>
+        <v>17.8833337655</v>
       </c>
       <c r="D91" t="n">
-        <v>20.9767861706903</v>
+        <v>20.9767861707</v>
       </c>
       <c r="E91" t="n">
-        <v>25.510394370536</v>
+        <v>25.5103943705</v>
       </c>
       <c r="F91" t="n">
-        <v>26.8262519827496</v>
+        <v>26.8262519827</v>
       </c>
       <c r="G91" t="n">
-        <v>29.7091583660021</v>
+        <v>29.709158366</v>
       </c>
     </row>
     <row r="92">
@@ -12267,19 +12267,19 @@
         <v>187</v>
       </c>
       <c r="C92" t="n">
-        <v>38.1654395749273</v>
+        <v>38.1654395749</v>
       </c>
       <c r="D92" t="n">
-        <v>39.0735852797321</v>
+        <v>39.0735852797</v>
       </c>
       <c r="E92" t="n">
-        <v>49.9733459787904</v>
+        <v>49.9733459788</v>
       </c>
       <c r="F92" t="n">
-        <v>49.9733459787903</v>
+        <v>49.9733459788</v>
       </c>
       <c r="G92" t="n">
-        <v>52.3269330788134</v>
+        <v>52.3269330788</v>
       </c>
     </row>
     <row r="93">
@@ -12290,19 +12290,19 @@
         <v>189</v>
       </c>
       <c r="C93" t="n">
-        <v>42.9948327013584</v>
+        <v>42.9948327014</v>
       </c>
       <c r="D93" t="n">
-        <v>40.9713146615681</v>
+        <v>40.9713146616</v>
       </c>
       <c r="E93" t="n">
-        <v>46.6819634723795</v>
+        <v>46.6819634724</v>
       </c>
       <c r="F93" t="n">
-        <v>45.9359429971097</v>
+        <v>45.9359429971</v>
       </c>
       <c r="G93" t="n">
-        <v>47.2681549326267</v>
+        <v>47.2681549326</v>
       </c>
     </row>
     <row r="94">
@@ -12313,19 +12313,19 @@
         <v>191</v>
       </c>
       <c r="C94" t="n">
-        <v>34.5661468193325</v>
+        <v>34.5661468193</v>
       </c>
       <c r="D94" t="n">
-        <v>32.8094842037585</v>
+        <v>32.8094842038</v>
       </c>
       <c r="E94" t="n">
-        <v>30.8996061101853</v>
+        <v>30.8996061102</v>
       </c>
       <c r="F94" t="n">
-        <v>32.867193738857</v>
+        <v>32.8671937389</v>
       </c>
       <c r="G94" t="n">
-        <v>34.24826079611</v>
+        <v>34.2482607961</v>
       </c>
     </row>
     <row r="95">
@@ -12336,15 +12336,15 @@
         <v>193</v>
       </c>
       <c r="C95" t="n">
-        <v>50.4286547413439</v>
+        <v>50.4286547413</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="n">
-        <v>59.4585020629766</v>
+        <v>59.458502063</v>
       </c>
       <c r="G95" t="n">
-        <v>59.4825900235226</v>
+        <v>59.4825900235</v>
       </c>
     </row>
     <row r="96">
@@ -12355,17 +12355,17 @@
         <v>195</v>
       </c>
       <c r="C96" t="n">
-        <v>34.6255613357536</v>
+        <v>34.6255613358</v>
       </c>
       <c r="D96"/>
       <c r="E96" t="n">
-        <v>39.1806651601455</v>
+        <v>39.1806651601</v>
       </c>
       <c r="F96" t="n">
-        <v>35.5829567068174</v>
+        <v>35.5829567068</v>
       </c>
       <c r="G96" t="n">
-        <v>44.1985523848895</v>
+        <v>44.1985523849</v>
       </c>
     </row>
     <row r="97">
@@ -12376,19 +12376,19 @@
         <v>197</v>
       </c>
       <c r="C97" t="n">
-        <v>42.2130079590151</v>
+        <v>42.213007959</v>
       </c>
       <c r="D97" t="n">
-        <v>36.7662576379776</v>
+        <v>36.766257638</v>
       </c>
       <c r="E97" t="n">
-        <v>39.913796974351</v>
+        <v>39.9137969744</v>
       </c>
       <c r="F97" t="n">
-        <v>38.153704138248</v>
+        <v>38.1537041382</v>
       </c>
       <c r="G97" t="n">
-        <v>40.9243473046505</v>
+        <v>40.9243473047</v>
       </c>
     </row>
     <row r="98">
@@ -12399,19 +12399,19 @@
         <v>199</v>
       </c>
       <c r="C98" t="n">
-        <v>45.4366938374842</v>
+        <v>45.4366938375</v>
       </c>
       <c r="D98" t="n">
-        <v>45.344096635862</v>
+        <v>45.3440966359</v>
       </c>
       <c r="E98" t="n">
-        <v>52.3073689391169</v>
+        <v>52.3073689391</v>
       </c>
       <c r="F98" t="n">
-        <v>59.8573979083777</v>
+        <v>59.8573979084</v>
       </c>
       <c r="G98" t="n">
-        <v>60.2983908698182</v>
+        <v>60.2983908698</v>
       </c>
     </row>
     <row r="99">
@@ -12422,19 +12422,19 @@
         <v>201</v>
       </c>
       <c r="C99" t="n">
-        <v>26.2042893202577</v>
+        <v>26.2042893203</v>
       </c>
       <c r="D99" t="n">
-        <v>34.45815865307</v>
+        <v>34.4581586531</v>
       </c>
       <c r="E99" t="n">
-        <v>35.9196031367972</v>
+        <v>35.9196031368</v>
       </c>
       <c r="F99" t="n">
-        <v>40.0918771091332</v>
+        <v>40.0918771091</v>
       </c>
       <c r="G99" t="n">
-        <v>44.0470529912985</v>
+        <v>44.0470529913</v>
       </c>
     </row>
     <row r="100">
@@ -12445,19 +12445,19 @@
         <v>203</v>
       </c>
       <c r="C100" t="n">
-        <v>46.1245510820464</v>
+        <v>46.124551082</v>
       </c>
       <c r="D100" t="n">
-        <v>47.5970065264278</v>
+        <v>47.5970065264</v>
       </c>
       <c r="E100" t="n">
-        <v>48.2937772619833</v>
+        <v>48.293777262</v>
       </c>
       <c r="F100" t="n">
-        <v>52.8815874994045</v>
+        <v>52.8815874994</v>
       </c>
       <c r="G100" t="n">
-        <v>55.5801931365622</v>
+        <v>55.5801931366</v>
       </c>
     </row>
     <row r="101">
@@ -12468,19 +12468,19 @@
         <v>205</v>
       </c>
       <c r="C101" t="n">
-        <v>48.3886813490037</v>
+        <v>48.388681349</v>
       </c>
       <c r="D101" t="n">
-        <v>54.9289733889944</v>
+        <v>54.928973389</v>
       </c>
       <c r="E101" t="n">
-        <v>50.7078844151106</v>
+        <v>50.7078844151</v>
       </c>
       <c r="F101" t="n">
-        <v>54.5039233575906</v>
+        <v>54.5039233576</v>
       </c>
       <c r="G101" t="n">
-        <v>55.7762923753983</v>
+        <v>55.7762923754</v>
       </c>
     </row>
     <row r="102">
@@ -12491,19 +12491,19 @@
         <v>207</v>
       </c>
       <c r="C102" t="n">
-        <v>38.0585731638933</v>
+        <v>38.0585731639</v>
       </c>
       <c r="D102" t="n">
-        <v>43.2178350239425</v>
+        <v>43.2178350239</v>
       </c>
       <c r="E102" t="n">
-        <v>42.4426107800335</v>
+        <v>42.44261078</v>
       </c>
       <c r="F102" t="n">
-        <v>47.0806690128265</v>
+        <v>47.0806690128</v>
       </c>
       <c r="G102" t="n">
-        <v>49.9749725874943</v>
+        <v>49.9749725875</v>
       </c>
     </row>
     <row r="103">
@@ -12514,17 +12514,17 @@
         <v>209</v>
       </c>
       <c r="C103" t="n">
-        <v>51.6122817877223</v>
+        <v>51.6122817877</v>
       </c>
       <c r="D103" t="n">
-        <v>58.4845121137412</v>
+        <v>58.4845121137</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="n">
-        <v>59.918684286805</v>
+        <v>59.9186842868</v>
       </c>
       <c r="G103" t="n">
-        <v>63.0311481407299</v>
+        <v>63.0311481407</v>
       </c>
     </row>
     <row r="104">
@@ -12535,19 +12535,19 @@
         <v>211</v>
       </c>
       <c r="C104" t="n">
-        <v>46.9554237997134</v>
+        <v>46.9554237997</v>
       </c>
       <c r="D104" t="n">
-        <v>48.9209146460371</v>
+        <v>48.920914646</v>
       </c>
       <c r="E104" t="n">
-        <v>51.5730275134815</v>
+        <v>51.5730275135</v>
       </c>
       <c r="F104" t="n">
-        <v>56.4194359224833</v>
+        <v>56.4194359225</v>
       </c>
       <c r="G104" t="n">
-        <v>57.6124854056395</v>
+        <v>57.6124854056</v>
       </c>
     </row>
     <row r="105">
@@ -12558,17 +12558,17 @@
         <v>213</v>
       </c>
       <c r="C105" t="n">
-        <v>59.3197453448637</v>
+        <v>59.3197453449</v>
       </c>
       <c r="D105" t="n">
-        <v>59.9461867769653</v>
+        <v>59.946186777</v>
       </c>
       <c r="E105"/>
       <c r="F105" t="n">
-        <v>64.1658687317439</v>
+        <v>64.1658687317</v>
       </c>
       <c r="G105" t="n">
-        <v>64.3498081439032</v>
+        <v>64.3498081439</v>
       </c>
     </row>
     <row r="106">
@@ -12579,19 +12579,19 @@
         <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>46.1072768833555</v>
+        <v>46.1072768834</v>
       </c>
       <c r="D106" t="n">
-        <v>48.9513290238295</v>
+        <v>48.9513290238</v>
       </c>
       <c r="E106" t="n">
-        <v>50.7936048529393</v>
+        <v>50.7936048529</v>
       </c>
       <c r="F106" t="n">
-        <v>53.0855598505363</v>
+        <v>53.0855598505</v>
       </c>
       <c r="G106" t="n">
-        <v>56.1003041326585</v>
+        <v>56.1003041327</v>
       </c>
     </row>
     <row r="107">
@@ -12602,19 +12602,19 @@
         <v>217</v>
       </c>
       <c r="C107" t="n">
-        <v>34.2366045939522</v>
+        <v>34.236604594</v>
       </c>
       <c r="D107" t="n">
-        <v>30.6096851179973</v>
+        <v>30.609685118</v>
       </c>
       <c r="E107" t="n">
-        <v>40.1776106147852</v>
+        <v>40.1776106148</v>
       </c>
       <c r="F107" t="n">
-        <v>37.9049621104885</v>
+        <v>37.9049621105</v>
       </c>
       <c r="G107" t="n">
-        <v>40.7921748664957</v>
+        <v>40.7921748665</v>
       </c>
     </row>
     <row r="108">
@@ -12625,19 +12625,19 @@
         <v>219</v>
       </c>
       <c r="C108" t="n">
-        <v>56.3099532540136</v>
+        <v>56.309953254</v>
       </c>
       <c r="D108" t="n">
-        <v>61.6169431812015</v>
+        <v>61.6169431812</v>
       </c>
       <c r="E108" t="n">
-        <v>61.7106618953987</v>
+        <v>61.7106618954</v>
       </c>
       <c r="F108" t="n">
-        <v>60.7918895914686</v>
+        <v>60.7918895915</v>
       </c>
       <c r="G108" t="n">
-        <v>62.618878753355</v>
+        <v>62.6188787534</v>
       </c>
     </row>
     <row r="109">
@@ -12648,19 +12648,19 @@
         <v>221</v>
       </c>
       <c r="C109" t="n">
-        <v>47.171218366801</v>
+        <v>47.1712183668</v>
       </c>
       <c r="D109" t="n">
-        <v>51.3153743244877</v>
+        <v>51.3153743245</v>
       </c>
       <c r="E109" t="n">
-        <v>48.9800723773615</v>
+        <v>48.9800723774</v>
       </c>
       <c r="F109" t="n">
-        <v>48.9001728018957</v>
+        <v>48.9001728019</v>
       </c>
       <c r="G109" t="n">
-        <v>48.5661870049206</v>
+        <v>48.5661870049</v>
       </c>
     </row>
     <row r="110">
@@ -12671,19 +12671,19 @@
         <v>223</v>
       </c>
       <c r="C110" t="n">
-        <v>42.526052470889</v>
+        <v>42.5260524709</v>
       </c>
       <c r="D110" t="n">
-        <v>49.0786385848798</v>
+        <v>49.0786385849</v>
       </c>
       <c r="E110" t="n">
-        <v>43.4439426478261</v>
+        <v>43.4439426478</v>
       </c>
       <c r="F110" t="n">
-        <v>44.6049659547908</v>
+        <v>44.6049659548</v>
       </c>
       <c r="G110" t="n">
-        <v>45.5810689559327</v>
+        <v>45.5810689559</v>
       </c>
     </row>
     <row r="111">
@@ -12694,19 +12694,19 @@
         <v>225</v>
       </c>
       <c r="C111" t="n">
-        <v>41.4387813107048</v>
+        <v>41.4387813107</v>
       </c>
       <c r="D111" t="n">
-        <v>42.2505298049745</v>
+        <v>42.250529805</v>
       </c>
       <c r="E111" t="n">
-        <v>38.8573879915029</v>
+        <v>38.8573879915</v>
       </c>
       <c r="F111" t="n">
-        <v>43.3725701409089</v>
+        <v>43.3725701409</v>
       </c>
       <c r="G111" t="n">
-        <v>45.7294362853927</v>
+        <v>45.7294362854</v>
       </c>
     </row>
     <row r="112">
@@ -12718,16 +12718,16 @@
       </c>
       <c r="C112"/>
       <c r="D112" t="n">
-        <v>50.4822756912168</v>
+        <v>50.4822756912</v>
       </c>
       <c r="E112" t="n">
-        <v>49.3470241895712</v>
+        <v>49.3470241896</v>
       </c>
       <c r="F112" t="n">
-        <v>48.2370543799184</v>
+        <v>48.2370543799</v>
       </c>
       <c r="G112" t="n">
-        <v>52.7402628134016</v>
+        <v>52.7402628134</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
+++ b/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
@@ -751,7 +751,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
+++ b/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
@@ -7712,36 +7712,36 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B385" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C385" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D385" t="s">
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>32.3600185258792</v>
+        <v>36.1416753486342</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B386" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C386" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D386" t="s">
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>38.1432538174266</v>
+        <v>34.7748012362676</v>
       </c>
     </row>
     <row r="387">
@@ -7752,13 +7752,13 @@
         <v>167</v>
       </c>
       <c r="C387" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D387" t="s">
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>38.6508813071507</v>
+        <v>32.3600185258792</v>
       </c>
     </row>
     <row r="388">
@@ -7769,13 +7769,13 @@
         <v>167</v>
       </c>
       <c r="C388" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D388" t="s">
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>39.926679050863</v>
+        <v>38.1432538174266</v>
       </c>
     </row>
     <row r="389">
@@ -7786,47 +7786,47 @@
         <v>167</v>
       </c>
       <c r="C389" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D389" t="s">
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>41.2609883048032</v>
+        <v>38.6508813071507</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B390" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C390" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D390" t="s">
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>46.4522519979846</v>
+        <v>39.926679050863</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B391" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C391" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D391" t="s">
         <v>7</v>
       </c>
       <c r="E391" t="n">
-        <v>55.9770749533349</v>
+        <v>41.2609883048032</v>
       </c>
     </row>
     <row r="392">
@@ -7837,13 +7837,13 @@
         <v>169</v>
       </c>
       <c r="C392" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D392" t="s">
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>50.3259267969149</v>
+        <v>46.4522519979846</v>
       </c>
     </row>
     <row r="393">
@@ -7854,13 +7854,13 @@
         <v>169</v>
       </c>
       <c r="C393" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D393" t="s">
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>57.0475191711862</v>
+        <v>55.9770749533349</v>
       </c>
     </row>
     <row r="394">
@@ -7871,47 +7871,47 @@
         <v>169</v>
       </c>
       <c r="C394" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D394" t="s">
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>59.9131363089865</v>
+        <v>50.3259267969149</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B395" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C395" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D395" t="s">
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>47.2818437152852</v>
+        <v>57.0475191711862</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B396" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C396" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D396" t="s">
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>52.8800954714713</v>
+        <v>59.9131363089865</v>
       </c>
     </row>
     <row r="397">
@@ -7922,13 +7922,13 @@
         <v>171</v>
       </c>
       <c r="C397" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D397" t="s">
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>50.879329441801</v>
+        <v>47.2818437152852</v>
       </c>
     </row>
     <row r="398">
@@ -7939,13 +7939,13 @@
         <v>171</v>
       </c>
       <c r="C398" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D398" t="s">
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>53.9827338009822</v>
+        <v>52.8800954714713</v>
       </c>
     </row>
     <row r="399">
@@ -7956,47 +7956,47 @@
         <v>171</v>
       </c>
       <c r="C399" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D399" t="s">
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>55.7921884936871</v>
+        <v>50.879329441801</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B400" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C400" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D400" t="s">
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>59.8619505062088</v>
+        <v>53.9827338009822</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B401" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C401" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D401" t="s">
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>59.1366799003868</v>
+        <v>55.7921884936871</v>
       </c>
     </row>
     <row r="402">
@@ -8007,47 +8007,47 @@
         <v>173</v>
       </c>
       <c r="C402" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D402" t="s">
         <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>74.5771918610048</v>
+        <v>59.8619505062088</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B403" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C403" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D403" t="s">
         <v>7</v>
       </c>
       <c r="E403" t="n">
-        <v>23.5820371314722</v>
+        <v>59.1366799003868</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B404" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C404" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D404" t="s">
         <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>31.4572999972478</v>
+        <v>74.5771918610048</v>
       </c>
     </row>
     <row r="405">
@@ -8058,13 +8058,13 @@
         <v>175</v>
       </c>
       <c r="C405" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D405" t="s">
         <v>7</v>
       </c>
       <c r="E405" t="n">
-        <v>31.9470031719696</v>
+        <v>23.5820371314722</v>
       </c>
     </row>
     <row r="406">
@@ -8075,13 +8075,13 @@
         <v>175</v>
       </c>
       <c r="C406" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D406" t="s">
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>31.243883644324</v>
+        <v>31.4572999972478</v>
       </c>
     </row>
     <row r="407">
@@ -8092,47 +8092,47 @@
         <v>175</v>
       </c>
       <c r="C407" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D407" t="s">
         <v>7</v>
       </c>
       <c r="E407" t="n">
-        <v>31.02819847229</v>
+        <v>31.9470031719696</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B408" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C408" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D408" t="s">
         <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>35.3645924111419</v>
+        <v>31.243883644324</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B409" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C409" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D409" t="s">
         <v>7</v>
       </c>
       <c r="E409" t="n">
-        <v>41.3232604964629</v>
+        <v>31.02819847229</v>
       </c>
     </row>
     <row r="410">
@@ -8143,13 +8143,13 @@
         <v>177</v>
       </c>
       <c r="C410" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D410" t="s">
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>36.3388059969425</v>
+        <v>35.3645924111419</v>
       </c>
     </row>
     <row r="411">
@@ -8160,13 +8160,13 @@
         <v>177</v>
       </c>
       <c r="C411" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D411" t="s">
         <v>7</v>
       </c>
       <c r="E411" t="n">
-        <v>45.1127381414038</v>
+        <v>41.3232604964629</v>
       </c>
     </row>
     <row r="412">
@@ -8177,47 +8177,47 @@
         <v>177</v>
       </c>
       <c r="C412" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D412" t="s">
         <v>7</v>
       </c>
       <c r="E412" t="n">
-        <v>44.7467700960829</v>
+        <v>36.3388059969425</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B413" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C413" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D413" t="s">
         <v>7</v>
       </c>
       <c r="E413" t="n">
-        <v>42.4583566187155</v>
+        <v>45.1127381414038</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B414" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C414" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D414" t="s">
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>47.5203476472884</v>
+        <v>44.7467700960829</v>
       </c>
     </row>
     <row r="415">
@@ -8228,13 +8228,13 @@
         <v>179</v>
       </c>
       <c r="C415" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D415" t="s">
         <v>7</v>
       </c>
       <c r="E415" t="n">
-        <v>48.4640116972906</v>
+        <v>42.4583566187155</v>
       </c>
     </row>
     <row r="416">
@@ -8245,47 +8245,47 @@
         <v>179</v>
       </c>
       <c r="C416" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D416" t="s">
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>50.6957520071084</v>
+        <v>47.5203476472884</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B417" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C417" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D417" t="s">
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>50.4206716255706</v>
+        <v>48.4640116972906</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B418" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C418" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D418" t="s">
         <v>7</v>
       </c>
       <c r="E418" t="n">
-        <v>43.6605063285129</v>
+        <v>50.6957520071084</v>
       </c>
     </row>
     <row r="419">
@@ -8296,13 +8296,13 @@
         <v>181</v>
       </c>
       <c r="C419" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D419" t="s">
         <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>41.8525850599663</v>
+        <v>50.4206716255706</v>
       </c>
     </row>
     <row r="420">
@@ -8313,13 +8313,13 @@
         <v>181</v>
       </c>
       <c r="C420" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D420" t="s">
         <v>7</v>
       </c>
       <c r="E420" t="n">
-        <v>45.7764370512789</v>
+        <v>43.6605063285129</v>
       </c>
     </row>
     <row r="421">
@@ -8330,47 +8330,47 @@
         <v>181</v>
       </c>
       <c r="C421" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D421" t="s">
         <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>47.7623156251567</v>
+        <v>41.8525850599663</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B422" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C422" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D422" t="s">
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>52.775682869789</v>
+        <v>45.7764370512789</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B423" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C423" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D423" t="s">
         <v>7</v>
       </c>
       <c r="E423" t="n">
-        <v>58.4803700416941</v>
+        <v>47.7623156251567</v>
       </c>
     </row>
     <row r="424">
@@ -8381,13 +8381,13 @@
         <v>183</v>
       </c>
       <c r="C424" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D424" t="s">
         <v>7</v>
       </c>
       <c r="E424" t="n">
-        <v>62.5324496584133</v>
+        <v>52.775682869789</v>
       </c>
     </row>
     <row r="425">
@@ -8398,13 +8398,13 @@
         <v>183</v>
       </c>
       <c r="C425" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D425" t="s">
         <v>7</v>
       </c>
       <c r="E425" t="n">
-        <v>64.9571513417847</v>
+        <v>58.4803700416941</v>
       </c>
     </row>
     <row r="426">
@@ -8415,47 +8415,47 @@
         <v>183</v>
       </c>
       <c r="C426" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D426" t="s">
         <v>7</v>
       </c>
       <c r="E426" t="n">
-        <v>67.178800825632</v>
+        <v>62.5324496584133</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B427" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C427" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D427" t="s">
         <v>7</v>
       </c>
       <c r="E427" t="n">
-        <v>17.8833337655137</v>
+        <v>64.9571513417847</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B428" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C428" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D428" t="s">
         <v>7</v>
       </c>
       <c r="E428" t="n">
-        <v>20.9767861706903</v>
+        <v>67.178800825632</v>
       </c>
     </row>
     <row r="429">
@@ -8466,13 +8466,13 @@
         <v>185</v>
       </c>
       <c r="C429" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D429" t="s">
         <v>7</v>
       </c>
       <c r="E429" t="n">
-        <v>25.510394370536</v>
+        <v>17.8833337655137</v>
       </c>
     </row>
     <row r="430">
@@ -8483,13 +8483,13 @@
         <v>185</v>
       </c>
       <c r="C430" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D430" t="s">
         <v>7</v>
       </c>
       <c r="E430" t="n">
-        <v>26.8262519827496</v>
+        <v>20.9767861706903</v>
       </c>
     </row>
     <row r="431">
@@ -8500,47 +8500,47 @@
         <v>185</v>
       </c>
       <c r="C431" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D431" t="s">
         <v>7</v>
       </c>
       <c r="E431" t="n">
-        <v>29.7091583660021</v>
+        <v>25.510394370536</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B432" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C432" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D432" t="s">
         <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>38.1654395749273</v>
+        <v>26.8262519827496</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B433" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C433" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D433" t="s">
         <v>7</v>
       </c>
       <c r="E433" t="n">
-        <v>39.0735852797321</v>
+        <v>29.7091583660021</v>
       </c>
     </row>
     <row r="434">
@@ -8551,13 +8551,13 @@
         <v>187</v>
       </c>
       <c r="C434" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D434" t="s">
         <v>7</v>
       </c>
       <c r="E434" t="n">
-        <v>49.9733459787904</v>
+        <v>38.1654395749273</v>
       </c>
     </row>
     <row r="435">
@@ -8568,13 +8568,13 @@
         <v>187</v>
       </c>
       <c r="C435" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D435" t="s">
         <v>7</v>
       </c>
       <c r="E435" t="n">
-        <v>49.9733459787903</v>
+        <v>39.0735852797321</v>
       </c>
     </row>
     <row r="436">
@@ -8585,47 +8585,47 @@
         <v>187</v>
       </c>
       <c r="C436" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D436" t="s">
         <v>7</v>
       </c>
       <c r="E436" t="n">
-        <v>52.3269330788134</v>
+        <v>49.9733459787904</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B437" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C437" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D437" t="s">
         <v>7</v>
       </c>
       <c r="E437" t="n">
-        <v>42.9948327013584</v>
+        <v>49.9733459787903</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B438" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C438" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D438" t="s">
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>40.9713146615681</v>
+        <v>52.3269330788134</v>
       </c>
     </row>
     <row r="439">
@@ -8636,13 +8636,13 @@
         <v>189</v>
       </c>
       <c r="C439" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D439" t="s">
         <v>7</v>
       </c>
       <c r="E439" t="n">
-        <v>46.6819634723795</v>
+        <v>42.9948327013584</v>
       </c>
     </row>
     <row r="440">
@@ -8653,13 +8653,13 @@
         <v>189</v>
       </c>
       <c r="C440" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D440" t="s">
         <v>7</v>
       </c>
       <c r="E440" t="n">
-        <v>45.9359429971097</v>
+        <v>40.9713146615681</v>
       </c>
     </row>
     <row r="441">
@@ -8670,47 +8670,47 @@
         <v>189</v>
       </c>
       <c r="C441" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D441" t="s">
         <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>47.2681549326267</v>
+        <v>46.6819634723795</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B442" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C442" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D442" t="s">
         <v>7</v>
       </c>
       <c r="E442" t="n">
-        <v>34.5661468193325</v>
+        <v>45.9359429971097</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B443" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C443" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D443" t="s">
         <v>7</v>
       </c>
       <c r="E443" t="n">
-        <v>32.8094842037585</v>
+        <v>47.2681549326267</v>
       </c>
     </row>
     <row r="444">
@@ -8721,13 +8721,13 @@
         <v>191</v>
       </c>
       <c r="C444" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D444" t="s">
         <v>7</v>
       </c>
       <c r="E444" t="n">
-        <v>30.8996061101853</v>
+        <v>34.5661468193325</v>
       </c>
     </row>
     <row r="445">
@@ -8738,13 +8738,13 @@
         <v>191</v>
       </c>
       <c r="C445" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D445" t="s">
         <v>7</v>
       </c>
       <c r="E445" t="n">
-        <v>32.867193738857</v>
+        <v>32.8094842037585</v>
       </c>
     </row>
     <row r="446">
@@ -8755,47 +8755,47 @@
         <v>191</v>
       </c>
       <c r="C446" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D446" t="s">
         <v>7</v>
       </c>
       <c r="E446" t="n">
-        <v>34.24826079611</v>
+        <v>30.8996061101853</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B447" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C447" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D447" t="s">
         <v>7</v>
       </c>
       <c r="E447" t="n">
-        <v>50.4286547413439</v>
+        <v>32.867193738857</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B448" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C448" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D448" t="s">
         <v>7</v>
       </c>
       <c r="E448" t="n">
-        <v>59.4585020629766</v>
+        <v>34.24826079611</v>
       </c>
     </row>
     <row r="449">
@@ -8806,47 +8806,47 @@
         <v>193</v>
       </c>
       <c r="C449" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D449" t="s">
         <v>7</v>
       </c>
       <c r="E449" t="n">
-        <v>59.4825900235226</v>
+        <v>50.4286547413439</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B450" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C450" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D450" t="s">
         <v>7</v>
       </c>
       <c r="E450" t="n">
-        <v>34.6255613357536</v>
+        <v>59.4585020629766</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B451" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C451" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D451" t="s">
         <v>7</v>
       </c>
       <c r="E451" t="n">
-        <v>39.1806651601455</v>
+        <v>59.4825900235226</v>
       </c>
     </row>
     <row r="452">
@@ -8857,13 +8857,13 @@
         <v>195</v>
       </c>
       <c r="C452" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D452" t="s">
         <v>7</v>
       </c>
       <c r="E452" t="n">
-        <v>35.5829567068174</v>
+        <v>34.6255613357536</v>
       </c>
     </row>
     <row r="453">
@@ -8874,47 +8874,47 @@
         <v>195</v>
       </c>
       <c r="C453" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D453" t="s">
         <v>7</v>
       </c>
       <c r="E453" t="n">
-        <v>44.1985523848895</v>
+        <v>39.1806651601455</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B454" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C454" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D454" t="s">
         <v>7</v>
       </c>
       <c r="E454" t="n">
-        <v>42.2130079590151</v>
+        <v>35.5829567068174</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B455" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C455" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D455" t="s">
         <v>7</v>
       </c>
       <c r="E455" t="n">
-        <v>36.7662576379776</v>
+        <v>44.1985523848895</v>
       </c>
     </row>
     <row r="456">
@@ -8925,13 +8925,13 @@
         <v>197</v>
       </c>
       <c r="C456" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D456" t="s">
         <v>7</v>
       </c>
       <c r="E456" t="n">
-        <v>39.913796974351</v>
+        <v>42.2130079590151</v>
       </c>
     </row>
     <row r="457">
@@ -8942,13 +8942,13 @@
         <v>197</v>
       </c>
       <c r="C457" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D457" t="s">
         <v>7</v>
       </c>
       <c r="E457" t="n">
-        <v>38.153704138248</v>
+        <v>36.7662576379776</v>
       </c>
     </row>
     <row r="458">
@@ -8959,47 +8959,47 @@
         <v>197</v>
       </c>
       <c r="C458" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D458" t="s">
         <v>7</v>
       </c>
       <c r="E458" t="n">
-        <v>40.9243473046505</v>
+        <v>39.913796974351</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B459" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C459" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D459" t="s">
         <v>7</v>
       </c>
       <c r="E459" t="n">
-        <v>45.4366938374842</v>
+        <v>38.153704138248</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B460" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C460" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D460" t="s">
         <v>7</v>
       </c>
       <c r="E460" t="n">
-        <v>45.344096635862</v>
+        <v>40.9243473046505</v>
       </c>
     </row>
     <row r="461">
@@ -9010,13 +9010,13 @@
         <v>199</v>
       </c>
       <c r="C461" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D461" t="s">
         <v>7</v>
       </c>
       <c r="E461" t="n">
-        <v>52.3073689391169</v>
+        <v>45.4366938374842</v>
       </c>
     </row>
     <row r="462">
@@ -9027,13 +9027,13 @@
         <v>199</v>
       </c>
       <c r="C462" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D462" t="s">
         <v>7</v>
       </c>
       <c r="E462" t="n">
-        <v>59.8573979083777</v>
+        <v>45.344096635862</v>
       </c>
     </row>
     <row r="463">
@@ -9044,47 +9044,47 @@
         <v>199</v>
       </c>
       <c r="C463" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D463" t="s">
         <v>7</v>
       </c>
       <c r="E463" t="n">
-        <v>60.2983908698182</v>
+        <v>52.3073689391169</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B464" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C464" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D464" t="s">
         <v>7</v>
       </c>
       <c r="E464" t="n">
-        <v>26.2042893202577</v>
+        <v>59.8573979083777</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B465" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C465" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D465" t="s">
         <v>7</v>
       </c>
       <c r="E465" t="n">
-        <v>34.45815865307</v>
+        <v>60.2983908698182</v>
       </c>
     </row>
     <row r="466">
@@ -9095,13 +9095,13 @@
         <v>201</v>
       </c>
       <c r="C466" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D466" t="s">
         <v>7</v>
       </c>
       <c r="E466" t="n">
-        <v>35.9196031367972</v>
+        <v>26.2042893202577</v>
       </c>
     </row>
     <row r="467">
@@ -9112,13 +9112,13 @@
         <v>201</v>
       </c>
       <c r="C467" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D467" t="s">
         <v>7</v>
       </c>
       <c r="E467" t="n">
-        <v>40.0918771091332</v>
+        <v>34.45815865307</v>
       </c>
     </row>
     <row r="468">
@@ -9129,47 +9129,47 @@
         <v>201</v>
       </c>
       <c r="C468" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D468" t="s">
         <v>7</v>
       </c>
       <c r="E468" t="n">
-        <v>44.0470529912985</v>
+        <v>35.9196031367972</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B469" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C469" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D469" t="s">
         <v>7</v>
       </c>
       <c r="E469" t="n">
-        <v>46.1245510820464</v>
+        <v>40.0918771091332</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B470" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C470" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D470" t="s">
         <v>7</v>
       </c>
       <c r="E470" t="n">
-        <v>47.5970065264278</v>
+        <v>44.0470529912985</v>
       </c>
     </row>
     <row r="471">
@@ -9180,13 +9180,13 @@
         <v>203</v>
       </c>
       <c r="C471" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D471" t="s">
         <v>7</v>
       </c>
       <c r="E471" t="n">
-        <v>48.2937772619833</v>
+        <v>46.1245510820464</v>
       </c>
     </row>
     <row r="472">
@@ -9197,13 +9197,13 @@
         <v>203</v>
       </c>
       <c r="C472" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D472" t="s">
         <v>7</v>
       </c>
       <c r="E472" t="n">
-        <v>52.8815874994045</v>
+        <v>47.5970065264278</v>
       </c>
     </row>
     <row r="473">
@@ -9214,47 +9214,47 @@
         <v>203</v>
       </c>
       <c r="C473" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D473" t="s">
         <v>7</v>
       </c>
       <c r="E473" t="n">
-        <v>55.5801931365622</v>
+        <v>48.2937772619833</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B474" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C474" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D474" t="s">
         <v>7</v>
       </c>
       <c r="E474" t="n">
-        <v>48.3886813490037</v>
+        <v>52.8815874994045</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B475" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C475" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D475" t="s">
         <v>7</v>
       </c>
       <c r="E475" t="n">
-        <v>54.9289733889944</v>
+        <v>55.5801931365622</v>
       </c>
     </row>
     <row r="476">
@@ -9265,13 +9265,13 @@
         <v>205</v>
       </c>
       <c r="C476" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D476" t="s">
         <v>7</v>
       </c>
       <c r="E476" t="n">
-        <v>50.7078844151106</v>
+        <v>48.3886813490037</v>
       </c>
     </row>
     <row r="477">
@@ -9282,13 +9282,13 @@
         <v>205</v>
       </c>
       <c r="C477" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D477" t="s">
         <v>7</v>
       </c>
       <c r="E477" t="n">
-        <v>54.5039233575906</v>
+        <v>54.9289733889944</v>
       </c>
     </row>
     <row r="478">
@@ -9299,47 +9299,47 @@
         <v>205</v>
       </c>
       <c r="C478" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D478" t="s">
         <v>7</v>
       </c>
       <c r="E478" t="n">
-        <v>55.7762923753983</v>
+        <v>50.7078844151106</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B479" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C479" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D479" t="s">
         <v>7</v>
       </c>
       <c r="E479" t="n">
-        <v>38.0585731638933</v>
+        <v>54.5039233575906</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B480" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C480" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D480" t="s">
         <v>7</v>
       </c>
       <c r="E480" t="n">
-        <v>43.2178350239425</v>
+        <v>55.7762923753983</v>
       </c>
     </row>
     <row r="481">
@@ -9350,13 +9350,13 @@
         <v>207</v>
       </c>
       <c r="C481" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D481" t="s">
         <v>7</v>
       </c>
       <c r="E481" t="n">
-        <v>42.4426107800335</v>
+        <v>38.0585731638933</v>
       </c>
     </row>
     <row r="482">
@@ -9367,13 +9367,13 @@
         <v>207</v>
       </c>
       <c r="C482" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D482" t="s">
         <v>7</v>
       </c>
       <c r="E482" t="n">
-        <v>47.0806690128265</v>
+        <v>43.2178350239425</v>
       </c>
     </row>
     <row r="483">
@@ -9384,47 +9384,47 @@
         <v>207</v>
       </c>
       <c r="C483" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D483" t="s">
         <v>7</v>
       </c>
       <c r="E483" t="n">
-        <v>49.9749725874943</v>
+        <v>42.4426107800335</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B484" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C484" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D484" t="s">
         <v>7</v>
       </c>
       <c r="E484" t="n">
-        <v>51.6122817877223</v>
+        <v>47.0806690128265</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B485" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C485" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D485" t="s">
         <v>7</v>
       </c>
       <c r="E485" t="n">
-        <v>58.4845121137412</v>
+        <v>49.9749725874943</v>
       </c>
     </row>
     <row r="486">
@@ -9435,13 +9435,13 @@
         <v>209</v>
       </c>
       <c r="C486" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D486" t="s">
         <v>7</v>
       </c>
       <c r="E486" t="n">
-        <v>59.918684286805</v>
+        <v>51.6122817877223</v>
       </c>
     </row>
     <row r="487">
@@ -9452,47 +9452,47 @@
         <v>209</v>
       </c>
       <c r="C487" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D487" t="s">
         <v>7</v>
       </c>
       <c r="E487" t="n">
-        <v>63.0311481407299</v>
+        <v>58.4845121137412</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B488" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C488" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D488" t="s">
         <v>7</v>
       </c>
       <c r="E488" t="n">
-        <v>46.9554237997134</v>
+        <v>59.918684286805</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B489" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C489" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D489" t="s">
         <v>7</v>
       </c>
       <c r="E489" t="n">
-        <v>48.9209146460371</v>
+        <v>63.0311481407299</v>
       </c>
     </row>
     <row r="490">
@@ -9503,13 +9503,13 @@
         <v>211</v>
       </c>
       <c r="C490" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D490" t="s">
         <v>7</v>
       </c>
       <c r="E490" t="n">
-        <v>51.5730275134815</v>
+        <v>46.9554237997134</v>
       </c>
     </row>
     <row r="491">
@@ -9520,13 +9520,13 @@
         <v>211</v>
       </c>
       <c r="C491" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D491" t="s">
         <v>7</v>
       </c>
       <c r="E491" t="n">
-        <v>56.4194359224833</v>
+        <v>48.9209146460371</v>
       </c>
     </row>
     <row r="492">
@@ -9537,47 +9537,47 @@
         <v>211</v>
       </c>
       <c r="C492" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D492" t="s">
         <v>7</v>
       </c>
       <c r="E492" t="n">
-        <v>57.6124854056395</v>
+        <v>51.5730275134815</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B493" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C493" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D493" t="s">
         <v>7</v>
       </c>
       <c r="E493" t="n">
-        <v>59.3197453448637</v>
+        <v>56.4194359224833</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B494" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C494" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D494" t="s">
         <v>7</v>
       </c>
       <c r="E494" t="n">
-        <v>59.9461867769653</v>
+        <v>57.6124854056395</v>
       </c>
     </row>
     <row r="495">
@@ -9588,13 +9588,13 @@
         <v>213</v>
       </c>
       <c r="C495" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D495" t="s">
         <v>7</v>
       </c>
       <c r="E495" t="n">
-        <v>64.1658687317439</v>
+        <v>59.3197453448637</v>
       </c>
     </row>
     <row r="496">
@@ -9605,47 +9605,47 @@
         <v>213</v>
       </c>
       <c r="C496" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D496" t="s">
         <v>7</v>
       </c>
       <c r="E496" t="n">
-        <v>64.3498081439032</v>
+        <v>59.9461867769653</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B497" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C497" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D497" t="s">
         <v>7</v>
       </c>
       <c r="E497" t="n">
-        <v>46.1072768833555</v>
+        <v>64.1658687317439</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B498" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C498" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D498" t="s">
         <v>7</v>
       </c>
       <c r="E498" t="n">
-        <v>48.9513290238295</v>
+        <v>64.3498081439032</v>
       </c>
     </row>
     <row r="499">
@@ -9656,13 +9656,13 @@
         <v>215</v>
       </c>
       <c r="C499" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D499" t="s">
         <v>7</v>
       </c>
       <c r="E499" t="n">
-        <v>50.7936048529393</v>
+        <v>46.1072768833555</v>
       </c>
     </row>
     <row r="500">
@@ -9673,13 +9673,13 @@
         <v>215</v>
       </c>
       <c r="C500" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D500" t="s">
         <v>7</v>
       </c>
       <c r="E500" t="n">
-        <v>53.0855598505363</v>
+        <v>48.9513290238295</v>
       </c>
     </row>
     <row r="501">
@@ -9690,47 +9690,47 @@
         <v>215</v>
       </c>
       <c r="C501" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D501" t="s">
         <v>7</v>
       </c>
       <c r="E501" t="n">
-        <v>56.1003041326585</v>
+        <v>50.7936048529393</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B502" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C502" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D502" t="s">
         <v>7</v>
       </c>
       <c r="E502" t="n">
-        <v>34.2366045939522</v>
+        <v>53.0855598505363</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B503" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C503" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D503" t="s">
         <v>7</v>
       </c>
       <c r="E503" t="n">
-        <v>30.6096851179973</v>
+        <v>56.1003041326585</v>
       </c>
     </row>
     <row r="504">
@@ -9741,13 +9741,13 @@
         <v>217</v>
       </c>
       <c r="C504" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D504" t="s">
         <v>7</v>
       </c>
       <c r="E504" t="n">
-        <v>40.1776106147852</v>
+        <v>34.2366045939522</v>
       </c>
     </row>
     <row r="505">
@@ -9758,13 +9758,13 @@
         <v>217</v>
       </c>
       <c r="C505" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D505" t="s">
         <v>7</v>
       </c>
       <c r="E505" t="n">
-        <v>37.9049621104885</v>
+        <v>30.6096851179973</v>
       </c>
     </row>
     <row r="506">
@@ -9775,47 +9775,47 @@
         <v>217</v>
       </c>
       <c r="C506" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D506" t="s">
         <v>7</v>
       </c>
       <c r="E506" t="n">
-        <v>40.7921748664957</v>
+        <v>40.1776106147852</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B507" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C507" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D507" t="s">
         <v>7</v>
       </c>
       <c r="E507" t="n">
-        <v>56.3099532540136</v>
+        <v>37.9049621104885</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B508" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C508" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D508" t="s">
         <v>7</v>
       </c>
       <c r="E508" t="n">
-        <v>61.6169431812015</v>
+        <v>40.7921748664957</v>
       </c>
     </row>
     <row r="509">
@@ -9826,13 +9826,13 @@
         <v>219</v>
       </c>
       <c r="C509" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D509" t="s">
         <v>7</v>
       </c>
       <c r="E509" t="n">
-        <v>61.7106618953987</v>
+        <v>56.3099532540136</v>
       </c>
     </row>
     <row r="510">
@@ -9843,13 +9843,13 @@
         <v>219</v>
       </c>
       <c r="C510" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D510" t="s">
         <v>7</v>
       </c>
       <c r="E510" t="n">
-        <v>60.7918895914686</v>
+        <v>61.6169431812015</v>
       </c>
     </row>
     <row r="511">
@@ -9860,47 +9860,47 @@
         <v>219</v>
       </c>
       <c r="C511" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D511" t="s">
         <v>7</v>
       </c>
       <c r="E511" t="n">
-        <v>62.618878753355</v>
+        <v>61.7106618953987</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B512" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C512" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D512" t="s">
         <v>7</v>
       </c>
       <c r="E512" t="n">
-        <v>47.171218366801</v>
+        <v>60.7918895914686</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B513" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C513" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D513" t="s">
         <v>7</v>
       </c>
       <c r="E513" t="n">
-        <v>51.3153743244877</v>
+        <v>62.618878753355</v>
       </c>
     </row>
     <row r="514">
@@ -9911,13 +9911,13 @@
         <v>221</v>
       </c>
       <c r="C514" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D514" t="s">
         <v>7</v>
       </c>
       <c r="E514" t="n">
-        <v>48.9800723773615</v>
+        <v>47.171218366801</v>
       </c>
     </row>
     <row r="515">
@@ -9928,13 +9928,13 @@
         <v>221</v>
       </c>
       <c r="C515" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D515" t="s">
         <v>7</v>
       </c>
       <c r="E515" t="n">
-        <v>48.9001728018957</v>
+        <v>51.3153743244877</v>
       </c>
     </row>
     <row r="516">
@@ -9945,47 +9945,47 @@
         <v>221</v>
       </c>
       <c r="C516" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D516" t="s">
         <v>7</v>
       </c>
       <c r="E516" t="n">
-        <v>48.5661870049206</v>
+        <v>48.9800723773615</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B517" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C517" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D517" t="s">
         <v>7</v>
       </c>
       <c r="E517" t="n">
-        <v>42.526052470889</v>
+        <v>48.9001728018957</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B518" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C518" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D518" t="s">
         <v>7</v>
       </c>
       <c r="E518" t="n">
-        <v>49.0786385848798</v>
+        <v>48.5661870049206</v>
       </c>
     </row>
     <row r="519">
@@ -9996,13 +9996,13 @@
         <v>223</v>
       </c>
       <c r="C519" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D519" t="s">
         <v>7</v>
       </c>
       <c r="E519" t="n">
-        <v>43.4439426478261</v>
+        <v>42.526052470889</v>
       </c>
     </row>
     <row r="520">
@@ -10013,13 +10013,13 @@
         <v>223</v>
       </c>
       <c r="C520" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D520" t="s">
         <v>7</v>
       </c>
       <c r="E520" t="n">
-        <v>44.6049659547908</v>
+        <v>49.0786385848798</v>
       </c>
     </row>
     <row r="521">
@@ -10030,47 +10030,47 @@
         <v>223</v>
       </c>
       <c r="C521" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D521" t="s">
         <v>7</v>
       </c>
       <c r="E521" t="n">
-        <v>45.5810689559327</v>
+        <v>43.4439426478261</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B522" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C522" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D522" t="s">
         <v>7</v>
       </c>
       <c r="E522" t="n">
-        <v>41.4387813107048</v>
+        <v>44.6049659547908</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B523" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C523" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D523" t="s">
         <v>7</v>
       </c>
       <c r="E523" t="n">
-        <v>42.2505298049745</v>
+        <v>45.5810689559327</v>
       </c>
     </row>
     <row r="524">
@@ -10081,13 +10081,13 @@
         <v>225</v>
       </c>
       <c r="C524" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D524" t="s">
         <v>7</v>
       </c>
       <c r="E524" t="n">
-        <v>38.8573879915029</v>
+        <v>41.4387813107048</v>
       </c>
     </row>
     <row r="525">
@@ -10098,13 +10098,13 @@
         <v>225</v>
       </c>
       <c r="C525" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D525" t="s">
         <v>7</v>
       </c>
       <c r="E525" t="n">
-        <v>43.3725701409089</v>
+        <v>42.2505298049745</v>
       </c>
     </row>
     <row r="526">
@@ -10115,47 +10115,47 @@
         <v>225</v>
       </c>
       <c r="C526" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D526" t="s">
         <v>7</v>
       </c>
       <c r="E526" t="n">
-        <v>45.7294362853927</v>
+        <v>38.8573879915029</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B527" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C527" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D527" t="s">
         <v>7</v>
       </c>
       <c r="E527" t="n">
-        <v>50.4822756912168</v>
+        <v>43.3725701409089</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B528" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C528" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D528" t="s">
         <v>7</v>
       </c>
       <c r="E528" t="n">
-        <v>49.3470241895712</v>
+        <v>45.7294362853927</v>
       </c>
     </row>
     <row r="529">
@@ -10166,13 +10166,13 @@
         <v>227</v>
       </c>
       <c r="C529" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D529" t="s">
         <v>7</v>
       </c>
       <c r="E529" t="n">
-        <v>48.2370543799184</v>
+        <v>50.4822756912168</v>
       </c>
     </row>
     <row r="530">
@@ -10183,12 +10183,46 @@
         <v>227</v>
       </c>
       <c r="C530" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D530" t="s">
+        <v>7</v>
+      </c>
+      <c r="E530" t="n">
+        <v>49.3470241895712</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>226</v>
+      </c>
+      <c r="B531" t="s">
+        <v>227</v>
+      </c>
+      <c r="C531" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D531" t="s">
+        <v>7</v>
+      </c>
+      <c r="E531" t="n">
+        <v>48.2370543799184</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>226</v>
+      </c>
+      <c r="B532" t="s">
+        <v>227</v>
+      </c>
+      <c r="C532" t="n">
         <v>2016</v>
       </c>
-      <c r="D530" t="s">
-        <v>7</v>
-      </c>
-      <c r="E530" t="n">
+      <c r="D532" t="s">
+        <v>7</v>
+      </c>
+      <c r="E532" t="n">
         <v>52.7402628134016</v>
       </c>
     </row>
@@ -12032,8 +12066,12 @@
       <c r="E81" t="n">
         <v>25.3439888064608</v>
       </c>
-      <c r="F81"/>
-      <c r="G81"/>
+      <c r="F81" t="n">
+        <v>36.1416753486342</v>
+      </c>
+      <c r="G81" t="n">
+        <v>34.7748012362676</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">

--- a/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
+++ b/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
@@ -8816,18 +8816,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8835,19 +8838,22 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
         <v>16.4535010229</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>24.6961602632</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>22.2784870265</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>23.7770751788</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>22.5963154015</v>
       </c>
     </row>
@@ -8855,19 +8861,22 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
         <v>44.5898591292</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>48.3968217306</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>46.1678278434</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>45.7984509403</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>49.3364045392</v>
       </c>
     </row>
@@ -8875,19 +8884,22 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
         <v>56.7738035064</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>58.4004661849</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>61.0851440271</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>67.0524221442</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>67.6014001738</v>
       </c>
     </row>
@@ -8895,17 +8907,20 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
         <v>47.0132073453</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>51.8238758354</v>
       </c>
-      <c r="D5"/>
-      <c r="E5" t="n">
+      <c r="E5"/>
+      <c r="F5" t="n">
         <v>39.8792886346</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>45.1300589945</v>
       </c>
     </row>
@@ -8913,19 +8928,22 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
         <v>46.452251998</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>55.9770749533</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>50.3259267969</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>57.0475191712</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>59.913136309</v>
       </c>
     </row>
@@ -8933,19 +8951,22 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
         <v>47.2818437153</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>52.8800954715</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>50.8793294418</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>53.982733801</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>55.7921884937</v>
       </c>
     </row>
@@ -8953,15 +8974,18 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>59.8619505062</v>
       </c>
-      <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" t="n">
+      <c r="E8"/>
+      <c r="F8" t="n">
         <v>59.1366799004</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>74.577191861</v>
       </c>
     </row>
@@ -8969,17 +8993,20 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
         <v>42.4583566187</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>47.5203476473</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" t="n">
+      <c r="E9"/>
+      <c r="F9" t="n">
         <v>48.4640116973</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>50.6957520071</v>
       </c>
     </row>
@@ -8987,19 +9014,22 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
         <v>48.388681349</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>54.928973389</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>50.7078844151</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>54.5039233576</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>55.7762923754</v>
       </c>
     </row>
@@ -9007,19 +9037,22 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
         <v>56.309953254</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>61.6169431812</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>61.7106618954</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>60.7918895915</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>62.6188787534</v>
       </c>
     </row>
@@ -9027,19 +9060,22 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
         <v>73.3613141322</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>59.8710054018</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>58.453679268</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>60.7502905635</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>61.9467393342</v>
       </c>
     </row>
@@ -9047,19 +9083,22 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
         <v>42.5260524709</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>49.0786385849</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>43.4439426478</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>44.6049659548</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>45.5810689559</v>
       </c>
     </row>
@@ -9067,19 +9106,22 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
         <v>33.8202722181</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>40.13267265</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>39.046460036</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>37.4889320099</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>37.2767427501</v>
       </c>
     </row>
@@ -9087,19 +9129,22 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
         <v>49.1227982704</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>55.6618800371</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>53.5243752737</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>51.5034672869</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>57.3147859373</v>
       </c>
     </row>
@@ -9107,19 +9152,22 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
         <v>35.3645924111</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>41.3232604965</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>36.3388059969</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>45.1127381414</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>44.7467700961</v>
       </c>
     </row>
@@ -9127,19 +9175,22 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
         <v>42.2791824411</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>55.0434089484</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>45.1509771968</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>47.3398395991</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>48.5138831526</v>
       </c>
     </row>
@@ -9147,37 +9198,43 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
         <v>52.589233523</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>58.5763982904</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>59.9493156791</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>57.3645812281</v>
       </c>
-      <c r="F18"/>
+      <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
         <v>59.6167323695</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>64.9908167782</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>60.4389566303</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>65.8943964996</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>68.2900063315</v>
       </c>
     </row>
@@ -9185,17 +9242,20 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20"/>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="n">
         <v>16.327213495</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>13.7449139549</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>12.9713993112</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>14.1670463711</v>
       </c>
     </row>
@@ -9203,19 +9263,22 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
         <v>55.7516656972</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>61.4157448682</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>65.6876843543</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>65.4602920407</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>63.9447937411</v>
       </c>
     </row>
@@ -9223,19 +9286,22 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
         <v>56.2452584331</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>63.614398426</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>62.7547218038</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>57.7234100353</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>60.6126172442</v>
       </c>
     </row>
@@ -9243,19 +9309,22 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
         <v>48.2902966948</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>52.8023447602</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>54.2257036188</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>51.3043605335</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>53.2685702067</v>
       </c>
     </row>
@@ -9263,19 +9332,22 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
         <v>56.5099987356</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>59.329760437</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>65.4470223961</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>62.071670189</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>63.3382135456</v>
       </c>
     </row>
@@ -9283,19 +9355,22 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
         <v>47.529005314</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>47.5121648156</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>40.3552407211</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>44.9088189377</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>55.1554294293</v>
       </c>
     </row>
@@ -9303,19 +9378,22 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
         <v>41.9963486275</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>47.1187252033</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>37.6923707325</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>46.7914656398</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>55.0368363252</v>
       </c>
     </row>
@@ -9323,17 +9401,20 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
         <v>62.241873283</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>64.6068957931</v>
       </c>
-      <c r="D27"/>
-      <c r="E27" t="n">
+      <c r="E27"/>
+      <c r="F27" t="n">
         <v>63.3541147953</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>63.8715537557</v>
       </c>
     </row>
@@ -9341,17 +9422,20 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
         <v>44.9407361187</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>51.4664447509</v>
       </c>
-      <c r="D28"/>
-      <c r="E28" t="n">
+      <c r="E28"/>
+      <c r="F28" t="n">
         <v>42.219411998</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>50.5514073147</v>
       </c>
     </row>
@@ -9359,19 +9443,22 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
         <v>56.874193089</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>59.4833423968</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>61.3088618824</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>58.5147174394</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>62.7796118893</v>
       </c>
     </row>
@@ -9379,19 +9466,22 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n">
         <v>33.4113381822</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>39.8072874171</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>40.6852210485</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>40.1734362921</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>42.0437643435</v>
       </c>
     </row>
@@ -9399,19 +9489,22 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
         <v>27.9869406766</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>37.8205010997</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>30.2590282832</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>35.9857083217</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>39.2068028761</v>
       </c>
     </row>
@@ -9419,19 +9512,22 @@
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
         <v>30.4744186677</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>34.6025177582</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>37.7489363332</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>46.3123234889</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>50.0272613137</v>
       </c>
     </row>
@@ -9439,17 +9535,20 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
         <v>46.0004695081</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>47.2322481126</v>
       </c>
-      <c r="D33"/>
-      <c r="E33" t="n">
+      <c r="E33"/>
+      <c r="F33" t="n">
         <v>46.9974652433</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>49.2202025176</v>
       </c>
     </row>
@@ -9457,19 +9556,22 @@
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
         <v>46.124551082</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>47.5970065264</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>48.293777262</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>52.8815874994</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>55.5801931366</v>
       </c>
     </row>
@@ -9477,19 +9579,22 @@
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n">
         <v>34.236604594</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>30.609685118</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>40.1776106148</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>37.9049621105</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>40.7921748665</v>
       </c>
     </row>
@@ -9497,19 +9602,22 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
         <v>47.1712183668</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>51.3153743245</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>48.9800723774</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>48.9001728019</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>48.5661870049</v>
       </c>
     </row>
@@ -9517,19 +9625,22 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
         <v>34.6660272393</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>40.4120450227</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>39.2992435004</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>50.7201300305</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>52.1957774828</v>
       </c>
     </row>
@@ -9537,19 +9648,22 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n">
         <v>50.8609833646</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>51.411157026</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>44.9949454285</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>50.4231387158</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>57.3261644539</v>
       </c>
     </row>
@@ -9557,19 +9671,22 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
         <v>46.1072768834</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>48.9513290238</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>50.7936048529</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>53.0855598505</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>56.1003041327</v>
       </c>
     </row>
@@ -9577,19 +9694,22 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
         <v>44.8973450585</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>47.1164007374</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>42.7537390254</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>48.4363515743</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>50.7649958407</v>
       </c>
     </row>
@@ -9597,19 +9717,22 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
         <v>37.2349162277</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>51.5475350497</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>49.0037471878</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>54.3278399919</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>56.6989983437</v>
       </c>
     </row>
@@ -9617,19 +9740,22 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n">
         <v>40.3266938584</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>46.4034198923</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>41.3511394739</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>51.4711049695</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>50.6642862644</v>
       </c>
     </row>
@@ -9637,19 +9763,22 @@
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
         <v>46.4310343918</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>47.4414267612</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>46.4636438851</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>54.4112149409</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>59.9726654341</v>
       </c>
     </row>
@@ -9657,19 +9786,22 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
         <v>29.1629430842</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>33.5466074424</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>40.6195804924</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>52.5614961625</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>52.5929863554</v>
       </c>
     </row>
@@ -9677,19 +9809,22 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
         <v>46.8095797284</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>52.8710044673</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>50.1621829483</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>55.7266628869</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>55.969806966</v>
       </c>
     </row>
@@ -9697,19 +9832,22 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="n">
         <v>55.5188099628</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>61.3391742862</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>59.2640162488</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>63.3595238624</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>62.7020788592</v>
       </c>
     </row>
@@ -9717,19 +9855,22 @@
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n">
         <v>50.391486062</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>53.256920208</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>54.0555237165</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>59.4863964471</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>60.9581916831</v>
       </c>
     </row>
@@ -9737,19 +9878,22 @@
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="n">
         <v>52.7756828698</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>58.4803700417</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>62.5324496584</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>64.9571513418</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>67.1788008256</v>
       </c>
     </row>
@@ -9757,19 +9901,22 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="n">
         <v>46.3953563785</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>45.7041726709</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>40.834561815</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>43.7249918927</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>47.9848541906</v>
       </c>
     </row>
@@ -9777,19 +9924,22 @@
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="n">
         <v>57.3739025388</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>61.5475813887</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>58.7457836109</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>63.3343227672</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>63.3430738826</v>
       </c>
     </row>
@@ -9797,19 +9947,22 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="n">
         <v>49.9719342104</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>53.5434719141</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>53.4638221694</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>62.0185546666</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>62.7904584462</v>
       </c>
     </row>
@@ -9817,19 +9970,22 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="n">
         <v>42.92318362</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>36.0786204765</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>31.5969394406</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>42.6413151476</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>44.7488053009</v>
       </c>
     </row>
@@ -9837,37 +9993,43 @@
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="n">
         <v>59.2994488314</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>65.851862055</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>62.1926972611</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>69.1126529368</v>
       </c>
-      <c r="F53"/>
+      <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="n">
         <v>50.4206716256</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>43.6605063285</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>41.85258506</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>45.7764370513</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>47.7623156252</v>
       </c>
     </row>
@@ -9875,19 +10037,22 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="n">
         <v>42.9948327014</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>40.9713146616</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>46.6819634724</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>45.9359429971</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>47.2681549326</v>
       </c>
     </row>
@@ -9895,19 +10060,22 @@
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
         <v>46.9554237997</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>48.920914646</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>51.5730275135</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>56.4194359225</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>57.6124854056</v>
       </c>
     </row>
@@ -9915,19 +10083,22 @@
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
         <v>25.6766436266</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>30.6050357478</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>24.4208104625</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>31.9417476357</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>33.5337891401</v>
       </c>
     </row>
@@ -9935,19 +10106,22 @@
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
         <v>44.2885143979</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>36.8781798178</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>34.8419608036</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>39.3550561338</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>40.7926387109</v>
       </c>
     </row>
@@ -9955,19 +10129,22 @@
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="n">
         <v>49.6427205759</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>54.3768719282</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>44.5848963084</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>54.5120076367</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>57.0825850569</v>
       </c>
     </row>
@@ -9975,19 +10152,22 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="n">
         <v>36.0392002036</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>51.5993693846</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>42.7831059905</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>38.3983361885</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>44.9080690866</v>
       </c>
     </row>
@@ -9995,19 +10175,22 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="n">
         <v>34.9814353193</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>38.7172981005</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>40.8244165476</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>41.1920370665</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>42.9967853491</v>
       </c>
     </row>
@@ -10015,19 +10198,22 @@
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="n">
         <v>19.5911810868</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>24.8552156429</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>26.177818646</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>34.3592580092</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>39.0206388701</v>
       </c>
     </row>
@@ -10035,17 +10221,20 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="n">
         <v>41.3470604245</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>46.2632535505</v>
       </c>
-      <c r="D63"/>
-      <c r="E63" t="n">
+      <c r="E63"/>
+      <c r="F63" t="n">
         <v>39.0646433036</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>46.7673245216</v>
       </c>
     </row>
@@ -10053,35 +10242,41 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="n">
         <v>25.373234666</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>26.6990619917</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>25.3439888065</v>
       </c>
-      <c r="E64"/>
       <c r="F64"/>
+      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="n">
         <v>32.3600185259</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>38.1432538174</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>38.6508813072</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>39.9266790509</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>41.2609883048</v>
       </c>
     </row>
@@ -10089,19 +10284,22 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="n">
         <v>38.1654395749</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>39.0735852797</v>
-      </c>
-      <c r="D66" t="n">
-        <v>49.9733459788</v>
       </c>
       <c r="E66" t="n">
         <v>49.9733459788</v>
       </c>
       <c r="F66" t="n">
+        <v>49.9733459788</v>
+      </c>
+      <c r="G66" t="n">
         <v>52.3269330788</v>
       </c>
     </row>
@@ -10109,19 +10307,22 @@
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n">
         <v>23.5820371315</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>31.4572999972</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>31.947003172</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>31.2438836443</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>31.0281984723</v>
       </c>
     </row>
@@ -10129,19 +10330,22 @@
       <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n">
         <v>26.2042893203</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>34.4581586531</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>35.9196031368</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>40.0918771091</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>44.0470529913</v>
       </c>
     </row>
@@ -10149,19 +10353,22 @@
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="n">
         <v>41.4387813107</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>42.250529805</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>38.8573879915</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>43.3725701409</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>45.7294362854</v>
       </c>
     </row>
@@ -10169,19 +10376,22 @@
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="n">
         <v>31.3793739976</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>30.6590622491</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>23.9804244274</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>30.1923512198</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>34.403810356</v>
       </c>
     </row>
@@ -10189,19 +10399,22 @@
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="n">
         <v>35.9697909861</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>39.9175918285</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>34.3390286907</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>46.8608603578</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>47.8416745743</v>
       </c>
     </row>
@@ -10209,17 +10422,20 @@
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72"/>
-      <c r="C72" t="n">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72" t="n">
         <v>35.7575277792</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>39.1922607965</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>41.7200894218</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>40.5092768401</v>
       </c>
     </row>
@@ -10227,17 +10443,20 @@
       <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B73"/>
-      <c r="C73" t="n">
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73" t="n">
         <v>40.901556586</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>38.6026386115</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>46.5704617668</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>48.1084553333</v>
       </c>
     </row>
@@ -10245,19 +10464,22 @@
       <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="n">
         <v>24.9976259874</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>23.4329204138</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>35.1523720374</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>36.018986647</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>37.0703551056</v>
       </c>
     </row>
@@ -10265,19 +10487,22 @@
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="n">
         <v>46.9674975767</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>46.158805787</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>42.205706727</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>40.9806411456</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>50.4036309318</v>
       </c>
     </row>
@@ -10285,19 +10510,22 @@
       <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="n">
         <v>45.42664328</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>45.7458865804</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>43.1503007186</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>60.6338411781</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>62.3771544014</v>
       </c>
     </row>
@@ -10305,19 +10533,22 @@
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="n">
         <v>45.4366938375</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>45.3440966359</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>52.3073689391</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>59.8573979084</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>60.2983908698</v>
       </c>
     </row>
@@ -10325,17 +10556,20 @@
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78"/>
-      <c r="C78" t="n">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78" t="n">
         <v>41.2109440039</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>32.5624679924</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>44.5196315188</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>45.5117260753</v>
       </c>
     </row>
@@ -10343,19 +10577,22 @@
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="n">
         <v>48.2794797262</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>50.3714076414</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>48.3772610677</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>42.4345620959</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>51.5810705199</v>
       </c>
     </row>
@@ -10363,17 +10600,20 @@
       <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80"/>
-      <c r="C80" t="n">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80" t="n">
         <v>24.4402701396</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>17.3447955729</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>25.4096811745</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>25.9044447721</v>
       </c>
     </row>
@@ -10381,19 +10621,22 @@
       <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="n">
         <v>56.5719544143</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>54.9111161001</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>55.1704546613</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>57.1564092885</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>58.9343222995</v>
       </c>
     </row>
@@ -10401,19 +10644,22 @@
       <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="n">
         <v>33.637581338</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>22.0725231666</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>28.0747333992</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>37.8184759417</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>45.2867112533</v>
       </c>
     </row>
@@ -10421,19 +10667,22 @@
       <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="n">
         <v>17.8833337655</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>20.9767861707</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>25.5103943705</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>26.8262519827</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>29.709158366</v>
       </c>
     </row>
@@ -10441,17 +10690,20 @@
       <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="n">
         <v>34.6255613358</v>
       </c>
-      <c r="C84"/>
-      <c r="D84" t="n">
+      <c r="D84"/>
+      <c r="E84" t="n">
         <v>39.1806651601</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>35.5829567068</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>44.1985523849</v>
       </c>
     </row>
@@ -10459,19 +10711,22 @@
       <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="n">
         <v>42.213007959</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>36.766257638</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>39.9137969744</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>38.1537041382</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>40.9243473047</v>
       </c>
     </row>
@@ -10479,17 +10734,20 @@
       <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B86"/>
-      <c r="C86" t="n">
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86" t="n">
         <v>50.4822756912</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>49.3470241896</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>48.2370543799</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>52.7402628134</v>
       </c>
     </row>
@@ -10497,19 +10755,22 @@
       <c r="A87" t="s">
         <v>91</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="n">
         <v>31.3458684211</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>40.7071480012</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>40.9001713325</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>49.5992383173</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>54.3666198656</v>
       </c>
     </row>
@@ -10517,19 +10778,22 @@
       <c r="A88" t="s">
         <v>92</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="n">
         <v>51.7881607957</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>58.7937623095</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>52.4221714137</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>58.3011512103</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>60.5110695448</v>
       </c>
     </row>
@@ -10537,19 +10801,22 @@
       <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="n">
         <v>48.6563018301</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>52.6080813459</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>41.3136862893</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>40.9591597145</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>46.5751484293</v>
       </c>
     </row>
@@ -10557,17 +10824,20 @@
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90"/>
-      <c r="C90" t="n">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90" t="n">
         <v>64.3679353864</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>59.4648386205</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>53.9068825876</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>56.0377072911</v>
       </c>
     </row>
@@ -10575,19 +10845,22 @@
       <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="n">
         <v>46.2993343675</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>47.9607567881</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>42.9139924501</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>43.3452945199</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>46.9597515395</v>
       </c>
     </row>
@@ -10595,19 +10868,22 @@
       <c r="A92" t="s">
         <v>96</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="n">
         <v>48.5481892051</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>50.802175267</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>47.3025149708</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>51.5360627897</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>50.3736590538</v>
       </c>
     </row>
@@ -10615,19 +10891,22 @@
       <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="n">
         <v>49.3767014073</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>52.7283939981</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>46.6358767172</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>52.1176067618</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>54.6013720192</v>
       </c>
     </row>
@@ -10635,19 +10914,22 @@
       <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="n">
         <v>48.0042384436</v>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>44.5196462299</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>42.725159191</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>53.0999496532</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>54.6626118829</v>
       </c>
     </row>
@@ -10655,17 +10937,20 @@
       <c r="A95" t="s">
         <v>99</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="n">
         <v>37.4785817579</v>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>36.1806416196</v>
       </c>
-      <c r="D95"/>
-      <c r="E95" t="n">
+      <c r="E95"/>
+      <c r="F95" t="n">
         <v>41.0710624727</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>49.6955245634</v>
       </c>
     </row>
@@ -10673,17 +10958,20 @@
       <c r="A96" t="s">
         <v>100</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="n">
         <v>58.7578276738</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>64.3279065692</v>
       </c>
-      <c r="D96"/>
-      <c r="E96" t="n">
+      <c r="E96"/>
+      <c r="F96" t="n">
         <v>55.4514807894</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>59.7015196228</v>
       </c>
     </row>
@@ -10691,15 +10979,18 @@
       <c r="A97" t="s">
         <v>101</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="n">
         <v>50.4286547413</v>
       </c>
-      <c r="C97"/>
       <c r="D97"/>
-      <c r="E97" t="n">
+      <c r="E97"/>
+      <c r="F97" t="n">
         <v>59.458502063</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>59.4825900235</v>
       </c>
     </row>
@@ -10707,17 +10998,20 @@
       <c r="A98" t="s">
         <v>102</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="n">
         <v>51.6122817877</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>58.4845121137</v>
       </c>
-      <c r="D98"/>
-      <c r="E98" t="n">
+      <c r="E98"/>
+      <c r="F98" t="n">
         <v>59.9186842868</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>63.0311481407</v>
       </c>
     </row>
@@ -10725,19 +11019,22 @@
       <c r="A99" t="s">
         <v>103</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="n">
         <v>42.9934437833</v>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>51.3027701254</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>49.8203807338</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>54.4232873101</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>60.0925975746</v>
       </c>
     </row>
@@ -10745,19 +11042,22 @@
       <c r="A100" t="s">
         <v>104</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="n">
         <v>48.1078251471</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>48.4304908493</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>45.5593461351</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>55.6580557826</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>57.5718583805</v>
       </c>
     </row>
@@ -10765,19 +11065,22 @@
       <c r="A101" t="s">
         <v>105</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="n">
         <v>38.4159728607</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>42.4922494315</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>42.821292494</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>43.4083703627</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>42.7628367093</v>
       </c>
     </row>
@@ -10785,19 +11088,22 @@
       <c r="A102" t="s">
         <v>106</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="n">
         <v>26.7234500882</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>30.9273016241</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>27.6034382773</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>29.7055751422</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>34.65002163</v>
       </c>
     </row>
@@ -10805,19 +11111,22 @@
       <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="n">
         <v>49.7844579343</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>57.6773658846</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>49.9374324301</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>53.1236227274</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>55.0389267745</v>
       </c>
     </row>
@@ -10825,19 +11134,22 @@
       <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="n">
         <v>47.3074177281</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>52.1856444977</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>49.4991857839</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>56.9964170745</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>59.2971103729</v>
       </c>
     </row>
@@ -10845,19 +11157,22 @@
       <c r="A105" t="s">
         <v>109</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="n">
         <v>41.6891788901</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>39.8230600614</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>41.0763768819</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>44.7956382858</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>46.9322794966</v>
       </c>
     </row>
@@ -10865,19 +11180,22 @@
       <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="n">
         <v>38.267471012</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>41.6354909622</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>42.2044926778</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>45.8754836204</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>46.6740533308</v>
       </c>
     </row>
@@ -10885,19 +11203,22 @@
       <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="n">
         <v>40.6121894896</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>43.5418415763</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>39.207960389</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>43.4916380472</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>45.943625314</v>
       </c>
     </row>
@@ -10905,19 +11226,22 @@
       <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="n">
         <v>41.7330870333</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>38.6503000005</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>40.2000028969</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>43.282858914</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>46.9253974284</v>
       </c>
     </row>
@@ -10925,19 +11249,22 @@
       <c r="A109" t="s">
         <v>113</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="n">
         <v>57.9819324675</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>65.724905606</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>60.7903135082</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>62.1880850024</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>65.2549924923</v>
       </c>
     </row>
@@ -10945,19 +11272,22 @@
       <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="n">
         <v>34.5661468193</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>32.8094842038</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>30.8996061102</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>32.8671937389</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>34.2482607961</v>
       </c>
     </row>
@@ -10965,19 +11295,22 @@
       <c r="A111" t="s">
         <v>115</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="n">
         <v>38.0585731639</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>43.2178350239</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>42.44261078</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>47.0806690128</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>49.9749725875</v>
       </c>
     </row>
@@ -10985,17 +11318,20 @@
       <c r="A112" t="s">
         <v>116</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="n">
         <v>59.3197453449</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>59.946186777</v>
       </c>
-      <c r="D112"/>
-      <c r="E112" t="n">
+      <c r="E112"/>
+      <c r="F112" t="n">
         <v>64.1658687317</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>64.3498081439</v>
       </c>
     </row>

--- a/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
+++ b/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
@@ -8816,21 +8816,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8838,22 +8835,19 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" t="n">
+        <v>16.4535010229</v>
       </c>
       <c r="C2" t="n">
-        <v>16.4535010229</v>
+        <v>24.6961602632</v>
       </c>
       <c r="D2" t="n">
-        <v>24.6961602632</v>
+        <v>22.2784870265</v>
       </c>
       <c r="E2" t="n">
-        <v>22.2784870265</v>
+        <v>23.7770751788</v>
       </c>
       <c r="F2" t="n">
-        <v>23.7770751788</v>
-      </c>
-      <c r="G2" t="n">
         <v>22.5963154015</v>
       </c>
     </row>
@@ -8861,22 +8855,19 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3" t="n">
+        <v>44.5898591292</v>
       </c>
       <c r="C3" t="n">
-        <v>44.5898591292</v>
+        <v>48.3968217306</v>
       </c>
       <c r="D3" t="n">
-        <v>48.3968217306</v>
+        <v>46.1678278434</v>
       </c>
       <c r="E3" t="n">
-        <v>46.1678278434</v>
+        <v>45.7984509403</v>
       </c>
       <c r="F3" t="n">
-        <v>45.7984509403</v>
-      </c>
-      <c r="G3" t="n">
         <v>49.3364045392</v>
       </c>
     </row>
@@ -8884,22 +8875,19 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4" t="n">
+        <v>56.7738035064</v>
       </c>
       <c r="C4" t="n">
-        <v>56.7738035064</v>
+        <v>58.4004661849</v>
       </c>
       <c r="D4" t="n">
-        <v>58.4004661849</v>
+        <v>61.0851440271</v>
       </c>
       <c r="E4" t="n">
-        <v>61.0851440271</v>
+        <v>67.0524221442</v>
       </c>
       <c r="F4" t="n">
-        <v>67.0524221442</v>
-      </c>
-      <c r="G4" t="n">
         <v>67.6014001738</v>
       </c>
     </row>
@@ -8907,20 +8895,17 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5" t="n">
+        <v>47.0132073453</v>
       </c>
       <c r="C5" t="n">
-        <v>47.0132073453</v>
-      </c>
-      <c r="D5" t="n">
         <v>51.8238758354</v>
       </c>
-      <c r="E5"/>
+      <c r="D5"/>
+      <c r="E5" t="n">
+        <v>39.8792886346</v>
+      </c>
       <c r="F5" t="n">
-        <v>39.8792886346</v>
-      </c>
-      <c r="G5" t="n">
         <v>45.1300589945</v>
       </c>
     </row>
@@ -8928,22 +8913,19 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6" t="n">
+        <v>46.452251998</v>
       </c>
       <c r="C6" t="n">
-        <v>46.452251998</v>
+        <v>55.9770749533</v>
       </c>
       <c r="D6" t="n">
-        <v>55.9770749533</v>
+        <v>50.3259267969</v>
       </c>
       <c r="E6" t="n">
-        <v>50.3259267969</v>
+        <v>57.0475191712</v>
       </c>
       <c r="F6" t="n">
-        <v>57.0475191712</v>
-      </c>
-      <c r="G6" t="n">
         <v>59.913136309</v>
       </c>
     </row>
@@ -8951,22 +8933,19 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7" t="n">
+        <v>47.2818437153</v>
       </c>
       <c r="C7" t="n">
-        <v>47.2818437153</v>
+        <v>52.8800954715</v>
       </c>
       <c r="D7" t="n">
-        <v>52.8800954715</v>
+        <v>50.8793294418</v>
       </c>
       <c r="E7" t="n">
-        <v>50.8793294418</v>
+        <v>53.982733801</v>
       </c>
       <c r="F7" t="n">
-        <v>53.982733801</v>
-      </c>
-      <c r="G7" t="n">
         <v>55.7921884937</v>
       </c>
     </row>
@@ -8974,18 +8953,15 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="n">
         <v>59.8619505062</v>
       </c>
+      <c r="C8"/>
       <c r="D8"/>
-      <c r="E8"/>
+      <c r="E8" t="n">
+        <v>59.1366799004</v>
+      </c>
       <c r="F8" t="n">
-        <v>59.1366799004</v>
-      </c>
-      <c r="G8" t="n">
         <v>74.577191861</v>
       </c>
     </row>
@@ -8993,20 +8969,17 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
+      <c r="B9" t="n">
+        <v>42.4583566187</v>
       </c>
       <c r="C9" t="n">
-        <v>42.4583566187</v>
-      </c>
-      <c r="D9" t="n">
         <v>47.5203476473</v>
       </c>
-      <c r="E9"/>
+      <c r="D9"/>
+      <c r="E9" t="n">
+        <v>48.4640116973</v>
+      </c>
       <c r="F9" t="n">
-        <v>48.4640116973</v>
-      </c>
-      <c r="G9" t="n">
         <v>50.6957520071</v>
       </c>
     </row>
@@ -9014,22 +8987,19 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
+      <c r="B10" t="n">
+        <v>48.388681349</v>
       </c>
       <c r="C10" t="n">
-        <v>48.388681349</v>
+        <v>54.928973389</v>
       </c>
       <c r="D10" t="n">
-        <v>54.928973389</v>
+        <v>50.7078844151</v>
       </c>
       <c r="E10" t="n">
-        <v>50.7078844151</v>
+        <v>54.5039233576</v>
       </c>
       <c r="F10" t="n">
-        <v>54.5039233576</v>
-      </c>
-      <c r="G10" t="n">
         <v>55.7762923754</v>
       </c>
     </row>
@@ -9037,22 +9007,19 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
+      <c r="B11" t="n">
+        <v>56.309953254</v>
       </c>
       <c r="C11" t="n">
-        <v>56.309953254</v>
+        <v>61.6169431812</v>
       </c>
       <c r="D11" t="n">
-        <v>61.6169431812</v>
+        <v>61.7106618954</v>
       </c>
       <c r="E11" t="n">
-        <v>61.7106618954</v>
+        <v>60.7918895915</v>
       </c>
       <c r="F11" t="n">
-        <v>60.7918895915</v>
-      </c>
-      <c r="G11" t="n">
         <v>62.6188787534</v>
       </c>
     </row>
@@ -9060,22 +9027,19 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
+      <c r="B12" t="n">
+        <v>73.3613141322</v>
       </c>
       <c r="C12" t="n">
-        <v>73.3613141322</v>
+        <v>59.8710054018</v>
       </c>
       <c r="D12" t="n">
-        <v>59.8710054018</v>
+        <v>58.453679268</v>
       </c>
       <c r="E12" t="n">
-        <v>58.453679268</v>
+        <v>60.7502905635</v>
       </c>
       <c r="F12" t="n">
-        <v>60.7502905635</v>
-      </c>
-      <c r="G12" t="n">
         <v>61.9467393342</v>
       </c>
     </row>
@@ -9083,22 +9047,19 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
+      <c r="B13" t="n">
+        <v>42.5260524709</v>
       </c>
       <c r="C13" t="n">
-        <v>42.5260524709</v>
+        <v>49.0786385849</v>
       </c>
       <c r="D13" t="n">
-        <v>49.0786385849</v>
+        <v>43.4439426478</v>
       </c>
       <c r="E13" t="n">
-        <v>43.4439426478</v>
+        <v>44.6049659548</v>
       </c>
       <c r="F13" t="n">
-        <v>44.6049659548</v>
-      </c>
-      <c r="G13" t="n">
         <v>45.5810689559</v>
       </c>
     </row>
@@ -9106,22 +9067,19 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
+      <c r="B14" t="n">
+        <v>33.8202722181</v>
       </c>
       <c r="C14" t="n">
-        <v>33.8202722181</v>
+        <v>40.13267265</v>
       </c>
       <c r="D14" t="n">
-        <v>40.13267265</v>
+        <v>39.046460036</v>
       </c>
       <c r="E14" t="n">
-        <v>39.046460036</v>
+        <v>37.4889320099</v>
       </c>
       <c r="F14" t="n">
-        <v>37.4889320099</v>
-      </c>
-      <c r="G14" t="n">
         <v>37.2767427501</v>
       </c>
     </row>
@@ -9129,22 +9087,19 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
+      <c r="B15" t="n">
+        <v>49.1227982704</v>
       </c>
       <c r="C15" t="n">
-        <v>49.1227982704</v>
+        <v>55.6618800371</v>
       </c>
       <c r="D15" t="n">
-        <v>55.6618800371</v>
+        <v>53.5243752737</v>
       </c>
       <c r="E15" t="n">
-        <v>53.5243752737</v>
+        <v>51.5034672869</v>
       </c>
       <c r="F15" t="n">
-        <v>51.5034672869</v>
-      </c>
-      <c r="G15" t="n">
         <v>57.3147859373</v>
       </c>
     </row>
@@ -9152,22 +9107,19 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
+      <c r="B16" t="n">
+        <v>35.3645924111</v>
       </c>
       <c r="C16" t="n">
-        <v>35.3645924111</v>
+        <v>41.3232604965</v>
       </c>
       <c r="D16" t="n">
-        <v>41.3232604965</v>
+        <v>36.3388059969</v>
       </c>
       <c r="E16" t="n">
-        <v>36.3388059969</v>
+        <v>45.1127381414</v>
       </c>
       <c r="F16" t="n">
-        <v>45.1127381414</v>
-      </c>
-      <c r="G16" t="n">
         <v>44.7467700961</v>
       </c>
     </row>
@@ -9175,22 +9127,19 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
+      <c r="B17" t="n">
+        <v>42.2791824411</v>
       </c>
       <c r="C17" t="n">
-        <v>42.2791824411</v>
+        <v>55.0434089484</v>
       </c>
       <c r="D17" t="n">
-        <v>55.0434089484</v>
+        <v>45.1509771968</v>
       </c>
       <c r="E17" t="n">
-        <v>45.1509771968</v>
+        <v>47.3398395991</v>
       </c>
       <c r="F17" t="n">
-        <v>47.3398395991</v>
-      </c>
-      <c r="G17" t="n">
         <v>48.5138831526</v>
       </c>
     </row>
@@ -9198,43 +9147,37 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
+      <c r="B18" t="n">
+        <v>52.589233523</v>
       </c>
       <c r="C18" t="n">
-        <v>52.589233523</v>
+        <v>58.5763982904</v>
       </c>
       <c r="D18" t="n">
-        <v>58.5763982904</v>
+        <v>59.9493156791</v>
       </c>
       <c r="E18" t="n">
-        <v>59.9493156791</v>
-      </c>
-      <c r="F18" t="n">
         <v>57.3645812281</v>
       </c>
-      <c r="G18"/>
+      <c r="F18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
+      <c r="B19" t="n">
+        <v>59.6167323695</v>
       </c>
       <c r="C19" t="n">
-        <v>59.6167323695</v>
+        <v>64.9908167782</v>
       </c>
       <c r="D19" t="n">
-        <v>64.9908167782</v>
+        <v>60.4389566303</v>
       </c>
       <c r="E19" t="n">
-        <v>60.4389566303</v>
+        <v>65.8943964996</v>
       </c>
       <c r="F19" t="n">
-        <v>65.8943964996</v>
-      </c>
-      <c r="G19" t="n">
         <v>68.2900063315</v>
       </c>
     </row>
@@ -9242,20 +9185,17 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20"/>
+      <c r="B20"/>
+      <c r="C20" t="n">
+        <v>16.327213495</v>
+      </c>
       <c r="D20" t="n">
-        <v>16.327213495</v>
+        <v>13.7449139549</v>
       </c>
       <c r="E20" t="n">
-        <v>13.7449139549</v>
+        <v>12.9713993112</v>
       </c>
       <c r="F20" t="n">
-        <v>12.9713993112</v>
-      </c>
-      <c r="G20" t="n">
         <v>14.1670463711</v>
       </c>
     </row>
@@ -9263,22 +9203,19 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
+      <c r="B21" t="n">
+        <v>55.7516656972</v>
       </c>
       <c r="C21" t="n">
-        <v>55.7516656972</v>
+        <v>61.4157448682</v>
       </c>
       <c r="D21" t="n">
-        <v>61.4157448682</v>
+        <v>65.6876843543</v>
       </c>
       <c r="E21" t="n">
-        <v>65.6876843543</v>
+        <v>65.4602920407</v>
       </c>
       <c r="F21" t="n">
-        <v>65.4602920407</v>
-      </c>
-      <c r="G21" t="n">
         <v>63.9447937411</v>
       </c>
     </row>
@@ -9286,22 +9223,19 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
+      <c r="B22" t="n">
+        <v>56.2452584331</v>
       </c>
       <c r="C22" t="n">
-        <v>56.2452584331</v>
+        <v>63.614398426</v>
       </c>
       <c r="D22" t="n">
-        <v>63.614398426</v>
+        <v>62.7547218038</v>
       </c>
       <c r="E22" t="n">
-        <v>62.7547218038</v>
+        <v>57.7234100353</v>
       </c>
       <c r="F22" t="n">
-        <v>57.7234100353</v>
-      </c>
-      <c r="G22" t="n">
         <v>60.6126172442</v>
       </c>
     </row>
@@ -9309,22 +9243,19 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
+      <c r="B23" t="n">
+        <v>48.2902966948</v>
       </c>
       <c r="C23" t="n">
-        <v>48.2902966948</v>
+        <v>52.8023447602</v>
       </c>
       <c r="D23" t="n">
-        <v>52.8023447602</v>
+        <v>54.2257036188</v>
       </c>
       <c r="E23" t="n">
-        <v>54.2257036188</v>
+        <v>51.3043605335</v>
       </c>
       <c r="F23" t="n">
-        <v>51.3043605335</v>
-      </c>
-      <c r="G23" t="n">
         <v>53.2685702067</v>
       </c>
     </row>
@@ -9332,22 +9263,19 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
+      <c r="B24" t="n">
+        <v>56.5099987356</v>
       </c>
       <c r="C24" t="n">
-        <v>56.5099987356</v>
+        <v>59.329760437</v>
       </c>
       <c r="D24" t="n">
-        <v>59.329760437</v>
+        <v>65.4470223961</v>
       </c>
       <c r="E24" t="n">
-        <v>65.4470223961</v>
+        <v>62.071670189</v>
       </c>
       <c r="F24" t="n">
-        <v>62.071670189</v>
-      </c>
-      <c r="G24" t="n">
         <v>63.3382135456</v>
       </c>
     </row>
@@ -9355,22 +9283,19 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
+      <c r="B25" t="n">
+        <v>47.529005314</v>
       </c>
       <c r="C25" t="n">
-        <v>47.529005314</v>
+        <v>47.5121648156</v>
       </c>
       <c r="D25" t="n">
-        <v>47.5121648156</v>
+        <v>40.3552407211</v>
       </c>
       <c r="E25" t="n">
-        <v>40.3552407211</v>
+        <v>44.9088189377</v>
       </c>
       <c r="F25" t="n">
-        <v>44.9088189377</v>
-      </c>
-      <c r="G25" t="n">
         <v>55.1554294293</v>
       </c>
     </row>
@@ -9378,22 +9303,19 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
+      <c r="B26" t="n">
+        <v>41.9963486275</v>
       </c>
       <c r="C26" t="n">
-        <v>41.9963486275</v>
+        <v>47.1187252033</v>
       </c>
       <c r="D26" t="n">
-        <v>47.1187252033</v>
+        <v>37.6923707325</v>
       </c>
       <c r="E26" t="n">
-        <v>37.6923707325</v>
+        <v>46.7914656398</v>
       </c>
       <c r="F26" t="n">
-        <v>46.7914656398</v>
-      </c>
-      <c r="G26" t="n">
         <v>55.0368363252</v>
       </c>
     </row>
@@ -9401,20 +9323,17 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
+      <c r="B27" t="n">
+        <v>62.241873283</v>
       </c>
       <c r="C27" t="n">
-        <v>62.241873283</v>
-      </c>
-      <c r="D27" t="n">
         <v>64.6068957931</v>
       </c>
-      <c r="E27"/>
+      <c r="D27"/>
+      <c r="E27" t="n">
+        <v>63.3541147953</v>
+      </c>
       <c r="F27" t="n">
-        <v>63.3541147953</v>
-      </c>
-      <c r="G27" t="n">
         <v>63.8715537557</v>
       </c>
     </row>
@@ -9422,20 +9341,17 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
+      <c r="B28" t="n">
+        <v>44.9407361187</v>
       </c>
       <c r="C28" t="n">
-        <v>44.9407361187</v>
-      </c>
-      <c r="D28" t="n">
         <v>51.4664447509</v>
       </c>
-      <c r="E28"/>
+      <c r="D28"/>
+      <c r="E28" t="n">
+        <v>42.219411998</v>
+      </c>
       <c r="F28" t="n">
-        <v>42.219411998</v>
-      </c>
-      <c r="G28" t="n">
         <v>50.5514073147</v>
       </c>
     </row>
@@ -9443,22 +9359,19 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
+      <c r="B29" t="n">
+        <v>56.874193089</v>
       </c>
       <c r="C29" t="n">
-        <v>56.874193089</v>
+        <v>59.4833423968</v>
       </c>
       <c r="D29" t="n">
-        <v>59.4833423968</v>
+        <v>61.3088618824</v>
       </c>
       <c r="E29" t="n">
-        <v>61.3088618824</v>
+        <v>58.5147174394</v>
       </c>
       <c r="F29" t="n">
-        <v>58.5147174394</v>
-      </c>
-      <c r="G29" t="n">
         <v>62.7796118893</v>
       </c>
     </row>
@@ -9466,22 +9379,19 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
+      <c r="B30" t="n">
+        <v>33.4113381822</v>
       </c>
       <c r="C30" t="n">
-        <v>33.4113381822</v>
+        <v>39.8072874171</v>
       </c>
       <c r="D30" t="n">
-        <v>39.8072874171</v>
+        <v>40.6852210485</v>
       </c>
       <c r="E30" t="n">
-        <v>40.6852210485</v>
+        <v>40.1734362921</v>
       </c>
       <c r="F30" t="n">
-        <v>40.1734362921</v>
-      </c>
-      <c r="G30" t="n">
         <v>42.0437643435</v>
       </c>
     </row>
@@ -9489,22 +9399,19 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
+      <c r="B31" t="n">
+        <v>27.9869406766</v>
       </c>
       <c r="C31" t="n">
-        <v>27.9869406766</v>
+        <v>37.8205010997</v>
       </c>
       <c r="D31" t="n">
-        <v>37.8205010997</v>
+        <v>30.2590282832</v>
       </c>
       <c r="E31" t="n">
-        <v>30.2590282832</v>
+        <v>35.9857083217</v>
       </c>
       <c r="F31" t="n">
-        <v>35.9857083217</v>
-      </c>
-      <c r="G31" t="n">
         <v>39.2068028761</v>
       </c>
     </row>
@@ -9512,22 +9419,19 @@
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
+      <c r="B32" t="n">
+        <v>30.4744186677</v>
       </c>
       <c r="C32" t="n">
-        <v>30.4744186677</v>
+        <v>34.6025177582</v>
       </c>
       <c r="D32" t="n">
-        <v>34.6025177582</v>
+        <v>37.7489363332</v>
       </c>
       <c r="E32" t="n">
-        <v>37.7489363332</v>
+        <v>46.3123234889</v>
       </c>
       <c r="F32" t="n">
-        <v>46.3123234889</v>
-      </c>
-      <c r="G32" t="n">
         <v>50.0272613137</v>
       </c>
     </row>
@@ -9535,20 +9439,17 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
+      <c r="B33" t="n">
+        <v>46.0004695081</v>
       </c>
       <c r="C33" t="n">
-        <v>46.0004695081</v>
-      </c>
-      <c r="D33" t="n">
         <v>47.2322481126</v>
       </c>
-      <c r="E33"/>
+      <c r="D33"/>
+      <c r="E33" t="n">
+        <v>46.9974652433</v>
+      </c>
       <c r="F33" t="n">
-        <v>46.9974652433</v>
-      </c>
-      <c r="G33" t="n">
         <v>49.2202025176</v>
       </c>
     </row>
@@ -9556,22 +9457,19 @@
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
+      <c r="B34" t="n">
+        <v>46.124551082</v>
       </c>
       <c r="C34" t="n">
-        <v>46.124551082</v>
+        <v>47.5970065264</v>
       </c>
       <c r="D34" t="n">
-        <v>47.5970065264</v>
+        <v>48.293777262</v>
       </c>
       <c r="E34" t="n">
-        <v>48.293777262</v>
+        <v>52.8815874994</v>
       </c>
       <c r="F34" t="n">
-        <v>52.8815874994</v>
-      </c>
-      <c r="G34" t="n">
         <v>55.5801931366</v>
       </c>
     </row>
@@ -9579,22 +9477,19 @@
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
+      <c r="B35" t="n">
+        <v>34.236604594</v>
       </c>
       <c r="C35" t="n">
-        <v>34.236604594</v>
+        <v>30.609685118</v>
       </c>
       <c r="D35" t="n">
-        <v>30.609685118</v>
+        <v>40.1776106148</v>
       </c>
       <c r="E35" t="n">
-        <v>40.1776106148</v>
+        <v>37.9049621105</v>
       </c>
       <c r="F35" t="n">
-        <v>37.9049621105</v>
-      </c>
-      <c r="G35" t="n">
         <v>40.7921748665</v>
       </c>
     </row>
@@ -9602,22 +9497,19 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
+      <c r="B36" t="n">
+        <v>47.1712183668</v>
       </c>
       <c r="C36" t="n">
-        <v>47.1712183668</v>
+        <v>51.3153743245</v>
       </c>
       <c r="D36" t="n">
-        <v>51.3153743245</v>
+        <v>48.9800723774</v>
       </c>
       <c r="E36" t="n">
-        <v>48.9800723774</v>
+        <v>48.9001728019</v>
       </c>
       <c r="F36" t="n">
-        <v>48.9001728019</v>
-      </c>
-      <c r="G36" t="n">
         <v>48.5661870049</v>
       </c>
     </row>
@@ -9625,22 +9517,19 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
+      <c r="B37" t="n">
+        <v>34.6660272393</v>
       </c>
       <c r="C37" t="n">
-        <v>34.6660272393</v>
+        <v>40.4120450227</v>
       </c>
       <c r="D37" t="n">
-        <v>40.4120450227</v>
+        <v>39.2992435004</v>
       </c>
       <c r="E37" t="n">
-        <v>39.2992435004</v>
+        <v>50.7201300305</v>
       </c>
       <c r="F37" t="n">
-        <v>50.7201300305</v>
-      </c>
-      <c r="G37" t="n">
         <v>52.1957774828</v>
       </c>
     </row>
@@ -9648,22 +9537,19 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
+      <c r="B38" t="n">
+        <v>50.8609833646</v>
       </c>
       <c r="C38" t="n">
-        <v>50.8609833646</v>
+        <v>51.411157026</v>
       </c>
       <c r="D38" t="n">
-        <v>51.411157026</v>
+        <v>44.9949454285</v>
       </c>
       <c r="E38" t="n">
-        <v>44.9949454285</v>
+        <v>50.4231387158</v>
       </c>
       <c r="F38" t="n">
-        <v>50.4231387158</v>
-      </c>
-      <c r="G38" t="n">
         <v>57.3261644539</v>
       </c>
     </row>
@@ -9671,22 +9557,19 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
+      <c r="B39" t="n">
+        <v>46.1072768834</v>
       </c>
       <c r="C39" t="n">
-        <v>46.1072768834</v>
+        <v>48.9513290238</v>
       </c>
       <c r="D39" t="n">
-        <v>48.9513290238</v>
+        <v>50.7936048529</v>
       </c>
       <c r="E39" t="n">
-        <v>50.7936048529</v>
+        <v>53.0855598505</v>
       </c>
       <c r="F39" t="n">
-        <v>53.0855598505</v>
-      </c>
-      <c r="G39" t="n">
         <v>56.1003041327</v>
       </c>
     </row>
@@ -9694,22 +9577,19 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
+      <c r="B40" t="n">
+        <v>44.8973450585</v>
       </c>
       <c r="C40" t="n">
-        <v>44.8973450585</v>
+        <v>47.1164007374</v>
       </c>
       <c r="D40" t="n">
-        <v>47.1164007374</v>
+        <v>42.7537390254</v>
       </c>
       <c r="E40" t="n">
-        <v>42.7537390254</v>
+        <v>48.4363515743</v>
       </c>
       <c r="F40" t="n">
-        <v>48.4363515743</v>
-      </c>
-      <c r="G40" t="n">
         <v>50.7649958407</v>
       </c>
     </row>
@@ -9717,22 +9597,19 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="s">
-        <v>6</v>
+      <c r="B41" t="n">
+        <v>37.2349162277</v>
       </c>
       <c r="C41" t="n">
-        <v>37.2349162277</v>
+        <v>51.5475350497</v>
       </c>
       <c r="D41" t="n">
-        <v>51.5475350497</v>
+        <v>49.0037471878</v>
       </c>
       <c r="E41" t="n">
-        <v>49.0037471878</v>
+        <v>54.3278399919</v>
       </c>
       <c r="F41" t="n">
-        <v>54.3278399919</v>
-      </c>
-      <c r="G41" t="n">
         <v>56.6989983437</v>
       </c>
     </row>
@@ -9740,22 +9617,19 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
+      <c r="B42" t="n">
+        <v>40.3266938584</v>
       </c>
       <c r="C42" t="n">
-        <v>40.3266938584</v>
+        <v>46.4034198923</v>
       </c>
       <c r="D42" t="n">
-        <v>46.4034198923</v>
+        <v>41.3511394739</v>
       </c>
       <c r="E42" t="n">
-        <v>41.3511394739</v>
+        <v>51.4711049695</v>
       </c>
       <c r="F42" t="n">
-        <v>51.4711049695</v>
-      </c>
-      <c r="G42" t="n">
         <v>50.6642862644</v>
       </c>
     </row>
@@ -9763,22 +9637,19 @@
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
+      <c r="B43" t="n">
+        <v>46.4310343918</v>
       </c>
       <c r="C43" t="n">
-        <v>46.4310343918</v>
+        <v>47.4414267612</v>
       </c>
       <c r="D43" t="n">
-        <v>47.4414267612</v>
+        <v>46.4636438851</v>
       </c>
       <c r="E43" t="n">
-        <v>46.4636438851</v>
+        <v>54.4112149409</v>
       </c>
       <c r="F43" t="n">
-        <v>54.4112149409</v>
-      </c>
-      <c r="G43" t="n">
         <v>59.9726654341</v>
       </c>
     </row>
@@ -9786,22 +9657,19 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
+      <c r="B44" t="n">
+        <v>29.1629430842</v>
       </c>
       <c r="C44" t="n">
-        <v>29.1629430842</v>
+        <v>33.5466074424</v>
       </c>
       <c r="D44" t="n">
-        <v>33.5466074424</v>
+        <v>40.6195804924</v>
       </c>
       <c r="E44" t="n">
-        <v>40.6195804924</v>
+        <v>52.5614961625</v>
       </c>
       <c r="F44" t="n">
-        <v>52.5614961625</v>
-      </c>
-      <c r="G44" t="n">
         <v>52.5929863554</v>
       </c>
     </row>
@@ -9809,22 +9677,19 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="s">
-        <v>6</v>
+      <c r="B45" t="n">
+        <v>46.8095797284</v>
       </c>
       <c r="C45" t="n">
-        <v>46.8095797284</v>
+        <v>52.8710044673</v>
       </c>
       <c r="D45" t="n">
-        <v>52.8710044673</v>
+        <v>50.1621829483</v>
       </c>
       <c r="E45" t="n">
-        <v>50.1621829483</v>
+        <v>55.7266628869</v>
       </c>
       <c r="F45" t="n">
-        <v>55.7266628869</v>
-      </c>
-      <c r="G45" t="n">
         <v>55.969806966</v>
       </c>
     </row>
@@ -9832,22 +9697,19 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
+      <c r="B46" t="n">
+        <v>55.5188099628</v>
       </c>
       <c r="C46" t="n">
-        <v>55.5188099628</v>
+        <v>61.3391742862</v>
       </c>
       <c r="D46" t="n">
-        <v>61.3391742862</v>
+        <v>59.2640162488</v>
       </c>
       <c r="E46" t="n">
-        <v>59.2640162488</v>
+        <v>63.3595238624</v>
       </c>
       <c r="F46" t="n">
-        <v>63.3595238624</v>
-      </c>
-      <c r="G46" t="n">
         <v>62.7020788592</v>
       </c>
     </row>
@@ -9855,22 +9717,19 @@
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
+      <c r="B47" t="n">
+        <v>50.391486062</v>
       </c>
       <c r="C47" t="n">
-        <v>50.391486062</v>
+        <v>53.256920208</v>
       </c>
       <c r="D47" t="n">
-        <v>53.256920208</v>
+        <v>54.0555237165</v>
       </c>
       <c r="E47" t="n">
-        <v>54.0555237165</v>
+        <v>59.4863964471</v>
       </c>
       <c r="F47" t="n">
-        <v>59.4863964471</v>
-      </c>
-      <c r="G47" t="n">
         <v>60.9581916831</v>
       </c>
     </row>
@@ -9878,22 +9737,19 @@
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
+      <c r="B48" t="n">
+        <v>52.7756828698</v>
       </c>
       <c r="C48" t="n">
-        <v>52.7756828698</v>
+        <v>58.4803700417</v>
       </c>
       <c r="D48" t="n">
-        <v>58.4803700417</v>
+        <v>62.5324496584</v>
       </c>
       <c r="E48" t="n">
-        <v>62.5324496584</v>
+        <v>64.9571513418</v>
       </c>
       <c r="F48" t="n">
-        <v>64.9571513418</v>
-      </c>
-      <c r="G48" t="n">
         <v>67.1788008256</v>
       </c>
     </row>
@@ -9901,22 +9757,19 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" t="s">
-        <v>6</v>
+      <c r="B49" t="n">
+        <v>46.3953563785</v>
       </c>
       <c r="C49" t="n">
-        <v>46.3953563785</v>
+        <v>45.7041726709</v>
       </c>
       <c r="D49" t="n">
-        <v>45.7041726709</v>
+        <v>40.834561815</v>
       </c>
       <c r="E49" t="n">
-        <v>40.834561815</v>
+        <v>43.7249918927</v>
       </c>
       <c r="F49" t="n">
-        <v>43.7249918927</v>
-      </c>
-      <c r="G49" t="n">
         <v>47.9848541906</v>
       </c>
     </row>
@@ -9924,22 +9777,19 @@
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" t="s">
-        <v>6</v>
+      <c r="B50" t="n">
+        <v>57.3739025388</v>
       </c>
       <c r="C50" t="n">
-        <v>57.3739025388</v>
+        <v>61.5475813887</v>
       </c>
       <c r="D50" t="n">
-        <v>61.5475813887</v>
+        <v>58.7457836109</v>
       </c>
       <c r="E50" t="n">
-        <v>58.7457836109</v>
+        <v>63.3343227672</v>
       </c>
       <c r="F50" t="n">
-        <v>63.3343227672</v>
-      </c>
-      <c r="G50" t="n">
         <v>63.3430738826</v>
       </c>
     </row>
@@ -9947,22 +9797,19 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" t="s">
-        <v>6</v>
+      <c r="B51" t="n">
+        <v>49.9719342104</v>
       </c>
       <c r="C51" t="n">
-        <v>49.9719342104</v>
+        <v>53.5434719141</v>
       </c>
       <c r="D51" t="n">
-        <v>53.5434719141</v>
+        <v>53.4638221694</v>
       </c>
       <c r="E51" t="n">
-        <v>53.4638221694</v>
+        <v>62.0185546666</v>
       </c>
       <c r="F51" t="n">
-        <v>62.0185546666</v>
-      </c>
-      <c r="G51" t="n">
         <v>62.7904584462</v>
       </c>
     </row>
@@ -9970,22 +9817,19 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
-        <v>6</v>
+      <c r="B52" t="n">
+        <v>42.92318362</v>
       </c>
       <c r="C52" t="n">
-        <v>42.92318362</v>
+        <v>36.0786204765</v>
       </c>
       <c r="D52" t="n">
-        <v>36.0786204765</v>
+        <v>31.5969394406</v>
       </c>
       <c r="E52" t="n">
-        <v>31.5969394406</v>
+        <v>42.6413151476</v>
       </c>
       <c r="F52" t="n">
-        <v>42.6413151476</v>
-      </c>
-      <c r="G52" t="n">
         <v>44.7488053009</v>
       </c>
     </row>
@@ -9993,43 +9837,37 @@
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" t="s">
-        <v>6</v>
+      <c r="B53" t="n">
+        <v>59.2994488314</v>
       </c>
       <c r="C53" t="n">
-        <v>59.2994488314</v>
+        <v>65.851862055</v>
       </c>
       <c r="D53" t="n">
-        <v>65.851862055</v>
+        <v>62.1926972611</v>
       </c>
       <c r="E53" t="n">
-        <v>62.1926972611</v>
-      </c>
-      <c r="F53" t="n">
         <v>69.1126529368</v>
       </c>
-      <c r="G53"/>
+      <c r="F53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="s">
-        <v>6</v>
+      <c r="B54" t="n">
+        <v>50.4206716256</v>
       </c>
       <c r="C54" t="n">
-        <v>50.4206716256</v>
+        <v>43.6605063285</v>
       </c>
       <c r="D54" t="n">
-        <v>43.6605063285</v>
+        <v>41.85258506</v>
       </c>
       <c r="E54" t="n">
-        <v>41.85258506</v>
+        <v>45.7764370513</v>
       </c>
       <c r="F54" t="n">
-        <v>45.7764370513</v>
-      </c>
-      <c r="G54" t="n">
         <v>47.7623156252</v>
       </c>
     </row>
@@ -10037,22 +9875,19 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="s">
-        <v>6</v>
+      <c r="B55" t="n">
+        <v>42.9948327014</v>
       </c>
       <c r="C55" t="n">
-        <v>42.9948327014</v>
+        <v>40.9713146616</v>
       </c>
       <c r="D55" t="n">
-        <v>40.9713146616</v>
+        <v>46.6819634724</v>
       </c>
       <c r="E55" t="n">
-        <v>46.6819634724</v>
+        <v>45.9359429971</v>
       </c>
       <c r="F55" t="n">
-        <v>45.9359429971</v>
-      </c>
-      <c r="G55" t="n">
         <v>47.2681549326</v>
       </c>
     </row>
@@ -10060,22 +9895,19 @@
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" t="s">
-        <v>6</v>
+      <c r="B56" t="n">
+        <v>46.9554237997</v>
       </c>
       <c r="C56" t="n">
-        <v>46.9554237997</v>
+        <v>48.920914646</v>
       </c>
       <c r="D56" t="n">
-        <v>48.920914646</v>
+        <v>51.5730275135</v>
       </c>
       <c r="E56" t="n">
-        <v>51.5730275135</v>
+        <v>56.4194359225</v>
       </c>
       <c r="F56" t="n">
-        <v>56.4194359225</v>
-      </c>
-      <c r="G56" t="n">
         <v>57.6124854056</v>
       </c>
     </row>
@@ -10083,22 +9915,19 @@
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="s">
-        <v>6</v>
+      <c r="B57" t="n">
+        <v>25.6766436266</v>
       </c>
       <c r="C57" t="n">
-        <v>25.6766436266</v>
+        <v>30.6050357478</v>
       </c>
       <c r="D57" t="n">
-        <v>30.6050357478</v>
+        <v>24.4208104625</v>
       </c>
       <c r="E57" t="n">
-        <v>24.4208104625</v>
+        <v>31.9417476357</v>
       </c>
       <c r="F57" t="n">
-        <v>31.9417476357</v>
-      </c>
-      <c r="G57" t="n">
         <v>33.5337891401</v>
       </c>
     </row>
@@ -10106,22 +9935,19 @@
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" t="s">
-        <v>6</v>
+      <c r="B58" t="n">
+        <v>44.2885143979</v>
       </c>
       <c r="C58" t="n">
-        <v>44.2885143979</v>
+        <v>36.8781798178</v>
       </c>
       <c r="D58" t="n">
-        <v>36.8781798178</v>
+        <v>34.8419608036</v>
       </c>
       <c r="E58" t="n">
-        <v>34.8419608036</v>
+        <v>39.3550561338</v>
       </c>
       <c r="F58" t="n">
-        <v>39.3550561338</v>
-      </c>
-      <c r="G58" t="n">
         <v>40.7926387109</v>
       </c>
     </row>
@@ -10129,22 +9955,19 @@
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
+      <c r="B59" t="n">
+        <v>49.6427205759</v>
       </c>
       <c r="C59" t="n">
-        <v>49.6427205759</v>
+        <v>54.3768719282</v>
       </c>
       <c r="D59" t="n">
-        <v>54.3768719282</v>
+        <v>44.5848963084</v>
       </c>
       <c r="E59" t="n">
-        <v>44.5848963084</v>
+        <v>54.5120076367</v>
       </c>
       <c r="F59" t="n">
-        <v>54.5120076367</v>
-      </c>
-      <c r="G59" t="n">
         <v>57.0825850569</v>
       </c>
     </row>
@@ -10152,22 +9975,19 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" t="s">
-        <v>6</v>
+      <c r="B60" t="n">
+        <v>36.0392002036</v>
       </c>
       <c r="C60" t="n">
-        <v>36.0392002036</v>
+        <v>51.5993693846</v>
       </c>
       <c r="D60" t="n">
-        <v>51.5993693846</v>
+        <v>42.7831059905</v>
       </c>
       <c r="E60" t="n">
-        <v>42.7831059905</v>
+        <v>38.3983361885</v>
       </c>
       <c r="F60" t="n">
-        <v>38.3983361885</v>
-      </c>
-      <c r="G60" t="n">
         <v>44.9080690866</v>
       </c>
     </row>
@@ -10175,22 +9995,19 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="s">
-        <v>6</v>
+      <c r="B61" t="n">
+        <v>34.9814353193</v>
       </c>
       <c r="C61" t="n">
-        <v>34.9814353193</v>
+        <v>38.7172981005</v>
       </c>
       <c r="D61" t="n">
-        <v>38.7172981005</v>
+        <v>40.8244165476</v>
       </c>
       <c r="E61" t="n">
-        <v>40.8244165476</v>
+        <v>41.1920370665</v>
       </c>
       <c r="F61" t="n">
-        <v>41.1920370665</v>
-      </c>
-      <c r="G61" t="n">
         <v>42.9967853491</v>
       </c>
     </row>
@@ -10198,22 +10015,19 @@
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="s">
-        <v>6</v>
+      <c r="B62" t="n">
+        <v>19.5911810868</v>
       </c>
       <c r="C62" t="n">
-        <v>19.5911810868</v>
+        <v>24.8552156429</v>
       </c>
       <c r="D62" t="n">
-        <v>24.8552156429</v>
+        <v>26.177818646</v>
       </c>
       <c r="E62" t="n">
-        <v>26.177818646</v>
+        <v>34.3592580092</v>
       </c>
       <c r="F62" t="n">
-        <v>34.3592580092</v>
-      </c>
-      <c r="G62" t="n">
         <v>39.0206388701</v>
       </c>
     </row>
@@ -10221,20 +10035,17 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" t="s">
-        <v>6</v>
+      <c r="B63" t="n">
+        <v>41.3470604245</v>
       </c>
       <c r="C63" t="n">
-        <v>41.3470604245</v>
-      </c>
-      <c r="D63" t="n">
         <v>46.2632535505</v>
       </c>
-      <c r="E63"/>
+      <c r="D63"/>
+      <c r="E63" t="n">
+        <v>39.0646433036</v>
+      </c>
       <c r="F63" t="n">
-        <v>39.0646433036</v>
-      </c>
-      <c r="G63" t="n">
         <v>46.7673245216</v>
       </c>
     </row>
@@ -10242,41 +10053,35 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="s">
-        <v>6</v>
+      <c r="B64" t="n">
+        <v>25.373234666</v>
       </c>
       <c r="C64" t="n">
-        <v>25.373234666</v>
+        <v>26.6990619917</v>
       </c>
       <c r="D64" t="n">
-        <v>26.6990619917</v>
-      </c>
-      <c r="E64" t="n">
         <v>25.3439888065</v>
       </c>
+      <c r="E64"/>
       <c r="F64"/>
-      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" t="s">
-        <v>6</v>
+      <c r="B65" t="n">
+        <v>32.3600185259</v>
       </c>
       <c r="C65" t="n">
-        <v>32.3600185259</v>
+        <v>38.1432538174</v>
       </c>
       <c r="D65" t="n">
-        <v>38.1432538174</v>
+        <v>38.6508813072</v>
       </c>
       <c r="E65" t="n">
-        <v>38.6508813072</v>
+        <v>39.9266790509</v>
       </c>
       <c r="F65" t="n">
-        <v>39.9266790509</v>
-      </c>
-      <c r="G65" t="n">
         <v>41.2609883048</v>
       </c>
     </row>
@@ -10284,22 +10089,19 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" t="s">
-        <v>6</v>
+      <c r="B66" t="n">
+        <v>38.1654395749</v>
       </c>
       <c r="C66" t="n">
-        <v>38.1654395749</v>
+        <v>39.0735852797</v>
       </c>
       <c r="D66" t="n">
-        <v>39.0735852797</v>
+        <v>49.9733459788</v>
       </c>
       <c r="E66" t="n">
         <v>49.9733459788</v>
       </c>
       <c r="F66" t="n">
-        <v>49.9733459788</v>
-      </c>
-      <c r="G66" t="n">
         <v>52.3269330788</v>
       </c>
     </row>
@@ -10307,22 +10109,19 @@
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" t="s">
-        <v>6</v>
+      <c r="B67" t="n">
+        <v>23.5820371315</v>
       </c>
       <c r="C67" t="n">
-        <v>23.5820371315</v>
+        <v>31.4572999972</v>
       </c>
       <c r="D67" t="n">
-        <v>31.4572999972</v>
+        <v>31.947003172</v>
       </c>
       <c r="E67" t="n">
-        <v>31.947003172</v>
+        <v>31.2438836443</v>
       </c>
       <c r="F67" t="n">
-        <v>31.2438836443</v>
-      </c>
-      <c r="G67" t="n">
         <v>31.0281984723</v>
       </c>
     </row>
@@ -10330,22 +10129,19 @@
       <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" t="s">
-        <v>6</v>
+      <c r="B68" t="n">
+        <v>26.2042893203</v>
       </c>
       <c r="C68" t="n">
-        <v>26.2042893203</v>
+        <v>34.4581586531</v>
       </c>
       <c r="D68" t="n">
-        <v>34.4581586531</v>
+        <v>35.9196031368</v>
       </c>
       <c r="E68" t="n">
-        <v>35.9196031368</v>
+        <v>40.0918771091</v>
       </c>
       <c r="F68" t="n">
-        <v>40.0918771091</v>
-      </c>
-      <c r="G68" t="n">
         <v>44.0470529913</v>
       </c>
     </row>
@@ -10353,22 +10149,19 @@
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" t="s">
-        <v>6</v>
+      <c r="B69" t="n">
+        <v>41.4387813107</v>
       </c>
       <c r="C69" t="n">
-        <v>41.4387813107</v>
+        <v>42.250529805</v>
       </c>
       <c r="D69" t="n">
-        <v>42.250529805</v>
+        <v>38.8573879915</v>
       </c>
       <c r="E69" t="n">
-        <v>38.8573879915</v>
+        <v>43.3725701409</v>
       </c>
       <c r="F69" t="n">
-        <v>43.3725701409</v>
-      </c>
-      <c r="G69" t="n">
         <v>45.7294362854</v>
       </c>
     </row>
@@ -10376,22 +10169,19 @@
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" t="s">
-        <v>6</v>
+      <c r="B70" t="n">
+        <v>31.3793739976</v>
       </c>
       <c r="C70" t="n">
-        <v>31.3793739976</v>
+        <v>30.6590622491</v>
       </c>
       <c r="D70" t="n">
-        <v>30.6590622491</v>
+        <v>23.9804244274</v>
       </c>
       <c r="E70" t="n">
-        <v>23.9804244274</v>
+        <v>30.1923512198</v>
       </c>
       <c r="F70" t="n">
-        <v>30.1923512198</v>
-      </c>
-      <c r="G70" t="n">
         <v>34.403810356</v>
       </c>
     </row>
@@ -10399,22 +10189,19 @@
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" t="s">
-        <v>6</v>
+      <c r="B71" t="n">
+        <v>35.9697909861</v>
       </c>
       <c r="C71" t="n">
-        <v>35.9697909861</v>
+        <v>39.9175918285</v>
       </c>
       <c r="D71" t="n">
-        <v>39.9175918285</v>
+        <v>34.3390286907</v>
       </c>
       <c r="E71" t="n">
-        <v>34.3390286907</v>
+        <v>46.8608603578</v>
       </c>
       <c r="F71" t="n">
-        <v>46.8608603578</v>
-      </c>
-      <c r="G71" t="n">
         <v>47.8416745743</v>
       </c>
     </row>
@@ -10422,20 +10209,17 @@
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72"/>
+      <c r="B72"/>
+      <c r="C72" t="n">
+        <v>35.7575277792</v>
+      </c>
       <c r="D72" t="n">
-        <v>35.7575277792</v>
+        <v>39.1922607965</v>
       </c>
       <c r="E72" t="n">
-        <v>39.1922607965</v>
+        <v>41.7200894218</v>
       </c>
       <c r="F72" t="n">
-        <v>41.7200894218</v>
-      </c>
-      <c r="G72" t="n">
         <v>40.5092768401</v>
       </c>
     </row>
@@ -10443,20 +10227,17 @@
       <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73"/>
+      <c r="B73"/>
+      <c r="C73" t="n">
+        <v>40.901556586</v>
+      </c>
       <c r="D73" t="n">
-        <v>40.901556586</v>
+        <v>38.6026386115</v>
       </c>
       <c r="E73" t="n">
-        <v>38.6026386115</v>
+        <v>46.5704617668</v>
       </c>
       <c r="F73" t="n">
-        <v>46.5704617668</v>
-      </c>
-      <c r="G73" t="n">
         <v>48.1084553333</v>
       </c>
     </row>
@@ -10464,22 +10245,19 @@
       <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B74" t="s">
-        <v>6</v>
+      <c r="B74" t="n">
+        <v>24.9976259874</v>
       </c>
       <c r="C74" t="n">
-        <v>24.9976259874</v>
+        <v>23.4329204138</v>
       </c>
       <c r="D74" t="n">
-        <v>23.4329204138</v>
+        <v>35.1523720374</v>
       </c>
       <c r="E74" t="n">
-        <v>35.1523720374</v>
+        <v>36.018986647</v>
       </c>
       <c r="F74" t="n">
-        <v>36.018986647</v>
-      </c>
-      <c r="G74" t="n">
         <v>37.0703551056</v>
       </c>
     </row>
@@ -10487,22 +10265,19 @@
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" t="s">
-        <v>6</v>
+      <c r="B75" t="n">
+        <v>46.9674975767</v>
       </c>
       <c r="C75" t="n">
-        <v>46.9674975767</v>
+        <v>46.158805787</v>
       </c>
       <c r="D75" t="n">
-        <v>46.158805787</v>
+        <v>42.205706727</v>
       </c>
       <c r="E75" t="n">
-        <v>42.205706727</v>
+        <v>40.9806411456</v>
       </c>
       <c r="F75" t="n">
-        <v>40.9806411456</v>
-      </c>
-      <c r="G75" t="n">
         <v>50.4036309318</v>
       </c>
     </row>
@@ -10510,22 +10285,19 @@
       <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="s">
-        <v>6</v>
+      <c r="B76" t="n">
+        <v>45.42664328</v>
       </c>
       <c r="C76" t="n">
-        <v>45.42664328</v>
+        <v>45.7458865804</v>
       </c>
       <c r="D76" t="n">
-        <v>45.7458865804</v>
+        <v>43.1503007186</v>
       </c>
       <c r="E76" t="n">
-        <v>43.1503007186</v>
+        <v>60.6338411781</v>
       </c>
       <c r="F76" t="n">
-        <v>60.6338411781</v>
-      </c>
-      <c r="G76" t="n">
         <v>62.3771544014</v>
       </c>
     </row>
@@ -10533,22 +10305,19 @@
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="s">
-        <v>6</v>
+      <c r="B77" t="n">
+        <v>45.4366938375</v>
       </c>
       <c r="C77" t="n">
-        <v>45.4366938375</v>
+        <v>45.3440966359</v>
       </c>
       <c r="D77" t="n">
-        <v>45.3440966359</v>
+        <v>52.3073689391</v>
       </c>
       <c r="E77" t="n">
-        <v>52.3073689391</v>
+        <v>59.8573979084</v>
       </c>
       <c r="F77" t="n">
-        <v>59.8573979084</v>
-      </c>
-      <c r="G77" t="n">
         <v>60.2983908698</v>
       </c>
     </row>
@@ -10556,20 +10325,17 @@
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78"/>
+      <c r="B78"/>
+      <c r="C78" t="n">
+        <v>41.2109440039</v>
+      </c>
       <c r="D78" t="n">
-        <v>41.2109440039</v>
+        <v>32.5624679924</v>
       </c>
       <c r="E78" t="n">
-        <v>32.5624679924</v>
+        <v>44.5196315188</v>
       </c>
       <c r="F78" t="n">
-        <v>44.5196315188</v>
-      </c>
-      <c r="G78" t="n">
         <v>45.5117260753</v>
       </c>
     </row>
@@ -10577,22 +10343,19 @@
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79" t="s">
-        <v>6</v>
+      <c r="B79" t="n">
+        <v>48.2794797262</v>
       </c>
       <c r="C79" t="n">
-        <v>48.2794797262</v>
+        <v>50.3714076414</v>
       </c>
       <c r="D79" t="n">
-        <v>50.3714076414</v>
+        <v>48.3772610677</v>
       </c>
       <c r="E79" t="n">
-        <v>48.3772610677</v>
+        <v>42.4345620959</v>
       </c>
       <c r="F79" t="n">
-        <v>42.4345620959</v>
-      </c>
-      <c r="G79" t="n">
         <v>51.5810705199</v>
       </c>
     </row>
@@ -10600,20 +10363,17 @@
       <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80"/>
+      <c r="B80"/>
+      <c r="C80" t="n">
+        <v>24.4402701396</v>
+      </c>
       <c r="D80" t="n">
-        <v>24.4402701396</v>
+        <v>17.3447955729</v>
       </c>
       <c r="E80" t="n">
-        <v>17.3447955729</v>
+        <v>25.4096811745</v>
       </c>
       <c r="F80" t="n">
-        <v>25.4096811745</v>
-      </c>
-      <c r="G80" t="n">
         <v>25.9044447721</v>
       </c>
     </row>
@@ -10621,22 +10381,19 @@
       <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81" t="s">
-        <v>6</v>
+      <c r="B81" t="n">
+        <v>56.5719544143</v>
       </c>
       <c r="C81" t="n">
-        <v>56.5719544143</v>
+        <v>54.9111161001</v>
       </c>
       <c r="D81" t="n">
-        <v>54.9111161001</v>
+        <v>55.1704546613</v>
       </c>
       <c r="E81" t="n">
-        <v>55.1704546613</v>
+        <v>57.1564092885</v>
       </c>
       <c r="F81" t="n">
-        <v>57.1564092885</v>
-      </c>
-      <c r="G81" t="n">
         <v>58.9343222995</v>
       </c>
     </row>
@@ -10644,22 +10401,19 @@
       <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82" t="s">
-        <v>6</v>
+      <c r="B82" t="n">
+        <v>33.637581338</v>
       </c>
       <c r="C82" t="n">
-        <v>33.637581338</v>
+        <v>22.0725231666</v>
       </c>
       <c r="D82" t="n">
-        <v>22.0725231666</v>
+        <v>28.0747333992</v>
       </c>
       <c r="E82" t="n">
-        <v>28.0747333992</v>
+        <v>37.8184759417</v>
       </c>
       <c r="F82" t="n">
-        <v>37.8184759417</v>
-      </c>
-      <c r="G82" t="n">
         <v>45.2867112533</v>
       </c>
     </row>
@@ -10667,22 +10421,19 @@
       <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83" t="s">
-        <v>6</v>
+      <c r="B83" t="n">
+        <v>17.8833337655</v>
       </c>
       <c r="C83" t="n">
-        <v>17.8833337655</v>
+        <v>20.9767861707</v>
       </c>
       <c r="D83" t="n">
-        <v>20.9767861707</v>
+        <v>25.5103943705</v>
       </c>
       <c r="E83" t="n">
-        <v>25.5103943705</v>
+        <v>26.8262519827</v>
       </c>
       <c r="F83" t="n">
-        <v>26.8262519827</v>
-      </c>
-      <c r="G83" t="n">
         <v>29.709158366</v>
       </c>
     </row>
@@ -10690,20 +10441,17 @@
       <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" t="n">
+      <c r="B84" t="n">
         <v>34.6255613358</v>
       </c>
-      <c r="D84"/>
+      <c r="C84"/>
+      <c r="D84" t="n">
+        <v>39.1806651601</v>
+      </c>
       <c r="E84" t="n">
-        <v>39.1806651601</v>
+        <v>35.5829567068</v>
       </c>
       <c r="F84" t="n">
-        <v>35.5829567068</v>
-      </c>
-      <c r="G84" t="n">
         <v>44.1985523849</v>
       </c>
     </row>
@@ -10711,22 +10459,19 @@
       <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85" t="s">
-        <v>6</v>
+      <c r="B85" t="n">
+        <v>42.213007959</v>
       </c>
       <c r="C85" t="n">
-        <v>42.213007959</v>
+        <v>36.766257638</v>
       </c>
       <c r="D85" t="n">
-        <v>36.766257638</v>
+        <v>39.9137969744</v>
       </c>
       <c r="E85" t="n">
-        <v>39.9137969744</v>
+        <v>38.1537041382</v>
       </c>
       <c r="F85" t="n">
-        <v>38.1537041382</v>
-      </c>
-      <c r="G85" t="n">
         <v>40.9243473047</v>
       </c>
     </row>
@@ -10734,20 +10479,17 @@
       <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86"/>
+      <c r="B86"/>
+      <c r="C86" t="n">
+        <v>50.4822756912</v>
+      </c>
       <c r="D86" t="n">
-        <v>50.4822756912</v>
+        <v>49.3470241896</v>
       </c>
       <c r="E86" t="n">
-        <v>49.3470241896</v>
+        <v>48.2370543799</v>
       </c>
       <c r="F86" t="n">
-        <v>48.2370543799</v>
-      </c>
-      <c r="G86" t="n">
         <v>52.7402628134</v>
       </c>
     </row>
@@ -10755,22 +10497,19 @@
       <c r="A87" t="s">
         <v>91</v>
       </c>
-      <c r="B87" t="s">
-        <v>6</v>
+      <c r="B87" t="n">
+        <v>31.3458684211</v>
       </c>
       <c r="C87" t="n">
-        <v>31.3458684211</v>
+        <v>40.7071480012</v>
       </c>
       <c r="D87" t="n">
-        <v>40.7071480012</v>
+        <v>40.9001713325</v>
       </c>
       <c r="E87" t="n">
-        <v>40.9001713325</v>
+        <v>49.5992383173</v>
       </c>
       <c r="F87" t="n">
-        <v>49.5992383173</v>
-      </c>
-      <c r="G87" t="n">
         <v>54.3666198656</v>
       </c>
     </row>
@@ -10778,22 +10517,19 @@
       <c r="A88" t="s">
         <v>92</v>
       </c>
-      <c r="B88" t="s">
-        <v>6</v>
+      <c r="B88" t="n">
+        <v>51.7881607957</v>
       </c>
       <c r="C88" t="n">
-        <v>51.7881607957</v>
+        <v>58.7937623095</v>
       </c>
       <c r="D88" t="n">
-        <v>58.7937623095</v>
+        <v>52.4221714137</v>
       </c>
       <c r="E88" t="n">
-        <v>52.4221714137</v>
+        <v>58.3011512103</v>
       </c>
       <c r="F88" t="n">
-        <v>58.3011512103</v>
-      </c>
-      <c r="G88" t="n">
         <v>60.5110695448</v>
       </c>
     </row>
@@ -10801,22 +10537,19 @@
       <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="B89" t="s">
-        <v>6</v>
+      <c r="B89" t="n">
+        <v>48.6563018301</v>
       </c>
       <c r="C89" t="n">
-        <v>48.6563018301</v>
+        <v>52.6080813459</v>
       </c>
       <c r="D89" t="n">
-        <v>52.6080813459</v>
+        <v>41.3136862893</v>
       </c>
       <c r="E89" t="n">
-        <v>41.3136862893</v>
+        <v>40.9591597145</v>
       </c>
       <c r="F89" t="n">
-        <v>40.9591597145</v>
-      </c>
-      <c r="G89" t="n">
         <v>46.5751484293</v>
       </c>
     </row>
@@ -10824,20 +10557,17 @@
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90"/>
+      <c r="B90"/>
+      <c r="C90" t="n">
+        <v>64.3679353864</v>
+      </c>
       <c r="D90" t="n">
-        <v>64.3679353864</v>
+        <v>59.4648386205</v>
       </c>
       <c r="E90" t="n">
-        <v>59.4648386205</v>
+        <v>53.9068825876</v>
       </c>
       <c r="F90" t="n">
-        <v>53.9068825876</v>
-      </c>
-      <c r="G90" t="n">
         <v>56.0377072911</v>
       </c>
     </row>
@@ -10845,22 +10575,19 @@
       <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B91" t="s">
-        <v>6</v>
+      <c r="B91" t="n">
+        <v>46.2993343675</v>
       </c>
       <c r="C91" t="n">
-        <v>46.2993343675</v>
+        <v>47.9607567881</v>
       </c>
       <c r="D91" t="n">
-        <v>47.9607567881</v>
+        <v>42.9139924501</v>
       </c>
       <c r="E91" t="n">
-        <v>42.9139924501</v>
+        <v>43.3452945199</v>
       </c>
       <c r="F91" t="n">
-        <v>43.3452945199</v>
-      </c>
-      <c r="G91" t="n">
         <v>46.9597515395</v>
       </c>
     </row>
@@ -10868,22 +10595,19 @@
       <c r="A92" t="s">
         <v>96</v>
       </c>
-      <c r="B92" t="s">
-        <v>6</v>
+      <c r="B92" t="n">
+        <v>48.5481892051</v>
       </c>
       <c r="C92" t="n">
-        <v>48.5481892051</v>
+        <v>50.802175267</v>
       </c>
       <c r="D92" t="n">
-        <v>50.802175267</v>
+        <v>47.3025149708</v>
       </c>
       <c r="E92" t="n">
-        <v>47.3025149708</v>
+        <v>51.5360627897</v>
       </c>
       <c r="F92" t="n">
-        <v>51.5360627897</v>
-      </c>
-      <c r="G92" t="n">
         <v>50.3736590538</v>
       </c>
     </row>
@@ -10891,22 +10615,19 @@
       <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B93" t="s">
-        <v>6</v>
+      <c r="B93" t="n">
+        <v>49.3767014073</v>
       </c>
       <c r="C93" t="n">
-        <v>49.3767014073</v>
+        <v>52.7283939981</v>
       </c>
       <c r="D93" t="n">
-        <v>52.7283939981</v>
+        <v>46.6358767172</v>
       </c>
       <c r="E93" t="n">
-        <v>46.6358767172</v>
+        <v>52.1176067618</v>
       </c>
       <c r="F93" t="n">
-        <v>52.1176067618</v>
-      </c>
-      <c r="G93" t="n">
         <v>54.6013720192</v>
       </c>
     </row>
@@ -10914,22 +10635,19 @@
       <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B94" t="s">
-        <v>6</v>
+      <c r="B94" t="n">
+        <v>48.0042384436</v>
       </c>
       <c r="C94" t="n">
-        <v>48.0042384436</v>
+        <v>44.5196462299</v>
       </c>
       <c r="D94" t="n">
-        <v>44.5196462299</v>
+        <v>42.725159191</v>
       </c>
       <c r="E94" t="n">
-        <v>42.725159191</v>
+        <v>53.0999496532</v>
       </c>
       <c r="F94" t="n">
-        <v>53.0999496532</v>
-      </c>
-      <c r="G94" t="n">
         <v>54.6626118829</v>
       </c>
     </row>
@@ -10937,20 +10655,17 @@
       <c r="A95" t="s">
         <v>99</v>
       </c>
-      <c r="B95" t="s">
-        <v>6</v>
+      <c r="B95" t="n">
+        <v>37.4785817579</v>
       </c>
       <c r="C95" t="n">
-        <v>37.4785817579</v>
-      </c>
-      <c r="D95" t="n">
         <v>36.1806416196</v>
       </c>
-      <c r="E95"/>
+      <c r="D95"/>
+      <c r="E95" t="n">
+        <v>41.0710624727</v>
+      </c>
       <c r="F95" t="n">
-        <v>41.0710624727</v>
-      </c>
-      <c r="G95" t="n">
         <v>49.6955245634</v>
       </c>
     </row>
@@ -10958,20 +10673,17 @@
       <c r="A96" t="s">
         <v>100</v>
       </c>
-      <c r="B96" t="s">
-        <v>6</v>
+      <c r="B96" t="n">
+        <v>58.7578276738</v>
       </c>
       <c r="C96" t="n">
-        <v>58.7578276738</v>
-      </c>
-      <c r="D96" t="n">
         <v>64.3279065692</v>
       </c>
-      <c r="E96"/>
+      <c r="D96"/>
+      <c r="E96" t="n">
+        <v>55.4514807894</v>
+      </c>
       <c r="F96" t="n">
-        <v>55.4514807894</v>
-      </c>
-      <c r="G96" t="n">
         <v>59.7015196228</v>
       </c>
     </row>
@@ -10979,18 +10691,15 @@
       <c r="A97" t="s">
         <v>101</v>
       </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="B97" t="n">
         <v>50.4286547413</v>
       </c>
+      <c r="C97"/>
       <c r="D97"/>
-      <c r="E97"/>
+      <c r="E97" t="n">
+        <v>59.458502063</v>
+      </c>
       <c r="F97" t="n">
-        <v>59.458502063</v>
-      </c>
-      <c r="G97" t="n">
         <v>59.4825900235</v>
       </c>
     </row>
@@ -10998,20 +10707,17 @@
       <c r="A98" t="s">
         <v>102</v>
       </c>
-      <c r="B98" t="s">
-        <v>6</v>
+      <c r="B98" t="n">
+        <v>51.6122817877</v>
       </c>
       <c r="C98" t="n">
-        <v>51.6122817877</v>
-      </c>
-      <c r="D98" t="n">
         <v>58.4845121137</v>
       </c>
-      <c r="E98"/>
+      <c r="D98"/>
+      <c r="E98" t="n">
+        <v>59.9186842868</v>
+      </c>
       <c r="F98" t="n">
-        <v>59.9186842868</v>
-      </c>
-      <c r="G98" t="n">
         <v>63.0311481407</v>
       </c>
     </row>
@@ -11019,22 +10725,19 @@
       <c r="A99" t="s">
         <v>103</v>
       </c>
-      <c r="B99" t="s">
-        <v>6</v>
+      <c r="B99" t="n">
+        <v>42.9934437833</v>
       </c>
       <c r="C99" t="n">
-        <v>42.9934437833</v>
+        <v>51.3027701254</v>
       </c>
       <c r="D99" t="n">
-        <v>51.3027701254</v>
+        <v>49.8203807338</v>
       </c>
       <c r="E99" t="n">
-        <v>49.8203807338</v>
+        <v>54.4232873101</v>
       </c>
       <c r="F99" t="n">
-        <v>54.4232873101</v>
-      </c>
-      <c r="G99" t="n">
         <v>60.0925975746</v>
       </c>
     </row>
@@ -11042,22 +10745,19 @@
       <c r="A100" t="s">
         <v>104</v>
       </c>
-      <c r="B100" t="s">
-        <v>6</v>
+      <c r="B100" t="n">
+        <v>48.1078251471</v>
       </c>
       <c r="C100" t="n">
-        <v>48.1078251471</v>
+        <v>48.4304908493</v>
       </c>
       <c r="D100" t="n">
-        <v>48.4304908493</v>
+        <v>45.5593461351</v>
       </c>
       <c r="E100" t="n">
-        <v>45.5593461351</v>
+        <v>55.6580557826</v>
       </c>
       <c r="F100" t="n">
-        <v>55.6580557826</v>
-      </c>
-      <c r="G100" t="n">
         <v>57.5718583805</v>
       </c>
     </row>
@@ -11065,22 +10765,19 @@
       <c r="A101" t="s">
         <v>105</v>
       </c>
-      <c r="B101" t="s">
-        <v>6</v>
+      <c r="B101" t="n">
+        <v>38.4159728607</v>
       </c>
       <c r="C101" t="n">
-        <v>38.4159728607</v>
+        <v>42.4922494315</v>
       </c>
       <c r="D101" t="n">
-        <v>42.4922494315</v>
+        <v>42.821292494</v>
       </c>
       <c r="E101" t="n">
-        <v>42.821292494</v>
+        <v>43.4083703627</v>
       </c>
       <c r="F101" t="n">
-        <v>43.4083703627</v>
-      </c>
-      <c r="G101" t="n">
         <v>42.7628367093</v>
       </c>
     </row>
@@ -11088,22 +10785,19 @@
       <c r="A102" t="s">
         <v>106</v>
       </c>
-      <c r="B102" t="s">
-        <v>6</v>
+      <c r="B102" t="n">
+        <v>26.7234500882</v>
       </c>
       <c r="C102" t="n">
-        <v>26.7234500882</v>
+        <v>30.9273016241</v>
       </c>
       <c r="D102" t="n">
-        <v>30.9273016241</v>
+        <v>27.6034382773</v>
       </c>
       <c r="E102" t="n">
-        <v>27.6034382773</v>
+        <v>29.7055751422</v>
       </c>
       <c r="F102" t="n">
-        <v>29.7055751422</v>
-      </c>
-      <c r="G102" t="n">
         <v>34.65002163</v>
       </c>
     </row>
@@ -11111,22 +10805,19 @@
       <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103" t="s">
-        <v>6</v>
+      <c r="B103" t="n">
+        <v>49.7844579343</v>
       </c>
       <c r="C103" t="n">
-        <v>49.7844579343</v>
+        <v>57.6773658846</v>
       </c>
       <c r="D103" t="n">
-        <v>57.6773658846</v>
+        <v>49.9374324301</v>
       </c>
       <c r="E103" t="n">
-        <v>49.9374324301</v>
+        <v>53.1236227274</v>
       </c>
       <c r="F103" t="n">
-        <v>53.1236227274</v>
-      </c>
-      <c r="G103" t="n">
         <v>55.0389267745</v>
       </c>
     </row>
@@ -11134,22 +10825,19 @@
       <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104" t="s">
-        <v>6</v>
+      <c r="B104" t="n">
+        <v>47.3074177281</v>
       </c>
       <c r="C104" t="n">
-        <v>47.3074177281</v>
+        <v>52.1856444977</v>
       </c>
       <c r="D104" t="n">
-        <v>52.1856444977</v>
+        <v>49.4991857839</v>
       </c>
       <c r="E104" t="n">
-        <v>49.4991857839</v>
+        <v>56.9964170745</v>
       </c>
       <c r="F104" t="n">
-        <v>56.9964170745</v>
-      </c>
-      <c r="G104" t="n">
         <v>59.2971103729</v>
       </c>
     </row>
@@ -11157,22 +10845,19 @@
       <c r="A105" t="s">
         <v>109</v>
       </c>
-      <c r="B105" t="s">
-        <v>6</v>
+      <c r="B105" t="n">
+        <v>41.6891788901</v>
       </c>
       <c r="C105" t="n">
-        <v>41.6891788901</v>
+        <v>39.8230600614</v>
       </c>
       <c r="D105" t="n">
-        <v>39.8230600614</v>
+        <v>41.0763768819</v>
       </c>
       <c r="E105" t="n">
-        <v>41.0763768819</v>
+        <v>44.7956382858</v>
       </c>
       <c r="F105" t="n">
-        <v>44.7956382858</v>
-      </c>
-      <c r="G105" t="n">
         <v>46.9322794966</v>
       </c>
     </row>
@@ -11180,22 +10865,19 @@
       <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B106" t="s">
-        <v>6</v>
+      <c r="B106" t="n">
+        <v>38.267471012</v>
       </c>
       <c r="C106" t="n">
-        <v>38.267471012</v>
+        <v>41.6354909622</v>
       </c>
       <c r="D106" t="n">
-        <v>41.6354909622</v>
+        <v>42.2044926778</v>
       </c>
       <c r="E106" t="n">
-        <v>42.2044926778</v>
+        <v>45.8754836204</v>
       </c>
       <c r="F106" t="n">
-        <v>45.8754836204</v>
-      </c>
-      <c r="G106" t="n">
         <v>46.6740533308</v>
       </c>
     </row>
@@ -11203,22 +10885,19 @@
       <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B107" t="s">
-        <v>6</v>
+      <c r="B107" t="n">
+        <v>40.6121894896</v>
       </c>
       <c r="C107" t="n">
-        <v>40.6121894896</v>
+        <v>43.5418415763</v>
       </c>
       <c r="D107" t="n">
-        <v>43.5418415763</v>
+        <v>39.207960389</v>
       </c>
       <c r="E107" t="n">
-        <v>39.207960389</v>
+        <v>43.4916380472</v>
       </c>
       <c r="F107" t="n">
-        <v>43.4916380472</v>
-      </c>
-      <c r="G107" t="n">
         <v>45.943625314</v>
       </c>
     </row>
@@ -11226,22 +10905,19 @@
       <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B108" t="s">
-        <v>6</v>
+      <c r="B108" t="n">
+        <v>41.7330870333</v>
       </c>
       <c r="C108" t="n">
-        <v>41.7330870333</v>
+        <v>38.6503000005</v>
       </c>
       <c r="D108" t="n">
-        <v>38.6503000005</v>
+        <v>40.2000028969</v>
       </c>
       <c r="E108" t="n">
-        <v>40.2000028969</v>
+        <v>43.282858914</v>
       </c>
       <c r="F108" t="n">
-        <v>43.282858914</v>
-      </c>
-      <c r="G108" t="n">
         <v>46.9253974284</v>
       </c>
     </row>
@@ -11249,22 +10925,19 @@
       <c r="A109" t="s">
         <v>113</v>
       </c>
-      <c r="B109" t="s">
-        <v>6</v>
+      <c r="B109" t="n">
+        <v>57.9819324675</v>
       </c>
       <c r="C109" t="n">
-        <v>57.9819324675</v>
+        <v>65.724905606</v>
       </c>
       <c r="D109" t="n">
-        <v>65.724905606</v>
+        <v>60.7903135082</v>
       </c>
       <c r="E109" t="n">
-        <v>60.7903135082</v>
+        <v>62.1880850024</v>
       </c>
       <c r="F109" t="n">
-        <v>62.1880850024</v>
-      </c>
-      <c r="G109" t="n">
         <v>65.2549924923</v>
       </c>
     </row>
@@ -11272,22 +10945,19 @@
       <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B110" t="s">
-        <v>6</v>
+      <c r="B110" t="n">
+        <v>34.5661468193</v>
       </c>
       <c r="C110" t="n">
-        <v>34.5661468193</v>
+        <v>32.8094842038</v>
       </c>
       <c r="D110" t="n">
-        <v>32.8094842038</v>
+        <v>30.8996061102</v>
       </c>
       <c r="E110" t="n">
-        <v>30.8996061102</v>
+        <v>32.8671937389</v>
       </c>
       <c r="F110" t="n">
-        <v>32.8671937389</v>
-      </c>
-      <c r="G110" t="n">
         <v>34.2482607961</v>
       </c>
     </row>
@@ -11295,22 +10965,19 @@
       <c r="A111" t="s">
         <v>115</v>
       </c>
-      <c r="B111" t="s">
-        <v>6</v>
+      <c r="B111" t="n">
+        <v>38.0585731639</v>
       </c>
       <c r="C111" t="n">
-        <v>38.0585731639</v>
+        <v>43.2178350239</v>
       </c>
       <c r="D111" t="n">
-        <v>43.2178350239</v>
+        <v>42.44261078</v>
       </c>
       <c r="E111" t="n">
-        <v>42.44261078</v>
+        <v>47.0806690128</v>
       </c>
       <c r="F111" t="n">
-        <v>47.0806690128</v>
-      </c>
-      <c r="G111" t="n">
         <v>49.9749725875</v>
       </c>
     </row>
@@ -11318,20 +10985,17 @@
       <c r="A112" t="s">
         <v>116</v>
       </c>
-      <c r="B112" t="s">
-        <v>6</v>
+      <c r="B112" t="n">
+        <v>59.3197453449</v>
       </c>
       <c r="C112" t="n">
-        <v>59.3197453449</v>
-      </c>
-      <c r="D112" t="n">
         <v>59.946186777</v>
       </c>
-      <c r="E112"/>
+      <c r="D112"/>
+      <c r="E112" t="n">
+        <v>64.1658687317</v>
+      </c>
       <c r="F112" t="n">
-        <v>64.1658687317</v>
-      </c>
-      <c r="G112" t="n">
         <v>64.3498081439</v>
       </c>
     </row>

--- a/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
+++ b/user-data/uganda-educ-percent/uganda-educ-percent.xlsx
@@ -739,7 +739,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 25</t>
+    <t xml:space="preserve">Source: 26</t>
   </si>
   <si>
     <t xml:space="preserve"/>
